--- a/2T1617CR/2T1617 - CITCS-ICS2-CITCS INTL 3.xlsx
+++ b/2T1617CR/2T1617 - CITCS-ICS2-CITCS INTL 3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard Reyes\Desktop\GIT\ClassRecords\2T1617CR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard Reyes\Desktop\ClassRecords\2T1617CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3013,126 +3013,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3144,6 +3028,10 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="6" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3207,6 +3095,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3214,12 +3106,222 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="46" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3253,6 +3355,74 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3281,76 +3451,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="15" fontId="46" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3373,186 +3475,55 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="46" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="46" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3568,74 +3539,61 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3658,12 +3616,126 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3694,109 +3766,37 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="69" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3813,6 +3813,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3839,22 +3855,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="59" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8044,39 +8044,39 @@
   <sheetData>
     <row r="1" spans="2:18" s="24" customFormat="1" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:18" ht="13.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="207"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="209"/>
-      <c r="P2" s="169" t="s">
+      <c r="B2" s="177"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="179"/>
+      <c r="P2" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="169"/>
+      <c r="Q2" s="210"/>
+      <c r="R2" s="210"/>
     </row>
     <row r="3" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="210"/>
-      <c r="C3" s="211"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="212"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
+      <c r="K3" s="181"/>
+      <c r="L3" s="181"/>
+      <c r="M3" s="181"/>
+      <c r="N3" s="182"/>
       <c r="P3" s="27" t="s">
         <v>25</v>
       </c>
@@ -8088,19 +8088,19 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="210"/>
-      <c r="C4" s="211"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="211"/>
-      <c r="F4" s="211"/>
-      <c r="G4" s="211"/>
-      <c r="H4" s="211"/>
-      <c r="I4" s="211"/>
-      <c r="J4" s="211"/>
-      <c r="K4" s="211"/>
-      <c r="L4" s="211"/>
-      <c r="M4" s="211"/>
-      <c r="N4" s="212"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="181"/>
+      <c r="J4" s="181"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="181"/>
+      <c r="M4" s="181"/>
+      <c r="N4" s="182"/>
       <c r="P4" s="27">
         <v>0</v>
       </c>
@@ -8112,19 +8112,19 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="210"/>
-      <c r="C5" s="211"/>
-      <c r="D5" s="211"/>
-      <c r="E5" s="211"/>
-      <c r="F5" s="211"/>
-      <c r="G5" s="211"/>
-      <c r="H5" s="211"/>
-      <c r="I5" s="211"/>
-      <c r="J5" s="211"/>
-      <c r="K5" s="211"/>
-      <c r="L5" s="211"/>
-      <c r="M5" s="211"/>
-      <c r="N5" s="212"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="181"/>
+      <c r="D5" s="181"/>
+      <c r="E5" s="181"/>
+      <c r="F5" s="181"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="181"/>
+      <c r="K5" s="181"/>
+      <c r="L5" s="181"/>
+      <c r="M5" s="181"/>
+      <c r="N5" s="182"/>
       <c r="P5" s="27">
         <v>7</v>
       </c>
@@ -8136,19 +8136,19 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="210"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="212"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181"/>
+      <c r="E6" s="181"/>
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181"/>
+      <c r="J6" s="181"/>
+      <c r="K6" s="181"/>
+      <c r="L6" s="181"/>
+      <c r="M6" s="181"/>
+      <c r="N6" s="182"/>
       <c r="P6" s="27">
         <v>19</v>
       </c>
@@ -8160,19 +8160,19 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="210"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="212"/>
+      <c r="B7" s="180"/>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181"/>
+      <c r="E7" s="181"/>
+      <c r="F7" s="181"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
+      <c r="J7" s="181"/>
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="182"/>
       <c r="P7" s="27">
         <v>31</v>
       </c>
@@ -8184,19 +8184,19 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="210"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
-      <c r="K8" s="211"/>
-      <c r="L8" s="211"/>
-      <c r="M8" s="211"/>
-      <c r="N8" s="212"/>
+      <c r="B8" s="180"/>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181"/>
+      <c r="E8" s="181"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="181"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181"/>
+      <c r="J8" s="181"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="182"/>
       <c r="P8" s="27">
         <v>43</v>
       </c>
@@ -8208,19 +8208,19 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="213"/>
-      <c r="C9" s="214"/>
-      <c r="D9" s="214"/>
-      <c r="E9" s="214"/>
-      <c r="F9" s="214"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="214"/>
-      <c r="I9" s="214"/>
-      <c r="J9" s="214"/>
-      <c r="K9" s="214"/>
-      <c r="L9" s="214"/>
-      <c r="M9" s="214"/>
-      <c r="N9" s="215"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="185"/>
       <c r="P9" s="27">
         <v>50</v>
       </c>
@@ -8233,19 +8233,19 @@
     </row>
     <row r="10" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="29"/>
-      <c r="C10" s="216" t="s">
+      <c r="C10" s="186" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="217"/>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="217"/>
-      <c r="L10" s="217"/>
-      <c r="M10" s="218"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="187"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="187"/>
+      <c r="H10" s="187"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="187"/>
+      <c r="K10" s="187"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="188"/>
       <c r="N10" s="30"/>
       <c r="P10" s="27">
         <v>51.5</v>
@@ -8259,17 +8259,17 @@
     </row>
     <row r="11" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="31"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="202"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="170"/>
+      <c r="E11" s="170"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="171"/>
       <c r="N11" s="32"/>
       <c r="P11" s="27">
         <v>53</v>
@@ -8284,21 +8284,21 @@
     <row r="12" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="31"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="187" t="s">
+      <c r="D12" s="193" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="223"/>
+      <c r="E12" s="194"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="219" t="s">
+      <c r="G12" s="189" t="s">
         <v>240</v>
       </c>
-      <c r="H12" s="222"/>
+      <c r="H12" s="192"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="219" t="s">
+      <c r="J12" s="189" t="s">
         <v>241</v>
       </c>
-      <c r="K12" s="220"/>
-      <c r="L12" s="221"/>
+      <c r="K12" s="190"/>
+      <c r="L12" s="191"/>
       <c r="M12" s="14"/>
       <c r="N12" s="32"/>
       <c r="P12" s="27">
@@ -8314,21 +8314,21 @@
     <row r="13" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="31"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="173" t="s">
+      <c r="D13" s="174" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="174"/>
+      <c r="E13" s="214"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="173" t="s">
+      <c r="G13" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="173"/>
+      <c r="H13" s="174"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="173" t="s">
+      <c r="J13" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="186"/>
-      <c r="L13" s="186"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
       <c r="M13" s="14"/>
       <c r="N13" s="32"/>
       <c r="P13" s="27">
@@ -8344,15 +8344,15 @@
     <row r="14" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="31"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="219" t="s">
+      <c r="D14" s="189" t="s">
         <v>242</v>
       </c>
-      <c r="E14" s="222"/>
+      <c r="E14" s="192"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="219" t="s">
+      <c r="G14" s="189" t="s">
         <v>243</v>
       </c>
-      <c r="H14" s="222"/>
+      <c r="H14" s="192"/>
       <c r="I14" s="5"/>
       <c r="J14" s="167" t="s">
         <v>244</v>
@@ -8376,21 +8376,21 @@
     <row r="15" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="31"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="173" t="s">
+      <c r="D15" s="174" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="185"/>
+      <c r="E15" s="199"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="173" t="s">
+      <c r="G15" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="185"/>
+      <c r="H15" s="199"/>
       <c r="I15" s="5"/>
       <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="224"/>
-      <c r="L15" s="186"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="170"/>
       <c r="M15" s="14"/>
       <c r="N15" s="32"/>
       <c r="P15" s="27">
@@ -8406,21 +8406,21 @@
     <row r="16" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="31"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="187" t="s">
+      <c r="D16" s="193" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="188"/>
+      <c r="E16" s="200"/>
       <c r="F16" s="4"/>
       <c r="G16" s="168">
         <v>2</v>
       </c>
-      <c r="H16" s="179"/>
-      <c r="I16" s="179"/>
-      <c r="J16" s="175" t="s">
+      <c r="H16" s="219"/>
+      <c r="I16" s="219"/>
+      <c r="J16" s="215" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="176"/>
-      <c r="L16" s="177"/>
+      <c r="K16" s="216"/>
+      <c r="L16" s="217"/>
       <c r="M16" s="14"/>
       <c r="N16" s="32"/>
       <c r="P16" s="27">
@@ -8436,21 +8436,21 @@
     <row r="17" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="31"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="173" t="s">
+      <c r="D17" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="197"/>
+      <c r="E17" s="209"/>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="173" t="s">
+      <c r="J17" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="186"/>
-      <c r="L17" s="186"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
       <c r="M17" s="14"/>
       <c r="N17" s="32"/>
       <c r="P17" s="27">
@@ -8466,12 +8466,12 @@
     <row r="18" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="31"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="222"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="183"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -8490,16 +8490,16 @@
     <row r="19" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="31"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="194" t="s">
+      <c r="D19" s="206" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="196"/>
+      <c r="E19" s="208"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="194" t="s">
+      <c r="G19" s="206" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="195"/>
-      <c r="I19" s="195"/>
+      <c r="H19" s="207"/>
+      <c r="I19" s="207"/>
       <c r="J19" s="43" t="str">
         <f>IF(J23="","Prelim","ERROR")</f>
         <v>Prelim</v>
@@ -8527,16 +8527,16 @@
     <row r="20" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="31"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="203">
+      <c r="D20" s="172">
         <v>40575</v>
       </c>
-      <c r="E20" s="204"/>
+      <c r="E20" s="173"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="198" t="s">
+      <c r="G20" s="196" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="199"/>
-      <c r="I20" s="200"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="198"/>
       <c r="J20" s="36">
         <v>0.33</v>
       </c>
@@ -8561,16 +8561,16 @@
     <row r="21" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="31"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="173" t="s">
+      <c r="D21" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="174"/>
+      <c r="E21" s="214"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="198" t="s">
+      <c r="G21" s="196" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="199"/>
-      <c r="I21" s="200"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="198"/>
       <c r="J21" s="36">
         <v>0.33</v>
       </c>
@@ -8595,16 +8595,16 @@
     <row r="22" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="31"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="180">
+      <c r="D22" s="220">
         <v>40603</v>
       </c>
-      <c r="E22" s="181"/>
+      <c r="E22" s="221"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="205" t="s">
+      <c r="G22" s="175" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="206"/>
-      <c r="I22" s="206"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="176"/>
       <c r="J22" s="38">
         <v>0.34</v>
       </c>
@@ -8629,14 +8629,14 @@
     <row r="23" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="31"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="173" t="s">
+      <c r="D23" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="174"/>
+      <c r="E23" s="214"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="218"/>
       <c r="J23" s="10" t="str">
         <f>IF((SUM(J20:J22))=1,"",(SUM(J20:J22))-1)</f>
         <v/>
@@ -8664,16 +8664,16 @@
     <row r="24" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="31"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="180">
+      <c r="D24" s="220">
         <v>40634</v>
       </c>
-      <c r="E24" s="184"/>
+      <c r="E24" s="224"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="194" t="s">
+      <c r="G24" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="195"/>
-      <c r="I24" s="195"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
       <c r="J24" s="44" t="s">
         <v>8</v>
       </c>
@@ -8698,16 +8698,16 @@
     <row r="25" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="31"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="173" t="s">
+      <c r="D25" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="174"/>
+      <c r="E25" s="214"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="189" t="s">
+      <c r="G25" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="190"/>
-      <c r="I25" s="190"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="202"/>
       <c r="J25" s="40">
         <v>0.5</v>
       </c>
@@ -8730,14 +8730,14 @@
     <row r="26" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="31"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="173"/>
-      <c r="E26" s="186"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="170"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="191" t="s">
+      <c r="G26" s="203" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="192"/>
-      <c r="I26" s="193"/>
+      <c r="H26" s="204"/>
+      <c r="I26" s="205"/>
       <c r="J26" s="41">
         <v>0.25</v>
       </c>
@@ -8761,15 +8761,15 @@
     </row>
     <row r="27" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="31"/>
-      <c r="C27" s="171" t="s">
+      <c r="C27" s="212" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="213"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="211"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -11111,30 +11111,6 @@
   </sheetData>
   <sheetProtection password="D04D" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="40">
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B2:N9"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G21:I21"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="C27:E27"/>
@@ -11151,6 +11127,30 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B2:N9"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12141,273 +12141,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="227" t="str">
+      <c r="A1" s="253" t="str">
         <f>CONCATENATE('INITIAL INPUT'!D12,"  ",'INITIAL INPUT'!G12)</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="233" t="s">
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="259" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="234"/>
-      <c r="G1" s="234"/>
-      <c r="H1" s="234"/>
-      <c r="I1" s="235"/>
-      <c r="J1" s="233" t="s">
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="259" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="234"/>
-      <c r="L1" s="234"/>
-      <c r="M1" s="234"/>
-      <c r="N1" s="234"/>
-      <c r="O1" s="235"/>
-      <c r="P1" s="233" t="s">
+      <c r="K1" s="260"/>
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="261"/>
+      <c r="P1" s="259" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" s="234"/>
-      <c r="R1" s="234"/>
-      <c r="S1" s="234"/>
-      <c r="T1" s="234"/>
-      <c r="U1" s="234"/>
-      <c r="V1" s="235"/>
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
+      <c r="S1" s="260"/>
+      <c r="T1" s="260"/>
+      <c r="U1" s="260"/>
+      <c r="V1" s="261"/>
       <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:24" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="230"/>
-      <c r="B2" s="231"/>
-      <c r="C2" s="231"/>
-      <c r="D2" s="232"/>
-      <c r="E2" s="278" t="str">
+      <c r="A2" s="256"/>
+      <c r="B2" s="257"/>
+      <c r="C2" s="257"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="250" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="271" t="str">
+      <c r="F2" s="228" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="G2" s="266" t="s">
+      <c r="G2" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="246" t="s">
+      <c r="H2" s="238" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="275" t="str">
+      <c r="I2" s="247" t="str">
         <f>IF('INITIAL INPUT'!J23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="J2" s="278" t="str">
+      <c r="J2" s="250" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="K2" s="271" t="str">
+      <c r="K2" s="228" t="str">
         <f>F2</f>
         <v>Laboratory</v>
       </c>
-      <c r="L2" s="266" t="str">
+      <c r="L2" s="231" t="str">
         <f>G2</f>
         <v>EXAM</v>
       </c>
-      <c r="M2" s="267" t="s">
+      <c r="M2" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="246" t="s">
+      <c r="N2" s="238" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="275" t="str">
+      <c r="O2" s="247" t="str">
         <f>IF('INITIAL INPUT'!K23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="P2" s="278" t="str">
+      <c r="P2" s="250" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="Q2" s="271" t="str">
+      <c r="Q2" s="228" t="str">
         <f>F2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="266" t="s">
+      <c r="R2" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="267" t="s">
+      <c r="S2" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="T2" s="246" t="s">
+      <c r="T2" s="238" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="275" t="str">
+      <c r="U2" s="247" t="str">
         <f>IF('INITIAL INPUT'!L23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="V2" s="281" t="str">
+      <c r="V2" s="267" t="str">
         <f>IF(U2="INVALID GRADE","INVALID FINAL GRADE","FINAL GRADE (%)")</f>
         <v>FINAL GRADE (%)</v>
       </c>
-      <c r="W2" s="293" t="s">
+      <c r="W2" s="225" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="236" t="str">
+      <c r="A3" s="279" t="str">
         <f>'INITIAL INPUT'!J12</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B3" s="237"/>
-      <c r="C3" s="237"/>
-      <c r="D3" s="238"/>
-      <c r="E3" s="279"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="274"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="279"/>
-      <c r="K3" s="272"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="267"/>
-      <c r="N3" s="274"/>
-      <c r="O3" s="276"/>
-      <c r="P3" s="279"/>
-      <c r="Q3" s="272"/>
-      <c r="R3" s="244"/>
-      <c r="S3" s="267"/>
-      <c r="T3" s="274"/>
-      <c r="U3" s="276"/>
-      <c r="V3" s="282"/>
-      <c r="W3" s="294"/>
+      <c r="B3" s="280"/>
+      <c r="C3" s="280"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="229"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="248"/>
+      <c r="J3" s="251"/>
+      <c r="K3" s="229"/>
+      <c r="L3" s="232"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="248"/>
+      <c r="P3" s="251"/>
+      <c r="Q3" s="229"/>
+      <c r="R3" s="232"/>
+      <c r="S3" s="264"/>
+      <c r="T3" s="246"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="268"/>
+      <c r="W3" s="226"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="239" t="str">
+      <c r="A4" s="282" t="str">
         <f>CONCATENATE('INITIAL INPUT'!D14,"  ",'INITIAL INPUT'!G14)</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="241"/>
+      <c r="B4" s="283"/>
+      <c r="C4" s="284"/>
       <c r="D4" s="103" t="str">
         <f>'INITIAL INPUT'!J14</f>
         <v>M303</v>
       </c>
-      <c r="E4" s="279"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="244"/>
-      <c r="H4" s="274"/>
-      <c r="I4" s="276"/>
-      <c r="J4" s="279"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="244"/>
-      <c r="M4" s="267"/>
-      <c r="N4" s="274"/>
-      <c r="O4" s="276"/>
-      <c r="P4" s="279"/>
-      <c r="Q4" s="272"/>
-      <c r="R4" s="244"/>
-      <c r="S4" s="267"/>
-      <c r="T4" s="274"/>
-      <c r="U4" s="276"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="294"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="232"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="248"/>
+      <c r="J4" s="251"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="232"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="246"/>
+      <c r="O4" s="248"/>
+      <c r="P4" s="251"/>
+      <c r="Q4" s="229"/>
+      <c r="R4" s="232"/>
+      <c r="S4" s="264"/>
+      <c r="T4" s="246"/>
+      <c r="U4" s="248"/>
+      <c r="V4" s="268"/>
+      <c r="W4" s="226"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="239" t="str">
+      <c r="A5" s="282" t="str">
         <f>CONCATENATE('INITIAL INPUT'!G16," Trimester ","SY ",'INITIAL INPUT'!D16)</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="272"/>
-      <c r="G5" s="284">
+      <c r="B5" s="283"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="229"/>
+      <c r="G5" s="237">
         <f>'INITIAL INPUT'!D20</f>
         <v>40575</v>
       </c>
-      <c r="H5" s="274"/>
-      <c r="I5" s="276"/>
-      <c r="J5" s="279"/>
-      <c r="K5" s="272"/>
-      <c r="L5" s="284">
+      <c r="H5" s="246"/>
+      <c r="I5" s="248"/>
+      <c r="J5" s="251"/>
+      <c r="K5" s="229"/>
+      <c r="L5" s="237">
         <f>'INITIAL INPUT'!D22</f>
         <v>40603</v>
       </c>
-      <c r="M5" s="267"/>
-      <c r="N5" s="274"/>
-      <c r="O5" s="276"/>
-      <c r="P5" s="279"/>
-      <c r="Q5" s="272"/>
-      <c r="R5" s="284">
+      <c r="M5" s="264"/>
+      <c r="N5" s="246"/>
+      <c r="O5" s="248"/>
+      <c r="P5" s="251"/>
+      <c r="Q5" s="229"/>
+      <c r="R5" s="237">
         <f>'INITIAL INPUT'!D24</f>
         <v>40634</v>
       </c>
-      <c r="S5" s="267"/>
-      <c r="T5" s="274"/>
-      <c r="U5" s="276"/>
-      <c r="V5" s="282"/>
-      <c r="W5" s="294"/>
+      <c r="S5" s="264"/>
+      <c r="T5" s="246"/>
+      <c r="U5" s="248"/>
+      <c r="V5" s="268"/>
+      <c r="W5" s="226"/>
     </row>
     <row r="6" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="252" t="str">
+      <c r="A6" s="270" t="str">
         <f>CONCATENATE("Inst/Prof:", 'INITIAL INPUT'!J16)</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="253"/>
-      <c r="C6" s="253"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="272"/>
-      <c r="G6" s="272"/>
-      <c r="H6" s="274"/>
-      <c r="I6" s="276"/>
-      <c r="J6" s="279"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="272"/>
-      <c r="M6" s="267"/>
-      <c r="N6" s="274"/>
-      <c r="O6" s="276"/>
-      <c r="P6" s="279"/>
-      <c r="Q6" s="272"/>
-      <c r="R6" s="272"/>
-      <c r="S6" s="267"/>
-      <c r="T6" s="274"/>
-      <c r="U6" s="276"/>
-      <c r="V6" s="282"/>
-      <c r="W6" s="294"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="271"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="248"/>
+      <c r="J6" s="251"/>
+      <c r="K6" s="229"/>
+      <c r="L6" s="229"/>
+      <c r="M6" s="264"/>
+      <c r="N6" s="246"/>
+      <c r="O6" s="248"/>
+      <c r="P6" s="251"/>
+      <c r="Q6" s="229"/>
+      <c r="R6" s="229"/>
+      <c r="S6" s="264"/>
+      <c r="T6" s="246"/>
+      <c r="U6" s="248"/>
+      <c r="V6" s="268"/>
+      <c r="W6" s="226"/>
     </row>
     <row r="7" spans="1:24" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="255" t="s">
+      <c r="A7" s="273" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="256"/>
-      <c r="C7" s="259" t="s">
+      <c r="B7" s="274"/>
+      <c r="C7" s="277" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="225" t="s">
+      <c r="D7" s="262" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="280"/>
-      <c r="F7" s="273"/>
-      <c r="G7" s="273"/>
-      <c r="H7" s="274"/>
-      <c r="I7" s="276"/>
-      <c r="J7" s="280"/>
-      <c r="K7" s="273"/>
-      <c r="L7" s="273"/>
-      <c r="M7" s="268"/>
-      <c r="N7" s="274"/>
-      <c r="O7" s="276"/>
-      <c r="P7" s="280"/>
-      <c r="Q7" s="273"/>
-      <c r="R7" s="273"/>
-      <c r="S7" s="268"/>
-      <c r="T7" s="274"/>
-      <c r="U7" s="276"/>
-      <c r="V7" s="282"/>
-      <c r="W7" s="294"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="230"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="248"/>
+      <c r="J7" s="252"/>
+      <c r="K7" s="230"/>
+      <c r="L7" s="230"/>
+      <c r="M7" s="265"/>
+      <c r="N7" s="246"/>
+      <c r="O7" s="248"/>
+      <c r="P7" s="252"/>
+      <c r="Q7" s="230"/>
+      <c r="R7" s="230"/>
+      <c r="S7" s="265"/>
+      <c r="T7" s="246"/>
+      <c r="U7" s="248"/>
+      <c r="V7" s="268"/>
+      <c r="W7" s="226"/>
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="257"/>
-      <c r="B8" s="258"/>
-      <c r="C8" s="260"/>
-      <c r="D8" s="226"/>
+      <c r="A8" s="275"/>
+      <c r="B8" s="276"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="263"/>
       <c r="E8" s="76">
         <f>'INITIAL INPUT'!J20</f>
         <v>0.33</v>
@@ -12420,8 +12420,8 @@
         <f>'INITIAL INPUT'!J22</f>
         <v>0.34</v>
       </c>
-      <c r="H8" s="248"/>
-      <c r="I8" s="277"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="249"/>
       <c r="J8" s="76">
         <f>'INITIAL INPUT'!K20</f>
         <v>0.33</v>
@@ -12434,9 +12434,9 @@
         <f>'INITIAL INPUT'!K22</f>
         <v>0.34</v>
       </c>
-      <c r="M8" s="269"/>
-      <c r="N8" s="248"/>
-      <c r="O8" s="277"/>
+      <c r="M8" s="266"/>
+      <c r="N8" s="240"/>
+      <c r="O8" s="249"/>
       <c r="P8" s="76">
         <f>'INITIAL INPUT'!L20</f>
         <v>0.33</v>
@@ -12449,11 +12449,11 @@
         <f>'INITIAL INPUT'!L22</f>
         <v>0.34</v>
       </c>
-      <c r="S8" s="269"/>
-      <c r="T8" s="248"/>
-      <c r="U8" s="277"/>
-      <c r="V8" s="283"/>
-      <c r="W8" s="295"/>
+      <c r="S8" s="266"/>
+      <c r="T8" s="240"/>
+      <c r="U8" s="249"/>
+      <c r="V8" s="269"/>
+      <c r="W8" s="227"/>
     </row>
     <row r="9" spans="1:24" s="89" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -12758,17 +12758,17 @@
         <f>IF(PRELIM!AB12="","",$F$8*PRELIM!AB12)</f>
         <v>5.4999999999999991</v>
       </c>
-      <c r="G12" s="83" t="str">
+      <c r="G12" s="83">
         <f>IF(PRELIM!AD12="","",$G$8*PRELIM!AD12)</f>
-        <v/>
+        <v>15.64</v>
       </c>
       <c r="H12" s="84">
         <f t="shared" si="0"/>
-        <v>5.4999999999999991</v>
+        <v>21.14</v>
       </c>
       <c r="I12" s="85">
         <f>IF(H12="","",VLOOKUP(H12,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J12" s="83" t="str">
         <f>IF(MIDTERM!P12="","",$J$8*MIDTERM!P12)</f>
@@ -13322,17 +13322,17 @@
         <f>IF(PRELIM!AB18="","",$F$8*PRELIM!AB18)</f>
         <v>9.625</v>
       </c>
-      <c r="G18" s="83" t="str">
+      <c r="G18" s="83">
         <f>IF(PRELIM!AD18="","",$G$8*PRELIM!AD18)</f>
-        <v/>
+        <v>10.200000000000001</v>
       </c>
       <c r="H18" s="84">
         <f t="shared" si="0"/>
-        <v>9.625</v>
+        <v>19.825000000000003</v>
       </c>
       <c r="I18" s="85">
         <f>IF(H18="","",VLOOKUP(H18,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" s="83" t="str">
         <f>IF(MIDTERM!P18="","",$J$8*MIDTERM!P18)</f>
@@ -14142,8 +14142,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X26" s="296"/>
-      <c r="Y26" s="286" t="s">
+      <c r="X26" s="233"/>
+      <c r="Y26" s="235" t="s">
         <v>127</v>
       </c>
     </row>
@@ -14239,8 +14239,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X27" s="297"/>
-      <c r="Y27" s="287"/>
+      <c r="X27" s="234"/>
+      <c r="Y27" s="236"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
@@ -14334,8 +14334,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X28" s="297"/>
-      <c r="Y28" s="287"/>
+      <c r="X28" s="234"/>
+      <c r="Y28" s="236"/>
     </row>
     <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
@@ -14429,8 +14429,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X29" s="297"/>
-      <c r="Y29" s="287"/>
+      <c r="X29" s="234"/>
+      <c r="Y29" s="236"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
@@ -14524,8 +14524,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X30" s="297"/>
-      <c r="Y30" s="287"/>
+      <c r="X30" s="234"/>
+      <c r="Y30" s="236"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
@@ -14619,8 +14619,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X31" s="297"/>
-      <c r="Y31" s="287"/>
+      <c r="X31" s="234"/>
+      <c r="Y31" s="236"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
@@ -14646,13 +14646,13 @@
         <f>IF(PRELIM!AB32="","",$F$8*PRELIM!AB32)</f>
         <v>8.25</v>
       </c>
-      <c r="G32" s="83" t="str">
+      <c r="G32" s="83">
         <f>IF(PRELIM!AD32="","",$G$8*PRELIM!AD32)</f>
-        <v/>
+        <v>9.1800000000000015</v>
       </c>
       <c r="H32" s="84">
         <f t="shared" si="0"/>
-        <v>8.25</v>
+        <v>17.43</v>
       </c>
       <c r="I32" s="85">
         <f>IF(H32="","",VLOOKUP(H32,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -14714,8 +14714,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X32" s="297"/>
-      <c r="Y32" s="287"/>
+      <c r="X32" s="234"/>
+      <c r="Y32" s="236"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
@@ -14809,8 +14809,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X33" s="297"/>
-      <c r="Y33" s="287"/>
+      <c r="X33" s="234"/>
+      <c r="Y33" s="236"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
@@ -14904,8 +14904,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X34" s="297"/>
-      <c r="Y34" s="287"/>
+      <c r="X34" s="234"/>
+      <c r="Y34" s="236"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
@@ -14999,8 +14999,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X35" s="297"/>
-      <c r="Y35" s="287"/>
+      <c r="X35" s="234"/>
+      <c r="Y35" s="236"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
@@ -15094,8 +15094,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X36" s="297"/>
-      <c r="Y36" s="287"/>
+      <c r="X36" s="234"/>
+      <c r="Y36" s="236"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
@@ -15189,8 +15189,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X37" s="297"/>
-      <c r="Y37" s="287"/>
+      <c r="X37" s="234"/>
+      <c r="Y37" s="236"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
@@ -15284,8 +15284,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X38" s="297"/>
-      <c r="Y38" s="287"/>
+      <c r="X38" s="234"/>
+      <c r="Y38" s="236"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
@@ -15379,8 +15379,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X39" s="297"/>
-      <c r="Y39" s="287"/>
+      <c r="X39" s="234"/>
+      <c r="Y39" s="236"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
@@ -15474,8 +15474,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X40" s="297"/>
-      <c r="Y40" s="287"/>
+      <c r="X40" s="234"/>
+      <c r="Y40" s="236"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="92"/>
@@ -15490,301 +15490,301 @@
       <c r="X41" s="91"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="227" t="str">
+      <c r="A42" s="253" t="str">
         <f>A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B42" s="228"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="229"/>
-      <c r="E42" s="233" t="s">
+      <c r="B42" s="254"/>
+      <c r="C42" s="254"/>
+      <c r="D42" s="255"/>
+      <c r="E42" s="259" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="234"/>
-      <c r="G42" s="234"/>
-      <c r="H42" s="234"/>
-      <c r="I42" s="235"/>
-      <c r="J42" s="233" t="s">
+      <c r="F42" s="260"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="260"/>
+      <c r="I42" s="261"/>
+      <c r="J42" s="259" t="s">
         <v>130</v>
       </c>
-      <c r="K42" s="234"/>
-      <c r="L42" s="234"/>
-      <c r="M42" s="234"/>
-      <c r="N42" s="234"/>
-      <c r="O42" s="235"/>
-      <c r="P42" s="233" t="s">
+      <c r="K42" s="260"/>
+      <c r="L42" s="260"/>
+      <c r="M42" s="260"/>
+      <c r="N42" s="260"/>
+      <c r="O42" s="261"/>
+      <c r="P42" s="259" t="s">
         <v>131</v>
       </c>
-      <c r="Q42" s="234"/>
-      <c r="R42" s="234"/>
-      <c r="S42" s="234"/>
-      <c r="T42" s="234"/>
-      <c r="U42" s="234"/>
-      <c r="V42" s="270"/>
+      <c r="Q42" s="260"/>
+      <c r="R42" s="260"/>
+      <c r="S42" s="260"/>
+      <c r="T42" s="260"/>
+      <c r="U42" s="260"/>
+      <c r="V42" s="286"/>
       <c r="W42" s="72"/>
       <c r="X42" s="91"/>
     </row>
     <row r="43" spans="1:25" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="230"/>
-      <c r="B43" s="231"/>
-      <c r="C43" s="231"/>
-      <c r="D43" s="232"/>
-      <c r="E43" s="261" t="str">
+      <c r="A43" s="256"/>
+      <c r="B43" s="257"/>
+      <c r="C43" s="257"/>
+      <c r="D43" s="258"/>
+      <c r="E43" s="287" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="264" t="str">
+      <c r="F43" s="290" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="G43" s="266" t="s">
+      <c r="G43" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="H43" s="246" t="str">
+      <c r="H43" s="238" t="str">
         <f>H2</f>
         <v>SCORE</v>
       </c>
-      <c r="I43" s="249" t="str">
+      <c r="I43" s="294" t="str">
         <f>I2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="J43" s="261" t="str">
+      <c r="J43" s="287" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="K43" s="264" t="str">
+      <c r="K43" s="290" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="L43" s="266" t="s">
+      <c r="L43" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="M43" s="267" t="str">
+      <c r="M43" s="264" t="str">
         <f>M2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="N43" s="246" t="str">
+      <c r="N43" s="238" t="str">
         <f>N2</f>
         <v>SCORE</v>
       </c>
-      <c r="O43" s="249" t="str">
+      <c r="O43" s="294" t="str">
         <f>O2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="P43" s="261" t="str">
+      <c r="P43" s="287" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="Q43" s="264" t="str">
+      <c r="Q43" s="290" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="266" t="s">
+      <c r="R43" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="S43" s="267" t="str">
+      <c r="S43" s="264" t="str">
         <f>S2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="T43" s="246" t="str">
+      <c r="T43" s="238" t="str">
         <f>T2</f>
         <v>SCORE</v>
       </c>
-      <c r="U43" s="288" t="str">
+      <c r="U43" s="241" t="str">
         <f>U2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="V43" s="291" t="str">
+      <c r="V43" s="244" t="str">
         <f>V2</f>
         <v>FINAL GRADE (%)</v>
       </c>
-      <c r="W43" s="293" t="s">
+      <c r="W43" s="225" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:25" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="236" t="str">
+      <c r="A44" s="279" t="str">
         <f>A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B44" s="237"/>
-      <c r="C44" s="237"/>
-      <c r="D44" s="238"/>
-      <c r="E44" s="262"/>
-      <c r="F44" s="265"/>
-      <c r="G44" s="244"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="262"/>
-      <c r="K44" s="265"/>
-      <c r="L44" s="244"/>
-      <c r="M44" s="267"/>
-      <c r="N44" s="247"/>
-      <c r="O44" s="250"/>
-      <c r="P44" s="262"/>
-      <c r="Q44" s="265"/>
-      <c r="R44" s="244"/>
-      <c r="S44" s="267"/>
-      <c r="T44" s="247"/>
-      <c r="U44" s="289"/>
-      <c r="V44" s="291"/>
-      <c r="W44" s="294"/>
+      <c r="B44" s="280"/>
+      <c r="C44" s="280"/>
+      <c r="D44" s="281"/>
+      <c r="E44" s="288"/>
+      <c r="F44" s="291"/>
+      <c r="G44" s="232"/>
+      <c r="H44" s="239"/>
+      <c r="I44" s="295"/>
+      <c r="J44" s="288"/>
+      <c r="K44" s="291"/>
+      <c r="L44" s="232"/>
+      <c r="M44" s="264"/>
+      <c r="N44" s="239"/>
+      <c r="O44" s="295"/>
+      <c r="P44" s="288"/>
+      <c r="Q44" s="291"/>
+      <c r="R44" s="232"/>
+      <c r="S44" s="264"/>
+      <c r="T44" s="239"/>
+      <c r="U44" s="242"/>
+      <c r="V44" s="244"/>
+      <c r="W44" s="226"/>
     </row>
     <row r="45" spans="1:25" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="239" t="str">
+      <c r="A45" s="282" t="str">
         <f>A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B45" s="240"/>
-      <c r="C45" s="241"/>
+      <c r="B45" s="283"/>
+      <c r="C45" s="284"/>
       <c r="D45" s="75" t="str">
         <f>D4</f>
         <v>M303</v>
       </c>
-      <c r="E45" s="262"/>
-      <c r="F45" s="265"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="247"/>
-      <c r="I45" s="250"/>
-      <c r="J45" s="262"/>
-      <c r="K45" s="265"/>
-      <c r="L45" s="244"/>
-      <c r="M45" s="267"/>
-      <c r="N45" s="247"/>
-      <c r="O45" s="250"/>
-      <c r="P45" s="262"/>
-      <c r="Q45" s="265"/>
-      <c r="R45" s="244"/>
-      <c r="S45" s="267"/>
-      <c r="T45" s="247"/>
-      <c r="U45" s="289"/>
-      <c r="V45" s="291"/>
-      <c r="W45" s="294"/>
+      <c r="E45" s="288"/>
+      <c r="F45" s="291"/>
+      <c r="G45" s="232"/>
+      <c r="H45" s="239"/>
+      <c r="I45" s="295"/>
+      <c r="J45" s="288"/>
+      <c r="K45" s="291"/>
+      <c r="L45" s="232"/>
+      <c r="M45" s="264"/>
+      <c r="N45" s="239"/>
+      <c r="O45" s="295"/>
+      <c r="P45" s="288"/>
+      <c r="Q45" s="291"/>
+      <c r="R45" s="232"/>
+      <c r="S45" s="264"/>
+      <c r="T45" s="239"/>
+      <c r="U45" s="242"/>
+      <c r="V45" s="244"/>
+      <c r="W45" s="226"/>
     </row>
     <row r="46" spans="1:25" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="239" t="str">
+      <c r="A46" s="282" t="str">
         <f>A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="240"/>
-      <c r="C46" s="241"/>
-      <c r="D46" s="242"/>
-      <c r="E46" s="262"/>
-      <c r="F46" s="265"/>
-      <c r="G46" s="243">
+      <c r="B46" s="283"/>
+      <c r="C46" s="284"/>
+      <c r="D46" s="285"/>
+      <c r="E46" s="288"/>
+      <c r="F46" s="291"/>
+      <c r="G46" s="293">
         <f>G5</f>
         <v>40575</v>
       </c>
-      <c r="H46" s="247"/>
-      <c r="I46" s="250"/>
-      <c r="J46" s="262"/>
-      <c r="K46" s="265"/>
-      <c r="L46" s="243">
+      <c r="H46" s="239"/>
+      <c r="I46" s="295"/>
+      <c r="J46" s="288"/>
+      <c r="K46" s="291"/>
+      <c r="L46" s="293">
         <f>L5</f>
         <v>40603</v>
       </c>
-      <c r="M46" s="267"/>
-      <c r="N46" s="247"/>
-      <c r="O46" s="250"/>
-      <c r="P46" s="262"/>
-      <c r="Q46" s="265"/>
-      <c r="R46" s="243">
+      <c r="M46" s="264"/>
+      <c r="N46" s="239"/>
+      <c r="O46" s="295"/>
+      <c r="P46" s="288"/>
+      <c r="Q46" s="291"/>
+      <c r="R46" s="293">
         <f>R5</f>
         <v>40634</v>
       </c>
-      <c r="S46" s="267"/>
-      <c r="T46" s="247"/>
-      <c r="U46" s="289"/>
-      <c r="V46" s="291"/>
-      <c r="W46" s="294"/>
+      <c r="S46" s="264"/>
+      <c r="T46" s="239"/>
+      <c r="U46" s="242"/>
+      <c r="V46" s="244"/>
+      <c r="W46" s="226"/>
     </row>
     <row r="47" spans="1:25" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="252" t="str">
+      <c r="A47" s="270" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="253"/>
-      <c r="C47" s="244"/>
-      <c r="D47" s="254"/>
-      <c r="E47" s="262"/>
-      <c r="F47" s="265"/>
-      <c r="G47" s="244"/>
-      <c r="H47" s="247"/>
-      <c r="I47" s="250"/>
-      <c r="J47" s="262"/>
-      <c r="K47" s="265"/>
-      <c r="L47" s="244"/>
-      <c r="M47" s="267"/>
-      <c r="N47" s="247"/>
-      <c r="O47" s="250"/>
-      <c r="P47" s="262"/>
-      <c r="Q47" s="265"/>
-      <c r="R47" s="244"/>
-      <c r="S47" s="267"/>
-      <c r="T47" s="247"/>
-      <c r="U47" s="289"/>
-      <c r="V47" s="291"/>
-      <c r="W47" s="294"/>
+      <c r="B47" s="271"/>
+      <c r="C47" s="232"/>
+      <c r="D47" s="297"/>
+      <c r="E47" s="288"/>
+      <c r="F47" s="291"/>
+      <c r="G47" s="232"/>
+      <c r="H47" s="239"/>
+      <c r="I47" s="295"/>
+      <c r="J47" s="288"/>
+      <c r="K47" s="291"/>
+      <c r="L47" s="232"/>
+      <c r="M47" s="264"/>
+      <c r="N47" s="239"/>
+      <c r="O47" s="295"/>
+      <c r="P47" s="288"/>
+      <c r="Q47" s="291"/>
+      <c r="R47" s="232"/>
+      <c r="S47" s="264"/>
+      <c r="T47" s="239"/>
+      <c r="U47" s="242"/>
+      <c r="V47" s="244"/>
+      <c r="W47" s="226"/>
     </row>
     <row r="48" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="255" t="str">
+      <c r="A48" s="273" t="str">
         <f>A7</f>
         <v>CLASS LIST</v>
       </c>
-      <c r="B48" s="256"/>
-      <c r="C48" s="259" t="str">
+      <c r="B48" s="274"/>
+      <c r="C48" s="277" t="str">
         <f>C7</f>
         <v>SEX</v>
       </c>
-      <c r="D48" s="225" t="str">
+      <c r="D48" s="262" t="str">
         <f>D7</f>
         <v>Course</v>
       </c>
-      <c r="E48" s="262"/>
-      <c r="F48" s="265"/>
-      <c r="G48" s="244"/>
-      <c r="H48" s="247"/>
-      <c r="I48" s="250"/>
-      <c r="J48" s="262"/>
-      <c r="K48" s="265"/>
-      <c r="L48" s="244"/>
-      <c r="M48" s="268"/>
-      <c r="N48" s="247"/>
-      <c r="O48" s="250"/>
-      <c r="P48" s="262"/>
-      <c r="Q48" s="265"/>
-      <c r="R48" s="244"/>
-      <c r="S48" s="268"/>
-      <c r="T48" s="247"/>
-      <c r="U48" s="289"/>
-      <c r="V48" s="291"/>
-      <c r="W48" s="294"/>
+      <c r="E48" s="288"/>
+      <c r="F48" s="291"/>
+      <c r="G48" s="232"/>
+      <c r="H48" s="239"/>
+      <c r="I48" s="295"/>
+      <c r="J48" s="288"/>
+      <c r="K48" s="291"/>
+      <c r="L48" s="232"/>
+      <c r="M48" s="265"/>
+      <c r="N48" s="239"/>
+      <c r="O48" s="295"/>
+      <c r="P48" s="288"/>
+      <c r="Q48" s="291"/>
+      <c r="R48" s="232"/>
+      <c r="S48" s="265"/>
+      <c r="T48" s="239"/>
+      <c r="U48" s="242"/>
+      <c r="V48" s="244"/>
+      <c r="W48" s="226"/>
       <c r="X48" s="91"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="257"/>
-      <c r="B49" s="258"/>
-      <c r="C49" s="260"/>
-      <c r="D49" s="226"/>
-      <c r="E49" s="263"/>
-      <c r="F49" s="245"/>
-      <c r="G49" s="245"/>
-      <c r="H49" s="248"/>
-      <c r="I49" s="251"/>
-      <c r="J49" s="263"/>
-      <c r="K49" s="245"/>
-      <c r="L49" s="245"/>
-      <c r="M49" s="269"/>
-      <c r="N49" s="248"/>
-      <c r="O49" s="251"/>
-      <c r="P49" s="263"/>
-      <c r="Q49" s="245"/>
-      <c r="R49" s="245"/>
-      <c r="S49" s="269"/>
-      <c r="T49" s="248"/>
-      <c r="U49" s="290"/>
-      <c r="V49" s="292"/>
-      <c r="W49" s="295"/>
+      <c r="A49" s="275"/>
+      <c r="B49" s="276"/>
+      <c r="C49" s="278"/>
+      <c r="D49" s="263"/>
+      <c r="E49" s="289"/>
+      <c r="F49" s="292"/>
+      <c r="G49" s="292"/>
+      <c r="H49" s="240"/>
+      <c r="I49" s="296"/>
+      <c r="J49" s="289"/>
+      <c r="K49" s="292"/>
+      <c r="L49" s="292"/>
+      <c r="M49" s="266"/>
+      <c r="N49" s="240"/>
+      <c r="O49" s="296"/>
+      <c r="P49" s="289"/>
+      <c r="Q49" s="292"/>
+      <c r="R49" s="292"/>
+      <c r="S49" s="266"/>
+      <c r="T49" s="240"/>
+      <c r="U49" s="243"/>
+      <c r="V49" s="245"/>
+      <c r="W49" s="227"/>
       <c r="X49" s="91"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -17383,8 +17383,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X66" s="296"/>
-      <c r="Y66" s="286" t="s">
+      <c r="X66" s="233"/>
+      <c r="Y66" s="235" t="s">
         <v>127</v>
       </c>
     </row>
@@ -17480,8 +17480,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X67" s="297"/>
-      <c r="Y67" s="287"/>
+      <c r="X67" s="234"/>
+      <c r="Y67" s="236"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="90" t="s">
@@ -17575,8 +17575,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X68" s="297"/>
-      <c r="Y68" s="287"/>
+      <c r="X68" s="234"/>
+      <c r="Y68" s="236"/>
     </row>
     <row r="69" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="90" t="s">
@@ -17670,8 +17670,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X69" s="297"/>
-      <c r="Y69" s="287"/>
+      <c r="X69" s="234"/>
+      <c r="Y69" s="236"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="90" t="s">
@@ -17765,8 +17765,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X70" s="297"/>
-      <c r="Y70" s="287"/>
+      <c r="X70" s="234"/>
+      <c r="Y70" s="236"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="90" t="s">
@@ -17860,8 +17860,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X71" s="297"/>
-      <c r="Y71" s="287"/>
+      <c r="X71" s="234"/>
+      <c r="Y71" s="236"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="90" t="s">
@@ -17955,8 +17955,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X72" s="297"/>
-      <c r="Y72" s="287"/>
+      <c r="X72" s="234"/>
+      <c r="Y72" s="236"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="90" t="s">
@@ -18050,8 +18050,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X73" s="297"/>
-      <c r="Y73" s="287"/>
+      <c r="X73" s="234"/>
+      <c r="Y73" s="236"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="90" t="s">
@@ -18145,8 +18145,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X74" s="297"/>
-      <c r="Y74" s="287"/>
+      <c r="X74" s="234"/>
+      <c r="Y74" s="236"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="90" t="s">
@@ -18240,8 +18240,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X75" s="297"/>
-      <c r="Y75" s="287"/>
+      <c r="X75" s="234"/>
+      <c r="Y75" s="236"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="90" t="s">
@@ -18335,8 +18335,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X76" s="297"/>
-      <c r="Y76" s="287"/>
+      <c r="X76" s="234"/>
+      <c r="Y76" s="236"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="90" t="s">
@@ -18430,8 +18430,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X77" s="297"/>
-      <c r="Y77" s="287"/>
+      <c r="X77" s="234"/>
+      <c r="Y77" s="236"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="90" t="s">
@@ -18525,8 +18525,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X78" s="297"/>
-      <c r="Y78" s="287"/>
+      <c r="X78" s="234"/>
+      <c r="Y78" s="236"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="90" t="s">
@@ -18620,8 +18620,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X79" s="297"/>
-      <c r="Y79" s="287"/>
+      <c r="X79" s="234"/>
+      <c r="Y79" s="236"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="90" t="s">
@@ -18715,8 +18715,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X80" s="297"/>
-      <c r="Y80" s="287"/>
+      <c r="X80" s="234"/>
+      <c r="Y80" s="236"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="99"/>
@@ -19406,23 +19406,43 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GZ2E3Q8WEFdjxloU03lKdfoTfFNevSEi4w4kRAAFLmLZBlPJPvR9jNl5/+XN/MDnESBW2fUaxEwTzg6XJj6vHA==" saltValue="O98nYpKCTff7QIvFUliSrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="70">
-    <mergeCell ref="W2:W8"/>
-    <mergeCell ref="Q2:Q7"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="X26:X40"/>
-    <mergeCell ref="Y26:Y40"/>
-    <mergeCell ref="R5:R7"/>
-    <mergeCell ref="Y66:Y80"/>
-    <mergeCell ref="T43:T49"/>
-    <mergeCell ref="U43:U49"/>
-    <mergeCell ref="V43:V49"/>
-    <mergeCell ref="W43:W49"/>
-    <mergeCell ref="X66:X80"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="L46:L49"/>
+    <mergeCell ref="H43:H49"/>
+    <mergeCell ref="I43:I49"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="J43:J49"/>
+    <mergeCell ref="K43:K49"/>
+    <mergeCell ref="P43:P49"/>
+    <mergeCell ref="Q43:Q49"/>
+    <mergeCell ref="R43:R45"/>
+    <mergeCell ref="S43:S49"/>
+    <mergeCell ref="M43:M49"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="P42:V42"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="N43:N49"/>
+    <mergeCell ref="O43:O49"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="N2:N8"/>
+    <mergeCell ref="O2:O8"/>
     <mergeCell ref="P2:P7"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:I1"/>
@@ -19439,43 +19459,23 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="P42:V42"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="N43:N49"/>
-    <mergeCell ref="O43:O49"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="N2:N8"/>
-    <mergeCell ref="O2:O8"/>
-    <mergeCell ref="P43:P49"/>
-    <mergeCell ref="Q43:Q49"/>
-    <mergeCell ref="R43:R45"/>
-    <mergeCell ref="S43:S49"/>
-    <mergeCell ref="M43:M49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="L46:L49"/>
-    <mergeCell ref="H43:H49"/>
-    <mergeCell ref="I43:I49"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="J43:J49"/>
-    <mergeCell ref="K43:K49"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="Y66:Y80"/>
+    <mergeCell ref="T43:T49"/>
+    <mergeCell ref="U43:U49"/>
+    <mergeCell ref="V43:V49"/>
+    <mergeCell ref="W43:W49"/>
+    <mergeCell ref="X66:X80"/>
+    <mergeCell ref="W2:W8"/>
+    <mergeCell ref="Q2:Q7"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="X26:X40"/>
+    <mergeCell ref="Y26:Y40"/>
+    <mergeCell ref="R5:R7"/>
   </mergeCells>
   <conditionalFormatting sqref="U9:U40 U50:U80">
     <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="between">
@@ -19559,8 +19559,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19580,43 +19580,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="350" t="str">
+      <c r="A1" s="319" t="str">
         <f>CRS!A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="325" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
-      <c r="Z1" s="326"/>
-      <c r="AA1" s="326"/>
-      <c r="AB1" s="326"/>
-      <c r="AC1" s="327"/>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
+      <c r="R1" s="329"/>
+      <c r="S1" s="329"/>
+      <c r="T1" s="329"/>
+      <c r="U1" s="329"/>
+      <c r="V1" s="329"/>
+      <c r="W1" s="329"/>
+      <c r="X1" s="329"/>
+      <c r="Y1" s="329"/>
+      <c r="Z1" s="329"/>
+      <c r="AA1" s="329"/>
+      <c r="AB1" s="329"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="331"/>
       <c r="AG1" s="63"/>
       <c r="AH1" s="55"/>
       <c r="AI1" s="55"/>
@@ -19624,48 +19624,48 @@
       <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="352"/>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="368" t="str">
+      <c r="A2" s="321"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="300" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="370"/>
-      <c r="Q2" s="309" t="str">
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="315" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="310"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="310"/>
-      <c r="U2" s="310"/>
-      <c r="V2" s="310"/>
-      <c r="W2" s="310"/>
-      <c r="X2" s="310"/>
-      <c r="Y2" s="310"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="310"/>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="318" t="s">
+      <c r="R2" s="316"/>
+      <c r="S2" s="316"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
+      <c r="Z2" s="316"/>
+      <c r="AA2" s="316"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="319"/>
-      <c r="AE2" s="361" t="s">
+      <c r="AD2" s="353"/>
+      <c r="AE2" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AF2" s="363" t="s">
+      <c r="AF2" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AG2" s="62"/>
@@ -19675,89 +19675,89 @@
       <c r="AK2" s="62"/>
     </row>
     <row r="3" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="339" t="str">
+      <c r="A3" s="345" t="str">
         <f>CRS!A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="312" t="s">
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="312" t="s">
+      <c r="F3" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="312" t="s">
+      <c r="G3" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="312" t="s">
+      <c r="I3" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="312" t="s">
+      <c r="J3" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="312" t="s">
+      <c r="K3" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="312" t="s">
+      <c r="L3" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="312" t="s">
+      <c r="M3" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="312" t="s">
+      <c r="N3" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="329" t="s">
+      <c r="O3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="306" t="s">
+      <c r="P3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="312" t="s">
+      <c r="Q3" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="312" t="s">
+      <c r="S3" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="312" t="s">
+      <c r="T3" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="312" t="s">
+      <c r="U3" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="312" t="s">
+      <c r="V3" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="312" t="s">
+      <c r="W3" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="312" t="s">
+      <c r="X3" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="312" t="s">
+      <c r="Y3" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="312" t="s">
+      <c r="Z3" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="329" t="s">
+      <c r="AA3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="306" t="s">
+      <c r="AB3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="320"/>
-      <c r="AD3" s="321"/>
-      <c r="AE3" s="361"/>
-      <c r="AF3" s="363"/>
+      <c r="AC3" s="354"/>
+      <c r="AD3" s="355"/>
+      <c r="AE3" s="347"/>
+      <c r="AF3" s="298"/>
       <c r="AG3" s="62"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
@@ -19765,48 +19765,48 @@
       <c r="AK3" s="62"/>
     </row>
     <row r="4" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="334" t="str">
+      <c r="A4" s="323" t="str">
         <f>CRS!A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B4" s="335"/>
-      <c r="C4" s="336"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="325"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>M303</v>
       </c>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="311"/>
-      <c r="N4" s="311"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="311"/>
-      <c r="V4" s="311"/>
-      <c r="W4" s="311"/>
-      <c r="X4" s="311"/>
-      <c r="Y4" s="311"/>
-      <c r="Z4" s="311"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="307"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="304"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="304"/>
+      <c r="N4" s="304"/>
+      <c r="O4" s="341"/>
+      <c r="P4" s="312"/>
+      <c r="Q4" s="304"/>
+      <c r="R4" s="304"/>
+      <c r="S4" s="304"/>
+      <c r="T4" s="304"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="304"/>
+      <c r="W4" s="304"/>
+      <c r="X4" s="304"/>
+      <c r="Y4" s="304"/>
+      <c r="Z4" s="304"/>
+      <c r="AA4" s="341"/>
+      <c r="AB4" s="312"/>
       <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
       <c r="AD4" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="AE4" s="361"/>
-      <c r="AF4" s="363"/>
+      <c r="AE4" s="347"/>
+      <c r="AF4" s="298"/>
       <c r="AG4" s="62"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
@@ -19814,13 +19814,13 @@
       <c r="AK4" s="62"/>
     </row>
     <row r="5" spans="1:37" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="334" t="str">
+      <c r="A5" s="323" t="str">
         <f>CRS!A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="335"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
       <c r="E5" s="108"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -19831,8 +19831,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="307"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="108">
         <v>40</v>
       </c>
@@ -19855,14 +19855,14 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="330"/>
-      <c r="AB5" s="307"/>
+      <c r="AA5" s="341"/>
+      <c r="AB5" s="312"/>
       <c r="AC5" s="110">
         <v>100</v>
       </c>
-      <c r="AD5" s="322"/>
-      <c r="AE5" s="361"/>
-      <c r="AF5" s="363"/>
+      <c r="AD5" s="349"/>
+      <c r="AE5" s="347"/>
+      <c r="AF5" s="298"/>
       <c r="AG5" s="62"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
@@ -19870,62 +19870,62 @@
       <c r="AK5" s="62"/>
     </row>
     <row r="6" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="341" t="str">
+      <c r="A6" s="359" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="313"/>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="313"/>
-      <c r="O6" s="331" t="str">
+      <c r="B6" s="316"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="366" t="str">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v/>
       </c>
-      <c r="P6" s="307"/>
-      <c r="Q6" s="313" t="s">
+      <c r="P6" s="312"/>
+      <c r="Q6" s="305" t="s">
         <v>246</v>
       </c>
-      <c r="R6" s="313" t="s">
+      <c r="R6" s="305" t="s">
         <v>247</v>
       </c>
-      <c r="S6" s="313" t="s">
+      <c r="S6" s="305" t="s">
         <v>248</v>
       </c>
-      <c r="T6" s="313" t="s">
+      <c r="T6" s="305" t="s">
         <v>249</v>
       </c>
-      <c r="U6" s="313" t="s">
+      <c r="U6" s="305" t="s">
         <v>250</v>
       </c>
-      <c r="V6" s="313" t="s">
+      <c r="V6" s="305" t="s">
         <v>251</v>
       </c>
-      <c r="W6" s="313"/>
-      <c r="X6" s="313"/>
-      <c r="Y6" s="313"/>
-      <c r="Z6" s="313"/>
-      <c r="AA6" s="358">
+      <c r="W6" s="305"/>
+      <c r="X6" s="305"/>
+      <c r="Y6" s="305"/>
+      <c r="Z6" s="305"/>
+      <c r="AA6" s="342">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v>240</v>
       </c>
-      <c r="AB6" s="307"/>
-      <c r="AC6" s="365">
+      <c r="AB6" s="312"/>
+      <c r="AC6" s="356">
         <f>'INITIAL INPUT'!D20</f>
         <v>40575</v>
       </c>
-      <c r="AD6" s="323"/>
-      <c r="AE6" s="361"/>
-      <c r="AF6" s="363"/>
+      <c r="AD6" s="350"/>
+      <c r="AE6" s="347"/>
+      <c r="AF6" s="298"/>
       <c r="AG6" s="62"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
@@ -19933,44 +19933,44 @@
       <c r="AK6" s="62"/>
     </row>
     <row r="7" spans="1:37" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="341" t="s">
+      <c r="A7" s="359" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="309"/>
-      <c r="C7" s="348" t="s">
+      <c r="B7" s="315"/>
+      <c r="C7" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="337" t="s">
+      <c r="D7" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="314"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="332"/>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="314"/>
-      <c r="T7" s="314"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="314"/>
-      <c r="W7" s="314"/>
-      <c r="X7" s="314"/>
-      <c r="Y7" s="314"/>
-      <c r="Z7" s="314"/>
-      <c r="AA7" s="359"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="366"/>
-      <c r="AD7" s="323"/>
-      <c r="AE7" s="361"/>
-      <c r="AF7" s="363"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="312"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="343"/>
+      <c r="AB7" s="312"/>
+      <c r="AC7" s="357"/>
+      <c r="AD7" s="350"/>
+      <c r="AE7" s="347"/>
+      <c r="AF7" s="298"/>
       <c r="AG7" s="55"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
@@ -19978,38 +19978,38 @@
       <c r="AK7" s="55"/>
     </row>
     <row r="8" spans="1:37" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="342"/>
-      <c r="B8" s="343"/>
-      <c r="C8" s="349"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="317"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="315"/>
-      <c r="R8" s="315"/>
-      <c r="S8" s="315"/>
-      <c r="T8" s="315"/>
-      <c r="U8" s="315"/>
-      <c r="V8" s="315"/>
-      <c r="W8" s="315"/>
-      <c r="X8" s="315"/>
-      <c r="Y8" s="315"/>
-      <c r="Z8" s="315"/>
-      <c r="AA8" s="360"/>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="367"/>
-      <c r="AD8" s="324"/>
-      <c r="AE8" s="362"/>
-      <c r="AF8" s="364"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="339"/>
+      <c r="K8" s="339"/>
+      <c r="L8" s="339"/>
+      <c r="M8" s="339"/>
+      <c r="N8" s="339"/>
+      <c r="O8" s="368"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="307"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="313"/>
+      <c r="AC8" s="358"/>
+      <c r="AD8" s="351"/>
+      <c r="AE8" s="348"/>
+      <c r="AF8" s="299"/>
       <c r="AG8" s="55"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
@@ -20293,18 +20293,20 @@
         <f t="shared" si="3"/>
         <v>16.666666666666664</v>
       </c>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="67" t="str">
+      <c r="AC12" s="111">
+        <v>46</v>
+      </c>
+      <c r="AD12" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>46</v>
       </c>
       <c r="AE12" s="66">
         <f>CRS!H12</f>
-        <v>5.4999999999999991</v>
+        <v>21.14</v>
       </c>
       <c r="AF12" s="64">
         <f>CRS!I12</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AG12" s="55"/>
       <c r="AH12" s="55"/>
@@ -20738,18 +20740,20 @@
         <f t="shared" si="3"/>
         <v>29.166666666666668</v>
       </c>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="67" t="str">
+      <c r="AC18" s="111">
+        <v>30</v>
+      </c>
+      <c r="AD18" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="AE18" s="66">
         <f>CRS!H18</f>
-        <v>9.625</v>
+        <v>19.825000000000003</v>
       </c>
       <c r="AF18" s="64">
         <f>CRS!I18</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
@@ -21331,8 +21335,8 @@
         <f>CRS!I26</f>
         <v>72</v>
       </c>
-      <c r="AG26" s="300"/>
-      <c r="AH26" s="298" t="s">
+      <c r="AG26" s="373"/>
+      <c r="AH26" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -21407,8 +21411,8 @@
         <f>CRS!I27</f>
         <v>72</v>
       </c>
-      <c r="AG27" s="301"/>
-      <c r="AH27" s="299"/>
+      <c r="AG27" s="374"/>
+      <c r="AH27" s="372"/>
     </row>
     <row r="28" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -21479,8 +21483,8 @@
         <f>CRS!I28</f>
         <v>71</v>
       </c>
-      <c r="AG28" s="301"/>
-      <c r="AH28" s="299"/>
+      <c r="AG28" s="374"/>
+      <c r="AH28" s="372"/>
     </row>
     <row r="29" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -21549,8 +21553,8 @@
         <f>CRS!I29</f>
         <v>72</v>
       </c>
-      <c r="AG29" s="301"/>
-      <c r="AH29" s="299"/>
+      <c r="AG29" s="374"/>
+      <c r="AH29" s="372"/>
     </row>
     <row r="30" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -21623,8 +21627,8 @@
         <f>CRS!I30</f>
         <v>72</v>
       </c>
-      <c r="AG30" s="301"/>
-      <c r="AH30" s="299"/>
+      <c r="AG30" s="374"/>
+      <c r="AH30" s="372"/>
     </row>
     <row r="31" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -21697,8 +21701,8 @@
         <f>CRS!I31</f>
         <v>72</v>
       </c>
-      <c r="AG31" s="301"/>
-      <c r="AH31" s="299"/>
+      <c r="AG31" s="374"/>
+      <c r="AH31" s="372"/>
     </row>
     <row r="32" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -21756,21 +21760,23 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="67" t="str">
+      <c r="AC32" s="111">
+        <v>27</v>
+      </c>
+      <c r="AD32" s="67">
         <f t="shared" si="4"/>
-        <v/>
+        <v>27</v>
       </c>
       <c r="AE32" s="66">
         <f>CRS!H32</f>
-        <v>8.25</v>
+        <v>17.43</v>
       </c>
       <c r="AF32" s="64">
         <f>CRS!I32</f>
         <v>71</v>
       </c>
-      <c r="AG32" s="301"/>
-      <c r="AH32" s="299"/>
+      <c r="AG32" s="374"/>
+      <c r="AH32" s="372"/>
     </row>
     <row r="33" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -21839,8 +21845,8 @@
         <f>CRS!I33</f>
         <v>71</v>
       </c>
-      <c r="AG33" s="301"/>
-      <c r="AH33" s="299"/>
+      <c r="AG33" s="374"/>
+      <c r="AH33" s="372"/>
       <c r="AI33" s="55"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
@@ -21916,8 +21922,8 @@
         <f>CRS!I34</f>
         <v>72</v>
       </c>
-      <c r="AG34" s="301"/>
-      <c r="AH34" s="299"/>
+      <c r="AG34" s="374"/>
+      <c r="AH34" s="372"/>
       <c r="AI34" s="55"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
@@ -21993,8 +21999,8 @@
         <f>CRS!I35</f>
         <v>72</v>
       </c>
-      <c r="AG35" s="301"/>
-      <c r="AH35" s="299"/>
+      <c r="AG35" s="374"/>
+      <c r="AH35" s="372"/>
       <c r="AI35" s="55"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
@@ -22070,8 +22076,8 @@
         <f>CRS!I36</f>
         <v>72</v>
       </c>
-      <c r="AG36" s="301"/>
-      <c r="AH36" s="299"/>
+      <c r="AG36" s="374"/>
+      <c r="AH36" s="372"/>
       <c r="AI36" s="55"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
@@ -22141,8 +22147,8 @@
         <f>CRS!I37</f>
         <v/>
       </c>
-      <c r="AG37" s="301"/>
-      <c r="AH37" s="299"/>
+      <c r="AG37" s="374"/>
+      <c r="AH37" s="372"/>
       <c r="AI37" s="55"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
@@ -22218,8 +22224,8 @@
         <f>CRS!I38</f>
         <v>72</v>
       </c>
-      <c r="AG38" s="301"/>
-      <c r="AH38" s="299"/>
+      <c r="AG38" s="374"/>
+      <c r="AH38" s="372"/>
       <c r="AI38" s="55"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
@@ -22289,8 +22295,8 @@
         <f>CRS!I39</f>
         <v/>
       </c>
-      <c r="AG39" s="301"/>
-      <c r="AH39" s="299"/>
+      <c r="AG39" s="374"/>
+      <c r="AH39" s="372"/>
       <c r="AI39" s="55"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
@@ -22366,8 +22372,8 @@
         <f>CRS!I40</f>
         <v>72</v>
       </c>
-      <c r="AG40" s="301"/>
-      <c r="AH40" s="299"/>
+      <c r="AG40" s="374"/>
+      <c r="AH40" s="372"/>
       <c r="AI40" s="55"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
@@ -22412,43 +22418,43 @@
       <c r="AK41" s="55"/>
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="354" t="str">
+      <c r="A42" s="332" t="str">
         <f>A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B42" s="355"/>
-      <c r="C42" s="355"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="325" t="s">
+      <c r="B42" s="333"/>
+      <c r="C42" s="333"/>
+      <c r="D42" s="333"/>
+      <c r="E42" s="328" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="325"/>
-      <c r="G42" s="325"/>
-      <c r="H42" s="325"/>
-      <c r="I42" s="325"/>
-      <c r="J42" s="325"/>
-      <c r="K42" s="326"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="326"/>
-      <c r="N42" s="326"/>
-      <c r="O42" s="326"/>
-      <c r="P42" s="326"/>
-      <c r="Q42" s="326"/>
-      <c r="R42" s="326"/>
-      <c r="S42" s="326"/>
-      <c r="T42" s="326"/>
-      <c r="U42" s="326"/>
-      <c r="V42" s="326"/>
-      <c r="W42" s="326"/>
-      <c r="X42" s="326"/>
-      <c r="Y42" s="326"/>
-      <c r="Z42" s="326"/>
-      <c r="AA42" s="326"/>
-      <c r="AB42" s="326"/>
-      <c r="AC42" s="327"/>
-      <c r="AD42" s="327"/>
-      <c r="AE42" s="327"/>
-      <c r="AF42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
+      <c r="K42" s="329"/>
+      <c r="L42" s="329"/>
+      <c r="M42" s="329"/>
+      <c r="N42" s="329"/>
+      <c r="O42" s="329"/>
+      <c r="P42" s="329"/>
+      <c r="Q42" s="329"/>
+      <c r="R42" s="329"/>
+      <c r="S42" s="329"/>
+      <c r="T42" s="329"/>
+      <c r="U42" s="329"/>
+      <c r="V42" s="329"/>
+      <c r="W42" s="329"/>
+      <c r="X42" s="329"/>
+      <c r="Y42" s="329"/>
+      <c r="Z42" s="329"/>
+      <c r="AA42" s="329"/>
+      <c r="AB42" s="329"/>
+      <c r="AC42" s="330"/>
+      <c r="AD42" s="330"/>
+      <c r="AE42" s="330"/>
+      <c r="AF42" s="331"/>
       <c r="AG42" s="55"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
@@ -22456,48 +22462,48 @@
       <c r="AK42" s="55"/>
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="356"/>
-      <c r="B43" s="357"/>
-      <c r="C43" s="357"/>
-      <c r="D43" s="357"/>
-      <c r="E43" s="309" t="str">
+      <c r="A43" s="334"/>
+      <c r="B43" s="335"/>
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="315" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="309"/>
-      <c r="I43" s="309"/>
-      <c r="J43" s="309"/>
-      <c r="K43" s="310"/>
-      <c r="L43" s="310"/>
-      <c r="M43" s="310"/>
-      <c r="N43" s="310"/>
-      <c r="O43" s="310"/>
-      <c r="P43" s="311"/>
-      <c r="Q43" s="309" t="str">
+      <c r="F43" s="315"/>
+      <c r="G43" s="315"/>
+      <c r="H43" s="315"/>
+      <c r="I43" s="315"/>
+      <c r="J43" s="315"/>
+      <c r="K43" s="316"/>
+      <c r="L43" s="316"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="316"/>
+      <c r="O43" s="316"/>
+      <c r="P43" s="304"/>
+      <c r="Q43" s="315" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="310"/>
-      <c r="S43" s="310"/>
-      <c r="T43" s="310"/>
-      <c r="U43" s="310"/>
-      <c r="V43" s="310"/>
-      <c r="W43" s="310"/>
-      <c r="X43" s="310"/>
-      <c r="Y43" s="310"/>
-      <c r="Z43" s="310"/>
-      <c r="AA43" s="310"/>
-      <c r="AB43" s="311"/>
-      <c r="AC43" s="318" t="s">
+      <c r="R43" s="316"/>
+      <c r="S43" s="316"/>
+      <c r="T43" s="316"/>
+      <c r="U43" s="316"/>
+      <c r="V43" s="316"/>
+      <c r="W43" s="316"/>
+      <c r="X43" s="316"/>
+      <c r="Y43" s="316"/>
+      <c r="Z43" s="316"/>
+      <c r="AA43" s="316"/>
+      <c r="AB43" s="304"/>
+      <c r="AC43" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="319"/>
-      <c r="AE43" s="361" t="s">
+      <c r="AD43" s="353"/>
+      <c r="AE43" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AF43" s="363" t="s">
+      <c r="AF43" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AG43" s="62"/>
@@ -22507,89 +22513,89 @@
       <c r="AK43" s="62"/>
     </row>
     <row r="44" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="339" t="str">
+      <c r="A44" s="345" t="str">
         <f>A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B44" s="340"/>
-      <c r="C44" s="340"/>
-      <c r="D44" s="340"/>
-      <c r="E44" s="312" t="s">
+      <c r="B44" s="346"/>
+      <c r="C44" s="346"/>
+      <c r="D44" s="346"/>
+      <c r="E44" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="312" t="s">
+      <c r="F44" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="312" t="s">
+      <c r="G44" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="312" t="s">
+      <c r="H44" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="312" t="s">
+      <c r="I44" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="312" t="s">
+      <c r="J44" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="312" t="s">
+      <c r="K44" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="312" t="s">
+      <c r="L44" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="312" t="s">
+      <c r="M44" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="312" t="s">
+      <c r="N44" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="329" t="s">
+      <c r="O44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P44" s="306" t="s">
+      <c r="P44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q44" s="312" t="s">
+      <c r="Q44" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R44" s="312" t="s">
+      <c r="R44" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="312" t="s">
+      <c r="S44" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T44" s="312" t="s">
+      <c r="T44" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="312" t="s">
+      <c r="U44" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="312" t="s">
+      <c r="V44" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W44" s="312" t="s">
+      <c r="W44" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X44" s="312" t="s">
+      <c r="X44" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="312" t="s">
+      <c r="Y44" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z44" s="312" t="s">
+      <c r="Z44" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA44" s="329" t="s">
+      <c r="AA44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB44" s="306" t="s">
+      <c r="AB44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="320"/>
-      <c r="AD44" s="321"/>
-      <c r="AE44" s="361"/>
-      <c r="AF44" s="363"/>
+      <c r="AC44" s="354"/>
+      <c r="AD44" s="355"/>
+      <c r="AE44" s="347"/>
+      <c r="AF44" s="298"/>
       <c r="AG44" s="62"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
@@ -22597,48 +22603,48 @@
       <c r="AK44" s="62"/>
     </row>
     <row r="45" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="334" t="str">
+      <c r="A45" s="323" t="str">
         <f>A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B45" s="335"/>
-      <c r="C45" s="336"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="325"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>M303</v>
       </c>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="312"/>
-      <c r="K45" s="312"/>
-      <c r="L45" s="312"/>
-      <c r="M45" s="312"/>
-      <c r="N45" s="312"/>
-      <c r="O45" s="329"/>
-      <c r="P45" s="306"/>
-      <c r="Q45" s="311"/>
-      <c r="R45" s="311"/>
-      <c r="S45" s="311"/>
-      <c r="T45" s="311"/>
-      <c r="U45" s="312"/>
-      <c r="V45" s="312"/>
-      <c r="W45" s="311"/>
-      <c r="X45" s="311"/>
-      <c r="Y45" s="311"/>
-      <c r="Z45" s="311"/>
-      <c r="AA45" s="330"/>
-      <c r="AB45" s="307"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="303"/>
+      <c r="I45" s="303"/>
+      <c r="J45" s="303"/>
+      <c r="K45" s="303"/>
+      <c r="L45" s="303"/>
+      <c r="M45" s="303"/>
+      <c r="N45" s="303"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="311"/>
+      <c r="Q45" s="304"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="304"/>
+      <c r="T45" s="304"/>
+      <c r="U45" s="303"/>
+      <c r="V45" s="303"/>
+      <c r="W45" s="304"/>
+      <c r="X45" s="304"/>
+      <c r="Y45" s="304"/>
+      <c r="Z45" s="304"/>
+      <c r="AA45" s="341"/>
+      <c r="AB45" s="312"/>
       <c r="AC45" s="68" t="s">
         <v>122</v>
       </c>
       <c r="AD45" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="AE45" s="361"/>
-      <c r="AF45" s="363"/>
+      <c r="AE45" s="347"/>
+      <c r="AF45" s="298"/>
       <c r="AG45" s="62"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
@@ -22646,13 +22652,13 @@
       <c r="AK45" s="62"/>
     </row>
     <row r="46" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="334" t="str">
+      <c r="A46" s="323" t="str">
         <f>A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="335"/>
-      <c r="C46" s="336"/>
-      <c r="D46" s="336"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="325"/>
       <c r="E46" s="57" t="str">
         <f t="shared" ref="E46:N46" si="5">IF(E5="","",E5)</f>
         <v/>
@@ -22693,8 +22699,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="329"/>
-      <c r="P46" s="306"/>
+      <c r="O46" s="340"/>
+      <c r="P46" s="311"/>
       <c r="Q46" s="57">
         <f>IF(Q5="","",Q5)</f>
         <v>40</v>
@@ -22735,15 +22741,15 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="330"/>
-      <c r="AB46" s="307"/>
+      <c r="AA46" s="341"/>
+      <c r="AB46" s="312"/>
       <c r="AC46" s="57">
         <f>IF(AC5="","",AC5)</f>
         <v>100</v>
       </c>
-      <c r="AD46" s="322"/>
-      <c r="AE46" s="361"/>
-      <c r="AF46" s="363"/>
+      <c r="AD46" s="349"/>
+      <c r="AE46" s="347"/>
+      <c r="AF46" s="298"/>
       <c r="AG46" s="62"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
@@ -22751,110 +22757,110 @@
       <c r="AK46" s="62"/>
     </row>
     <row r="47" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="341" t="str">
+      <c r="A47" s="359" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="310"/>
-      <c r="C47" s="311"/>
-      <c r="D47" s="311"/>
-      <c r="E47" s="302" t="str">
+      <c r="B47" s="316"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="317" t="str">
         <f>IF(E6="","",E6)</f>
         <v/>
       </c>
-      <c r="F47" s="302" t="str">
+      <c r="F47" s="317" t="str">
         <f t="shared" ref="F47:N47" si="7">IF(F6="","",F6)</f>
         <v/>
       </c>
-      <c r="G47" s="302" t="str">
+      <c r="G47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H47" s="302" t="str">
+      <c r="H47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I47" s="302" t="str">
+      <c r="I47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J47" s="302" t="str">
+      <c r="J47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K47" s="302" t="str">
+      <c r="K47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L47" s="302" t="str">
+      <c r="L47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M47" s="302" t="str">
+      <c r="M47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N47" s="302" t="str">
+      <c r="N47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O47" s="304" t="str">
+      <c r="O47" s="369" t="str">
         <f>O6</f>
         <v/>
       </c>
-      <c r="P47" s="306"/>
-      <c r="Q47" s="302" t="str">
+      <c r="P47" s="311"/>
+      <c r="Q47" s="317" t="str">
         <f t="shared" ref="Q47:Z47" si="8">IF(Q6="","",Q6)</f>
         <v>Lab Act 01</v>
       </c>
-      <c r="R47" s="302" t="str">
+      <c r="R47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Lab Act 02</v>
       </c>
-      <c r="S47" s="302" t="str">
+      <c r="S47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Lab Act 03</v>
       </c>
-      <c r="T47" s="302" t="str">
+      <c r="T47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Lab Act 04</v>
       </c>
-      <c r="U47" s="302" t="str">
+      <c r="U47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Lab Act 05</v>
       </c>
-      <c r="V47" s="302" t="str">
+      <c r="V47" s="317" t="str">
         <f t="shared" si="8"/>
         <v>Lab Act 06</v>
       </c>
-      <c r="W47" s="302" t="str">
+      <c r="W47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X47" s="302" t="str">
+      <c r="X47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y47" s="302" t="str">
+      <c r="Y47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Z47" s="302" t="str">
+      <c r="Z47" s="317" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AA47" s="304">
+      <c r="AA47" s="369">
         <f>AA6</f>
         <v>240</v>
       </c>
-      <c r="AB47" s="307"/>
-      <c r="AC47" s="371">
+      <c r="AB47" s="312"/>
+      <c r="AC47" s="308">
         <f>AC6</f>
         <v>40575</v>
       </c>
-      <c r="AD47" s="323"/>
-      <c r="AE47" s="361"/>
-      <c r="AF47" s="363"/>
+      <c r="AD47" s="350"/>
+      <c r="AE47" s="347"/>
+      <c r="AF47" s="298"/>
       <c r="AG47" s="62"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
@@ -22862,44 +22868,44 @@
       <c r="AK47" s="62"/>
     </row>
     <row r="48" spans="1:37" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="344" t="s">
+      <c r="A48" s="362" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="345"/>
-      <c r="C48" s="348" t="s">
+      <c r="B48" s="363"/>
+      <c r="C48" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="337" t="s">
+      <c r="D48" s="326" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="302"/>
-      <c r="F48" s="302"/>
-      <c r="G48" s="302"/>
-      <c r="H48" s="302"/>
-      <c r="I48" s="302"/>
-      <c r="J48" s="302"/>
-      <c r="K48" s="302"/>
-      <c r="L48" s="302"/>
-      <c r="M48" s="302"/>
-      <c r="N48" s="302"/>
-      <c r="O48" s="304"/>
-      <c r="P48" s="306"/>
-      <c r="Q48" s="302"/>
-      <c r="R48" s="302"/>
-      <c r="S48" s="302"/>
-      <c r="T48" s="302"/>
-      <c r="U48" s="302"/>
-      <c r="V48" s="302"/>
-      <c r="W48" s="302"/>
-      <c r="X48" s="302"/>
-      <c r="Y48" s="302"/>
-      <c r="Z48" s="302"/>
-      <c r="AA48" s="304"/>
-      <c r="AB48" s="307"/>
-      <c r="AC48" s="372"/>
-      <c r="AD48" s="323"/>
-      <c r="AE48" s="361"/>
-      <c r="AF48" s="363"/>
+      <c r="E48" s="317"/>
+      <c r="F48" s="317"/>
+      <c r="G48" s="317"/>
+      <c r="H48" s="317"/>
+      <c r="I48" s="317"/>
+      <c r="J48" s="317"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
+      <c r="M48" s="317"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="369"/>
+      <c r="P48" s="311"/>
+      <c r="Q48" s="317"/>
+      <c r="R48" s="317"/>
+      <c r="S48" s="317"/>
+      <c r="T48" s="317"/>
+      <c r="U48" s="317"/>
+      <c r="V48" s="317"/>
+      <c r="W48" s="317"/>
+      <c r="X48" s="317"/>
+      <c r="Y48" s="317"/>
+      <c r="Z48" s="317"/>
+      <c r="AA48" s="369"/>
+      <c r="AB48" s="312"/>
+      <c r="AC48" s="309"/>
+      <c r="AD48" s="350"/>
+      <c r="AE48" s="347"/>
+      <c r="AF48" s="298"/>
       <c r="AG48" s="55"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
@@ -22907,38 +22913,38 @@
       <c r="AK48" s="55"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A49" s="346"/>
-      <c r="B49" s="347"/>
-      <c r="C49" s="349"/>
-      <c r="D49" s="338"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
-      <c r="I49" s="303"/>
-      <c r="J49" s="303"/>
-      <c r="K49" s="303"/>
-      <c r="L49" s="303"/>
-      <c r="M49" s="303"/>
-      <c r="N49" s="303"/>
-      <c r="O49" s="305"/>
-      <c r="P49" s="374"/>
-      <c r="Q49" s="303"/>
-      <c r="R49" s="303"/>
-      <c r="S49" s="303"/>
-      <c r="T49" s="303"/>
-      <c r="U49" s="303"/>
-      <c r="V49" s="303"/>
-      <c r="W49" s="303"/>
-      <c r="X49" s="303"/>
-      <c r="Y49" s="303"/>
-      <c r="Z49" s="303"/>
-      <c r="AA49" s="305"/>
-      <c r="AB49" s="308"/>
-      <c r="AC49" s="373"/>
-      <c r="AD49" s="324"/>
-      <c r="AE49" s="362"/>
-      <c r="AF49" s="364"/>
+      <c r="A49" s="364"/>
+      <c r="B49" s="365"/>
+      <c r="C49" s="337"/>
+      <c r="D49" s="327"/>
+      <c r="E49" s="318"/>
+      <c r="F49" s="318"/>
+      <c r="G49" s="318"/>
+      <c r="H49" s="318"/>
+      <c r="I49" s="318"/>
+      <c r="J49" s="318"/>
+      <c r="K49" s="318"/>
+      <c r="L49" s="318"/>
+      <c r="M49" s="318"/>
+      <c r="N49" s="318"/>
+      <c r="O49" s="370"/>
+      <c r="P49" s="314"/>
+      <c r="Q49" s="318"/>
+      <c r="R49" s="318"/>
+      <c r="S49" s="318"/>
+      <c r="T49" s="318"/>
+      <c r="U49" s="318"/>
+      <c r="V49" s="318"/>
+      <c r="W49" s="318"/>
+      <c r="X49" s="318"/>
+      <c r="Y49" s="318"/>
+      <c r="Z49" s="318"/>
+      <c r="AA49" s="370"/>
+      <c r="AB49" s="313"/>
+      <c r="AC49" s="310"/>
+      <c r="AD49" s="351"/>
+      <c r="AE49" s="348"/>
+      <c r="AF49" s="299"/>
     </row>
     <row r="50" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -24091,8 +24097,8 @@
         <f>CRS!I66</f>
         <v/>
       </c>
-      <c r="AG66" s="300"/>
-      <c r="AH66" s="298" t="s">
+      <c r="AG66" s="373"/>
+      <c r="AH66" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -24161,8 +24167,8 @@
         <f>CRS!I67</f>
         <v/>
       </c>
-      <c r="AG67" s="301"/>
-      <c r="AH67" s="299"/>
+      <c r="AG67" s="374"/>
+      <c r="AH67" s="372"/>
     </row>
     <row r="68" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -24229,8 +24235,8 @@
         <f>CRS!I68</f>
         <v/>
       </c>
-      <c r="AG68" s="301"/>
-      <c r="AH68" s="299"/>
+      <c r="AG68" s="374"/>
+      <c r="AH68" s="372"/>
     </row>
     <row r="69" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -24297,8 +24303,8 @@
         <f>CRS!I69</f>
         <v/>
       </c>
-      <c r="AG69" s="301"/>
-      <c r="AH69" s="299"/>
+      <c r="AG69" s="374"/>
+      <c r="AH69" s="372"/>
     </row>
     <row r="70" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -24365,8 +24371,8 @@
         <f>CRS!I70</f>
         <v/>
       </c>
-      <c r="AG70" s="301"/>
-      <c r="AH70" s="299"/>
+      <c r="AG70" s="374"/>
+      <c r="AH70" s="372"/>
     </row>
     <row r="71" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -24433,8 +24439,8 @@
         <f>CRS!I71</f>
         <v/>
       </c>
-      <c r="AG71" s="301"/>
-      <c r="AH71" s="299"/>
+      <c r="AG71" s="374"/>
+      <c r="AH71" s="372"/>
     </row>
     <row r="72" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -24501,8 +24507,8 @@
         <f>CRS!I72</f>
         <v/>
       </c>
-      <c r="AG72" s="301"/>
-      <c r="AH72" s="299"/>
+      <c r="AG72" s="374"/>
+      <c r="AH72" s="372"/>
     </row>
     <row r="73" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -24569,8 +24575,8 @@
         <f>CRS!I73</f>
         <v/>
       </c>
-      <c r="AG73" s="301"/>
-      <c r="AH73" s="299"/>
+      <c r="AG73" s="374"/>
+      <c r="AH73" s="372"/>
     </row>
     <row r="74" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -24637,8 +24643,8 @@
         <f>CRS!I74</f>
         <v/>
       </c>
-      <c r="AG74" s="301"/>
-      <c r="AH74" s="299"/>
+      <c r="AG74" s="374"/>
+      <c r="AH74" s="372"/>
     </row>
     <row r="75" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -24705,8 +24711,8 @@
         <f>CRS!I75</f>
         <v/>
       </c>
-      <c r="AG75" s="301"/>
-      <c r="AH75" s="299"/>
+      <c r="AG75" s="374"/>
+      <c r="AH75" s="372"/>
     </row>
     <row r="76" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -24773,8 +24779,8 @@
         <f>CRS!I76</f>
         <v/>
       </c>
-      <c r="AG76" s="301"/>
-      <c r="AH76" s="299"/>
+      <c r="AG76" s="374"/>
+      <c r="AH76" s="372"/>
     </row>
     <row r="77" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -24841,8 +24847,8 @@
         <f>CRS!I77</f>
         <v/>
       </c>
-      <c r="AG77" s="301"/>
-      <c r="AH77" s="299"/>
+      <c r="AG77" s="374"/>
+      <c r="AH77" s="372"/>
     </row>
     <row r="78" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -24909,8 +24915,8 @@
         <f>CRS!I78</f>
         <v/>
       </c>
-      <c r="AG78" s="301"/>
-      <c r="AH78" s="299"/>
+      <c r="AG78" s="374"/>
+      <c r="AH78" s="372"/>
     </row>
     <row r="79" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -24977,8 +24983,8 @@
         <f>CRS!I79</f>
         <v/>
       </c>
-      <c r="AG79" s="301"/>
-      <c r="AH79" s="299"/>
+      <c r="AG79" s="374"/>
+      <c r="AH79" s="372"/>
     </row>
     <row r="80" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -25045,8 +25051,8 @@
         <f>CRS!I80</f>
         <v/>
       </c>
-      <c r="AG80" s="301"/>
-      <c r="AH80" s="299"/>
+      <c r="AG80" s="374"/>
+      <c r="AH80" s="372"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -25326,6 +25332,110 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sq5jNjiBvRhnKHfivcv63PIil4qKS/9mQiV4aFr69nDzINu+0ecn8NT3diVZT68S0si8O2smy0x5/onhwU/zA==" saltValue="Xa18L1vVZidTgwLONF3CHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="AG66:AG80"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AG26:AG40"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="AC2:AD3"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="E42:AF42"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="E1:AF1"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="AE2:AE8"/>
+    <mergeCell ref="AF2:AF8"/>
+    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="AE43:AE49"/>
     <mergeCell ref="AF43:AF49"/>
     <mergeCell ref="E2:P2"/>
     <mergeCell ref="Z44:Z45"/>
@@ -25350,110 +25460,6 @@
     <mergeCell ref="Y6:Y8"/>
     <mergeCell ref="W3:W4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="E1:AF1"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="AF2:AF8"/>
-    <mergeCell ref="AD46:AD49"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="AG66:AG80"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AG26:AG40"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="AC2:AD3"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="E42:AF42"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="E47:E49"/>
   </mergeCells>
   <dataValidations xWindow="307" yWindow="360" count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
@@ -25557,44 +25563,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="350" t="str">
+      <c r="A1" s="319" t="str">
         <f>CRS!A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="325" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="328" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
-      <c r="Z1" s="326"/>
-      <c r="AA1" s="326"/>
-      <c r="AB1" s="326"/>
-      <c r="AC1" s="327"/>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="327"/>
-      <c r="AG1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
+      <c r="R1" s="329"/>
+      <c r="S1" s="329"/>
+      <c r="T1" s="329"/>
+      <c r="U1" s="329"/>
+      <c r="V1" s="329"/>
+      <c r="W1" s="329"/>
+      <c r="X1" s="329"/>
+      <c r="Y1" s="329"/>
+      <c r="Z1" s="329"/>
+      <c r="AA1" s="329"/>
+      <c r="AB1" s="329"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="330"/>
+      <c r="AG1" s="331"/>
       <c r="AH1" s="63"/>
       <c r="AI1" s="55"/>
       <c r="AJ1" s="55"/>
@@ -25602,51 +25608,51 @@
       <c r="AL1" s="55"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="352"/>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="368" t="str">
+      <c r="A2" s="321"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="300" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="370"/>
-      <c r="Q2" s="309" t="str">
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="315" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="310"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="310"/>
-      <c r="U2" s="310"/>
-      <c r="V2" s="310"/>
-      <c r="W2" s="310"/>
-      <c r="X2" s="310"/>
-      <c r="Y2" s="310"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="310"/>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="318" t="s">
+      <c r="R2" s="316"/>
+      <c r="S2" s="316"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
+      <c r="Z2" s="316"/>
+      <c r="AA2" s="316"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="319"/>
+      <c r="AD2" s="353"/>
       <c r="AE2" s="375" t="s">
         <v>132</v>
       </c>
-      <c r="AF2" s="361" t="s">
+      <c r="AF2" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="363" t="s">
+      <c r="AG2" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="62"/>
@@ -25656,90 +25662,90 @@
       <c r="AL2" s="62"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="339" t="str">
+      <c r="A3" s="345" t="str">
         <f>CRS!A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="312" t="s">
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="312" t="s">
+      <c r="F3" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="312" t="s">
+      <c r="G3" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="312" t="s">
+      <c r="I3" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="312" t="s">
+      <c r="J3" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="312" t="s">
+      <c r="K3" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="312" t="s">
+      <c r="L3" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="312" t="s">
+      <c r="M3" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="312" t="s">
+      <c r="N3" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="329" t="s">
+      <c r="O3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="306" t="s">
+      <c r="P3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="312" t="s">
+      <c r="Q3" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="312" t="s">
+      <c r="S3" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="312" t="s">
+      <c r="T3" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="312" t="s">
+      <c r="U3" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="312" t="s">
+      <c r="V3" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="312" t="s">
+      <c r="W3" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="312" t="s">
+      <c r="X3" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="312" t="s">
+      <c r="Y3" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="312" t="s">
+      <c r="Z3" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="329" t="s">
+      <c r="AA3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="306" t="s">
+      <c r="AB3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="320"/>
-      <c r="AD3" s="321"/>
+      <c r="AC3" s="354"/>
+      <c r="AD3" s="355"/>
       <c r="AE3" s="375"/>
-      <c r="AF3" s="361"/>
-      <c r="AG3" s="363"/>
+      <c r="AF3" s="347"/>
+      <c r="AG3" s="298"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
       <c r="AJ3" s="62"/>
@@ -25747,40 +25753,40 @@
       <c r="AL3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="334" t="str">
+      <c r="A4" s="323" t="str">
         <f>CRS!A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B4" s="335"/>
-      <c r="C4" s="336"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="325"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>M303</v>
       </c>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="311"/>
-      <c r="N4" s="311"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="311"/>
-      <c r="V4" s="311"/>
-      <c r="W4" s="311"/>
-      <c r="X4" s="311"/>
-      <c r="Y4" s="311"/>
-      <c r="Z4" s="311"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="307"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="304"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="304"/>
+      <c r="N4" s="304"/>
+      <c r="O4" s="341"/>
+      <c r="P4" s="312"/>
+      <c r="Q4" s="304"/>
+      <c r="R4" s="304"/>
+      <c r="S4" s="304"/>
+      <c r="T4" s="304"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="304"/>
+      <c r="W4" s="304"/>
+      <c r="X4" s="304"/>
+      <c r="Y4" s="304"/>
+      <c r="Z4" s="304"/>
+      <c r="AA4" s="341"/>
+      <c r="AB4" s="312"/>
       <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
@@ -25788,8 +25794,8 @@
         <v>123</v>
       </c>
       <c r="AE4" s="375"/>
-      <c r="AF4" s="361"/>
-      <c r="AG4" s="363"/>
+      <c r="AF4" s="347"/>
+      <c r="AG4" s="298"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="62"/>
@@ -25797,13 +25803,13 @@
       <c r="AL4" s="62"/>
     </row>
     <row r="5" spans="1:38" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="334" t="str">
+      <c r="A5" s="323" t="str">
         <f>CRS!A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="335"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
       <c r="E5" s="108"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -25814,8 +25820,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="307"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="108"/>
       <c r="R5" s="108"/>
       <c r="S5" s="108"/>
@@ -25826,13 +25832,13 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="330"/>
-      <c r="AB5" s="307"/>
+      <c r="AA5" s="341"/>
+      <c r="AB5" s="312"/>
       <c r="AC5" s="110"/>
-      <c r="AD5" s="322"/>
+      <c r="AD5" s="349"/>
       <c r="AE5" s="375"/>
-      <c r="AF5" s="361"/>
-      <c r="AG5" s="363"/>
+      <c r="AF5" s="347"/>
+      <c r="AG5" s="298"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="62"/>
@@ -25840,51 +25846,51 @@
       <c r="AL5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="341" t="str">
+      <c r="A6" s="359" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="313"/>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="313"/>
-      <c r="O6" s="331" t="str">
+      <c r="B6" s="316"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="366" t="str">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v/>
       </c>
-      <c r="P6" s="307"/>
-      <c r="Q6" s="313"/>
-      <c r="R6" s="313"/>
-      <c r="S6" s="313"/>
-      <c r="T6" s="313"/>
-      <c r="U6" s="313"/>
-      <c r="V6" s="313"/>
-      <c r="W6" s="313"/>
-      <c r="X6" s="313"/>
-      <c r="Y6" s="313"/>
-      <c r="Z6" s="313"/>
-      <c r="AA6" s="358" t="str">
+      <c r="P6" s="312"/>
+      <c r="Q6" s="305"/>
+      <c r="R6" s="305"/>
+      <c r="S6" s="305"/>
+      <c r="T6" s="305"/>
+      <c r="U6" s="305"/>
+      <c r="V6" s="305"/>
+      <c r="W6" s="305"/>
+      <c r="X6" s="305"/>
+      <c r="Y6" s="305"/>
+      <c r="Z6" s="305"/>
+      <c r="AA6" s="342" t="str">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v/>
       </c>
-      <c r="AB6" s="307"/>
-      <c r="AC6" s="365">
+      <c r="AB6" s="312"/>
+      <c r="AC6" s="356">
         <f>'INITIAL INPUT'!D22</f>
         <v>40603</v>
       </c>
-      <c r="AD6" s="323"/>
+      <c r="AD6" s="350"/>
       <c r="AE6" s="375"/>
-      <c r="AF6" s="361"/>
-      <c r="AG6" s="363"/>
+      <c r="AF6" s="347"/>
+      <c r="AG6" s="298"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
@@ -25892,45 +25898,45 @@
       <c r="AL6" s="62"/>
     </row>
     <row r="7" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="341" t="s">
+      <c r="A7" s="359" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="309"/>
-      <c r="C7" s="348" t="s">
+      <c r="B7" s="315"/>
+      <c r="C7" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="337" t="s">
+      <c r="D7" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="314"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="332"/>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="314"/>
-      <c r="T7" s="314"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="314"/>
-      <c r="W7" s="314"/>
-      <c r="X7" s="314"/>
-      <c r="Y7" s="314"/>
-      <c r="Z7" s="314"/>
-      <c r="AA7" s="359"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="366"/>
-      <c r="AD7" s="323"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="312"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="343"/>
+      <c r="AB7" s="312"/>
+      <c r="AC7" s="357"/>
+      <c r="AD7" s="350"/>
       <c r="AE7" s="375"/>
-      <c r="AF7" s="361"/>
-      <c r="AG7" s="363"/>
+      <c r="AF7" s="347"/>
+      <c r="AG7" s="298"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
@@ -25938,39 +25944,39 @@
       <c r="AL7" s="55"/>
     </row>
     <row r="8" spans="1:38" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="342"/>
-      <c r="B8" s="343"/>
-      <c r="C8" s="349"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="317"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="315"/>
-      <c r="R8" s="315"/>
-      <c r="S8" s="315"/>
-      <c r="T8" s="315"/>
-      <c r="U8" s="315"/>
-      <c r="V8" s="315"/>
-      <c r="W8" s="315"/>
-      <c r="X8" s="315"/>
-      <c r="Y8" s="315"/>
-      <c r="Z8" s="315"/>
-      <c r="AA8" s="360"/>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="367"/>
-      <c r="AD8" s="324"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="339"/>
+      <c r="K8" s="339"/>
+      <c r="L8" s="339"/>
+      <c r="M8" s="339"/>
+      <c r="N8" s="339"/>
+      <c r="O8" s="368"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="307"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="313"/>
+      <c r="AC8" s="358"/>
+      <c r="AD8" s="351"/>
       <c r="AE8" s="376"/>
-      <c r="AF8" s="362"/>
-      <c r="AG8" s="364"/>
+      <c r="AF8" s="348"/>
+      <c r="AG8" s="299"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
@@ -27294,8 +27300,8 @@
         <f>CRS!O26</f>
         <v/>
       </c>
-      <c r="AH26" s="300"/>
-      <c r="AI26" s="298" t="s">
+      <c r="AH26" s="373"/>
+      <c r="AI26" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -27368,8 +27374,8 @@
         <f>CRS!O27</f>
         <v/>
       </c>
-      <c r="AH27" s="301"/>
-      <c r="AI27" s="299"/>
+      <c r="AH27" s="374"/>
+      <c r="AI27" s="372"/>
     </row>
     <row r="28" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -27440,8 +27446,8 @@
         <f>CRS!O28</f>
         <v/>
       </c>
-      <c r="AH28" s="301"/>
-      <c r="AI28" s="299"/>
+      <c r="AH28" s="374"/>
+      <c r="AI28" s="372"/>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -27512,8 +27518,8 @@
         <f>CRS!O29</f>
         <v/>
       </c>
-      <c r="AH29" s="301"/>
-      <c r="AI29" s="299"/>
+      <c r="AH29" s="374"/>
+      <c r="AI29" s="372"/>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -27584,8 +27590,8 @@
         <f>CRS!O30</f>
         <v/>
       </c>
-      <c r="AH30" s="301"/>
-      <c r="AI30" s="299"/>
+      <c r="AH30" s="374"/>
+      <c r="AI30" s="372"/>
     </row>
     <row r="31" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -27656,8 +27662,8 @@
         <f>CRS!O31</f>
         <v/>
       </c>
-      <c r="AH31" s="301"/>
-      <c r="AI31" s="299"/>
+      <c r="AH31" s="374"/>
+      <c r="AI31" s="372"/>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -27728,8 +27734,8 @@
         <f>CRS!O32</f>
         <v/>
       </c>
-      <c r="AH32" s="301"/>
-      <c r="AI32" s="299"/>
+      <c r="AH32" s="374"/>
+      <c r="AI32" s="372"/>
     </row>
     <row r="33" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -27800,8 +27806,8 @@
         <f>CRS!O33</f>
         <v/>
       </c>
-      <c r="AH33" s="301"/>
-      <c r="AI33" s="299"/>
+      <c r="AH33" s="374"/>
+      <c r="AI33" s="372"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
       <c r="AL33" s="55"/>
@@ -27875,8 +27881,8 @@
         <f>CRS!O34</f>
         <v/>
       </c>
-      <c r="AH34" s="301"/>
-      <c r="AI34" s="299"/>
+      <c r="AH34" s="374"/>
+      <c r="AI34" s="372"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
       <c r="AL34" s="55"/>
@@ -27950,8 +27956,8 @@
         <f>CRS!O35</f>
         <v/>
       </c>
-      <c r="AH35" s="301"/>
-      <c r="AI35" s="299"/>
+      <c r="AH35" s="374"/>
+      <c r="AI35" s="372"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
       <c r="AL35" s="55"/>
@@ -28025,8 +28031,8 @@
         <f>CRS!O36</f>
         <v/>
       </c>
-      <c r="AH36" s="301"/>
-      <c r="AI36" s="299"/>
+      <c r="AH36" s="374"/>
+      <c r="AI36" s="372"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
       <c r="AL36" s="55"/>
@@ -28100,8 +28106,8 @@
         <f>CRS!O37</f>
         <v/>
       </c>
-      <c r="AH37" s="301"/>
-      <c r="AI37" s="299"/>
+      <c r="AH37" s="374"/>
+      <c r="AI37" s="372"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
       <c r="AL37" s="55"/>
@@ -28175,8 +28181,8 @@
         <f>CRS!O38</f>
         <v/>
       </c>
-      <c r="AH38" s="301"/>
-      <c r="AI38" s="299"/>
+      <c r="AH38" s="374"/>
+      <c r="AI38" s="372"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
       <c r="AL38" s="55"/>
@@ -28250,8 +28256,8 @@
         <f>CRS!O39</f>
         <v/>
       </c>
-      <c r="AH39" s="301"/>
-      <c r="AI39" s="299"/>
+      <c r="AH39" s="374"/>
+      <c r="AI39" s="372"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
       <c r="AL39" s="55"/>
@@ -28325,8 +28331,8 @@
         <f>CRS!O40</f>
         <v/>
       </c>
-      <c r="AH40" s="301"/>
-      <c r="AI40" s="299"/>
+      <c r="AH40" s="374"/>
+      <c r="AI40" s="372"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
       <c r="AL40" s="55"/>
@@ -28372,44 +28378,44 @@
       <c r="AL41" s="55"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="354" t="str">
+      <c r="A42" s="332" t="str">
         <f>A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B42" s="355"/>
-      <c r="C42" s="355"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="325" t="s">
+      <c r="B42" s="333"/>
+      <c r="C42" s="333"/>
+      <c r="D42" s="333"/>
+      <c r="E42" s="328" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="325"/>
-      <c r="G42" s="325"/>
-      <c r="H42" s="325"/>
-      <c r="I42" s="325"/>
-      <c r="J42" s="325"/>
-      <c r="K42" s="326"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="326"/>
-      <c r="N42" s="326"/>
-      <c r="O42" s="326"/>
-      <c r="P42" s="326"/>
-      <c r="Q42" s="326"/>
-      <c r="R42" s="326"/>
-      <c r="S42" s="326"/>
-      <c r="T42" s="326"/>
-      <c r="U42" s="326"/>
-      <c r="V42" s="326"/>
-      <c r="W42" s="326"/>
-      <c r="X42" s="326"/>
-      <c r="Y42" s="326"/>
-      <c r="Z42" s="326"/>
-      <c r="AA42" s="326"/>
-      <c r="AB42" s="326"/>
-      <c r="AC42" s="327"/>
-      <c r="AD42" s="327"/>
-      <c r="AE42" s="327"/>
-      <c r="AF42" s="327"/>
-      <c r="AG42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
+      <c r="K42" s="329"/>
+      <c r="L42" s="329"/>
+      <c r="M42" s="329"/>
+      <c r="N42" s="329"/>
+      <c r="O42" s="329"/>
+      <c r="P42" s="329"/>
+      <c r="Q42" s="329"/>
+      <c r="R42" s="329"/>
+      <c r="S42" s="329"/>
+      <c r="T42" s="329"/>
+      <c r="U42" s="329"/>
+      <c r="V42" s="329"/>
+      <c r="W42" s="329"/>
+      <c r="X42" s="329"/>
+      <c r="Y42" s="329"/>
+      <c r="Z42" s="329"/>
+      <c r="AA42" s="329"/>
+      <c r="AB42" s="329"/>
+      <c r="AC42" s="330"/>
+      <c r="AD42" s="330"/>
+      <c r="AE42" s="330"/>
+      <c r="AF42" s="330"/>
+      <c r="AG42" s="331"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
       <c r="AJ42" s="55"/>
@@ -28417,52 +28423,52 @@
       <c r="AL42" s="55"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="356"/>
-      <c r="B43" s="357"/>
-      <c r="C43" s="357"/>
-      <c r="D43" s="357"/>
-      <c r="E43" s="309" t="str">
+      <c r="A43" s="334"/>
+      <c r="B43" s="335"/>
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="315" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="309"/>
-      <c r="I43" s="309"/>
-      <c r="J43" s="309"/>
-      <c r="K43" s="310"/>
-      <c r="L43" s="310"/>
-      <c r="M43" s="310"/>
-      <c r="N43" s="310"/>
-      <c r="O43" s="310"/>
-      <c r="P43" s="311"/>
-      <c r="Q43" s="309" t="str">
+      <c r="F43" s="315"/>
+      <c r="G43" s="315"/>
+      <c r="H43" s="315"/>
+      <c r="I43" s="315"/>
+      <c r="J43" s="315"/>
+      <c r="K43" s="316"/>
+      <c r="L43" s="316"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="316"/>
+      <c r="O43" s="316"/>
+      <c r="P43" s="304"/>
+      <c r="Q43" s="315" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="310"/>
-      <c r="S43" s="310"/>
-      <c r="T43" s="310"/>
-      <c r="U43" s="310"/>
-      <c r="V43" s="310"/>
-      <c r="W43" s="310"/>
-      <c r="X43" s="310"/>
-      <c r="Y43" s="310"/>
-      <c r="Z43" s="310"/>
-      <c r="AA43" s="310"/>
-      <c r="AB43" s="311"/>
-      <c r="AC43" s="318" t="s">
+      <c r="R43" s="316"/>
+      <c r="S43" s="316"/>
+      <c r="T43" s="316"/>
+      <c r="U43" s="316"/>
+      <c r="V43" s="316"/>
+      <c r="W43" s="316"/>
+      <c r="X43" s="316"/>
+      <c r="Y43" s="316"/>
+      <c r="Z43" s="316"/>
+      <c r="AA43" s="316"/>
+      <c r="AB43" s="304"/>
+      <c r="AC43" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="319"/>
+      <c r="AD43" s="353"/>
       <c r="AE43" s="375" t="str">
         <f>AE2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="AF43" s="361" t="s">
+      <c r="AF43" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AG43" s="363" t="s">
+      <c r="AG43" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AH43" s="62"/>
@@ -28472,90 +28478,90 @@
       <c r="AL43" s="62"/>
     </row>
     <row r="44" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="339" t="str">
+      <c r="A44" s="345" t="str">
         <f>A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B44" s="340"/>
-      <c r="C44" s="340"/>
-      <c r="D44" s="340"/>
-      <c r="E44" s="312" t="s">
+      <c r="B44" s="346"/>
+      <c r="C44" s="346"/>
+      <c r="D44" s="346"/>
+      <c r="E44" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="312" t="s">
+      <c r="F44" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="312" t="s">
+      <c r="G44" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="312" t="s">
+      <c r="H44" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="312" t="s">
+      <c r="I44" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="312" t="s">
+      <c r="J44" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="312" t="s">
+      <c r="K44" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="312" t="s">
+      <c r="L44" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="312" t="s">
+      <c r="M44" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="312" t="s">
+      <c r="N44" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="329" t="s">
+      <c r="O44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P44" s="306" t="s">
+      <c r="P44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q44" s="312" t="s">
+      <c r="Q44" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R44" s="312" t="s">
+      <c r="R44" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="312" t="s">
+      <c r="S44" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T44" s="312" t="s">
+      <c r="T44" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="312" t="s">
+      <c r="U44" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="312" t="s">
+      <c r="V44" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W44" s="312" t="s">
+      <c r="W44" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X44" s="312" t="s">
+      <c r="X44" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="312" t="s">
+      <c r="Y44" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z44" s="312" t="s">
+      <c r="Z44" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA44" s="329" t="s">
+      <c r="AA44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB44" s="306" t="s">
+      <c r="AB44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="320"/>
-      <c r="AD44" s="321"/>
+      <c r="AC44" s="354"/>
+      <c r="AD44" s="355"/>
       <c r="AE44" s="375"/>
-      <c r="AF44" s="361"/>
-      <c r="AG44" s="363"/>
+      <c r="AF44" s="347"/>
+      <c r="AG44" s="298"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
       <c r="AJ44" s="62"/>
@@ -28563,40 +28569,40 @@
       <c r="AL44" s="62"/>
     </row>
     <row r="45" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="334" t="str">
+      <c r="A45" s="323" t="str">
         <f>A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B45" s="335"/>
-      <c r="C45" s="336"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="325"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>M303</v>
       </c>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="312"/>
-      <c r="K45" s="312"/>
-      <c r="L45" s="312"/>
-      <c r="M45" s="312"/>
-      <c r="N45" s="312"/>
-      <c r="O45" s="329"/>
-      <c r="P45" s="306"/>
-      <c r="Q45" s="311"/>
-      <c r="R45" s="311"/>
-      <c r="S45" s="311"/>
-      <c r="T45" s="311"/>
-      <c r="U45" s="312"/>
-      <c r="V45" s="312"/>
-      <c r="W45" s="311"/>
-      <c r="X45" s="311"/>
-      <c r="Y45" s="311"/>
-      <c r="Z45" s="311"/>
-      <c r="AA45" s="330"/>
-      <c r="AB45" s="307"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="303"/>
+      <c r="I45" s="303"/>
+      <c r="J45" s="303"/>
+      <c r="K45" s="303"/>
+      <c r="L45" s="303"/>
+      <c r="M45" s="303"/>
+      <c r="N45" s="303"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="311"/>
+      <c r="Q45" s="304"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="304"/>
+      <c r="T45" s="304"/>
+      <c r="U45" s="303"/>
+      <c r="V45" s="303"/>
+      <c r="W45" s="304"/>
+      <c r="X45" s="304"/>
+      <c r="Y45" s="304"/>
+      <c r="Z45" s="304"/>
+      <c r="AA45" s="341"/>
+      <c r="AB45" s="312"/>
       <c r="AC45" s="68" t="s">
         <v>122</v>
       </c>
@@ -28604,8 +28610,8 @@
         <v>123</v>
       </c>
       <c r="AE45" s="375"/>
-      <c r="AF45" s="361"/>
-      <c r="AG45" s="363"/>
+      <c r="AF45" s="347"/>
+      <c r="AG45" s="298"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
       <c r="AJ45" s="62"/>
@@ -28613,13 +28619,13 @@
       <c r="AL45" s="62"/>
     </row>
     <row r="46" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="334" t="str">
+      <c r="A46" s="323" t="str">
         <f>A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="335"/>
-      <c r="C46" s="336"/>
-      <c r="D46" s="336"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="325"/>
       <c r="E46" s="57" t="str">
         <f t="shared" ref="E46:N47" si="5">IF(E5="","",E5)</f>
         <v/>
@@ -28660,8 +28666,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="329"/>
-      <c r="P46" s="306"/>
+      <c r="O46" s="340"/>
+      <c r="P46" s="311"/>
       <c r="Q46" s="57" t="str">
         <f>IF(Q5="","",Q5)</f>
         <v/>
@@ -28702,16 +28708,16 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="330"/>
-      <c r="AB46" s="307"/>
+      <c r="AA46" s="341"/>
+      <c r="AB46" s="312"/>
       <c r="AC46" s="57" t="str">
         <f>IF(AC5="","",AC5)</f>
         <v/>
       </c>
-      <c r="AD46" s="322"/>
+      <c r="AD46" s="349"/>
       <c r="AE46" s="375"/>
-      <c r="AF46" s="361"/>
-      <c r="AG46" s="363"/>
+      <c r="AF46" s="347"/>
+      <c r="AG46" s="298"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
       <c r="AJ46" s="62"/>
@@ -28719,111 +28725,111 @@
       <c r="AL46" s="62"/>
     </row>
     <row r="47" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="341" t="str">
+      <c r="A47" s="359" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="310"/>
-      <c r="C47" s="311"/>
-      <c r="D47" s="311"/>
-      <c r="E47" s="302" t="str">
+      <c r="B47" s="316"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="317" t="str">
         <f>IF(E6="","",E6)</f>
         <v/>
       </c>
-      <c r="F47" s="302" t="str">
+      <c r="F47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G47" s="302" t="str">
+      <c r="G47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H47" s="302" t="str">
+      <c r="H47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I47" s="302" t="str">
+      <c r="I47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J47" s="302" t="str">
+      <c r="J47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K47" s="302" t="str">
+      <c r="K47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47" s="302" t="str">
+      <c r="L47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M47" s="302" t="str">
+      <c r="M47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N47" s="302" t="str">
+      <c r="N47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O47" s="304" t="str">
+      <c r="O47" s="369" t="str">
         <f>O6</f>
         <v/>
       </c>
-      <c r="P47" s="306"/>
-      <c r="Q47" s="302" t="str">
+      <c r="P47" s="311"/>
+      <c r="Q47" s="317" t="str">
         <f t="shared" ref="Q47:Z47" si="7">IF(Q6="","",Q6)</f>
         <v/>
       </c>
-      <c r="R47" s="302" t="str">
+      <c r="R47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S47" s="302" t="str">
+      <c r="S47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T47" s="302" t="str">
+      <c r="T47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U47" s="302" t="str">
+      <c r="U47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V47" s="302" t="str">
+      <c r="V47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W47" s="302" t="str">
+      <c r="W47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X47" s="302" t="str">
+      <c r="X47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Y47" s="302" t="str">
+      <c r="Y47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z47" s="302" t="str">
+      <c r="Z47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA47" s="304" t="str">
+      <c r="AA47" s="369" t="str">
         <f>AA6</f>
         <v/>
       </c>
-      <c r="AB47" s="307"/>
-      <c r="AC47" s="371">
+      <c r="AB47" s="312"/>
+      <c r="AC47" s="308">
         <f>AC6</f>
         <v>40603</v>
       </c>
-      <c r="AD47" s="323"/>
+      <c r="AD47" s="350"/>
       <c r="AE47" s="375"/>
-      <c r="AF47" s="361"/>
-      <c r="AG47" s="363"/>
+      <c r="AF47" s="347"/>
+      <c r="AG47" s="298"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
       <c r="AJ47" s="62"/>
@@ -28831,45 +28837,45 @@
       <c r="AL47" s="62"/>
     </row>
     <row r="48" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="344" t="s">
+      <c r="A48" s="362" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="345"/>
-      <c r="C48" s="348" t="s">
+      <c r="B48" s="363"/>
+      <c r="C48" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="337" t="s">
+      <c r="D48" s="326" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="302"/>
-      <c r="F48" s="302"/>
-      <c r="G48" s="302"/>
-      <c r="H48" s="302"/>
-      <c r="I48" s="302"/>
-      <c r="J48" s="302"/>
-      <c r="K48" s="302"/>
-      <c r="L48" s="302"/>
-      <c r="M48" s="302"/>
-      <c r="N48" s="302"/>
-      <c r="O48" s="304"/>
-      <c r="P48" s="306"/>
-      <c r="Q48" s="302"/>
-      <c r="R48" s="302"/>
-      <c r="S48" s="302"/>
-      <c r="T48" s="302"/>
-      <c r="U48" s="302"/>
-      <c r="V48" s="302"/>
-      <c r="W48" s="302"/>
-      <c r="X48" s="302"/>
-      <c r="Y48" s="302"/>
-      <c r="Z48" s="302"/>
-      <c r="AA48" s="304"/>
-      <c r="AB48" s="307"/>
-      <c r="AC48" s="372"/>
-      <c r="AD48" s="323"/>
+      <c r="E48" s="317"/>
+      <c r="F48" s="317"/>
+      <c r="G48" s="317"/>
+      <c r="H48" s="317"/>
+      <c r="I48" s="317"/>
+      <c r="J48" s="317"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
+      <c r="M48" s="317"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="369"/>
+      <c r="P48" s="311"/>
+      <c r="Q48" s="317"/>
+      <c r="R48" s="317"/>
+      <c r="S48" s="317"/>
+      <c r="T48" s="317"/>
+      <c r="U48" s="317"/>
+      <c r="V48" s="317"/>
+      <c r="W48" s="317"/>
+      <c r="X48" s="317"/>
+      <c r="Y48" s="317"/>
+      <c r="Z48" s="317"/>
+      <c r="AA48" s="369"/>
+      <c r="AB48" s="312"/>
+      <c r="AC48" s="309"/>
+      <c r="AD48" s="350"/>
       <c r="AE48" s="375"/>
-      <c r="AF48" s="361"/>
-      <c r="AG48" s="363"/>
+      <c r="AF48" s="347"/>
+      <c r="AG48" s="298"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
       <c r="AJ48" s="55"/>
@@ -28877,39 +28883,39 @@
       <c r="AL48" s="55"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A49" s="346"/>
-      <c r="B49" s="347"/>
-      <c r="C49" s="349"/>
-      <c r="D49" s="338"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
-      <c r="I49" s="303"/>
-      <c r="J49" s="303"/>
-      <c r="K49" s="303"/>
-      <c r="L49" s="303"/>
-      <c r="M49" s="303"/>
-      <c r="N49" s="303"/>
-      <c r="O49" s="305"/>
-      <c r="P49" s="374"/>
-      <c r="Q49" s="303"/>
-      <c r="R49" s="303"/>
-      <c r="S49" s="303"/>
-      <c r="T49" s="303"/>
-      <c r="U49" s="303"/>
-      <c r="V49" s="303"/>
-      <c r="W49" s="303"/>
-      <c r="X49" s="303"/>
-      <c r="Y49" s="303"/>
-      <c r="Z49" s="303"/>
-      <c r="AA49" s="305"/>
-      <c r="AB49" s="308"/>
-      <c r="AC49" s="373"/>
-      <c r="AD49" s="324"/>
+      <c r="A49" s="364"/>
+      <c r="B49" s="365"/>
+      <c r="C49" s="337"/>
+      <c r="D49" s="327"/>
+      <c r="E49" s="318"/>
+      <c r="F49" s="318"/>
+      <c r="G49" s="318"/>
+      <c r="H49" s="318"/>
+      <c r="I49" s="318"/>
+      <c r="J49" s="318"/>
+      <c r="K49" s="318"/>
+      <c r="L49" s="318"/>
+      <c r="M49" s="318"/>
+      <c r="N49" s="318"/>
+      <c r="O49" s="370"/>
+      <c r="P49" s="314"/>
+      <c r="Q49" s="318"/>
+      <c r="R49" s="318"/>
+      <c r="S49" s="318"/>
+      <c r="T49" s="318"/>
+      <c r="U49" s="318"/>
+      <c r="V49" s="318"/>
+      <c r="W49" s="318"/>
+      <c r="X49" s="318"/>
+      <c r="Y49" s="318"/>
+      <c r="Z49" s="318"/>
+      <c r="AA49" s="370"/>
+      <c r="AB49" s="313"/>
+      <c r="AC49" s="310"/>
+      <c r="AD49" s="351"/>
       <c r="AE49" s="376"/>
-      <c r="AF49" s="362"/>
-      <c r="AG49" s="364"/>
+      <c r="AF49" s="348"/>
+      <c r="AG49" s="299"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -30102,8 +30108,8 @@
         <f>CRS!O66</f>
         <v/>
       </c>
-      <c r="AH66" s="300"/>
-      <c r="AI66" s="298" t="s">
+      <c r="AH66" s="373"/>
+      <c r="AI66" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -30176,8 +30182,8 @@
         <f>CRS!O67</f>
         <v/>
       </c>
-      <c r="AH67" s="301"/>
-      <c r="AI67" s="299"/>
+      <c r="AH67" s="374"/>
+      <c r="AI67" s="372"/>
     </row>
     <row r="68" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -30248,8 +30254,8 @@
         <f>CRS!O68</f>
         <v/>
       </c>
-      <c r="AH68" s="301"/>
-      <c r="AI68" s="299"/>
+      <c r="AH68" s="374"/>
+      <c r="AI68" s="372"/>
     </row>
     <row r="69" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -30320,8 +30326,8 @@
         <f>CRS!O69</f>
         <v/>
       </c>
-      <c r="AH69" s="301"/>
-      <c r="AI69" s="299"/>
+      <c r="AH69" s="374"/>
+      <c r="AI69" s="372"/>
     </row>
     <row r="70" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -30392,8 +30398,8 @@
         <f>CRS!O70</f>
         <v/>
       </c>
-      <c r="AH70" s="301"/>
-      <c r="AI70" s="299"/>
+      <c r="AH70" s="374"/>
+      <c r="AI70" s="372"/>
     </row>
     <row r="71" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -30464,8 +30470,8 @@
         <f>CRS!O71</f>
         <v/>
       </c>
-      <c r="AH71" s="301"/>
-      <c r="AI71" s="299"/>
+      <c r="AH71" s="374"/>
+      <c r="AI71" s="372"/>
     </row>
     <row r="72" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -30536,8 +30542,8 @@
         <f>CRS!O72</f>
         <v/>
       </c>
-      <c r="AH72" s="301"/>
-      <c r="AI72" s="299"/>
+      <c r="AH72" s="374"/>
+      <c r="AI72" s="372"/>
     </row>
     <row r="73" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -30608,8 +30614,8 @@
         <f>CRS!O73</f>
         <v/>
       </c>
-      <c r="AH73" s="301"/>
-      <c r="AI73" s="299"/>
+      <c r="AH73" s="374"/>
+      <c r="AI73" s="372"/>
     </row>
     <row r="74" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -30680,8 +30686,8 @@
         <f>CRS!O74</f>
         <v/>
       </c>
-      <c r="AH74" s="301"/>
-      <c r="AI74" s="299"/>
+      <c r="AH74" s="374"/>
+      <c r="AI74" s="372"/>
     </row>
     <row r="75" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -30752,8 +30758,8 @@
         <f>CRS!O75</f>
         <v/>
       </c>
-      <c r="AH75" s="301"/>
-      <c r="AI75" s="299"/>
+      <c r="AH75" s="374"/>
+      <c r="AI75" s="372"/>
     </row>
     <row r="76" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -30824,8 +30830,8 @@
         <f>CRS!O76</f>
         <v/>
       </c>
-      <c r="AH76" s="301"/>
-      <c r="AI76" s="299"/>
+      <c r="AH76" s="374"/>
+      <c r="AI76" s="372"/>
     </row>
     <row r="77" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -30896,8 +30902,8 @@
         <f>CRS!O77</f>
         <v/>
       </c>
-      <c r="AH77" s="301"/>
-      <c r="AI77" s="299"/>
+      <c r="AH77" s="374"/>
+      <c r="AI77" s="372"/>
     </row>
     <row r="78" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -30968,8 +30974,8 @@
         <f>CRS!O78</f>
         <v/>
       </c>
-      <c r="AH78" s="301"/>
-      <c r="AI78" s="299"/>
+      <c r="AH78" s="374"/>
+      <c r="AI78" s="372"/>
     </row>
     <row r="79" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -31040,8 +31046,8 @@
         <f>CRS!O79</f>
         <v/>
       </c>
-      <c r="AH79" s="301"/>
-      <c r="AI79" s="299"/>
+      <c r="AH79" s="374"/>
+      <c r="AI79" s="372"/>
     </row>
     <row r="80" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -31112,8 +31118,8 @@
         <f>CRS!O80</f>
         <v/>
       </c>
-      <c r="AH80" s="301"/>
-      <c r="AI80" s="299"/>
+      <c r="AH80" s="374"/>
+      <c r="AI80" s="372"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -31393,15 +31399,103 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="T2d19Gm7punEibsNJBgdh3ZzUcufk8+PQOuJQC1tA+RpVS+cs4H5fTH4F9aOQxwJS4PY4SJQO4kn/oJxgTi2mQ==" saltValue="yl0eVcUIiysAylQWPtO/Lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="130">
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="AI66:AI80"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:AG1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AD3"/>
+    <mergeCell ref="AF2:AF8"/>
+    <mergeCell ref="AG2:AG8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="AE2:AE8"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AI26:AI40"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="AB44:AB49"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB8"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:AG42"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="Q43:AB43"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AF43:AF49"/>
+    <mergeCell ref="AG43:AG49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="AE43:AE49"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="A47:D47"/>
     <mergeCell ref="I47:I49"/>
     <mergeCell ref="O47:O49"/>
@@ -31426,103 +31520,15 @@
     <mergeCell ref="F44:F45"/>
     <mergeCell ref="G44:G45"/>
     <mergeCell ref="H44:H45"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:AG42"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="Q43:AB43"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AF43:AF49"/>
-    <mergeCell ref="AG43:AG49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="Y44:Y45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AI26:AI40"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="AB44:AB49"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB8"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:AG1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AD3"/>
-    <mergeCell ref="AF2:AF8"/>
-    <mergeCell ref="AG2:AG8"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="AI66:AI80"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="AD46:AD49"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="AC9:AC40 AC50:AC80">
@@ -31626,44 +31632,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="350" t="str">
+      <c r="A1" s="319" t="str">
         <f>CRS!A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B1" s="351"/>
-      <c r="C1" s="351"/>
-      <c r="D1" s="351"/>
-      <c r="E1" s="325" t="s">
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="328" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="325"/>
-      <c r="G1" s="325"/>
-      <c r="H1" s="325"/>
-      <c r="I1" s="325"/>
-      <c r="J1" s="325"/>
-      <c r="K1" s="326"/>
-      <c r="L1" s="326"/>
-      <c r="M1" s="326"/>
-      <c r="N1" s="326"/>
-      <c r="O1" s="326"/>
-      <c r="P1" s="326"/>
-      <c r="Q1" s="326"/>
-      <c r="R1" s="326"/>
-      <c r="S1" s="326"/>
-      <c r="T1" s="326"/>
-      <c r="U1" s="326"/>
-      <c r="V1" s="326"/>
-      <c r="W1" s="326"/>
-      <c r="X1" s="326"/>
-      <c r="Y1" s="326"/>
-      <c r="Z1" s="326"/>
-      <c r="AA1" s="326"/>
-      <c r="AB1" s="326"/>
-      <c r="AC1" s="327"/>
-      <c r="AD1" s="327"/>
-      <c r="AE1" s="327"/>
-      <c r="AF1" s="327"/>
-      <c r="AG1" s="328"/>
+      <c r="F1" s="328"/>
+      <c r="G1" s="328"/>
+      <c r="H1" s="328"/>
+      <c r="I1" s="328"/>
+      <c r="J1" s="328"/>
+      <c r="K1" s="329"/>
+      <c r="L1" s="329"/>
+      <c r="M1" s="329"/>
+      <c r="N1" s="329"/>
+      <c r="O1" s="329"/>
+      <c r="P1" s="329"/>
+      <c r="Q1" s="329"/>
+      <c r="R1" s="329"/>
+      <c r="S1" s="329"/>
+      <c r="T1" s="329"/>
+      <c r="U1" s="329"/>
+      <c r="V1" s="329"/>
+      <c r="W1" s="329"/>
+      <c r="X1" s="329"/>
+      <c r="Y1" s="329"/>
+      <c r="Z1" s="329"/>
+      <c r="AA1" s="329"/>
+      <c r="AB1" s="329"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="330"/>
+      <c r="AG1" s="331"/>
       <c r="AH1" s="63"/>
       <c r="AI1" s="55"/>
       <c r="AJ1" s="55"/>
@@ -31671,51 +31677,51 @@
       <c r="AL1" s="55"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="352"/>
-      <c r="B2" s="353"/>
-      <c r="C2" s="353"/>
-      <c r="D2" s="353"/>
-      <c r="E2" s="368" t="str">
+      <c r="A2" s="321"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="300" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="368"/>
-      <c r="G2" s="368"/>
-      <c r="H2" s="368"/>
-      <c r="I2" s="368"/>
-      <c r="J2" s="368"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="370"/>
-      <c r="Q2" s="309" t="str">
+      <c r="F2" s="300"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="300"/>
+      <c r="I2" s="300"/>
+      <c r="J2" s="300"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="301"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="315" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="310"/>
-      <c r="S2" s="310"/>
-      <c r="T2" s="310"/>
-      <c r="U2" s="310"/>
-      <c r="V2" s="310"/>
-      <c r="W2" s="310"/>
-      <c r="X2" s="310"/>
-      <c r="Y2" s="310"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="310"/>
-      <c r="AB2" s="311"/>
-      <c r="AC2" s="318" t="s">
+      <c r="R2" s="316"/>
+      <c r="S2" s="316"/>
+      <c r="T2" s="316"/>
+      <c r="U2" s="316"/>
+      <c r="V2" s="316"/>
+      <c r="W2" s="316"/>
+      <c r="X2" s="316"/>
+      <c r="Y2" s="316"/>
+      <c r="Z2" s="316"/>
+      <c r="AA2" s="316"/>
+      <c r="AB2" s="304"/>
+      <c r="AC2" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="319"/>
+      <c r="AD2" s="353"/>
       <c r="AE2" s="375" t="s">
         <v>132</v>
       </c>
-      <c r="AF2" s="361" t="s">
+      <c r="AF2" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="363" t="s">
+      <c r="AG2" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="62"/>
@@ -31725,90 +31731,90 @@
       <c r="AL2" s="62"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="339" t="str">
+      <c r="A3" s="345" t="str">
         <f>CRS!A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B3" s="340"/>
-      <c r="C3" s="340"/>
-      <c r="D3" s="340"/>
-      <c r="E3" s="312" t="s">
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="312" t="s">
+      <c r="F3" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="312" t="s">
+      <c r="G3" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="312" t="s">
+      <c r="H3" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="312" t="s">
+      <c r="I3" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="312" t="s">
+      <c r="J3" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="312" t="s">
+      <c r="K3" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="312" t="s">
+      <c r="L3" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="312" t="s">
+      <c r="M3" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="312" t="s">
+      <c r="N3" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="329" t="s">
+      <c r="O3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="306" t="s">
+      <c r="P3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="312" t="s">
+      <c r="Q3" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="312" t="s">
+      <c r="R3" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="312" t="s">
+      <c r="S3" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="312" t="s">
+      <c r="T3" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="312" t="s">
+      <c r="U3" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="312" t="s">
+      <c r="V3" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="312" t="s">
+      <c r="W3" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="312" t="s">
+      <c r="X3" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="312" t="s">
+      <c r="Y3" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="312" t="s">
+      <c r="Z3" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="329" t="s">
+      <c r="AA3" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="306" t="s">
+      <c r="AB3" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="320"/>
-      <c r="AD3" s="321"/>
+      <c r="AC3" s="354"/>
+      <c r="AD3" s="355"/>
       <c r="AE3" s="375"/>
-      <c r="AF3" s="361"/>
-      <c r="AG3" s="363"/>
+      <c r="AF3" s="347"/>
+      <c r="AG3" s="298"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
       <c r="AJ3" s="62"/>
@@ -31816,40 +31822,40 @@
       <c r="AL3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="334" t="str">
+      <c r="A4" s="323" t="str">
         <f>CRS!A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B4" s="335"/>
-      <c r="C4" s="336"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="325"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>M303</v>
       </c>
-      <c r="E4" s="311"/>
-      <c r="F4" s="311"/>
-      <c r="G4" s="311"/>
-      <c r="H4" s="311"/>
-      <c r="I4" s="311"/>
-      <c r="J4" s="311"/>
-      <c r="K4" s="311"/>
-      <c r="L4" s="311"/>
-      <c r="M4" s="311"/>
-      <c r="N4" s="311"/>
-      <c r="O4" s="330"/>
-      <c r="P4" s="307"/>
-      <c r="Q4" s="311"/>
-      <c r="R4" s="311"/>
-      <c r="S4" s="311"/>
-      <c r="T4" s="311"/>
-      <c r="U4" s="311"/>
-      <c r="V4" s="311"/>
-      <c r="W4" s="311"/>
-      <c r="X4" s="311"/>
-      <c r="Y4" s="311"/>
-      <c r="Z4" s="311"/>
-      <c r="AA4" s="330"/>
-      <c r="AB4" s="307"/>
+      <c r="E4" s="304"/>
+      <c r="F4" s="304"/>
+      <c r="G4" s="304"/>
+      <c r="H4" s="304"/>
+      <c r="I4" s="304"/>
+      <c r="J4" s="304"/>
+      <c r="K4" s="304"/>
+      <c r="L4" s="304"/>
+      <c r="M4" s="304"/>
+      <c r="N4" s="304"/>
+      <c r="O4" s="341"/>
+      <c r="P4" s="312"/>
+      <c r="Q4" s="304"/>
+      <c r="R4" s="304"/>
+      <c r="S4" s="304"/>
+      <c r="T4" s="304"/>
+      <c r="U4" s="304"/>
+      <c r="V4" s="304"/>
+      <c r="W4" s="304"/>
+      <c r="X4" s="304"/>
+      <c r="Y4" s="304"/>
+      <c r="Z4" s="304"/>
+      <c r="AA4" s="341"/>
+      <c r="AB4" s="312"/>
       <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
@@ -31857,8 +31863,8 @@
         <v>123</v>
       </c>
       <c r="AE4" s="375"/>
-      <c r="AF4" s="361"/>
-      <c r="AG4" s="363"/>
+      <c r="AF4" s="347"/>
+      <c r="AG4" s="298"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="62"/>
@@ -31866,13 +31872,13 @@
       <c r="AL4" s="62"/>
     </row>
     <row r="5" spans="1:38" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="334" t="str">
+      <c r="A5" s="323" t="str">
         <f>CRS!A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="335"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
+      <c r="B5" s="324"/>
+      <c r="C5" s="325"/>
+      <c r="D5" s="325"/>
       <c r="E5" s="108"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -31883,8 +31889,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="330"/>
-      <c r="P5" s="307"/>
+      <c r="O5" s="341"/>
+      <c r="P5" s="312"/>
       <c r="Q5" s="108"/>
       <c r="R5" s="108"/>
       <c r="S5" s="108"/>
@@ -31895,13 +31901,13 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="330"/>
-      <c r="AB5" s="307"/>
+      <c r="AA5" s="341"/>
+      <c r="AB5" s="312"/>
       <c r="AC5" s="110"/>
-      <c r="AD5" s="322"/>
+      <c r="AD5" s="349"/>
       <c r="AE5" s="375"/>
-      <c r="AF5" s="361"/>
-      <c r="AG5" s="363"/>
+      <c r="AF5" s="347"/>
+      <c r="AG5" s="298"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="62"/>
@@ -31909,51 +31915,51 @@
       <c r="AL5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="341" t="str">
+      <c r="A6" s="359" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="310"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="313"/>
-      <c r="F6" s="313"/>
-      <c r="G6" s="313"/>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="313"/>
-      <c r="N6" s="313"/>
-      <c r="O6" s="331" t="str">
+      <c r="B6" s="316"/>
+      <c r="C6" s="304"/>
+      <c r="D6" s="304"/>
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="305"/>
+      <c r="N6" s="305"/>
+      <c r="O6" s="366" t="str">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v/>
       </c>
-      <c r="P6" s="307"/>
-      <c r="Q6" s="313"/>
-      <c r="R6" s="313"/>
-      <c r="S6" s="313"/>
-      <c r="T6" s="313"/>
-      <c r="U6" s="313"/>
-      <c r="V6" s="313"/>
-      <c r="W6" s="313"/>
-      <c r="X6" s="313"/>
-      <c r="Y6" s="313"/>
-      <c r="Z6" s="313"/>
-      <c r="AA6" s="358" t="str">
+      <c r="P6" s="312"/>
+      <c r="Q6" s="305"/>
+      <c r="R6" s="305"/>
+      <c r="S6" s="305"/>
+      <c r="T6" s="305"/>
+      <c r="U6" s="305"/>
+      <c r="V6" s="305"/>
+      <c r="W6" s="305"/>
+      <c r="X6" s="305"/>
+      <c r="Y6" s="305"/>
+      <c r="Z6" s="305"/>
+      <c r="AA6" s="342" t="str">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v/>
       </c>
-      <c r="AB6" s="307"/>
-      <c r="AC6" s="365">
+      <c r="AB6" s="312"/>
+      <c r="AC6" s="356">
         <f>'INITIAL INPUT'!D24</f>
         <v>40634</v>
       </c>
-      <c r="AD6" s="323"/>
+      <c r="AD6" s="350"/>
       <c r="AE6" s="375"/>
-      <c r="AF6" s="361"/>
-      <c r="AG6" s="363"/>
+      <c r="AF6" s="347"/>
+      <c r="AG6" s="298"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
@@ -31961,45 +31967,45 @@
       <c r="AL6" s="62"/>
     </row>
     <row r="7" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="341" t="s">
+      <c r="A7" s="359" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="309"/>
-      <c r="C7" s="348" t="s">
+      <c r="B7" s="315"/>
+      <c r="C7" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="337" t="s">
+      <c r="D7" s="326" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="314"/>
-      <c r="F7" s="316"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="316"/>
-      <c r="N7" s="316"/>
-      <c r="O7" s="332"/>
-      <c r="P7" s="307"/>
-      <c r="Q7" s="314"/>
-      <c r="R7" s="314"/>
-      <c r="S7" s="314"/>
-      <c r="T7" s="314"/>
-      <c r="U7" s="314"/>
-      <c r="V7" s="314"/>
-      <c r="W7" s="314"/>
-      <c r="X7" s="314"/>
-      <c r="Y7" s="314"/>
-      <c r="Z7" s="314"/>
-      <c r="AA7" s="359"/>
-      <c r="AB7" s="307"/>
-      <c r="AC7" s="366"/>
-      <c r="AD7" s="323"/>
+      <c r="E7" s="306"/>
+      <c r="F7" s="338"/>
+      <c r="G7" s="338"/>
+      <c r="H7" s="338"/>
+      <c r="I7" s="338"/>
+      <c r="J7" s="338"/>
+      <c r="K7" s="338"/>
+      <c r="L7" s="338"/>
+      <c r="M7" s="338"/>
+      <c r="N7" s="338"/>
+      <c r="O7" s="367"/>
+      <c r="P7" s="312"/>
+      <c r="Q7" s="306"/>
+      <c r="R7" s="306"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="306"/>
+      <c r="V7" s="306"/>
+      <c r="W7" s="306"/>
+      <c r="X7" s="306"/>
+      <c r="Y7" s="306"/>
+      <c r="Z7" s="306"/>
+      <c r="AA7" s="343"/>
+      <c r="AB7" s="312"/>
+      <c r="AC7" s="357"/>
+      <c r="AD7" s="350"/>
       <c r="AE7" s="375"/>
-      <c r="AF7" s="361"/>
-      <c r="AG7" s="363"/>
+      <c r="AF7" s="347"/>
+      <c r="AG7" s="298"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
@@ -32007,39 +32013,39 @@
       <c r="AL7" s="55"/>
     </row>
     <row r="8" spans="1:38" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="342"/>
-      <c r="B8" s="343"/>
-      <c r="C8" s="349"/>
-      <c r="D8" s="338"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="317"/>
-      <c r="G8" s="317"/>
-      <c r="H8" s="317"/>
-      <c r="I8" s="317"/>
-      <c r="J8" s="317"/>
-      <c r="K8" s="317"/>
-      <c r="L8" s="317"/>
-      <c r="M8" s="317"/>
-      <c r="N8" s="317"/>
-      <c r="O8" s="333"/>
-      <c r="P8" s="308"/>
-      <c r="Q8" s="315"/>
-      <c r="R8" s="315"/>
-      <c r="S8" s="315"/>
-      <c r="T8" s="315"/>
-      <c r="U8" s="315"/>
-      <c r="V8" s="315"/>
-      <c r="W8" s="315"/>
-      <c r="X8" s="315"/>
-      <c r="Y8" s="315"/>
-      <c r="Z8" s="315"/>
-      <c r="AA8" s="360"/>
-      <c r="AB8" s="308"/>
-      <c r="AC8" s="367"/>
-      <c r="AD8" s="324"/>
+      <c r="A8" s="360"/>
+      <c r="B8" s="361"/>
+      <c r="C8" s="337"/>
+      <c r="D8" s="327"/>
+      <c r="E8" s="307"/>
+      <c r="F8" s="339"/>
+      <c r="G8" s="339"/>
+      <c r="H8" s="339"/>
+      <c r="I8" s="339"/>
+      <c r="J8" s="339"/>
+      <c r="K8" s="339"/>
+      <c r="L8" s="339"/>
+      <c r="M8" s="339"/>
+      <c r="N8" s="339"/>
+      <c r="O8" s="368"/>
+      <c r="P8" s="313"/>
+      <c r="Q8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="307"/>
+      <c r="T8" s="307"/>
+      <c r="U8" s="307"/>
+      <c r="V8" s="307"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="313"/>
+      <c r="AC8" s="358"/>
+      <c r="AD8" s="351"/>
       <c r="AE8" s="376"/>
-      <c r="AF8" s="362"/>
-      <c r="AG8" s="364"/>
+      <c r="AF8" s="348"/>
+      <c r="AG8" s="299"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
@@ -33363,8 +33369,8 @@
         <f>CRS!U26</f>
         <v/>
       </c>
-      <c r="AH26" s="300"/>
-      <c r="AI26" s="298" t="s">
+      <c r="AH26" s="373"/>
+      <c r="AI26" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -33437,8 +33443,8 @@
         <f>CRS!U27</f>
         <v/>
       </c>
-      <c r="AH27" s="301"/>
-      <c r="AI27" s="299"/>
+      <c r="AH27" s="374"/>
+      <c r="AI27" s="372"/>
     </row>
     <row r="28" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -33509,8 +33515,8 @@
         <f>CRS!U28</f>
         <v/>
       </c>
-      <c r="AH28" s="301"/>
-      <c r="AI28" s="299"/>
+      <c r="AH28" s="374"/>
+      <c r="AI28" s="372"/>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -33581,8 +33587,8 @@
         <f>CRS!U29</f>
         <v/>
       </c>
-      <c r="AH29" s="301"/>
-      <c r="AI29" s="299"/>
+      <c r="AH29" s="374"/>
+      <c r="AI29" s="372"/>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -33653,8 +33659,8 @@
         <f>CRS!U30</f>
         <v/>
       </c>
-      <c r="AH30" s="301"/>
-      <c r="AI30" s="299"/>
+      <c r="AH30" s="374"/>
+      <c r="AI30" s="372"/>
     </row>
     <row r="31" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -33725,8 +33731,8 @@
         <f>CRS!U31</f>
         <v/>
       </c>
-      <c r="AH31" s="301"/>
-      <c r="AI31" s="299"/>
+      <c r="AH31" s="374"/>
+      <c r="AI31" s="372"/>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -33797,8 +33803,8 @@
         <f>CRS!U32</f>
         <v/>
       </c>
-      <c r="AH32" s="301"/>
-      <c r="AI32" s="299"/>
+      <c r="AH32" s="374"/>
+      <c r="AI32" s="372"/>
     </row>
     <row r="33" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -33869,8 +33875,8 @@
         <f>CRS!U33</f>
         <v/>
       </c>
-      <c r="AH33" s="301"/>
-      <c r="AI33" s="299"/>
+      <c r="AH33" s="374"/>
+      <c r="AI33" s="372"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
       <c r="AL33" s="55"/>
@@ -33944,8 +33950,8 @@
         <f>CRS!U34</f>
         <v/>
       </c>
-      <c r="AH34" s="301"/>
-      <c r="AI34" s="299"/>
+      <c r="AH34" s="374"/>
+      <c r="AI34" s="372"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
       <c r="AL34" s="55"/>
@@ -34019,8 +34025,8 @@
         <f>CRS!U35</f>
         <v/>
       </c>
-      <c r="AH35" s="301"/>
-      <c r="AI35" s="299"/>
+      <c r="AH35" s="374"/>
+      <c r="AI35" s="372"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
       <c r="AL35" s="55"/>
@@ -34094,8 +34100,8 @@
         <f>CRS!U36</f>
         <v/>
       </c>
-      <c r="AH36" s="301"/>
-      <c r="AI36" s="299"/>
+      <c r="AH36" s="374"/>
+      <c r="AI36" s="372"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
       <c r="AL36" s="55"/>
@@ -34169,8 +34175,8 @@
         <f>CRS!U37</f>
         <v/>
       </c>
-      <c r="AH37" s="301"/>
-      <c r="AI37" s="299"/>
+      <c r="AH37" s="374"/>
+      <c r="AI37" s="372"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
       <c r="AL37" s="55"/>
@@ -34244,8 +34250,8 @@
         <f>CRS!U38</f>
         <v/>
       </c>
-      <c r="AH38" s="301"/>
-      <c r="AI38" s="299"/>
+      <c r="AH38" s="374"/>
+      <c r="AI38" s="372"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
       <c r="AL38" s="55"/>
@@ -34319,8 +34325,8 @@
         <f>CRS!U39</f>
         <v/>
       </c>
-      <c r="AH39" s="301"/>
-      <c r="AI39" s="299"/>
+      <c r="AH39" s="374"/>
+      <c r="AI39" s="372"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
       <c r="AL39" s="55"/>
@@ -34394,8 +34400,8 @@
         <f>CRS!U40</f>
         <v/>
       </c>
-      <c r="AH40" s="301"/>
-      <c r="AI40" s="299"/>
+      <c r="AH40" s="374"/>
+      <c r="AI40" s="372"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
       <c r="AL40" s="55"/>
@@ -34441,44 +34447,44 @@
       <c r="AL41" s="55"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="354" t="str">
+      <c r="A42" s="332" t="str">
         <f>A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B42" s="355"/>
-      <c r="C42" s="355"/>
-      <c r="D42" s="355"/>
-      <c r="E42" s="325" t="s">
+      <c r="B42" s="333"/>
+      <c r="C42" s="333"/>
+      <c r="D42" s="333"/>
+      <c r="E42" s="328" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="325"/>
-      <c r="G42" s="325"/>
-      <c r="H42" s="325"/>
-      <c r="I42" s="325"/>
-      <c r="J42" s="325"/>
-      <c r="K42" s="326"/>
-      <c r="L42" s="326"/>
-      <c r="M42" s="326"/>
-      <c r="N42" s="326"/>
-      <c r="O42" s="326"/>
-      <c r="P42" s="326"/>
-      <c r="Q42" s="326"/>
-      <c r="R42" s="326"/>
-      <c r="S42" s="326"/>
-      <c r="T42" s="326"/>
-      <c r="U42" s="326"/>
-      <c r="V42" s="326"/>
-      <c r="W42" s="326"/>
-      <c r="X42" s="326"/>
-      <c r="Y42" s="326"/>
-      <c r="Z42" s="326"/>
-      <c r="AA42" s="326"/>
-      <c r="AB42" s="326"/>
-      <c r="AC42" s="327"/>
-      <c r="AD42" s="327"/>
-      <c r="AE42" s="327"/>
-      <c r="AF42" s="327"/>
-      <c r="AG42" s="328"/>
+      <c r="F42" s="328"/>
+      <c r="G42" s="328"/>
+      <c r="H42" s="328"/>
+      <c r="I42" s="328"/>
+      <c r="J42" s="328"/>
+      <c r="K42" s="329"/>
+      <c r="L42" s="329"/>
+      <c r="M42" s="329"/>
+      <c r="N42" s="329"/>
+      <c r="O42" s="329"/>
+      <c r="P42" s="329"/>
+      <c r="Q42" s="329"/>
+      <c r="R42" s="329"/>
+      <c r="S42" s="329"/>
+      <c r="T42" s="329"/>
+      <c r="U42" s="329"/>
+      <c r="V42" s="329"/>
+      <c r="W42" s="329"/>
+      <c r="X42" s="329"/>
+      <c r="Y42" s="329"/>
+      <c r="Z42" s="329"/>
+      <c r="AA42" s="329"/>
+      <c r="AB42" s="329"/>
+      <c r="AC42" s="330"/>
+      <c r="AD42" s="330"/>
+      <c r="AE42" s="330"/>
+      <c r="AF42" s="330"/>
+      <c r="AG42" s="331"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
       <c r="AJ42" s="55"/>
@@ -34486,52 +34492,52 @@
       <c r="AL42" s="55"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="356"/>
-      <c r="B43" s="357"/>
-      <c r="C43" s="357"/>
-      <c r="D43" s="357"/>
-      <c r="E43" s="309" t="str">
+      <c r="A43" s="334"/>
+      <c r="B43" s="335"/>
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
+      <c r="E43" s="315" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="309"/>
-      <c r="G43" s="309"/>
-      <c r="H43" s="309"/>
-      <c r="I43" s="309"/>
-      <c r="J43" s="309"/>
-      <c r="K43" s="310"/>
-      <c r="L43" s="310"/>
-      <c r="M43" s="310"/>
-      <c r="N43" s="310"/>
-      <c r="O43" s="310"/>
-      <c r="P43" s="311"/>
-      <c r="Q43" s="309" t="str">
+      <c r="F43" s="315"/>
+      <c r="G43" s="315"/>
+      <c r="H43" s="315"/>
+      <c r="I43" s="315"/>
+      <c r="J43" s="315"/>
+      <c r="K43" s="316"/>
+      <c r="L43" s="316"/>
+      <c r="M43" s="316"/>
+      <c r="N43" s="316"/>
+      <c r="O43" s="316"/>
+      <c r="P43" s="304"/>
+      <c r="Q43" s="315" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="310"/>
-      <c r="S43" s="310"/>
-      <c r="T43" s="310"/>
-      <c r="U43" s="310"/>
-      <c r="V43" s="310"/>
-      <c r="W43" s="310"/>
-      <c r="X43" s="310"/>
-      <c r="Y43" s="310"/>
-      <c r="Z43" s="310"/>
-      <c r="AA43" s="310"/>
-      <c r="AB43" s="311"/>
-      <c r="AC43" s="318" t="s">
+      <c r="R43" s="316"/>
+      <c r="S43" s="316"/>
+      <c r="T43" s="316"/>
+      <c r="U43" s="316"/>
+      <c r="V43" s="316"/>
+      <c r="W43" s="316"/>
+      <c r="X43" s="316"/>
+      <c r="Y43" s="316"/>
+      <c r="Z43" s="316"/>
+      <c r="AA43" s="316"/>
+      <c r="AB43" s="304"/>
+      <c r="AC43" s="352" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="319"/>
+      <c r="AD43" s="353"/>
       <c r="AE43" s="375" t="str">
         <f>AE2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="AF43" s="361" t="s">
+      <c r="AF43" s="347" t="s">
         <v>99</v>
       </c>
-      <c r="AG43" s="363" t="s">
+      <c r="AG43" s="298" t="s">
         <v>100</v>
       </c>
       <c r="AH43" s="62"/>
@@ -34541,90 +34547,90 @@
       <c r="AL43" s="62"/>
     </row>
     <row r="44" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="339" t="str">
+      <c r="A44" s="345" t="str">
         <f>A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B44" s="340"/>
-      <c r="C44" s="340"/>
-      <c r="D44" s="340"/>
-      <c r="E44" s="312" t="s">
+      <c r="B44" s="346"/>
+      <c r="C44" s="346"/>
+      <c r="D44" s="346"/>
+      <c r="E44" s="303" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="312" t="s">
+      <c r="F44" s="303" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="312" t="s">
+      <c r="G44" s="303" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="312" t="s">
+      <c r="H44" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="312" t="s">
+      <c r="I44" s="303" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="312" t="s">
+      <c r="J44" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="312" t="s">
+      <c r="K44" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="312" t="s">
+      <c r="L44" s="303" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="312" t="s">
+      <c r="M44" s="303" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="312" t="s">
+      <c r="N44" s="303" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="329" t="s">
+      <c r="O44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="P44" s="306" t="s">
+      <c r="P44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="Q44" s="312" t="s">
+      <c r="Q44" s="303" t="s">
         <v>112</v>
       </c>
-      <c r="R44" s="312" t="s">
+      <c r="R44" s="303" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="312" t="s">
+      <c r="S44" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="T44" s="312" t="s">
+      <c r="T44" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="312" t="s">
+      <c r="U44" s="303" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="312" t="s">
+      <c r="V44" s="303" t="s">
         <v>117</v>
       </c>
-      <c r="W44" s="312" t="s">
+      <c r="W44" s="303" t="s">
         <v>118</v>
       </c>
-      <c r="X44" s="312" t="s">
+      <c r="X44" s="303" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="312" t="s">
+      <c r="Y44" s="303" t="s">
         <v>120</v>
       </c>
-      <c r="Z44" s="312" t="s">
+      <c r="Z44" s="303" t="s">
         <v>121</v>
       </c>
-      <c r="AA44" s="329" t="s">
+      <c r="AA44" s="340" t="s">
         <v>110</v>
       </c>
-      <c r="AB44" s="306" t="s">
+      <c r="AB44" s="311" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="320"/>
-      <c r="AD44" s="321"/>
+      <c r="AC44" s="354"/>
+      <c r="AD44" s="355"/>
       <c r="AE44" s="375"/>
-      <c r="AF44" s="361"/>
-      <c r="AG44" s="363"/>
+      <c r="AF44" s="347"/>
+      <c r="AG44" s="298"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
       <c r="AJ44" s="62"/>
@@ -34632,40 +34638,40 @@
       <c r="AL44" s="62"/>
     </row>
     <row r="45" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="334" t="str">
+      <c r="A45" s="323" t="str">
         <f>A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B45" s="335"/>
-      <c r="C45" s="336"/>
+      <c r="B45" s="324"/>
+      <c r="C45" s="325"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>M303</v>
       </c>
-      <c r="E45" s="312"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
-      <c r="H45" s="312"/>
-      <c r="I45" s="312"/>
-      <c r="J45" s="312"/>
-      <c r="K45" s="312"/>
-      <c r="L45" s="312"/>
-      <c r="M45" s="312"/>
-      <c r="N45" s="312"/>
-      <c r="O45" s="329"/>
-      <c r="P45" s="306"/>
-      <c r="Q45" s="311"/>
-      <c r="R45" s="311"/>
-      <c r="S45" s="311"/>
-      <c r="T45" s="311"/>
-      <c r="U45" s="312"/>
-      <c r="V45" s="312"/>
-      <c r="W45" s="311"/>
-      <c r="X45" s="311"/>
-      <c r="Y45" s="311"/>
-      <c r="Z45" s="311"/>
-      <c r="AA45" s="330"/>
-      <c r="AB45" s="307"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="303"/>
+      <c r="I45" s="303"/>
+      <c r="J45" s="303"/>
+      <c r="K45" s="303"/>
+      <c r="L45" s="303"/>
+      <c r="M45" s="303"/>
+      <c r="N45" s="303"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="311"/>
+      <c r="Q45" s="304"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="304"/>
+      <c r="T45" s="304"/>
+      <c r="U45" s="303"/>
+      <c r="V45" s="303"/>
+      <c r="W45" s="304"/>
+      <c r="X45" s="304"/>
+      <c r="Y45" s="304"/>
+      <c r="Z45" s="304"/>
+      <c r="AA45" s="341"/>
+      <c r="AB45" s="312"/>
       <c r="AC45" s="68" t="s">
         <v>122</v>
       </c>
@@ -34673,8 +34679,8 @@
         <v>123</v>
       </c>
       <c r="AE45" s="375"/>
-      <c r="AF45" s="361"/>
-      <c r="AG45" s="363"/>
+      <c r="AF45" s="347"/>
+      <c r="AG45" s="298"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
       <c r="AJ45" s="62"/>
@@ -34682,13 +34688,13 @@
       <c r="AL45" s="62"/>
     </row>
     <row r="46" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="334" t="str">
+      <c r="A46" s="323" t="str">
         <f>A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="335"/>
-      <c r="C46" s="336"/>
-      <c r="D46" s="336"/>
+      <c r="B46" s="324"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="325"/>
       <c r="E46" s="57" t="str">
         <f t="shared" ref="E46:N47" si="5">IF(E5="","",E5)</f>
         <v/>
@@ -34729,8 +34735,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="329"/>
-      <c r="P46" s="306"/>
+      <c r="O46" s="340"/>
+      <c r="P46" s="311"/>
       <c r="Q46" s="57" t="str">
         <f>IF(Q5="","",Q5)</f>
         <v/>
@@ -34771,16 +34777,16 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="330"/>
-      <c r="AB46" s="307"/>
+      <c r="AA46" s="341"/>
+      <c r="AB46" s="312"/>
       <c r="AC46" s="57" t="str">
         <f>IF(AC5="","",AC5)</f>
         <v/>
       </c>
-      <c r="AD46" s="322"/>
+      <c r="AD46" s="349"/>
       <c r="AE46" s="375"/>
-      <c r="AF46" s="361"/>
-      <c r="AG46" s="363"/>
+      <c r="AF46" s="347"/>
+      <c r="AG46" s="298"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
       <c r="AJ46" s="62"/>
@@ -34788,111 +34794,111 @@
       <c r="AL46" s="62"/>
     </row>
     <row r="47" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="341" t="str">
+      <c r="A47" s="359" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="310"/>
-      <c r="C47" s="311"/>
-      <c r="D47" s="311"/>
-      <c r="E47" s="302" t="str">
+      <c r="B47" s="316"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="317" t="str">
         <f>IF(E6="","",E6)</f>
         <v/>
       </c>
-      <c r="F47" s="302" t="str">
+      <c r="F47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G47" s="302" t="str">
+      <c r="G47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H47" s="302" t="str">
+      <c r="H47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I47" s="302" t="str">
+      <c r="I47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J47" s="302" t="str">
+      <c r="J47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K47" s="302" t="str">
+      <c r="K47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47" s="302" t="str">
+      <c r="L47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M47" s="302" t="str">
+      <c r="M47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N47" s="302" t="str">
+      <c r="N47" s="317" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O47" s="304" t="str">
+      <c r="O47" s="369" t="str">
         <f>O6</f>
         <v/>
       </c>
-      <c r="P47" s="306"/>
-      <c r="Q47" s="302" t="str">
+      <c r="P47" s="311"/>
+      <c r="Q47" s="317" t="str">
         <f t="shared" ref="Q47:Z47" si="7">IF(Q6="","",Q6)</f>
         <v/>
       </c>
-      <c r="R47" s="302" t="str">
+      <c r="R47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S47" s="302" t="str">
+      <c r="S47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T47" s="302" t="str">
+      <c r="T47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U47" s="302" t="str">
+      <c r="U47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V47" s="302" t="str">
+      <c r="V47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W47" s="302" t="str">
+      <c r="W47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X47" s="302" t="str">
+      <c r="X47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Y47" s="302" t="str">
+      <c r="Y47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z47" s="302" t="str">
+      <c r="Z47" s="317" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA47" s="304" t="str">
+      <c r="AA47" s="369" t="str">
         <f>AA6</f>
         <v/>
       </c>
-      <c r="AB47" s="307"/>
-      <c r="AC47" s="371">
+      <c r="AB47" s="312"/>
+      <c r="AC47" s="308">
         <f>AC6</f>
         <v>40634</v>
       </c>
-      <c r="AD47" s="323"/>
+      <c r="AD47" s="350"/>
       <c r="AE47" s="375"/>
-      <c r="AF47" s="361"/>
-      <c r="AG47" s="363"/>
+      <c r="AF47" s="347"/>
+      <c r="AG47" s="298"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
       <c r="AJ47" s="62"/>
@@ -34900,45 +34906,45 @@
       <c r="AL47" s="62"/>
     </row>
     <row r="48" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="344" t="s">
+      <c r="A48" s="362" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="345"/>
-      <c r="C48" s="348" t="s">
+      <c r="B48" s="363"/>
+      <c r="C48" s="336" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="337" t="s">
+      <c r="D48" s="326" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="302"/>
-      <c r="F48" s="302"/>
-      <c r="G48" s="302"/>
-      <c r="H48" s="302"/>
-      <c r="I48" s="302"/>
-      <c r="J48" s="302"/>
-      <c r="K48" s="302"/>
-      <c r="L48" s="302"/>
-      <c r="M48" s="302"/>
-      <c r="N48" s="302"/>
-      <c r="O48" s="304"/>
-      <c r="P48" s="306"/>
-      <c r="Q48" s="302"/>
-      <c r="R48" s="302"/>
-      <c r="S48" s="302"/>
-      <c r="T48" s="302"/>
-      <c r="U48" s="302"/>
-      <c r="V48" s="302"/>
-      <c r="W48" s="302"/>
-      <c r="X48" s="302"/>
-      <c r="Y48" s="302"/>
-      <c r="Z48" s="302"/>
-      <c r="AA48" s="304"/>
-      <c r="AB48" s="307"/>
-      <c r="AC48" s="372"/>
-      <c r="AD48" s="323"/>
+      <c r="E48" s="317"/>
+      <c r="F48" s="317"/>
+      <c r="G48" s="317"/>
+      <c r="H48" s="317"/>
+      <c r="I48" s="317"/>
+      <c r="J48" s="317"/>
+      <c r="K48" s="317"/>
+      <c r="L48" s="317"/>
+      <c r="M48" s="317"/>
+      <c r="N48" s="317"/>
+      <c r="O48" s="369"/>
+      <c r="P48" s="311"/>
+      <c r="Q48" s="317"/>
+      <c r="R48" s="317"/>
+      <c r="S48" s="317"/>
+      <c r="T48" s="317"/>
+      <c r="U48" s="317"/>
+      <c r="V48" s="317"/>
+      <c r="W48" s="317"/>
+      <c r="X48" s="317"/>
+      <c r="Y48" s="317"/>
+      <c r="Z48" s="317"/>
+      <c r="AA48" s="369"/>
+      <c r="AB48" s="312"/>
+      <c r="AC48" s="309"/>
+      <c r="AD48" s="350"/>
       <c r="AE48" s="375"/>
-      <c r="AF48" s="361"/>
-      <c r="AG48" s="363"/>
+      <c r="AF48" s="347"/>
+      <c r="AG48" s="298"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
       <c r="AJ48" s="55"/>
@@ -34946,39 +34952,39 @@
       <c r="AL48" s="55"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A49" s="346"/>
-      <c r="B49" s="347"/>
-      <c r="C49" s="349"/>
-      <c r="D49" s="338"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
-      <c r="I49" s="303"/>
-      <c r="J49" s="303"/>
-      <c r="K49" s="303"/>
-      <c r="L49" s="303"/>
-      <c r="M49" s="303"/>
-      <c r="N49" s="303"/>
-      <c r="O49" s="305"/>
-      <c r="P49" s="374"/>
-      <c r="Q49" s="303"/>
-      <c r="R49" s="303"/>
-      <c r="S49" s="303"/>
-      <c r="T49" s="303"/>
-      <c r="U49" s="303"/>
-      <c r="V49" s="303"/>
-      <c r="W49" s="303"/>
-      <c r="X49" s="303"/>
-      <c r="Y49" s="303"/>
-      <c r="Z49" s="303"/>
-      <c r="AA49" s="305"/>
-      <c r="AB49" s="308"/>
-      <c r="AC49" s="373"/>
-      <c r="AD49" s="324"/>
+      <c r="A49" s="364"/>
+      <c r="B49" s="365"/>
+      <c r="C49" s="337"/>
+      <c r="D49" s="327"/>
+      <c r="E49" s="318"/>
+      <c r="F49" s="318"/>
+      <c r="G49" s="318"/>
+      <c r="H49" s="318"/>
+      <c r="I49" s="318"/>
+      <c r="J49" s="318"/>
+      <c r="K49" s="318"/>
+      <c r="L49" s="318"/>
+      <c r="M49" s="318"/>
+      <c r="N49" s="318"/>
+      <c r="O49" s="370"/>
+      <c r="P49" s="314"/>
+      <c r="Q49" s="318"/>
+      <c r="R49" s="318"/>
+      <c r="S49" s="318"/>
+      <c r="T49" s="318"/>
+      <c r="U49" s="318"/>
+      <c r="V49" s="318"/>
+      <c r="W49" s="318"/>
+      <c r="X49" s="318"/>
+      <c r="Y49" s="318"/>
+      <c r="Z49" s="318"/>
+      <c r="AA49" s="370"/>
+      <c r="AB49" s="313"/>
+      <c r="AC49" s="310"/>
+      <c r="AD49" s="351"/>
       <c r="AE49" s="376"/>
-      <c r="AF49" s="362"/>
-      <c r="AG49" s="364"/>
+      <c r="AF49" s="348"/>
+      <c r="AG49" s="299"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -36171,8 +36177,8 @@
         <f>CRS!U66</f>
         <v/>
       </c>
-      <c r="AH66" s="300"/>
-      <c r="AI66" s="298" t="s">
+      <c r="AH66" s="373"/>
+      <c r="AI66" s="371" t="s">
         <v>127</v>
       </c>
     </row>
@@ -36245,8 +36251,8 @@
         <f>CRS!U67</f>
         <v/>
       </c>
-      <c r="AH67" s="301"/>
-      <c r="AI67" s="299"/>
+      <c r="AH67" s="374"/>
+      <c r="AI67" s="372"/>
     </row>
     <row r="68" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -36317,8 +36323,8 @@
         <f>CRS!U68</f>
         <v/>
       </c>
-      <c r="AH68" s="301"/>
-      <c r="AI68" s="299"/>
+      <c r="AH68" s="374"/>
+      <c r="AI68" s="372"/>
     </row>
     <row r="69" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -36389,8 +36395,8 @@
         <f>CRS!U69</f>
         <v/>
       </c>
-      <c r="AH69" s="301"/>
-      <c r="AI69" s="299"/>
+      <c r="AH69" s="374"/>
+      <c r="AI69" s="372"/>
     </row>
     <row r="70" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -36461,8 +36467,8 @@
         <f>CRS!U70</f>
         <v/>
       </c>
-      <c r="AH70" s="301"/>
-      <c r="AI70" s="299"/>
+      <c r="AH70" s="374"/>
+      <c r="AI70" s="372"/>
     </row>
     <row r="71" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -36533,8 +36539,8 @@
         <f>CRS!U71</f>
         <v/>
       </c>
-      <c r="AH71" s="301"/>
-      <c r="AI71" s="299"/>
+      <c r="AH71" s="374"/>
+      <c r="AI71" s="372"/>
     </row>
     <row r="72" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -36605,8 +36611,8 @@
         <f>CRS!U72</f>
         <v/>
       </c>
-      <c r="AH72" s="301"/>
-      <c r="AI72" s="299"/>
+      <c r="AH72" s="374"/>
+      <c r="AI72" s="372"/>
     </row>
     <row r="73" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -36677,8 +36683,8 @@
         <f>CRS!U73</f>
         <v/>
       </c>
-      <c r="AH73" s="301"/>
-      <c r="AI73" s="299"/>
+      <c r="AH73" s="374"/>
+      <c r="AI73" s="372"/>
     </row>
     <row r="74" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -36749,8 +36755,8 @@
         <f>CRS!U74</f>
         <v/>
       </c>
-      <c r="AH74" s="301"/>
-      <c r="AI74" s="299"/>
+      <c r="AH74" s="374"/>
+      <c r="AI74" s="372"/>
     </row>
     <row r="75" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -36821,8 +36827,8 @@
         <f>CRS!U75</f>
         <v/>
       </c>
-      <c r="AH75" s="301"/>
-      <c r="AI75" s="299"/>
+      <c r="AH75" s="374"/>
+      <c r="AI75" s="372"/>
     </row>
     <row r="76" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -36893,8 +36899,8 @@
         <f>CRS!U76</f>
         <v/>
       </c>
-      <c r="AH76" s="301"/>
-      <c r="AI76" s="299"/>
+      <c r="AH76" s="374"/>
+      <c r="AI76" s="372"/>
     </row>
     <row r="77" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -36965,8 +36971,8 @@
         <f>CRS!U77</f>
         <v/>
       </c>
-      <c r="AH77" s="301"/>
-      <c r="AI77" s="299"/>
+      <c r="AH77" s="374"/>
+      <c r="AI77" s="372"/>
     </row>
     <row r="78" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -37037,8 +37043,8 @@
         <f>CRS!U78</f>
         <v/>
       </c>
-      <c r="AH78" s="301"/>
-      <c r="AI78" s="299"/>
+      <c r="AH78" s="374"/>
+      <c r="AI78" s="372"/>
     </row>
     <row r="79" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -37109,8 +37115,8 @@
         <f>CRS!U79</f>
         <v/>
       </c>
-      <c r="AH79" s="301"/>
-      <c r="AI79" s="299"/>
+      <c r="AH79" s="374"/>
+      <c r="AI79" s="372"/>
     </row>
     <row r="80" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -37181,8 +37187,8 @@
         <f>CRS!U80</f>
         <v/>
       </c>
-      <c r="AH80" s="301"/>
-      <c r="AI80" s="299"/>
+      <c r="AH80" s="374"/>
+      <c r="AI80" s="372"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -37462,16 +37468,102 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="r9GU55Q6M2zTlwa014WpkfKiky8Sb8v4KLpKizRfX9cdBMIz1ysRsotcKQrpvBSarNV9EJ4HGzIGqk6p3/Mr3A==" saltValue="54XUZU5JGZ6/eLh4J4iIXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="130">
-    <mergeCell ref="AI66:AI80"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="AE2:AE8"/>
+    <mergeCell ref="AF2:AF8"/>
+    <mergeCell ref="AG2:AG8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB8"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:AG1"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="AC2:AD3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="P44:P49"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AI26:AI40"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:AG42"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="Q43:AB43"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AE43:AE49"/>
+    <mergeCell ref="AF43:AF49"/>
+    <mergeCell ref="AG43:AG49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
     <mergeCell ref="M44:M45"/>
     <mergeCell ref="N44:N45"/>
     <mergeCell ref="O44:O46"/>
@@ -37496,102 +37588,16 @@
     <mergeCell ref="N47:N49"/>
     <mergeCell ref="O47:O49"/>
     <mergeCell ref="R47:R49"/>
-    <mergeCell ref="AI26:AI40"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:AG42"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="Q43:AB43"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="AF43:AF49"/>
-    <mergeCell ref="AG43:AG49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="P44:P49"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="AF2:AF8"/>
-    <mergeCell ref="AG2:AG8"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB8"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:AG1"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="AC2:AD3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AI66:AI80"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
@@ -37751,55 +37757,55 @@
         <f>'INITIAL INPUT'!D12</f>
         <v>CITCS INTL 3</v>
       </c>
-      <c r="C11" s="381" t="str">
+      <c r="C11" s="385" t="str">
         <f>'INITIAL INPUT'!G12</f>
         <v>ICS2</v>
       </c>
-      <c r="D11" s="382"/>
-      <c r="E11" s="382"/>
+      <c r="D11" s="386"/>
+      <c r="E11" s="386"/>
       <c r="F11" s="163"/>
-      <c r="G11" s="383" t="str">
+      <c r="G11" s="387" t="str">
         <f>CRS!A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="H11" s="384"/>
-      <c r="I11" s="384"/>
-      <c r="J11" s="384"/>
-      <c r="K11" s="384"/>
-      <c r="L11" s="384"/>
-      <c r="M11" s="384"/>
+      <c r="H11" s="388"/>
+      <c r="I11" s="388"/>
+      <c r="J11" s="388"/>
+      <c r="K11" s="388"/>
+      <c r="L11" s="388"/>
+      <c r="M11" s="388"/>
       <c r="N11" s="164"/>
-      <c r="O11" s="385" t="str">
+      <c r="O11" s="389" t="str">
         <f>CONCATENATE('INITIAL INPUT'!G16," Trimester")</f>
         <v>2 Trimester</v>
       </c>
-      <c r="P11" s="382"/>
+      <c r="P11" s="386"/>
     </row>
     <row r="12" spans="1:34" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="386" t="s">
+      <c r="C12" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
+      <c r="D12" s="372"/>
+      <c r="E12" s="372"/>
       <c r="F12" s="163"/>
-      <c r="G12" s="387" t="s">
+      <c r="G12" s="380" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="299"/>
-      <c r="I12" s="299"/>
-      <c r="J12" s="299"/>
-      <c r="K12" s="299"/>
-      <c r="L12" s="299"/>
-      <c r="M12" s="299"/>
+      <c r="H12" s="372"/>
+      <c r="I12" s="372"/>
+      <c r="J12" s="372"/>
+      <c r="K12" s="372"/>
+      <c r="L12" s="372"/>
+      <c r="M12" s="372"/>
       <c r="N12" s="106"/>
-      <c r="O12" s="388" t="str">
+      <c r="O12" s="381" t="str">
         <f>CONCATENATE("SY ",'INITIAL INPUT'!D16)</f>
         <v>SY 2016-2017</v>
       </c>
-      <c r="P12" s="389"/>
+      <c r="P12" s="382"/>
       <c r="Q12" s="128"/>
       <c r="R12" s="128"/>
       <c r="S12" s="128"/>
@@ -37877,10 +37883,10 @@
         <v>145</v>
       </c>
       <c r="N14" s="136"/>
-      <c r="O14" s="379" t="s">
+      <c r="O14" s="383" t="s">
         <v>133</v>
       </c>
-      <c r="P14" s="380"/>
+      <c r="P14" s="384"/>
       <c r="Q14" s="137"/>
       <c r="R14" s="137"/>
       <c r="S14" s="137"/>
@@ -38099,7 +38105,7 @@
       <c r="H18" s="133"/>
       <c r="I18" s="144">
         <f>IF(CRS!I12="","",CRS!I12)</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J18" s="145"/>
       <c r="K18" s="144" t="str">
@@ -38453,7 +38459,7 @@
       <c r="H24" s="133"/>
       <c r="I24" s="144">
         <f>IF(CRS!I18="","",CRS!I18)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J24" s="145"/>
       <c r="K24" s="144" t="str">
@@ -40152,55 +40158,55 @@
         <f>A11</f>
         <v>CITCS INTL 3</v>
       </c>
-      <c r="C72" s="381" t="str">
+      <c r="C72" s="385" t="str">
         <f>C11</f>
         <v>ICS2</v>
       </c>
-      <c r="D72" s="382"/>
-      <c r="E72" s="382"/>
+      <c r="D72" s="386"/>
+      <c r="E72" s="386"/>
       <c r="F72" s="163"/>
-      <c r="G72" s="383" t="str">
+      <c r="G72" s="387" t="str">
         <f>G11</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="H72" s="384"/>
-      <c r="I72" s="384"/>
-      <c r="J72" s="384"/>
-      <c r="K72" s="384"/>
-      <c r="L72" s="384"/>
-      <c r="M72" s="384"/>
+      <c r="H72" s="388"/>
+      <c r="I72" s="388"/>
+      <c r="J72" s="388"/>
+      <c r="K72" s="388"/>
+      <c r="L72" s="388"/>
+      <c r="M72" s="388"/>
       <c r="N72" s="164"/>
-      <c r="O72" s="385" t="str">
+      <c r="O72" s="389" t="str">
         <f>O11</f>
         <v>2 Trimester</v>
       </c>
-      <c r="P72" s="382"/>
+      <c r="P72" s="386"/>
     </row>
     <row r="73" spans="1:34" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="386" t="s">
+      <c r="C73" s="379" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="299"/>
-      <c r="E73" s="299"/>
+      <c r="D73" s="372"/>
+      <c r="E73" s="372"/>
       <c r="F73" s="163"/>
-      <c r="G73" s="387" t="s">
+      <c r="G73" s="380" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="299"/>
-      <c r="I73" s="299"/>
-      <c r="J73" s="299"/>
-      <c r="K73" s="299"/>
-      <c r="L73" s="299"/>
-      <c r="M73" s="299"/>
+      <c r="H73" s="372"/>
+      <c r="I73" s="372"/>
+      <c r="J73" s="372"/>
+      <c r="K73" s="372"/>
+      <c r="L73" s="372"/>
+      <c r="M73" s="372"/>
       <c r="N73" s="106"/>
-      <c r="O73" s="388" t="str">
+      <c r="O73" s="381" t="str">
         <f>O12</f>
         <v>SY 2016-2017</v>
       </c>
-      <c r="P73" s="389"/>
+      <c r="P73" s="382"/>
       <c r="Q73" s="128"/>
       <c r="R73" s="128"/>
       <c r="S73" s="128"/>
@@ -40278,10 +40284,10 @@
         <v>145</v>
       </c>
       <c r="N75" s="136"/>
-      <c r="O75" s="379" t="s">
+      <c r="O75" s="383" t="s">
         <v>133</v>
       </c>
-      <c r="P75" s="380"/>
+      <c r="P75" s="384"/>
       <c r="Q75" s="137"/>
       <c r="R75" s="137"/>
       <c r="S75" s="137"/>
@@ -42639,6 +42645,72 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rr4KBu2AEFa/KySpnCO0Ck38T/nOom3i2FxuhAYlP4JgnWP0E17tEsMn8PpgA+OHXpLmFfOJ659NttGsaGyyCQ==" saltValue="bJvSSGehZYl6UeN9dD1Evw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="78">
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="O90:P90"/>
     <mergeCell ref="O107:P107"/>
     <mergeCell ref="O96:P96"/>
     <mergeCell ref="O97:P97"/>
@@ -42651,72 +42723,6 @@
     <mergeCell ref="O104:P104"/>
     <mergeCell ref="O105:P105"/>
     <mergeCell ref="O106:P106"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <conditionalFormatting sqref="N15:N46 N76:N107">
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="notBetween">

--- a/2T1617CR/2T1617 - CITCS-ICS2-CITCS INTL 3.xlsx
+++ b/2T1617CR/2T1617 - CITCS-ICS2-CITCS INTL 3.xlsx
@@ -12471,13 +12471,13 @@
         <f>IF(NAMES!D2="","",NAMES!D2)</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E9" s="82" t="str">
+      <c r="E9" s="82">
         <f>IF(PRELIM!P9="","",$E$8*PRELIM!P9)</f>
-        <v/>
+        <v>23.466666666666669</v>
       </c>
       <c r="F9" s="83">
         <f>IF(PRELIM!AB9="","",$F$8*PRELIM!AB9)</f>
-        <v>9.625</v>
+        <v>26.124999999999996</v>
       </c>
       <c r="G9" s="83">
         <f>IF(PRELIM!AD9="","",$G$8*PRELIM!AD9)</f>
@@ -12485,11 +12485,11 @@
       </c>
       <c r="H9" s="84">
         <f t="shared" ref="H9:H40" si="0">IF(SUM(E9:G9)=0,"",SUM(E9:G9))</f>
-        <v>23.565000000000001</v>
+        <v>63.531666666666666</v>
       </c>
       <c r="I9" s="85">
         <f>IF(H9="","",VLOOKUP(H9,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J9" s="83" t="str">
         <f>IF(MIDTERM!P9="","",$J$8*MIDTERM!P9)</f>
@@ -12562,13 +12562,13 @@
         <f>IF(NAMES!D3="","",NAMES!D3)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E10" s="82" t="str">
+      <c r="E10" s="82">
         <f>IF(PRELIM!P10="","",$E$8*PRELIM!P10)</f>
-        <v/>
+        <v>16.133333333333333</v>
       </c>
       <c r="F10" s="83">
         <f>IF(PRELIM!AB10="","",$F$8*PRELIM!AB10)</f>
-        <v>2.7499999999999996</v>
+        <v>21.999999999999996</v>
       </c>
       <c r="G10" s="83">
         <f>IF(PRELIM!AD10="","",$G$8*PRELIM!AD10)</f>
@@ -12576,11 +12576,11 @@
       </c>
       <c r="H10" s="84">
         <f t="shared" si="0"/>
-        <v>9.2100000000000009</v>
+        <v>44.593333333333327</v>
       </c>
       <c r="I10" s="85">
         <f>IF(H10="","",VLOOKUP(H10,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J10" s="83" t="str">
         <f>IF(MIDTERM!P10="","",$J$8*MIDTERM!P10)</f>
@@ -12656,9 +12656,9 @@
         <f>IF(NAMES!D4="","",NAMES!D4)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E11" s="82" t="str">
+      <c r="E11" s="82">
         <f>IF(PRELIM!P11="","",$E$8*PRELIM!P11)</f>
-        <v/>
+        <v>5.8666666666666671</v>
       </c>
       <c r="F11" s="83" t="str">
         <f>IF(PRELIM!AB11="","",$F$8*PRELIM!AB11)</f>
@@ -12668,13 +12668,13 @@
         <f>IF(PRELIM!AD11="","",$G$8*PRELIM!AD11)</f>
         <v/>
       </c>
-      <c r="H11" s="84" t="str">
+      <c r="H11" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I11" s="85" t="str">
+        <v>5.8666666666666671</v>
+      </c>
+      <c r="I11" s="85">
         <f>IF(H11="","",VLOOKUP(H11,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>70</v>
       </c>
       <c r="J11" s="83" t="str">
         <f>IF(MIDTERM!P11="","",$J$8*MIDTERM!P11)</f>
@@ -12750,9 +12750,9 @@
         <f>IF(NAMES!D5="","",NAMES!D5)</f>
         <v>BSCS-DIGITAL ARTS TRACK-1</v>
       </c>
-      <c r="E12" s="82" t="str">
+      <c r="E12" s="82">
         <f>IF(PRELIM!P12="","",$E$8*PRELIM!P12)</f>
-        <v/>
+        <v>9.5333333333333332</v>
       </c>
       <c r="F12" s="83">
         <f>IF(PRELIM!AB12="","",$F$8*PRELIM!AB12)</f>
@@ -12764,7 +12764,7 @@
       </c>
       <c r="H12" s="84">
         <f t="shared" si="0"/>
-        <v>21.14</v>
+        <v>30.673333333333332</v>
       </c>
       <c r="I12" s="85">
         <f>IF(H12="","",VLOOKUP(H12,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -12844,13 +12844,13 @@
         <f>IF(NAMES!D6="","",NAMES!D6)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E13" s="82" t="str">
+      <c r="E13" s="82">
         <f>IF(PRELIM!P13="","",$E$8*PRELIM!P13)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="F13" s="83">
         <f>IF(PRELIM!AB13="","",$F$8*PRELIM!AB13)</f>
-        <v>16.5</v>
+        <v>33</v>
       </c>
       <c r="G13" s="83">
         <f>IF(PRELIM!AD13="","",$G$8*PRELIM!AD13)</f>
@@ -12858,11 +12858,11 @@
       </c>
       <c r="H13" s="84">
         <f t="shared" si="0"/>
-        <v>41.66</v>
+        <v>91.16</v>
       </c>
       <c r="I13" s="85">
         <f>IF(H13="","",VLOOKUP(H13,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J13" s="83" t="str">
         <f>IF(MIDTERM!P13="","",$J$8*MIDTERM!P13)</f>
@@ -13032,13 +13032,13 @@
         <f>IF(NAMES!D8="","",NAMES!D8)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E15" s="82" t="str">
+      <c r="E15" s="82">
         <f>IF(PRELIM!P15="","",$E$8*PRELIM!P15)</f>
-        <v/>
+        <v>9.1666666666666679</v>
       </c>
       <c r="F15" s="83">
         <f>IF(PRELIM!AB15="","",$F$8*PRELIM!AB15)</f>
-        <v>5.4999999999999991</v>
+        <v>19.25</v>
       </c>
       <c r="G15" s="83">
         <f>IF(PRELIM!AD15="","",$G$8*PRELIM!AD15)</f>
@@ -13046,11 +13046,11 @@
       </c>
       <c r="H15" s="84">
         <f t="shared" si="0"/>
-        <v>20.8</v>
+        <v>43.716666666666669</v>
       </c>
       <c r="I15" s="85">
         <f>IF(H15="","",VLOOKUP(H15,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J15" s="83" t="str">
         <f>IF(MIDTERM!P15="","",$J$8*MIDTERM!P15)</f>
@@ -13220,13 +13220,13 @@
         <f>IF(NAMES!D10="","",NAMES!D10)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E17" s="82" t="str">
+      <c r="E17" s="82">
         <f>IF(PRELIM!P17="","",$E$8*PRELIM!P17)</f>
-        <v/>
+        <v>14.666666666666666</v>
       </c>
       <c r="F17" s="83">
         <f>IF(PRELIM!AB17="","",$F$8*PRELIM!AB17)</f>
-        <v>10.3125</v>
+        <v>21.312500000000004</v>
       </c>
       <c r="G17" s="83">
         <f>IF(PRELIM!AD17="","",$G$8*PRELIM!AD17)</f>
@@ -13234,11 +13234,11 @@
       </c>
       <c r="H17" s="84">
         <f t="shared" si="0"/>
-        <v>32.412500000000001</v>
+        <v>58.079166666666673</v>
       </c>
       <c r="I17" s="85">
         <f>IF(H17="","",VLOOKUP(H17,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J17" s="83" t="str">
         <f>IF(MIDTERM!P17="","",$J$8*MIDTERM!P17)</f>
@@ -13314,13 +13314,13 @@
         <f>IF(NAMES!D11="","",NAMES!D11)</f>
         <v>BSIT-ERP TRACK-1</v>
       </c>
-      <c r="E18" s="82" t="str">
+      <c r="E18" s="82">
         <f>IF(PRELIM!P18="","",$E$8*PRELIM!P18)</f>
-        <v/>
+        <v>15.4</v>
       </c>
       <c r="F18" s="83">
         <f>IF(PRELIM!AB18="","",$F$8*PRELIM!AB18)</f>
-        <v>9.625</v>
+        <v>24.75</v>
       </c>
       <c r="G18" s="83">
         <f>IF(PRELIM!AD18="","",$G$8*PRELIM!AD18)</f>
@@ -13328,11 +13328,11 @@
       </c>
       <c r="H18" s="84">
         <f t="shared" si="0"/>
-        <v>19.825000000000003</v>
+        <v>50.35</v>
       </c>
       <c r="I18" s="85">
         <f>IF(H18="","",VLOOKUP(H18,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J18" s="83" t="str">
         <f>IF(MIDTERM!P18="","",$J$8*MIDTERM!P18)</f>
@@ -13408,9 +13408,9 @@
         <f>IF(NAMES!D12="","",NAMES!D12)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E19" s="82" t="str">
+      <c r="E19" s="82">
         <f>IF(PRELIM!P19="","",$E$8*PRELIM!P19)</f>
-        <v/>
+        <v>3.6666666666666665</v>
       </c>
       <c r="F19" s="83" t="str">
         <f>IF(PRELIM!AB19="","",$F$8*PRELIM!AB19)</f>
@@ -13422,7 +13422,7 @@
       </c>
       <c r="H19" s="84">
         <f t="shared" si="0"/>
-        <v>10.88</v>
+        <v>14.546666666666667</v>
       </c>
       <c r="I19" s="85">
         <f>IF(H19="","",VLOOKUP(H19,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -13502,13 +13502,13 @@
         <f>IF(NAMES!D13="","",NAMES!D13)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E20" s="82" t="str">
+      <c r="E20" s="82">
         <f>IF(PRELIM!P20="","",$E$8*PRELIM!P20)</f>
-        <v/>
+        <v>28.233333333333334</v>
       </c>
       <c r="F20" s="83">
         <f>IF(PRELIM!AB20="","",$F$8*PRELIM!AB20)</f>
-        <v>10.999999999999998</v>
+        <v>33</v>
       </c>
       <c r="G20" s="83">
         <f>IF(PRELIM!AD20="","",$G$8*PRELIM!AD20)</f>
@@ -13516,11 +13516,11 @@
       </c>
       <c r="H20" s="84">
         <f t="shared" si="0"/>
-        <v>32.42</v>
+        <v>82.653333333333336</v>
       </c>
       <c r="I20" s="85">
         <f>IF(H20="","",VLOOKUP(H20,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="J20" s="83" t="str">
         <f>IF(MIDTERM!P20="","",$J$8*MIDTERM!P20)</f>
@@ -13690,13 +13690,13 @@
         <f>IF(NAMES!D15="","",NAMES!D15)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E22" s="82" t="str">
+      <c r="E22" s="82">
         <f>IF(PRELIM!P22="","",$E$8*PRELIM!P22)</f>
-        <v/>
+        <v>29.333333333333332</v>
       </c>
       <c r="F22" s="83">
         <f>IF(PRELIM!AB22="","",$F$8*PRELIM!AB22)</f>
-        <v>5.4999999999999991</v>
+        <v>33</v>
       </c>
       <c r="G22" s="83">
         <f>IF(PRELIM!AD22="","",$G$8*PRELIM!AD22)</f>
@@ -13704,11 +13704,11 @@
       </c>
       <c r="H22" s="84">
         <f t="shared" si="0"/>
-        <v>23.52</v>
+        <v>80.353333333333325</v>
       </c>
       <c r="I22" s="85">
         <f>IF(H22="","",VLOOKUP(H22,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J22" s="83" t="str">
         <f>IF(MIDTERM!P22="","",$J$8*MIDTERM!P22)</f>
@@ -13784,13 +13784,13 @@
         <f>IF(NAMES!D16="","",NAMES!D16)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E23" s="82" t="str">
+      <c r="E23" s="82">
         <f>IF(PRELIM!P23="","",$E$8*PRELIM!P23)</f>
-        <v/>
+        <v>3.3000000000000003</v>
       </c>
       <c r="F23" s="83">
         <f>IF(PRELIM!AB23="","",$F$8*PRELIM!AB23)</f>
-        <v>8.9375</v>
+        <v>30.9375</v>
       </c>
       <c r="G23" s="83">
         <f>IF(PRELIM!AD23="","",$G$8*PRELIM!AD23)</f>
@@ -13798,11 +13798,11 @@
       </c>
       <c r="H23" s="84">
         <f t="shared" si="0"/>
-        <v>19.137500000000003</v>
+        <v>44.4375</v>
       </c>
       <c r="I23" s="85">
         <f>IF(H23="","",VLOOKUP(H23,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J23" s="83" t="str">
         <f>IF(MIDTERM!P23="","",$J$8*MIDTERM!P23)</f>
@@ -13878,13 +13878,13 @@
         <f>IF(NAMES!D17="","",NAMES!D17)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E24" s="82" t="str">
+      <c r="E24" s="82">
         <f>IF(PRELIM!P24="","",$E$8*PRELIM!P24)</f>
-        <v/>
+        <v>28.233333333333334</v>
       </c>
       <c r="F24" s="83">
         <f>IF(PRELIM!AB24="","",$F$8*PRELIM!AB24)</f>
-        <v>10.3125</v>
+        <v>32.3125</v>
       </c>
       <c r="G24" s="83">
         <f>IF(PRELIM!AD24="","",$G$8*PRELIM!AD24)</f>
@@ -13892,11 +13892,11 @@
       </c>
       <c r="H24" s="84">
         <f t="shared" si="0"/>
-        <v>23.232500000000002</v>
+        <v>73.465833333333336</v>
       </c>
       <c r="I24" s="85">
         <f>IF(H24="","",VLOOKUP(H24,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="J24" s="83" t="str">
         <f>IF(MIDTERM!P24="","",$J$8*MIDTERM!P24)</f>
@@ -13972,13 +13972,13 @@
         <f>IF(NAMES!D18="","",NAMES!D18)</f>
         <v>BSIT-ERP TRACK-1</v>
       </c>
-      <c r="E25" s="82" t="str">
+      <c r="E25" s="82">
         <f>IF(PRELIM!P25="","",$E$8*PRELIM!P25)</f>
-        <v/>
+        <v>10.999999999999998</v>
       </c>
       <c r="F25" s="83">
         <f>IF(PRELIM!AB25="","",$F$8*PRELIM!AB25)</f>
-        <v>10.3125</v>
+        <v>32.3125</v>
       </c>
       <c r="G25" s="83">
         <f>IF(PRELIM!AD25="","",$G$8*PRELIM!AD25)</f>
@@ -13986,11 +13986,11 @@
       </c>
       <c r="H25" s="84">
         <f t="shared" si="0"/>
-        <v>31.732500000000002</v>
+        <v>64.732500000000002</v>
       </c>
       <c r="I25" s="85">
         <f>IF(H25="","",VLOOKUP(H25,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J25" s="83" t="str">
         <f>IF(MIDTERM!P25="","",$J$8*MIDTERM!P25)</f>
@@ -14066,13 +14066,13 @@
         <f>IF(NAMES!D19="","",NAMES!D19)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E26" s="82" t="str">
+      <c r="E26" s="82">
         <f>IF(PRELIM!P26="","",$E$8*PRELIM!P26)</f>
-        <v/>
+        <v>26.766666666666669</v>
       </c>
       <c r="F26" s="83">
         <f>IF(PRELIM!AB26="","",$F$8*PRELIM!AB26)</f>
-        <v>10.3125</v>
+        <v>32.3125</v>
       </c>
       <c r="G26" s="83">
         <f>IF(PRELIM!AD26="","",$G$8*PRELIM!AD26)</f>
@@ -14080,11 +14080,11 @@
       </c>
       <c r="H26" s="84">
         <f t="shared" si="0"/>
-        <v>27.3125</v>
+        <v>76.079166666666666</v>
       </c>
       <c r="I26" s="85">
         <f>IF(H26="","",VLOOKUP(H26,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="J26" s="83" t="str">
         <f>IF(MIDTERM!P26="","",$J$8*MIDTERM!P26)</f>
@@ -14163,13 +14163,13 @@
         <f>IF(NAMES!D20="","",NAMES!D20)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E27" s="82" t="str">
+      <c r="E27" s="82">
         <f>IF(PRELIM!P27="","",$E$8*PRELIM!P27)</f>
-        <v/>
+        <v>10.999999999999998</v>
       </c>
       <c r="F27" s="83">
         <f>IF(PRELIM!AB27="","",$F$8*PRELIM!AB27)</f>
-        <v>10.3125</v>
+        <v>32.3125</v>
       </c>
       <c r="G27" s="83">
         <f>IF(PRELIM!AD27="","",$G$8*PRELIM!AD27)</f>
@@ -14177,11 +14177,11 @@
       </c>
       <c r="H27" s="84">
         <f t="shared" si="0"/>
-        <v>20.852499999999999</v>
+        <v>53.852499999999999</v>
       </c>
       <c r="I27" s="85">
         <f>IF(H27="","",VLOOKUP(H27,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J27" s="83" t="str">
         <f>IF(MIDTERM!P27="","",$J$8*MIDTERM!P27)</f>
@@ -14262,21 +14262,21 @@
         <f>IF(PRELIM!P28="","",$E$8*PRELIM!P28)</f>
         <v/>
       </c>
-      <c r="F28" s="83">
+      <c r="F28" s="83" t="str">
         <f>IF(PRELIM!AB28="","",$F$8*PRELIM!AB28)</f>
-        <v>8.25</v>
+        <v/>
       </c>
       <c r="G28" s="83" t="str">
         <f>IF(PRELIM!AD28="","",$G$8*PRELIM!AD28)</f>
         <v/>
       </c>
-      <c r="H28" s="84">
+      <c r="H28" s="84" t="str">
         <f t="shared" si="0"/>
-        <v>8.25</v>
-      </c>
-      <c r="I28" s="85">
+        <v/>
+      </c>
+      <c r="I28" s="85" t="str">
         <f>IF(H28="","",VLOOKUP(H28,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v/>
       </c>
       <c r="J28" s="83" t="str">
         <f>IF(MIDTERM!P28="","",$J$8*MIDTERM!P28)</f>
@@ -14353,9 +14353,9 @@
         <f>IF(NAMES!D22="","",NAMES!D22)</f>
         <v>BSIT-BA TRACK-1</v>
       </c>
-      <c r="E29" s="82" t="str">
+      <c r="E29" s="82">
         <f>IF(PRELIM!P29="","",$E$8*PRELIM!P29)</f>
-        <v/>
+        <v>10.266666666666667</v>
       </c>
       <c r="F29" s="83" t="str">
         <f>IF(PRELIM!AB29="","",$F$8*PRELIM!AB29)</f>
@@ -14367,7 +14367,7 @@
       </c>
       <c r="H29" s="84">
         <f t="shared" si="0"/>
-        <v>19.72</v>
+        <v>29.986666666666665</v>
       </c>
       <c r="I29" s="85">
         <f>IF(H29="","",VLOOKUP(H29,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -14448,13 +14448,13 @@
         <f>IF(NAMES!D23="","",NAMES!D23)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E30" s="82" t="str">
+      <c r="E30" s="82">
         <f>IF(PRELIM!P30="","",$E$8*PRELIM!P30)</f>
-        <v/>
+        <v>22.366666666666671</v>
       </c>
       <c r="F30" s="83">
         <f>IF(PRELIM!AB30="","",$F$8*PRELIM!AB30)</f>
-        <v>10.3125</v>
+        <v>32.3125</v>
       </c>
       <c r="G30" s="83">
         <f>IF(PRELIM!AD30="","",$G$8*PRELIM!AD30)</f>
@@ -14462,11 +14462,11 @@
       </c>
       <c r="H30" s="84">
         <f t="shared" si="0"/>
-        <v>29.692499999999999</v>
+        <v>74.05916666666667</v>
       </c>
       <c r="I30" s="85">
         <f>IF(H30="","",VLOOKUP(H30,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="J30" s="83" t="str">
         <f>IF(MIDTERM!P30="","",$J$8*MIDTERM!P30)</f>
@@ -14543,13 +14543,13 @@
         <f>IF(NAMES!D24="","",NAMES!D24)</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E31" s="82" t="str">
+      <c r="E31" s="82">
         <f>IF(PRELIM!P31="","",$E$8*PRELIM!P31)</f>
-        <v/>
+        <v>27.500000000000004</v>
       </c>
       <c r="F31" s="83">
         <f>IF(PRELIM!AB31="","",$F$8*PRELIM!AB31)</f>
-        <v>10.999999999999998</v>
+        <v>33</v>
       </c>
       <c r="G31" s="83">
         <f>IF(PRELIM!AD31="","",$G$8*PRELIM!AD31)</f>
@@ -14557,11 +14557,11 @@
       </c>
       <c r="H31" s="84">
         <f t="shared" si="0"/>
-        <v>29.019999999999996</v>
+        <v>78.52</v>
       </c>
       <c r="I31" s="85">
         <f>IF(H31="","",VLOOKUP(H31,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="J31" s="83" t="str">
         <f>IF(MIDTERM!P31="","",$J$8*MIDTERM!P31)</f>
@@ -14638,13 +14638,13 @@
         <f>IF(NAMES!D25="","",NAMES!D25)</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E32" s="82" t="str">
+      <c r="E32" s="82">
         <f>IF(PRELIM!P32="","",$E$8*PRELIM!P32)</f>
-        <v/>
+        <v>7.333333333333333</v>
       </c>
       <c r="F32" s="83">
         <f>IF(PRELIM!AB32="","",$F$8*PRELIM!AB32)</f>
-        <v>8.25</v>
+        <v>30.25</v>
       </c>
       <c r="G32" s="83">
         <f>IF(PRELIM!AD32="","",$G$8*PRELIM!AD32)</f>
@@ -14652,11 +14652,11 @@
       </c>
       <c r="H32" s="84">
         <f t="shared" si="0"/>
-        <v>17.43</v>
+        <v>46.763333333333335</v>
       </c>
       <c r="I32" s="85">
         <f>IF(H32="","",VLOOKUP(H32,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J32" s="83" t="str">
         <f>IF(MIDTERM!P32="","",$J$8*MIDTERM!P32)</f>
@@ -14733,13 +14733,13 @@
         <f>IF(NAMES!D26="","",NAMES!D26)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E33" s="82" t="str">
+      <c r="E33" s="82">
         <f>IF(PRELIM!P33="","",$E$8*PRELIM!P33)</f>
-        <v/>
-      </c>
-      <c r="F33" s="83" t="str">
+        <v>10.266666666666667</v>
+      </c>
+      <c r="F33" s="83">
         <f>IF(PRELIM!AB33="","",$F$8*PRELIM!AB33)</f>
-        <v/>
+        <v>16.5</v>
       </c>
       <c r="G33" s="83">
         <f>IF(PRELIM!AD33="","",$G$8*PRELIM!AD33)</f>
@@ -14747,11 +14747,11 @@
       </c>
       <c r="H33" s="84">
         <f t="shared" si="0"/>
-        <v>12.24</v>
+        <v>39.006666666666668</v>
       </c>
       <c r="I33" s="85">
         <f>IF(H33="","",VLOOKUP(H33,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J33" s="83" t="str">
         <f>IF(MIDTERM!P33="","",$J$8*MIDTERM!P33)</f>
@@ -14828,13 +14828,13 @@
         <f>IF(NAMES!D27="","",NAMES!D27)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E34" s="82" t="str">
+      <c r="E34" s="82">
         <f>IF(PRELIM!P34="","",$E$8*PRELIM!P34)</f>
-        <v/>
+        <v>17.233333333333338</v>
       </c>
       <c r="F34" s="83">
         <f>IF(PRELIM!AB34="","",$F$8*PRELIM!AB34)</f>
-        <v>10.999999999999998</v>
+        <v>33</v>
       </c>
       <c r="G34" s="83">
         <f>IF(PRELIM!AD34="","",$G$8*PRELIM!AD34)</f>
@@ -14842,11 +14842,11 @@
       </c>
       <c r="H34" s="84">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>67.233333333333334</v>
       </c>
       <c r="I34" s="85">
         <f>IF(H34="","",VLOOKUP(H34,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J34" s="83" t="str">
         <f>IF(MIDTERM!P34="","",$J$8*MIDTERM!P34)</f>
@@ -14923,13 +14923,13 @@
         <f>IF(NAMES!D28="","",NAMES!D28)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E35" s="82" t="str">
+      <c r="E35" s="82">
         <f>IF(PRELIM!P35="","",$E$8*PRELIM!P35)</f>
-        <v/>
+        <v>27.500000000000004</v>
       </c>
       <c r="F35" s="83">
         <f>IF(PRELIM!AB35="","",$F$8*PRELIM!AB35)</f>
-        <v>8.9375</v>
+        <v>30.9375</v>
       </c>
       <c r="G35" s="83">
         <f>IF(PRELIM!AD35="","",$G$8*PRELIM!AD35)</f>
@@ -14937,11 +14937,11 @@
       </c>
       <c r="H35" s="84">
         <f t="shared" si="0"/>
-        <v>24.237500000000001</v>
+        <v>73.737499999999997</v>
       </c>
       <c r="I35" s="85">
         <f>IF(H35="","",VLOOKUP(H35,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="J35" s="83" t="str">
         <f>IF(MIDTERM!P35="","",$J$8*MIDTERM!P35)</f>
@@ -15018,13 +15018,13 @@
         <f>IF(NAMES!D29="","",NAMES!D29)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E36" s="82" t="str">
+      <c r="E36" s="82">
         <f>IF(PRELIM!P36="","",$E$8*PRELIM!P36)</f>
-        <v/>
+        <v>24.2</v>
       </c>
       <c r="F36" s="83">
         <f>IF(PRELIM!AB36="","",$F$8*PRELIM!AB36)</f>
-        <v>10.999999999999998</v>
+        <v>33</v>
       </c>
       <c r="G36" s="83">
         <f>IF(PRELIM!AD36="","",$G$8*PRELIM!AD36)</f>
@@ -15032,11 +15032,11 @@
       </c>
       <c r="H36" s="84">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>74.2</v>
       </c>
       <c r="I36" s="85">
         <f>IF(H36="","",VLOOKUP(H36,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="J36" s="83" t="str">
         <f>IF(MIDTERM!P36="","",$J$8*MIDTERM!P36)</f>
@@ -15208,13 +15208,13 @@
         <f>IF(NAMES!D31="","",NAMES!D31)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E38" s="82" t="str">
+      <c r="E38" s="82">
         <f>IF(PRELIM!P38="","",$E$8*PRELIM!P38)</f>
-        <v/>
+        <v>27.133333333333333</v>
       </c>
       <c r="F38" s="83">
         <f>IF(PRELIM!AB38="","",$F$8*PRELIM!AB38)</f>
-        <v>10.999999999999998</v>
+        <v>33</v>
       </c>
       <c r="G38" s="83">
         <f>IF(PRELIM!AD38="","",$G$8*PRELIM!AD38)</f>
@@ -15222,11 +15222,11 @@
       </c>
       <c r="H38" s="84">
         <f t="shared" si="0"/>
-        <v>27.659999999999997</v>
+        <v>76.793333333333337</v>
       </c>
       <c r="I38" s="85">
         <f>IF(H38="","",VLOOKUP(H38,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="J38" s="83" t="str">
         <f>IF(MIDTERM!P38="","",$J$8*MIDTERM!P38)</f>
@@ -15803,13 +15803,13 @@
         <f>IF(NAMES!D34="","",NAMES!D34)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E50" s="82" t="str">
+      <c r="E50" s="82">
         <f>IF(PRELIM!P50="","",$E$8*PRELIM!P50)</f>
-        <v/>
-      </c>
-      <c r="F50" s="83" t="str">
+        <v>10.999999999999998</v>
+      </c>
+      <c r="F50" s="83">
         <f>IF(PRELIM!AB50="","",$F$8*PRELIM!AB50)</f>
-        <v/>
+        <v>16.5</v>
       </c>
       <c r="G50" s="83">
         <f>IF(PRELIM!AD50="","",$G$8*PRELIM!AD50)</f>
@@ -15817,11 +15817,11 @@
       </c>
       <c r="H50" s="84">
         <f t="shared" ref="H50:H80" si="6">IF(SUM(E50:G50)=0,"",SUM(E50:G50))</f>
-        <v>1.7000000000000002</v>
+        <v>29.2</v>
       </c>
       <c r="I50" s="85">
         <f>IF(H50="","",VLOOKUP(H50,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J50" s="83" t="str">
         <f>IF(MIDTERM!P50="","",$J$8*MIDTERM!P50)</f>
@@ -15897,13 +15897,13 @@
         <f>IF(NAMES!D35="","",NAMES!D35)</f>
         <v>BSCS-MOBILE TECH TRACK-1</v>
       </c>
-      <c r="E51" s="82" t="str">
+      <c r="E51" s="82">
         <f>IF(PRELIM!P51="","",$E$8*PRELIM!P51)</f>
-        <v/>
+        <v>13.933333333333334</v>
       </c>
       <c r="F51" s="83">
         <f>IF(PRELIM!AB51="","",$F$8*PRELIM!AB51)</f>
-        <v>5.4999999999999991</v>
+        <v>27.500000000000004</v>
       </c>
       <c r="G51" s="83">
         <f>IF(PRELIM!AD51="","",$G$8*PRELIM!AD51)</f>
@@ -15911,11 +15911,11 @@
       </c>
       <c r="H51" s="84">
         <f t="shared" si="6"/>
-        <v>16.72</v>
+        <v>52.653333333333336</v>
       </c>
       <c r="I51" s="85">
         <f>IF(H51="","",VLOOKUP(H51,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J51" s="83" t="str">
         <f>IF(MIDTERM!P51="","",$J$8*MIDTERM!P51)</f>
@@ -15991,13 +15991,13 @@
         <f>IF(NAMES!D36="","",NAMES!D36)</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E52" s="82" t="str">
+      <c r="E52" s="82">
         <f>IF(PRELIM!P52="","",$E$8*PRELIM!P52)</f>
-        <v/>
+        <v>32.266666666666666</v>
       </c>
       <c r="F52" s="83">
         <f>IF(PRELIM!AB52="","",$F$8*PRELIM!AB52)</f>
-        <v>10.999999999999998</v>
+        <v>33</v>
       </c>
       <c r="G52" s="83">
         <f>IF(PRELIM!AD52="","",$G$8*PRELIM!AD52)</f>
@@ -16005,11 +16005,11 @@
       </c>
       <c r="H52" s="84">
         <f t="shared" si="6"/>
-        <v>38.200000000000003</v>
+        <v>92.466666666666669</v>
       </c>
       <c r="I52" s="85">
         <f>IF(H52="","",VLOOKUP(H52,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J52" s="83" t="str">
         <f>IF(MIDTERM!P52="","",$J$8*MIDTERM!P52)</f>
@@ -16085,13 +16085,13 @@
         <f>IF(NAMES!D37="","",NAMES!D37)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E53" s="82" t="str">
+      <c r="E53" s="82">
         <f>IF(PRELIM!P53="","",$E$8*PRELIM!P53)</f>
-        <v/>
+        <v>9.5333333333333332</v>
       </c>
       <c r="F53" s="83">
         <f>IF(PRELIM!AB53="","",$F$8*PRELIM!AB53)</f>
-        <v>10.3125</v>
+        <v>32.3125</v>
       </c>
       <c r="G53" s="83">
         <f>IF(PRELIM!AD53="","",$G$8*PRELIM!AD53)</f>
@@ -16099,11 +16099,11 @@
       </c>
       <c r="H53" s="84">
         <f t="shared" si="6"/>
-        <v>21.532499999999999</v>
+        <v>53.06583333333333</v>
       </c>
       <c r="I53" s="85">
         <f>IF(H53="","",VLOOKUP(H53,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J53" s="83" t="str">
         <f>IF(MIDTERM!P53="","",$J$8*MIDTERM!P53)</f>
@@ -16179,13 +16179,13 @@
         <f>IF(NAMES!D38="","",NAMES!D38)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E54" s="82" t="str">
+      <c r="E54" s="82">
         <f>IF(PRELIM!P54="","",$E$8*PRELIM!P54)</f>
-        <v/>
-      </c>
-      <c r="F54" s="83" t="str">
+        <v>10.999999999999998</v>
+      </c>
+      <c r="F54" s="83">
         <f>IF(PRELIM!AB54="","",$F$8*PRELIM!AB54)</f>
-        <v/>
+        <v>30.25</v>
       </c>
       <c r="G54" s="83">
         <f>IF(PRELIM!AD54="","",$G$8*PRELIM!AD54)</f>
@@ -16193,11 +16193,11 @@
       </c>
       <c r="H54" s="84">
         <f t="shared" si="6"/>
-        <v>7.82</v>
+        <v>49.07</v>
       </c>
       <c r="I54" s="85">
         <f>IF(H54="","",VLOOKUP(H54,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J54" s="83" t="str">
         <f>IF(MIDTERM!P54="","",$J$8*MIDTERM!P54)</f>
@@ -16273,13 +16273,13 @@
         <f>IF(NAMES!D39="","",NAMES!D39)</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E55" s="82" t="str">
+      <c r="E55" s="82">
         <f>IF(PRELIM!P55="","",$E$8*PRELIM!P55)</f>
-        <v/>
+        <v>19.8</v>
       </c>
       <c r="F55" s="83">
         <f>IF(PRELIM!AB55="","",$F$8*PRELIM!AB55)</f>
-        <v>6.8750000000000009</v>
+        <v>28.875</v>
       </c>
       <c r="G55" s="83">
         <f>IF(PRELIM!AD55="","",$G$8*PRELIM!AD55)</f>
@@ -16287,11 +16287,11 @@
       </c>
       <c r="H55" s="84">
         <f t="shared" si="6"/>
-        <v>15.715</v>
+        <v>57.515000000000001</v>
       </c>
       <c r="I55" s="85">
         <f>IF(H55="","",VLOOKUP(H55,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J55" s="83" t="str">
         <f>IF(MIDTERM!P55="","",$J$8*MIDTERM!P55)</f>
@@ -19559,8 +19559,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V67" sqref="V67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19821,11 +19821,21 @@
       <c r="B5" s="324"/>
       <c r="C5" s="325"/>
       <c r="D5" s="325"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
+      <c r="E5" s="108">
+        <v>30</v>
+      </c>
+      <c r="F5" s="108">
+        <v>20</v>
+      </c>
+      <c r="G5" s="108">
+        <v>20</v>
+      </c>
+      <c r="H5" s="108">
+        <v>10</v>
+      </c>
+      <c r="I5" s="108">
+        <v>10</v>
+      </c>
       <c r="J5" s="108"/>
       <c r="K5" s="108"/>
       <c r="L5" s="108"/>
@@ -19887,9 +19897,9 @@
       <c r="L6" s="305"/>
       <c r="M6" s="305"/>
       <c r="N6" s="305"/>
-      <c r="O6" s="366" t="str">
+      <c r="O6" s="366">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="P6" s="312"/>
       <c r="Q6" s="305" t="s">
@@ -20032,23 +20042,33 @@
         <f>CRS!D9</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
+      <c r="E9" s="109">
+        <v>20</v>
+      </c>
+      <c r="F9" s="109">
+        <v>20</v>
+      </c>
+      <c r="G9" s="109">
+        <v>14</v>
+      </c>
+      <c r="H9" s="109">
+        <v>10</v>
+      </c>
+      <c r="I9" s="109">
+        <v>0</v>
+      </c>
       <c r="J9" s="109"/>
       <c r="K9" s="109"/>
       <c r="L9" s="109"/>
       <c r="M9" s="109"/>
       <c r="N9" s="109"/>
-      <c r="O9" s="60" t="str">
+      <c r="O9" s="60">
         <f>IF(SUM(E9:N9)=0,"",SUM(E9:N9))</f>
-        <v/>
-      </c>
-      <c r="P9" s="67" t="str">
+        <v>64</v>
+      </c>
+      <c r="P9" s="67">
         <f>IF(O9="","",O9/$O$6*100)</f>
-        <v/>
+        <v>71.111111111111114</v>
       </c>
       <c r="Q9" s="109">
         <v>40</v>
@@ -20056,21 +20076,29 @@
       <c r="R9" s="109">
         <v>30</v>
       </c>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
+      <c r="S9" s="109">
+        <v>30</v>
+      </c>
+      <c r="T9" s="109">
+        <v>30</v>
+      </c>
+      <c r="U9" s="109">
+        <v>30</v>
+      </c>
+      <c r="V9" s="109">
+        <v>30</v>
+      </c>
       <c r="W9" s="109"/>
       <c r="X9" s="109"/>
       <c r="Y9" s="109"/>
       <c r="Z9" s="109"/>
       <c r="AA9" s="60">
         <f>IF(SUM(Q9:Z9)=0,"",SUM(Q9:Z9))</f>
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="AB9" s="67">
         <f>IF(AA9="","",AA9/$AA$6*100)</f>
-        <v>29.166666666666668</v>
+        <v>79.166666666666657</v>
       </c>
       <c r="AC9" s="111">
         <v>41</v>
@@ -20081,11 +20109,11 @@
       </c>
       <c r="AE9" s="66">
         <f>CRS!H9</f>
-        <v>23.565000000000001</v>
+        <v>63.531666666666666</v>
       </c>
       <c r="AF9" s="64">
         <f>CRS!I9</f>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG9" s="61"/>
       <c r="AH9" s="61"/>
@@ -20110,42 +20138,60 @@
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
       <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
+      <c r="F10" s="109">
+        <v>20</v>
+      </c>
+      <c r="G10" s="109">
+        <v>4</v>
+      </c>
+      <c r="H10" s="109">
+        <v>10</v>
+      </c>
+      <c r="I10" s="109">
+        <v>10</v>
+      </c>
       <c r="J10" s="109"/>
       <c r="K10" s="109"/>
       <c r="L10" s="109"/>
       <c r="M10" s="109"/>
       <c r="N10" s="109"/>
-      <c r="O10" s="60" t="str">
+      <c r="O10" s="60">
         <f t="shared" ref="O10:O40" si="0">IF(SUM(E10:N10)=0,"",SUM(E10:N10))</f>
-        <v/>
-      </c>
-      <c r="P10" s="67" t="str">
+        <v>44</v>
+      </c>
+      <c r="P10" s="67">
         <f t="shared" ref="P10:P40" si="1">IF(O10="","",O10/$O$6*100)</f>
-        <v/>
-      </c>
-      <c r="Q10" s="109"/>
+        <v>48.888888888888886</v>
+      </c>
+      <c r="Q10" s="109">
+        <v>20</v>
+      </c>
       <c r="R10" s="109">
         <v>20</v>
       </c>
-      <c r="S10" s="109"/>
-      <c r="T10" s="109"/>
-      <c r="U10" s="109"/>
-      <c r="V10" s="109"/>
+      <c r="S10" s="109">
+        <v>30</v>
+      </c>
+      <c r="T10" s="109">
+        <v>30</v>
+      </c>
+      <c r="U10" s="109">
+        <v>30</v>
+      </c>
+      <c r="V10" s="109">
+        <v>30</v>
+      </c>
       <c r="W10" s="109"/>
       <c r="X10" s="109"/>
       <c r="Y10" s="109"/>
       <c r="Z10" s="109"/>
       <c r="AA10" s="60">
         <f t="shared" ref="AA10:AA40" si="2">IF(SUM(Q10:Z10)=0,"",SUM(Q10:Z10))</f>
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AB10" s="67">
         <f t="shared" ref="AB10:AB40" si="3">IF(AA10="","",AA10/$AA$6*100)</f>
-        <v>8.3333333333333321</v>
+        <v>66.666666666666657</v>
       </c>
       <c r="AC10" s="111">
         <v>19</v>
@@ -20156,11 +20202,11 @@
       </c>
       <c r="AE10" s="66">
         <f>CRS!H10</f>
-        <v>9.2100000000000009</v>
+        <v>44.593333333333327</v>
       </c>
       <c r="AF10" s="64">
         <f>CRS!I10</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG10" s="61"/>
       <c r="AH10" s="61"/>
@@ -20184,9 +20230,13 @@
         <f>CRS!D11</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E11" s="109"/>
+      <c r="E11" s="109">
+        <v>10</v>
+      </c>
       <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
+      <c r="G11" s="109">
+        <v>6</v>
+      </c>
       <c r="H11" s="109"/>
       <c r="I11" s="109"/>
       <c r="J11" s="109"/>
@@ -20194,13 +20244,13 @@
       <c r="L11" s="109"/>
       <c r="M11" s="109"/>
       <c r="N11" s="109"/>
-      <c r="O11" s="60" t="str">
+      <c r="O11" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P11" s="67" t="str">
+        <v>16</v>
+      </c>
+      <c r="P11" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>17.777777777777779</v>
       </c>
       <c r="Q11" s="109"/>
       <c r="R11" s="109"/>
@@ -20225,13 +20275,13 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE11" s="66" t="str">
+      <c r="AE11" s="66">
         <f>CRS!H11</f>
-        <v/>
-      </c>
-      <c r="AF11" s="64" t="str">
+        <v>5.8666666666666671</v>
+      </c>
+      <c r="AF11" s="64">
         <f>CRS!I11</f>
-        <v/>
+        <v>70</v>
       </c>
       <c r="AG11" s="55"/>
       <c r="AH11" s="55"/>
@@ -20257,21 +20307,27 @@
       </c>
       <c r="E12" s="109"/>
       <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
+      <c r="G12" s="109">
+        <v>16</v>
+      </c>
+      <c r="H12" s="109">
+        <v>0</v>
+      </c>
+      <c r="I12" s="109">
+        <v>10</v>
+      </c>
       <c r="J12" s="109"/>
       <c r="K12" s="109"/>
       <c r="L12" s="109"/>
       <c r="M12" s="109"/>
       <c r="N12" s="109"/>
-      <c r="O12" s="60" t="str">
+      <c r="O12" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P12" s="67" t="str">
+        <v>26</v>
+      </c>
+      <c r="P12" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>28.888888888888886</v>
       </c>
       <c r="Q12" s="109">
         <v>40</v>
@@ -20302,7 +20358,7 @@
       </c>
       <c r="AE12" s="66">
         <f>CRS!H12</f>
-        <v>21.14</v>
+        <v>30.673333333333332</v>
       </c>
       <c r="AF12" s="64">
         <f>CRS!I12</f>
@@ -20330,23 +20386,33 @@
         <f>CRS!D13</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
+      <c r="E13" s="109">
+        <v>30</v>
+      </c>
+      <c r="F13" s="109">
+        <v>20</v>
+      </c>
+      <c r="G13" s="109">
+        <v>20</v>
+      </c>
+      <c r="H13" s="109">
+        <v>10</v>
+      </c>
+      <c r="I13" s="109">
+        <v>10</v>
+      </c>
       <c r="J13" s="109"/>
       <c r="K13" s="109"/>
       <c r="L13" s="109"/>
       <c r="M13" s="109"/>
       <c r="N13" s="109"/>
-      <c r="O13" s="60" t="str">
+      <c r="O13" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P13" s="67" t="str">
+        <v>90</v>
+      </c>
+      <c r="P13" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="Q13" s="109">
         <v>40</v>
@@ -20357,20 +20423,26 @@
       <c r="S13" s="109">
         <v>40</v>
       </c>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="109"/>
+      <c r="T13" s="109">
+        <v>40</v>
+      </c>
+      <c r="U13" s="109">
+        <v>40</v>
+      </c>
+      <c r="V13" s="109">
+        <v>40</v>
+      </c>
       <c r="W13" s="109"/>
       <c r="X13" s="109"/>
       <c r="Y13" s="109"/>
       <c r="Z13" s="109"/>
       <c r="AA13" s="60">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AB13" s="67">
         <f t="shared" si="3"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC13" s="111">
         <v>74</v>
@@ -20381,11 +20453,11 @@
       </c>
       <c r="AE13" s="66">
         <f>CRS!H13</f>
-        <v>41.66</v>
+        <v>91.16</v>
       </c>
       <c r="AF13" s="64">
         <f>CRS!I13</f>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="AG13" s="55"/>
       <c r="AH13" s="55"/>
@@ -20480,43 +20552,61 @@
         <f>CRS!D15</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E15" s="109"/>
+      <c r="E15" s="109">
+        <v>10</v>
+      </c>
       <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
+      <c r="G15" s="109">
+        <v>5</v>
+      </c>
+      <c r="H15" s="109">
+        <v>0</v>
+      </c>
+      <c r="I15" s="109">
+        <v>10</v>
+      </c>
       <c r="J15" s="109"/>
       <c r="K15" s="109"/>
       <c r="L15" s="109"/>
       <c r="M15" s="109"/>
       <c r="N15" s="109"/>
-      <c r="O15" s="60" t="str">
+      <c r="O15" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P15" s="67" t="str">
+        <v>25</v>
+      </c>
+      <c r="P15" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>27.777777777777779</v>
       </c>
       <c r="Q15" s="109">
         <v>40</v>
       </c>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
-      <c r="U15" s="109"/>
-      <c r="V15" s="109"/>
+      <c r="R15" s="109">
+        <v>20</v>
+      </c>
+      <c r="S15" s="109">
+        <v>20</v>
+      </c>
+      <c r="T15" s="109">
+        <v>20</v>
+      </c>
+      <c r="U15" s="109">
+        <v>20</v>
+      </c>
+      <c r="V15" s="109">
+        <v>20</v>
+      </c>
       <c r="W15" s="109"/>
       <c r="X15" s="109"/>
       <c r="Y15" s="109"/>
       <c r="Z15" s="109"/>
       <c r="AA15" s="60">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AB15" s="67">
         <f t="shared" si="3"/>
-        <v>16.666666666666664</v>
+        <v>58.333333333333336</v>
       </c>
       <c r="AC15" s="111">
         <v>45</v>
@@ -20527,11 +20617,11 @@
       </c>
       <c r="AE15" s="66">
         <f>CRS!H15</f>
-        <v>20.8</v>
+        <v>43.716666666666669</v>
       </c>
       <c r="AF15" s="64">
         <f>CRS!I15</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG15" s="55"/>
       <c r="AH15" s="55"/>
@@ -20626,23 +20716,31 @@
         <f>CRS!D17</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E17" s="109"/>
+      <c r="E17" s="109">
+        <v>10</v>
+      </c>
       <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="109"/>
+      <c r="G17" s="109">
+        <v>20</v>
+      </c>
+      <c r="H17" s="109">
+        <v>0</v>
+      </c>
+      <c r="I17" s="109">
+        <v>10</v>
+      </c>
       <c r="J17" s="109"/>
       <c r="K17" s="109"/>
       <c r="L17" s="109"/>
       <c r="M17" s="109"/>
       <c r="N17" s="109"/>
-      <c r="O17" s="60" t="str">
+      <c r="O17" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P17" s="67" t="str">
+        <v>40</v>
+      </c>
+      <c r="P17" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>44.444444444444443</v>
       </c>
       <c r="Q17" s="109">
         <v>35</v>
@@ -20650,21 +20748,29 @@
       <c r="R17" s="109">
         <v>40</v>
       </c>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="109"/>
+      <c r="S17" s="109">
+        <v>20</v>
+      </c>
+      <c r="T17" s="109">
+        <v>20</v>
+      </c>
+      <c r="U17" s="109">
+        <v>20</v>
+      </c>
+      <c r="V17" s="109">
+        <v>20</v>
+      </c>
       <c r="W17" s="109"/>
       <c r="X17" s="109"/>
       <c r="Y17" s="109"/>
       <c r="Z17" s="109"/>
       <c r="AA17" s="60">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="AB17" s="67">
         <f t="shared" si="3"/>
-        <v>31.25</v>
+        <v>64.583333333333343</v>
       </c>
       <c r="AC17" s="111">
         <v>65</v>
@@ -20675,11 +20781,11 @@
       </c>
       <c r="AE17" s="66">
         <f>CRS!H17</f>
-        <v>32.412500000000001</v>
+        <v>58.079166666666673</v>
       </c>
       <c r="AF17" s="64">
         <f>CRS!I17</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AG17" s="55"/>
       <c r="AH17" s="55"/>
@@ -20700,23 +20806,31 @@
         <f>CRS!D18</f>
         <v>BSIT-ERP TRACK-1</v>
       </c>
-      <c r="E18" s="109"/>
+      <c r="E18" s="109">
+        <v>30</v>
+      </c>
       <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
+      <c r="G18" s="109">
+        <v>12</v>
+      </c>
+      <c r="H18" s="109">
+        <v>0</v>
+      </c>
+      <c r="I18" s="109">
+        <v>0</v>
+      </c>
       <c r="J18" s="109"/>
       <c r="K18" s="109"/>
       <c r="L18" s="109"/>
       <c r="M18" s="109"/>
       <c r="N18" s="109"/>
-      <c r="O18" s="60" t="str">
+      <c r="O18" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P18" s="67" t="str">
+        <v>42</v>
+      </c>
+      <c r="P18" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>46.666666666666664</v>
       </c>
       <c r="Q18" s="109">
         <v>35</v>
@@ -20724,21 +20838,29 @@
       <c r="R18" s="109">
         <v>35</v>
       </c>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="109"/>
+      <c r="S18" s="109">
+        <v>30</v>
+      </c>
+      <c r="T18" s="109">
+        <v>30</v>
+      </c>
+      <c r="U18" s="109">
+        <v>30</v>
+      </c>
+      <c r="V18" s="109">
+        <v>20</v>
+      </c>
       <c r="W18" s="109"/>
       <c r="X18" s="109"/>
       <c r="Y18" s="109"/>
       <c r="Z18" s="109"/>
       <c r="AA18" s="60">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="AB18" s="67">
         <f t="shared" si="3"/>
-        <v>29.166666666666668</v>
+        <v>75</v>
       </c>
       <c r="AC18" s="111">
         <v>30</v>
@@ -20749,11 +20871,11 @@
       </c>
       <c r="AE18" s="66">
         <f>CRS!H18</f>
-        <v>19.825000000000003</v>
+        <v>50.35</v>
       </c>
       <c r="AF18" s="64">
         <f>CRS!I18</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
@@ -20776,21 +20898,27 @@
       </c>
       <c r="E19" s="109"/>
       <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
+      <c r="G19" s="109">
+        <v>0</v>
+      </c>
+      <c r="H19" s="109">
+        <v>10</v>
+      </c>
+      <c r="I19" s="109">
+        <v>0</v>
+      </c>
       <c r="J19" s="109"/>
       <c r="K19" s="109"/>
       <c r="L19" s="109"/>
       <c r="M19" s="109"/>
       <c r="N19" s="109"/>
-      <c r="O19" s="60" t="str">
+      <c r="O19" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P19" s="67" t="str">
+        <v>10</v>
+      </c>
+      <c r="P19" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>11.111111111111111</v>
       </c>
       <c r="Q19" s="109"/>
       <c r="R19" s="109"/>
@@ -20819,7 +20947,7 @@
       </c>
       <c r="AE19" s="66">
         <f>CRS!H19</f>
-        <v>10.88</v>
+        <v>14.546666666666667</v>
       </c>
       <c r="AF19" s="64">
         <f>CRS!I19</f>
@@ -20844,23 +20972,33 @@
         <f>CRS!D20</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
+      <c r="E20" s="109">
+        <v>20</v>
+      </c>
+      <c r="F20" s="109">
+        <v>20</v>
+      </c>
+      <c r="G20" s="109">
+        <v>17</v>
+      </c>
+      <c r="H20" s="109">
+        <v>10</v>
+      </c>
+      <c r="I20" s="109">
+        <v>10</v>
+      </c>
       <c r="J20" s="109"/>
       <c r="K20" s="109"/>
       <c r="L20" s="109"/>
       <c r="M20" s="109"/>
       <c r="N20" s="109"/>
-      <c r="O20" s="60" t="str">
+      <c r="O20" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P20" s="67" t="str">
+        <v>77</v>
+      </c>
+      <c r="P20" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>85.555555555555557</v>
       </c>
       <c r="Q20" s="109">
         <v>40</v>
@@ -20868,21 +21006,29 @@
       <c r="R20" s="109">
         <v>40</v>
       </c>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
-      <c r="U20" s="109"/>
-      <c r="V20" s="109"/>
+      <c r="S20" s="109">
+        <v>40</v>
+      </c>
+      <c r="T20" s="109">
+        <v>40</v>
+      </c>
+      <c r="U20" s="109">
+        <v>40</v>
+      </c>
+      <c r="V20" s="109">
+        <v>40</v>
+      </c>
       <c r="W20" s="109"/>
       <c r="X20" s="109"/>
       <c r="Y20" s="109"/>
       <c r="Z20" s="109"/>
       <c r="AA20" s="60">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AB20" s="67">
         <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="AC20" s="111">
         <v>63</v>
@@ -20893,11 +21039,11 @@
       </c>
       <c r="AE20" s="66">
         <f>CRS!H20</f>
-        <v>32.42</v>
+        <v>82.653333333333336</v>
       </c>
       <c r="AF20" s="64">
         <f>CRS!I20</f>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AG20" s="55"/>
       <c r="AH20" s="55"/>
@@ -20986,43 +21132,63 @@
         <f>CRS!D22</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
+      <c r="E22" s="109">
+        <v>20</v>
+      </c>
+      <c r="F22" s="109">
+        <v>20</v>
+      </c>
+      <c r="G22" s="109">
+        <v>20</v>
+      </c>
+      <c r="H22" s="109">
+        <v>10</v>
+      </c>
+      <c r="I22" s="109">
+        <v>10</v>
+      </c>
       <c r="J22" s="109"/>
       <c r="K22" s="109"/>
       <c r="L22" s="109"/>
       <c r="M22" s="109"/>
       <c r="N22" s="109"/>
-      <c r="O22" s="60" t="str">
+      <c r="O22" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P22" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="P22" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q22" s="109"/>
+        <v>88.888888888888886</v>
+      </c>
+      <c r="Q22" s="109">
+        <v>40</v>
+      </c>
       <c r="R22" s="109">
         <v>40</v>
       </c>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="109"/>
+      <c r="S22" s="109">
+        <v>40</v>
+      </c>
+      <c r="T22" s="109">
+        <v>40</v>
+      </c>
+      <c r="U22" s="109">
+        <v>40</v>
+      </c>
+      <c r="V22" s="109">
+        <v>40</v>
+      </c>
       <c r="W22" s="109"/>
       <c r="X22" s="109"/>
       <c r="Y22" s="109"/>
       <c r="Z22" s="109"/>
       <c r="AA22" s="60">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AB22" s="67">
         <f t="shared" si="3"/>
-        <v>16.666666666666664</v>
+        <v>100</v>
       </c>
       <c r="AC22" s="111">
         <v>53</v>
@@ -21033,11 +21199,11 @@
       </c>
       <c r="AE22" s="66">
         <f>CRS!H22</f>
-        <v>23.52</v>
+        <v>80.353333333333325</v>
       </c>
       <c r="AF22" s="64">
         <f>CRS!I22</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="55"/>
       <c r="AH22" s="55"/>
@@ -21060,21 +21226,27 @@
       </c>
       <c r="E23" s="109"/>
       <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
+      <c r="G23" s="109">
+        <v>9</v>
+      </c>
+      <c r="H23" s="109">
+        <v>0</v>
+      </c>
+      <c r="I23" s="109">
+        <v>0</v>
+      </c>
       <c r="J23" s="109"/>
       <c r="K23" s="109"/>
       <c r="L23" s="109"/>
       <c r="M23" s="109"/>
       <c r="N23" s="109"/>
-      <c r="O23" s="60" t="str">
+      <c r="O23" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P23" s="67" t="str">
+        <v>9</v>
+      </c>
+      <c r="P23" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="Q23" s="109">
         <v>30</v>
@@ -21082,21 +21254,29 @@
       <c r="R23" s="109">
         <v>35</v>
       </c>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="109"/>
+      <c r="S23" s="109">
+        <v>40</v>
+      </c>
+      <c r="T23" s="109">
+        <v>40</v>
+      </c>
+      <c r="U23" s="109">
+        <v>40</v>
+      </c>
+      <c r="V23" s="109">
+        <v>40</v>
+      </c>
       <c r="W23" s="109"/>
       <c r="X23" s="109"/>
       <c r="Y23" s="109"/>
       <c r="Z23" s="109"/>
       <c r="AA23" s="60">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="AB23" s="67">
         <f t="shared" si="3"/>
-        <v>27.083333333333332</v>
+        <v>93.75</v>
       </c>
       <c r="AC23" s="111">
         <v>30</v>
@@ -21107,11 +21287,11 @@
       </c>
       <c r="AE23" s="66">
         <f>CRS!H23</f>
-        <v>19.137500000000003</v>
+        <v>44.4375</v>
       </c>
       <c r="AF23" s="64">
         <f>CRS!I23</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG23" s="55"/>
       <c r="AH23" s="55"/>
@@ -21132,23 +21312,33 @@
         <f>CRS!D24</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
+      <c r="E24" s="109">
+        <v>20</v>
+      </c>
+      <c r="F24" s="109">
+        <v>20</v>
+      </c>
+      <c r="G24" s="109">
+        <v>17</v>
+      </c>
+      <c r="H24" s="109">
+        <v>10</v>
+      </c>
+      <c r="I24" s="109">
+        <v>10</v>
+      </c>
       <c r="J24" s="109"/>
       <c r="K24" s="109"/>
       <c r="L24" s="109"/>
       <c r="M24" s="109"/>
       <c r="N24" s="109"/>
-      <c r="O24" s="60" t="str">
+      <c r="O24" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P24" s="67" t="str">
+        <v>77</v>
+      </c>
+      <c r="P24" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>85.555555555555557</v>
       </c>
       <c r="Q24" s="109">
         <v>35</v>
@@ -21156,21 +21346,29 @@
       <c r="R24" s="109">
         <v>40</v>
       </c>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
-      <c r="U24" s="109"/>
-      <c r="V24" s="109"/>
+      <c r="S24" s="109">
+        <v>40</v>
+      </c>
+      <c r="T24" s="109">
+        <v>40</v>
+      </c>
+      <c r="U24" s="109">
+        <v>40</v>
+      </c>
+      <c r="V24" s="109">
+        <v>40</v>
+      </c>
       <c r="W24" s="109"/>
       <c r="X24" s="109"/>
       <c r="Y24" s="109"/>
       <c r="Z24" s="109"/>
       <c r="AA24" s="60">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AB24" s="67">
         <f t="shared" si="3"/>
-        <v>31.25</v>
+        <v>97.916666666666657</v>
       </c>
       <c r="AC24" s="111">
         <v>38</v>
@@ -21181,11 +21379,11 @@
       </c>
       <c r="AE24" s="66">
         <f>CRS!H24</f>
-        <v>23.232500000000002</v>
+        <v>73.465833333333336</v>
       </c>
       <c r="AF24" s="64">
         <f>CRS!I24</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="AG24" s="55"/>
       <c r="AH24" s="55"/>
@@ -21206,23 +21404,27 @@
         <f>CRS!D25</f>
         <v>BSIT-ERP TRACK-1</v>
       </c>
-      <c r="E25" s="109"/>
+      <c r="E25" s="109">
+        <v>20</v>
+      </c>
       <c r="F25" s="109"/>
       <c r="G25" s="109"/>
       <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
+      <c r="I25" s="109">
+        <v>10</v>
+      </c>
       <c r="J25" s="109"/>
       <c r="K25" s="109"/>
       <c r="L25" s="109"/>
       <c r="M25" s="109"/>
       <c r="N25" s="109"/>
-      <c r="O25" s="60" t="str">
+      <c r="O25" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P25" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="P25" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>33.333333333333329</v>
       </c>
       <c r="Q25" s="109">
         <v>35</v>
@@ -21230,21 +21432,29 @@
       <c r="R25" s="109">
         <v>40</v>
       </c>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="109"/>
+      <c r="S25" s="109">
+        <v>40</v>
+      </c>
+      <c r="T25" s="109">
+        <v>40</v>
+      </c>
+      <c r="U25" s="109">
+        <v>40</v>
+      </c>
+      <c r="V25" s="109">
+        <v>40</v>
+      </c>
       <c r="W25" s="109"/>
       <c r="X25" s="109"/>
       <c r="Y25" s="109"/>
       <c r="Z25" s="109"/>
       <c r="AA25" s="60">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AB25" s="67">
         <f t="shared" si="3"/>
-        <v>31.25</v>
+        <v>97.916666666666657</v>
       </c>
       <c r="AC25" s="111">
         <v>63</v>
@@ -21255,11 +21465,11 @@
       </c>
       <c r="AE25" s="66">
         <f>CRS!H25</f>
-        <v>31.732500000000002</v>
+        <v>64.732500000000002</v>
       </c>
       <c r="AF25" s="64">
         <f>CRS!I25</f>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AG25" s="55"/>
       <c r="AH25" s="55"/>
@@ -21280,23 +21490,31 @@
         <f>CRS!D26</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
+      <c r="E26" s="109">
+        <v>30</v>
+      </c>
+      <c r="F26" s="109">
+        <v>20</v>
+      </c>
+      <c r="G26" s="109">
+        <v>13</v>
+      </c>
       <c r="H26" s="109"/>
-      <c r="I26" s="109"/>
+      <c r="I26" s="109">
+        <v>10</v>
+      </c>
       <c r="J26" s="109"/>
       <c r="K26" s="109"/>
       <c r="L26" s="109"/>
       <c r="M26" s="109"/>
       <c r="N26" s="109"/>
-      <c r="O26" s="60" t="str">
+      <c r="O26" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P26" s="67" t="str">
+        <v>73</v>
+      </c>
+      <c r="P26" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>81.111111111111114</v>
       </c>
       <c r="Q26" s="109">
         <v>40</v>
@@ -21304,21 +21522,29 @@
       <c r="R26" s="109">
         <v>35</v>
       </c>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="109"/>
+      <c r="S26" s="109">
+        <v>40</v>
+      </c>
+      <c r="T26" s="109">
+        <v>40</v>
+      </c>
+      <c r="U26" s="109">
+        <v>40</v>
+      </c>
+      <c r="V26" s="109">
+        <v>40</v>
+      </c>
       <c r="W26" s="109"/>
       <c r="X26" s="109"/>
       <c r="Y26" s="109"/>
       <c r="Z26" s="109"/>
       <c r="AA26" s="60">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AB26" s="67">
         <f t="shared" si="3"/>
-        <v>31.25</v>
+        <v>97.916666666666657</v>
       </c>
       <c r="AC26" s="111">
         <v>50</v>
@@ -21329,11 +21555,11 @@
       </c>
       <c r="AE26" s="66">
         <f>CRS!H26</f>
-        <v>27.3125</v>
+        <v>76.079166666666666</v>
       </c>
       <c r="AF26" s="64">
         <f>CRS!I26</f>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="AG26" s="373"/>
       <c r="AH26" s="371" t="s">
@@ -21356,23 +21582,27 @@
         <f>CRS!D27</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E27" s="109"/>
+      <c r="E27" s="109">
+        <v>20</v>
+      </c>
       <c r="F27" s="109"/>
       <c r="G27" s="109"/>
       <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
+      <c r="I27" s="109">
+        <v>10</v>
+      </c>
       <c r="J27" s="109"/>
       <c r="K27" s="109"/>
       <c r="L27" s="109"/>
       <c r="M27" s="109"/>
       <c r="N27" s="109"/>
-      <c r="O27" s="60" t="str">
+      <c r="O27" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P27" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="P27" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>33.333333333333329</v>
       </c>
       <c r="Q27" s="109">
         <v>35</v>
@@ -21380,21 +21610,29 @@
       <c r="R27" s="109">
         <v>40</v>
       </c>
-      <c r="S27" s="109"/>
-      <c r="T27" s="109"/>
-      <c r="U27" s="109"/>
-      <c r="V27" s="109"/>
+      <c r="S27" s="109">
+        <v>40</v>
+      </c>
+      <c r="T27" s="109">
+        <v>40</v>
+      </c>
+      <c r="U27" s="109">
+        <v>40</v>
+      </c>
+      <c r="V27" s="109">
+        <v>40</v>
+      </c>
       <c r="W27" s="109"/>
       <c r="X27" s="109"/>
       <c r="Y27" s="109"/>
       <c r="Z27" s="109"/>
       <c r="AA27" s="60">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AB27" s="67">
         <f t="shared" si="3"/>
-        <v>31.25</v>
+        <v>97.916666666666657</v>
       </c>
       <c r="AC27" s="111">
         <v>31</v>
@@ -21405,11 +21643,11 @@
       </c>
       <c r="AE27" s="66">
         <f>CRS!H27</f>
-        <v>20.852499999999999</v>
+        <v>53.852499999999999</v>
       </c>
       <c r="AF27" s="64">
         <f>CRS!I27</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="AG27" s="374"/>
       <c r="AH27" s="372"/>
@@ -21448,12 +21686,8 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q28" s="109">
-        <v>30</v>
-      </c>
-      <c r="R28" s="109">
-        <v>30</v>
-      </c>
+      <c r="Q28" s="109"/>
+      <c r="R28" s="109"/>
       <c r="S28" s="109"/>
       <c r="T28" s="109"/>
       <c r="U28" s="109"/>
@@ -21462,26 +21696,26 @@
       <c r="X28" s="109"/>
       <c r="Y28" s="109"/>
       <c r="Z28" s="109"/>
-      <c r="AA28" s="60">
+      <c r="AA28" s="60" t="str">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="AB28" s="67">
+        <v/>
+      </c>
+      <c r="AB28" s="67" t="str">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v/>
       </c>
       <c r="AC28" s="111"/>
       <c r="AD28" s="67" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE28" s="66">
+      <c r="AE28" s="66" t="str">
         <f>CRS!H28</f>
-        <v>8.25</v>
-      </c>
-      <c r="AF28" s="64">
+        <v/>
+      </c>
+      <c r="AF28" s="64" t="str">
         <f>CRS!I28</f>
-        <v>71</v>
+        <v/>
       </c>
       <c r="AG28" s="374"/>
       <c r="AH28" s="372"/>
@@ -21504,21 +21738,25 @@
       </c>
       <c r="E29" s="109"/>
       <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
+      <c r="G29" s="109">
+        <v>18</v>
+      </c>
       <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
+      <c r="I29" s="109">
+        <v>10</v>
+      </c>
       <c r="J29" s="109"/>
       <c r="K29" s="109"/>
       <c r="L29" s="109"/>
       <c r="M29" s="109"/>
       <c r="N29" s="109"/>
-      <c r="O29" s="60" t="str">
+      <c r="O29" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P29" s="67" t="str">
+        <v>28</v>
+      </c>
+      <c r="P29" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>31.111111111111111</v>
       </c>
       <c r="Q29" s="109"/>
       <c r="R29" s="109"/>
@@ -21547,7 +21785,7 @@
       </c>
       <c r="AE29" s="66">
         <f>CRS!H29</f>
-        <v>19.72</v>
+        <v>29.986666666666665</v>
       </c>
       <c r="AF29" s="64">
         <f>CRS!I29</f>
@@ -21572,23 +21810,31 @@
         <f>CRS!D30</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
+      <c r="E30" s="109">
+        <v>20</v>
+      </c>
+      <c r="F30" s="109">
+        <v>20</v>
+      </c>
+      <c r="G30" s="109">
+        <v>11</v>
+      </c>
       <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
+      <c r="I30" s="109">
+        <v>10</v>
+      </c>
       <c r="J30" s="109"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
       <c r="N30" s="109"/>
-      <c r="O30" s="60" t="str">
+      <c r="O30" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P30" s="67" t="str">
+        <v>61</v>
+      </c>
+      <c r="P30" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>67.777777777777786</v>
       </c>
       <c r="Q30" s="109">
         <v>35</v>
@@ -21596,21 +21842,29 @@
       <c r="R30" s="109">
         <v>40</v>
       </c>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="109"/>
-      <c r="V30" s="109"/>
+      <c r="S30" s="109">
+        <v>40</v>
+      </c>
+      <c r="T30" s="109">
+        <v>40</v>
+      </c>
+      <c r="U30" s="109">
+        <v>40</v>
+      </c>
+      <c r="V30" s="109">
+        <v>40</v>
+      </c>
       <c r="W30" s="109"/>
       <c r="X30" s="109"/>
       <c r="Y30" s="109"/>
       <c r="Z30" s="109"/>
       <c r="AA30" s="60">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AB30" s="67">
         <f t="shared" si="3"/>
-        <v>31.25</v>
+        <v>97.916666666666657</v>
       </c>
       <c r="AC30" s="111">
         <v>57</v>
@@ -21621,11 +21875,11 @@
       </c>
       <c r="AE30" s="66">
         <f>CRS!H30</f>
-        <v>29.692499999999999</v>
+        <v>74.05916666666667</v>
       </c>
       <c r="AF30" s="64">
         <f>CRS!I30</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="AG30" s="374"/>
       <c r="AH30" s="372"/>
@@ -21646,23 +21900,33 @@
         <f>CRS!D31</f>
         <v>BSIT-WEB TRACK-2</v>
       </c>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
+      <c r="E31" s="109">
+        <v>30</v>
+      </c>
+      <c r="F31" s="109">
+        <v>20</v>
+      </c>
+      <c r="G31" s="109">
+        <v>15</v>
+      </c>
+      <c r="H31" s="109">
+        <v>10</v>
+      </c>
+      <c r="I31" s="109">
+        <v>0</v>
+      </c>
       <c r="J31" s="109"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
       <c r="N31" s="109"/>
-      <c r="O31" s="60" t="str">
+      <c r="O31" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P31" s="67" t="str">
+        <v>75</v>
+      </c>
+      <c r="P31" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>83.333333333333343</v>
       </c>
       <c r="Q31" s="109">
         <v>40</v>
@@ -21670,21 +21934,29 @@
       <c r="R31" s="109">
         <v>40</v>
       </c>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
-      <c r="U31" s="109"/>
-      <c r="V31" s="109"/>
+      <c r="S31" s="109">
+        <v>40</v>
+      </c>
+      <c r="T31" s="109">
+        <v>40</v>
+      </c>
+      <c r="U31" s="109">
+        <v>40</v>
+      </c>
+      <c r="V31" s="109">
+        <v>40</v>
+      </c>
       <c r="W31" s="109"/>
       <c r="X31" s="109"/>
       <c r="Y31" s="109"/>
       <c r="Z31" s="109"/>
       <c r="AA31" s="60">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AB31" s="67">
         <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="AC31" s="111">
         <v>53</v>
@@ -21695,11 +21967,11 @@
       </c>
       <c r="AE31" s="66">
         <f>CRS!H31</f>
-        <v>29.019999999999996</v>
+        <v>78.52</v>
       </c>
       <c r="AF31" s="64">
         <f>CRS!I31</f>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="AG31" s="374"/>
       <c r="AH31" s="372"/>
@@ -21720,7 +21992,9 @@
         <f>CRS!D32</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E32" s="109"/>
+      <c r="E32" s="109">
+        <v>20</v>
+      </c>
       <c r="F32" s="109"/>
       <c r="G32" s="109"/>
       <c r="H32" s="109"/>
@@ -21730,13 +22004,13 @@
       <c r="L32" s="109"/>
       <c r="M32" s="109"/>
       <c r="N32" s="109"/>
-      <c r="O32" s="60" t="str">
+      <c r="O32" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P32" s="67" t="str">
+        <v>20</v>
+      </c>
+      <c r="P32" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>22.222222222222221</v>
       </c>
       <c r="Q32" s="109">
         <v>40</v>
@@ -21744,21 +22018,29 @@
       <c r="R32" s="109">
         <v>20</v>
       </c>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
-      <c r="U32" s="109"/>
-      <c r="V32" s="109"/>
+      <c r="S32" s="109">
+        <v>40</v>
+      </c>
+      <c r="T32" s="109">
+        <v>40</v>
+      </c>
+      <c r="U32" s="109">
+        <v>40</v>
+      </c>
+      <c r="V32" s="109">
+        <v>40</v>
+      </c>
       <c r="W32" s="109"/>
       <c r="X32" s="109"/>
       <c r="Y32" s="109"/>
       <c r="Z32" s="109"/>
       <c r="AA32" s="60">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="AB32" s="67">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>91.666666666666657</v>
       </c>
       <c r="AC32" s="111">
         <v>27</v>
@@ -21769,11 +22051,11 @@
       </c>
       <c r="AE32" s="66">
         <f>CRS!H32</f>
-        <v>17.43</v>
+        <v>46.763333333333335</v>
       </c>
       <c r="AF32" s="64">
         <f>CRS!I32</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AG32" s="374"/>
       <c r="AH32" s="372"/>
@@ -21795,8 +22077,12 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
+      <c r="F33" s="109">
+        <v>20</v>
+      </c>
+      <c r="G33" s="109">
+        <v>8</v>
+      </c>
       <c r="H33" s="109"/>
       <c r="I33" s="109"/>
       <c r="J33" s="109"/>
@@ -21804,31 +22090,43 @@
       <c r="L33" s="109"/>
       <c r="M33" s="109"/>
       <c r="N33" s="109"/>
-      <c r="O33" s="60" t="str">
+      <c r="O33" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P33" s="67" t="str">
+        <v>28</v>
+      </c>
+      <c r="P33" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="109"/>
+        <v>31.111111111111111</v>
+      </c>
+      <c r="Q33" s="109">
+        <v>20</v>
+      </c>
+      <c r="R33" s="109">
+        <v>20</v>
+      </c>
+      <c r="S33" s="109">
+        <v>20</v>
+      </c>
+      <c r="T33" s="109">
+        <v>20</v>
+      </c>
+      <c r="U33" s="109">
+        <v>20</v>
+      </c>
+      <c r="V33" s="109">
+        <v>20</v>
+      </c>
       <c r="W33" s="109"/>
       <c r="X33" s="109"/>
       <c r="Y33" s="109"/>
       <c r="Z33" s="109"/>
-      <c r="AA33" s="60" t="str">
+      <c r="AA33" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB33" s="67" t="str">
+        <v>120</v>
+      </c>
+      <c r="AB33" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="AC33" s="111">
         <v>36</v>
@@ -21839,11 +22137,11 @@
       </c>
       <c r="AE33" s="66">
         <f>CRS!H33</f>
-        <v>12.24</v>
+        <v>39.006666666666668</v>
       </c>
       <c r="AF33" s="64">
         <f>CRS!I33</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AG33" s="374"/>
       <c r="AH33" s="372"/>
@@ -21867,23 +22165,29 @@
         <f>CRS!D34</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E34" s="109"/>
+      <c r="E34" s="109">
+        <v>20</v>
+      </c>
       <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
+      <c r="G34" s="109">
+        <v>17</v>
+      </c>
       <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
+      <c r="I34" s="109">
+        <v>10</v>
+      </c>
       <c r="J34" s="109"/>
       <c r="K34" s="109"/>
       <c r="L34" s="109"/>
       <c r="M34" s="109"/>
       <c r="N34" s="109"/>
-      <c r="O34" s="60" t="str">
+      <c r="O34" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P34" s="67" t="str">
+        <v>47</v>
+      </c>
+      <c r="P34" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>52.222222222222229</v>
       </c>
       <c r="Q34" s="109">
         <v>40</v>
@@ -21891,21 +22195,29 @@
       <c r="R34" s="109">
         <v>40</v>
       </c>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
-      <c r="U34" s="109"/>
-      <c r="V34" s="109"/>
+      <c r="S34" s="109">
+        <v>40</v>
+      </c>
+      <c r="T34" s="109">
+        <v>40</v>
+      </c>
+      <c r="U34" s="109">
+        <v>40</v>
+      </c>
+      <c r="V34" s="109">
+        <v>40</v>
+      </c>
       <c r="W34" s="109"/>
       <c r="X34" s="109"/>
       <c r="Y34" s="109"/>
       <c r="Z34" s="109"/>
       <c r="AA34" s="60">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AB34" s="67">
         <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="AC34" s="111">
         <v>50</v>
@@ -21916,11 +22228,11 @@
       </c>
       <c r="AE34" s="66">
         <f>CRS!H34</f>
-        <v>28</v>
+        <v>67.233333333333334</v>
       </c>
       <c r="AF34" s="64">
         <f>CRS!I34</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="AG34" s="374"/>
       <c r="AH34" s="372"/>
@@ -21944,23 +22256,33 @@
         <f>CRS!D35</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
+      <c r="E35" s="109">
+        <v>20</v>
+      </c>
+      <c r="F35" s="109">
+        <v>20</v>
+      </c>
+      <c r="G35" s="109">
+        <v>15</v>
+      </c>
+      <c r="H35" s="109">
+        <v>10</v>
+      </c>
+      <c r="I35" s="109">
+        <v>10</v>
+      </c>
       <c r="J35" s="109"/>
       <c r="K35" s="109"/>
       <c r="L35" s="109"/>
       <c r="M35" s="109"/>
       <c r="N35" s="109"/>
-      <c r="O35" s="60" t="str">
+      <c r="O35" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P35" s="67" t="str">
+        <v>75</v>
+      </c>
+      <c r="P35" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>83.333333333333343</v>
       </c>
       <c r="Q35" s="109">
         <v>30</v>
@@ -21968,21 +22290,29 @@
       <c r="R35" s="109">
         <v>35</v>
       </c>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109"/>
-      <c r="U35" s="109"/>
-      <c r="V35" s="109"/>
+      <c r="S35" s="109">
+        <v>40</v>
+      </c>
+      <c r="T35" s="109">
+        <v>40</v>
+      </c>
+      <c r="U35" s="109">
+        <v>40</v>
+      </c>
+      <c r="V35" s="109">
+        <v>40</v>
+      </c>
       <c r="W35" s="109"/>
       <c r="X35" s="109"/>
       <c r="Y35" s="109"/>
       <c r="Z35" s="109"/>
       <c r="AA35" s="60">
         <f t="shared" si="2"/>
-        <v>65</v>
+        <v>225</v>
       </c>
       <c r="AB35" s="67">
         <f t="shared" si="3"/>
-        <v>27.083333333333332</v>
+        <v>93.75</v>
       </c>
       <c r="AC35" s="111">
         <v>45</v>
@@ -21993,11 +22323,11 @@
       </c>
       <c r="AE35" s="66">
         <f>CRS!H35</f>
-        <v>24.237500000000001</v>
+        <v>73.737499999999997</v>
       </c>
       <c r="AF35" s="64">
         <f>CRS!I35</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="AG35" s="374"/>
       <c r="AH35" s="372"/>
@@ -22021,23 +22351,31 @@
         <f>CRS!D36</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="109"/>
+      <c r="E36" s="109">
+        <v>20</v>
+      </c>
+      <c r="F36" s="109">
+        <v>20</v>
+      </c>
+      <c r="G36" s="109">
+        <v>16</v>
+      </c>
       <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
+      <c r="I36" s="109">
+        <v>10</v>
+      </c>
       <c r="J36" s="109"/>
       <c r="K36" s="109"/>
       <c r="L36" s="109"/>
       <c r="M36" s="109"/>
       <c r="N36" s="109"/>
-      <c r="O36" s="60" t="str">
+      <c r="O36" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P36" s="67" t="str">
+        <v>66</v>
+      </c>
+      <c r="P36" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>73.333333333333329</v>
       </c>
       <c r="Q36" s="109">
         <v>40</v>
@@ -22045,21 +22383,29 @@
       <c r="R36" s="109">
         <v>40</v>
       </c>
-      <c r="S36" s="109"/>
-      <c r="T36" s="109"/>
-      <c r="U36" s="109"/>
-      <c r="V36" s="109"/>
+      <c r="S36" s="109">
+        <v>40</v>
+      </c>
+      <c r="T36" s="109">
+        <v>40</v>
+      </c>
+      <c r="U36" s="109">
+        <v>40</v>
+      </c>
+      <c r="V36" s="109">
+        <v>40</v>
+      </c>
       <c r="W36" s="109"/>
       <c r="X36" s="109"/>
       <c r="Y36" s="109"/>
       <c r="Z36" s="109"/>
       <c r="AA36" s="60">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AB36" s="67">
         <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="AC36" s="111">
         <v>50</v>
@@ -22070,11 +22416,11 @@
       </c>
       <c r="AE36" s="66">
         <f>CRS!H36</f>
-        <v>28</v>
+        <v>74.2</v>
       </c>
       <c r="AF36" s="64">
         <f>CRS!I36</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="AG36" s="374"/>
       <c r="AH36" s="372"/>
@@ -22169,23 +22515,31 @@
         <f>CRS!D38</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
+      <c r="E38" s="109">
+        <v>30</v>
+      </c>
+      <c r="F38" s="109">
+        <v>20</v>
+      </c>
+      <c r="G38" s="109">
+        <v>14</v>
+      </c>
       <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
+      <c r="I38" s="109">
+        <v>10</v>
+      </c>
       <c r="J38" s="109"/>
       <c r="K38" s="109"/>
       <c r="L38" s="109"/>
       <c r="M38" s="109"/>
       <c r="N38" s="109"/>
-      <c r="O38" s="60" t="str">
+      <c r="O38" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P38" s="67" t="str">
+        <v>74</v>
+      </c>
+      <c r="P38" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>82.222222222222214</v>
       </c>
       <c r="Q38" s="109">
         <v>40</v>
@@ -22193,21 +22547,29 @@
       <c r="R38" s="109">
         <v>40</v>
       </c>
-      <c r="S38" s="109"/>
-      <c r="T38" s="109"/>
-      <c r="U38" s="109"/>
-      <c r="V38" s="109"/>
+      <c r="S38" s="109">
+        <v>40</v>
+      </c>
+      <c r="T38" s="109">
+        <v>40</v>
+      </c>
+      <c r="U38" s="109">
+        <v>40</v>
+      </c>
+      <c r="V38" s="109">
+        <v>40</v>
+      </c>
       <c r="W38" s="109"/>
       <c r="X38" s="109"/>
       <c r="Y38" s="109"/>
       <c r="Z38" s="109"/>
       <c r="AA38" s="60">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AB38" s="67">
         <f t="shared" si="3"/>
-        <v>33.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="AC38" s="111">
         <v>49</v>
@@ -22218,11 +22580,11 @@
       </c>
       <c r="AE38" s="66">
         <f>CRS!H38</f>
-        <v>27.659999999999997</v>
+        <v>76.793333333333337</v>
       </c>
       <c r="AF38" s="64">
         <f>CRS!I38</f>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="AG38" s="374"/>
       <c r="AH38" s="372"/>
@@ -22318,10 +22680,18 @@
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
       <c r="E40" s="109"/>
-      <c r="F40" s="109"/>
-      <c r="G40" s="109"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
+      <c r="F40" s="109">
+        <v>0</v>
+      </c>
+      <c r="G40" s="109">
+        <v>0</v>
+      </c>
+      <c r="H40" s="109">
+        <v>0</v>
+      </c>
+      <c r="I40" s="109">
+        <v>0</v>
+      </c>
       <c r="J40" s="109"/>
       <c r="K40" s="109"/>
       <c r="L40" s="109"/>
@@ -22659,25 +23029,25 @@
       <c r="B46" s="324"/>
       <c r="C46" s="325"/>
       <c r="D46" s="325"/>
-      <c r="E46" s="57" t="str">
+      <c r="E46" s="57">
         <f t="shared" ref="E46:N46" si="5">IF(E5="","",E5)</f>
-        <v/>
-      </c>
-      <c r="F46" s="57" t="str">
+        <v>30</v>
+      </c>
+      <c r="F46" s="57">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G46" s="57" t="str">
+        <v>20</v>
+      </c>
+      <c r="G46" s="57">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H46" s="57" t="str">
+        <v>20</v>
+      </c>
+      <c r="H46" s="57">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I46" s="57" t="str">
+        <v>10</v>
+      </c>
+      <c r="I46" s="57">
         <f t="shared" si="5"/>
-        <v/>
+        <v>10</v>
       </c>
       <c r="J46" s="57" t="str">
         <f t="shared" si="5"/>
@@ -22804,9 +23174,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O47" s="369" t="str">
+      <c r="O47" s="369">
         <f>O6</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="P47" s="311"/>
       <c r="Q47" s="317" t="str">
@@ -22962,41 +23332,57 @@
         <f>CRS!D50</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E50" s="109"/>
+      <c r="E50" s="109">
+        <v>20</v>
+      </c>
       <c r="F50" s="109"/>
       <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
+      <c r="H50" s="109">
+        <v>10</v>
+      </c>
       <c r="I50" s="109"/>
       <c r="J50" s="109"/>
       <c r="K50" s="109"/>
       <c r="L50" s="109"/>
       <c r="M50" s="109"/>
       <c r="N50" s="109"/>
-      <c r="O50" s="60" t="str">
+      <c r="O50" s="60">
         <f t="shared" ref="O50:O80" si="9">IF(SUM(E50:N50)=0,"",SUM(E50:N50))</f>
-        <v/>
-      </c>
-      <c r="P50" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="P50" s="67">
         <f t="shared" ref="P50:P80" si="10">IF(O50="","",O50/$O$6*100)</f>
-        <v/>
-      </c>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="109"/>
-      <c r="T50" s="109"/>
-      <c r="U50" s="109"/>
-      <c r="V50" s="109"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="Q50" s="109">
+        <v>20</v>
+      </c>
+      <c r="R50" s="109">
+        <v>20</v>
+      </c>
+      <c r="S50" s="109">
+        <v>20</v>
+      </c>
+      <c r="T50" s="109">
+        <v>20</v>
+      </c>
+      <c r="U50" s="109">
+        <v>20</v>
+      </c>
+      <c r="V50" s="109">
+        <v>20</v>
+      </c>
       <c r="W50" s="109"/>
       <c r="X50" s="109"/>
       <c r="Y50" s="109"/>
       <c r="Z50" s="109"/>
-      <c r="AA50" s="60" t="str">
+      <c r="AA50" s="60">
         <f t="shared" ref="AA50:AA80" si="11">IF(SUM(Q50:Z50)=0,"",SUM(Q50:Z50))</f>
-        <v/>
-      </c>
-      <c r="AB50" s="67" t="str">
+        <v>120</v>
+      </c>
+      <c r="AB50" s="67">
         <f t="shared" ref="AB50:AB80" si="12">IF(AA50="","",AA50/$AA$6*100)</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="AC50" s="111">
         <v>5</v>
@@ -23007,11 +23393,11 @@
       </c>
       <c r="AE50" s="66">
         <f>CRS!H50</f>
-        <v>1.7000000000000002</v>
+        <v>29.2</v>
       </c>
       <c r="AF50" s="64">
         <f>CRS!I50</f>
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23030,23 +23416,31 @@
         <f>CRS!D51</f>
         <v>BSCS-MOBILE TECH TRACK-1</v>
       </c>
-      <c r="E51" s="109"/>
+      <c r="E51" s="109">
+        <v>10</v>
+      </c>
       <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
+      <c r="G51" s="109">
+        <v>8</v>
+      </c>
+      <c r="H51" s="109">
+        <v>10</v>
+      </c>
+      <c r="I51" s="109">
+        <v>10</v>
+      </c>
       <c r="J51" s="109"/>
       <c r="K51" s="109"/>
       <c r="L51" s="109"/>
       <c r="M51" s="109"/>
       <c r="N51" s="109"/>
-      <c r="O51" s="60" t="str">
+      <c r="O51" s="60">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P51" s="67" t="str">
+        <v>38</v>
+      </c>
+      <c r="P51" s="67">
         <f t="shared" si="10"/>
-        <v/>
+        <v>42.222222222222221</v>
       </c>
       <c r="Q51" s="109">
         <v>20</v>
@@ -23054,21 +23448,29 @@
       <c r="R51" s="109">
         <v>20</v>
       </c>
-      <c r="S51" s="109"/>
-      <c r="T51" s="109"/>
-      <c r="U51" s="109"/>
-      <c r="V51" s="109"/>
+      <c r="S51" s="109">
+        <v>40</v>
+      </c>
+      <c r="T51" s="109">
+        <v>40</v>
+      </c>
+      <c r="U51" s="109">
+        <v>40</v>
+      </c>
+      <c r="V51" s="109">
+        <v>40</v>
+      </c>
       <c r="W51" s="109"/>
       <c r="X51" s="109"/>
       <c r="Y51" s="109"/>
       <c r="Z51" s="109"/>
       <c r="AA51" s="60">
         <f t="shared" si="11"/>
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="AB51" s="67">
         <f t="shared" si="12"/>
-        <v>16.666666666666664</v>
+        <v>83.333333333333343</v>
       </c>
       <c r="AC51" s="111">
         <v>33</v>
@@ -23079,11 +23481,11 @@
       </c>
       <c r="AE51" s="66">
         <f>CRS!H51</f>
-        <v>16.72</v>
+        <v>52.653333333333336</v>
       </c>
       <c r="AF51" s="64">
         <f>CRS!I51</f>
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23102,23 +23504,33 @@
         <f>CRS!D52</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
+      <c r="E52" s="109">
+        <v>30</v>
+      </c>
+      <c r="F52" s="109">
+        <v>20</v>
+      </c>
+      <c r="G52" s="109">
+        <v>18</v>
+      </c>
+      <c r="H52" s="109">
+        <v>10</v>
+      </c>
+      <c r="I52" s="109">
+        <v>10</v>
+      </c>
       <c r="J52" s="109"/>
       <c r="K52" s="109"/>
       <c r="L52" s="109"/>
       <c r="M52" s="109"/>
       <c r="N52" s="109"/>
-      <c r="O52" s="60" t="str">
+      <c r="O52" s="60">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P52" s="67" t="str">
+        <v>88</v>
+      </c>
+      <c r="P52" s="67">
         <f t="shared" si="10"/>
-        <v/>
+        <v>97.777777777777771</v>
       </c>
       <c r="Q52" s="109">
         <v>40</v>
@@ -23126,21 +23538,29 @@
       <c r="R52" s="109">
         <v>40</v>
       </c>
-      <c r="S52" s="109"/>
-      <c r="T52" s="109"/>
-      <c r="U52" s="109"/>
-      <c r="V52" s="109"/>
+      <c r="S52" s="109">
+        <v>40</v>
+      </c>
+      <c r="T52" s="109">
+        <v>40</v>
+      </c>
+      <c r="U52" s="109">
+        <v>40</v>
+      </c>
+      <c r="V52" s="109">
+        <v>40</v>
+      </c>
       <c r="W52" s="109"/>
       <c r="X52" s="109"/>
       <c r="Y52" s="109"/>
       <c r="Z52" s="109"/>
       <c r="AA52" s="60">
         <f t="shared" si="11"/>
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="AB52" s="67">
         <f t="shared" si="12"/>
-        <v>33.333333333333329</v>
+        <v>100</v>
       </c>
       <c r="AC52" s="111">
         <v>80</v>
@@ -23151,11 +23571,11 @@
       </c>
       <c r="AE52" s="66">
         <f>CRS!H52</f>
-        <v>38.200000000000003</v>
+        <v>92.466666666666669</v>
       </c>
       <c r="AF52" s="64">
         <f>CRS!I52</f>
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23176,21 +23596,27 @@
       </c>
       <c r="E53" s="109"/>
       <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
+      <c r="G53" s="109">
+        <v>6</v>
+      </c>
+      <c r="H53" s="109">
+        <v>10</v>
+      </c>
+      <c r="I53" s="109">
+        <v>10</v>
+      </c>
       <c r="J53" s="109"/>
       <c r="K53" s="109"/>
       <c r="L53" s="109"/>
       <c r="M53" s="109"/>
       <c r="N53" s="109"/>
-      <c r="O53" s="60" t="str">
+      <c r="O53" s="60">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P53" s="67" t="str">
+        <v>26</v>
+      </c>
+      <c r="P53" s="67">
         <f t="shared" si="10"/>
-        <v/>
+        <v>28.888888888888886</v>
       </c>
       <c r="Q53" s="109">
         <v>35</v>
@@ -23198,21 +23624,29 @@
       <c r="R53" s="109">
         <v>40</v>
       </c>
-      <c r="S53" s="109"/>
-      <c r="T53" s="109"/>
-      <c r="U53" s="109"/>
-      <c r="V53" s="109"/>
+      <c r="S53" s="109">
+        <v>40</v>
+      </c>
+      <c r="T53" s="109">
+        <v>40</v>
+      </c>
+      <c r="U53" s="109">
+        <v>40</v>
+      </c>
+      <c r="V53" s="109">
+        <v>40</v>
+      </c>
       <c r="W53" s="109"/>
       <c r="X53" s="109"/>
       <c r="Y53" s="109"/>
       <c r="Z53" s="109"/>
       <c r="AA53" s="60">
         <f t="shared" si="11"/>
-        <v>75</v>
+        <v>235</v>
       </c>
       <c r="AB53" s="67">
         <f t="shared" si="12"/>
-        <v>31.25</v>
+        <v>97.916666666666657</v>
       </c>
       <c r="AC53" s="111">
         <v>33</v>
@@ -23223,11 +23657,11 @@
       </c>
       <c r="AE53" s="66">
         <f>CRS!H53</f>
-        <v>21.532499999999999</v>
+        <v>53.06583333333333</v>
       </c>
       <c r="AF53" s="64">
         <f>CRS!I53</f>
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23246,41 +23680,59 @@
         <f>CRS!D54</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E54" s="109"/>
+      <c r="E54" s="109">
+        <v>10</v>
+      </c>
       <c r="F54" s="109"/>
       <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
+      <c r="H54" s="109">
+        <v>10</v>
+      </c>
+      <c r="I54" s="109">
+        <v>10</v>
+      </c>
       <c r="J54" s="109"/>
       <c r="K54" s="109"/>
       <c r="L54" s="109"/>
       <c r="M54" s="109"/>
       <c r="N54" s="109"/>
-      <c r="O54" s="60" t="str">
+      <c r="O54" s="60">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P54" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="P54" s="67">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="109"/>
-      <c r="T54" s="109"/>
-      <c r="U54" s="109"/>
-      <c r="V54" s="109"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="Q54" s="109">
+        <v>30</v>
+      </c>
+      <c r="R54" s="109">
+        <v>30</v>
+      </c>
+      <c r="S54" s="109">
+        <v>40</v>
+      </c>
+      <c r="T54" s="109">
+        <v>40</v>
+      </c>
+      <c r="U54" s="109">
+        <v>40</v>
+      </c>
+      <c r="V54" s="109">
+        <v>40</v>
+      </c>
       <c r="W54" s="109"/>
       <c r="X54" s="109"/>
       <c r="Y54" s="109"/>
       <c r="Z54" s="109"/>
-      <c r="AA54" s="60" t="str">
+      <c r="AA54" s="60">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AB54" s="67" t="str">
+        <v>220</v>
+      </c>
+      <c r="AB54" s="67">
         <f t="shared" si="12"/>
-        <v/>
+        <v>91.666666666666657</v>
       </c>
       <c r="AC54" s="111">
         <v>23</v>
@@ -23291,11 +23743,11 @@
       </c>
       <c r="AE54" s="66">
         <f>CRS!H54</f>
-        <v>7.82</v>
+        <v>49.07</v>
       </c>
       <c r="AF54" s="64">
         <f>CRS!I54</f>
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23314,23 +23766,31 @@
         <f>CRS!D55</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
+      <c r="E55" s="109">
+        <v>10</v>
+      </c>
+      <c r="F55" s="109">
+        <v>20</v>
+      </c>
+      <c r="G55" s="109">
+        <v>14</v>
+      </c>
+      <c r="H55" s="109">
+        <v>10</v>
+      </c>
       <c r="I55" s="109"/>
       <c r="J55" s="109"/>
       <c r="K55" s="109"/>
       <c r="L55" s="109"/>
       <c r="M55" s="109"/>
       <c r="N55" s="109"/>
-      <c r="O55" s="60" t="str">
+      <c r="O55" s="60">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P55" s="67" t="str">
+        <v>54</v>
+      </c>
+      <c r="P55" s="67">
         <f t="shared" si="10"/>
-        <v/>
+        <v>60</v>
       </c>
       <c r="Q55" s="109">
         <v>30</v>
@@ -23338,21 +23798,29 @@
       <c r="R55" s="109">
         <v>20</v>
       </c>
-      <c r="S55" s="109"/>
-      <c r="T55" s="109"/>
-      <c r="U55" s="109"/>
-      <c r="V55" s="109"/>
+      <c r="S55" s="109">
+        <v>40</v>
+      </c>
+      <c r="T55" s="109">
+        <v>40</v>
+      </c>
+      <c r="U55" s="109">
+        <v>40</v>
+      </c>
+      <c r="V55" s="109">
+        <v>40</v>
+      </c>
       <c r="W55" s="109"/>
       <c r="X55" s="109"/>
       <c r="Y55" s="109"/>
       <c r="Z55" s="109"/>
       <c r="AA55" s="60">
         <f t="shared" si="11"/>
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="AB55" s="67">
         <f t="shared" si="12"/>
-        <v>20.833333333333336</v>
+        <v>87.5</v>
       </c>
       <c r="AC55" s="111">
         <v>26</v>
@@ -23363,11 +23831,11 @@
       </c>
       <c r="AE55" s="66">
         <f>CRS!H55</f>
-        <v>15.715</v>
+        <v>57.515000000000001</v>
       </c>
       <c r="AF55" s="64">
         <f>CRS!I55</f>
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -37928,7 +38396,7 @@
       <c r="H15" s="133"/>
       <c r="I15" s="144">
         <f>IF(CRS!I9="","",CRS!I9)</f>
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="J15" s="145"/>
       <c r="K15" s="144" t="str">
@@ -37987,7 +38455,7 @@
       <c r="H16" s="133"/>
       <c r="I16" s="144">
         <f>IF(CRS!I10="","",CRS!I10)</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J16" s="145"/>
       <c r="K16" s="144" t="str">
@@ -38044,9 +38512,9 @@
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
       <c r="H17" s="133"/>
-      <c r="I17" s="144" t="str">
+      <c r="I17" s="144">
         <f>IF(CRS!I11="","",CRS!I11)</f>
-        <v/>
+        <v>70</v>
       </c>
       <c r="J17" s="145"/>
       <c r="K17" s="144" t="str">
@@ -38164,7 +38632,7 @@
       <c r="H19" s="133"/>
       <c r="I19" s="144">
         <f>IF(CRS!I13="","",CRS!I13)</f>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J19" s="145"/>
       <c r="K19" s="144" t="str">
@@ -38282,7 +38750,7 @@
       <c r="H21" s="133"/>
       <c r="I21" s="144">
         <f>IF(CRS!I15="","",CRS!I15)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J21" s="145"/>
       <c r="K21" s="144" t="str">
@@ -38400,7 +38868,7 @@
       <c r="H23" s="133"/>
       <c r="I23" s="144">
         <f>IF(CRS!I17="","",CRS!I17)</f>
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J23" s="145"/>
       <c r="K23" s="144" t="str">
@@ -38459,7 +38927,7 @@
       <c r="H24" s="133"/>
       <c r="I24" s="144">
         <f>IF(CRS!I18="","",CRS!I18)</f>
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J24" s="145"/>
       <c r="K24" s="144" t="str">
@@ -38577,7 +39045,7 @@
       <c r="H26" s="133"/>
       <c r="I26" s="144">
         <f>IF(CRS!I20="","",CRS!I20)</f>
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="J26" s="145"/>
       <c r="K26" s="144" t="str">
@@ -38695,7 +39163,7 @@
       <c r="H28" s="133"/>
       <c r="I28" s="144">
         <f>IF(CRS!I22="","",CRS!I22)</f>
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="J28" s="145"/>
       <c r="K28" s="144" t="str">
@@ -38754,7 +39222,7 @@
       <c r="H29" s="133"/>
       <c r="I29" s="144">
         <f>IF(CRS!I23="","",CRS!I23)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J29" s="145"/>
       <c r="K29" s="144" t="str">
@@ -38813,7 +39281,7 @@
       <c r="H30" s="133"/>
       <c r="I30" s="144">
         <f>IF(CRS!I24="","",CRS!I24)</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="J30" s="145"/>
       <c r="K30" s="144" t="str">
@@ -38872,7 +39340,7 @@
       <c r="H31" s="133"/>
       <c r="I31" s="144">
         <f>IF(CRS!I25="","",CRS!I25)</f>
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="J31" s="145"/>
       <c r="K31" s="144" t="str">
@@ -38931,7 +39399,7 @@
       <c r="H32" s="133"/>
       <c r="I32" s="144">
         <f>IF(CRS!I26="","",CRS!I26)</f>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="J32" s="145"/>
       <c r="K32" s="144" t="str">
@@ -38990,7 +39458,7 @@
       <c r="H33" s="133"/>
       <c r="I33" s="144">
         <f>IF(CRS!I27="","",CRS!I27)</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J33" s="145"/>
       <c r="K33" s="144" t="str">
@@ -39047,9 +39515,9 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H34" s="133"/>
-      <c r="I34" s="144">
+      <c r="I34" s="144" t="str">
         <f>IF(CRS!I28="","",CRS!I28)</f>
-        <v>71</v>
+        <v/>
       </c>
       <c r="J34" s="145"/>
       <c r="K34" s="144" t="str">
@@ -39167,7 +39635,7 @@
       <c r="H36" s="133"/>
       <c r="I36" s="144">
         <f>IF(CRS!I30="","",CRS!I30)</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="J36" s="145"/>
       <c r="K36" s="144" t="str">
@@ -39226,7 +39694,7 @@
       <c r="H37" s="133"/>
       <c r="I37" s="144">
         <f>IF(CRS!I31="","",CRS!I31)</f>
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="J37" s="145"/>
       <c r="K37" s="144" t="str">
@@ -39285,7 +39753,7 @@
       <c r="H38" s="133"/>
       <c r="I38" s="144">
         <f>IF(CRS!I32="","",CRS!I32)</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J38" s="145"/>
       <c r="K38" s="144" t="str">
@@ -39344,7 +39812,7 @@
       <c r="H39" s="133"/>
       <c r="I39" s="144">
         <f>IF(CRS!I33="","",CRS!I33)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="J39" s="145"/>
       <c r="K39" s="144" t="str">
@@ -39403,7 +39871,7 @@
       <c r="H40" s="133"/>
       <c r="I40" s="144">
         <f>IF(CRS!I34="","",CRS!I34)</f>
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="J40" s="145"/>
       <c r="K40" s="144" t="str">
@@ -39462,7 +39930,7 @@
       <c r="H41" s="133"/>
       <c r="I41" s="144">
         <f>IF(CRS!I35="","",CRS!I35)</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="J41" s="145"/>
       <c r="K41" s="144" t="str">
@@ -39521,7 +39989,7 @@
       <c r="H42" s="133"/>
       <c r="I42" s="144">
         <f>IF(CRS!I36="","",CRS!I36)</f>
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="J42" s="145"/>
       <c r="K42" s="144" t="str">
@@ -39639,7 +40107,7 @@
       <c r="H44" s="133"/>
       <c r="I44" s="144">
         <f>IF(CRS!I38="","",CRS!I38)</f>
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="J44" s="145"/>
       <c r="K44" s="144" t="str">
@@ -40329,7 +40797,7 @@
       <c r="H76" s="133"/>
       <c r="I76" s="144">
         <f>IF(CRS!I50="","",CRS!I50)</f>
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J76" s="145"/>
       <c r="K76" s="144" t="str">
@@ -40388,7 +40856,7 @@
       <c r="H77" s="133"/>
       <c r="I77" s="144">
         <f>IF(CRS!I51="","",CRS!I51)</f>
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J77" s="145"/>
       <c r="K77" s="144" t="str">
@@ -40447,7 +40915,7 @@
       <c r="H78" s="133"/>
       <c r="I78" s="144">
         <f>IF(CRS!I52="","",CRS!I52)</f>
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J78" s="145"/>
       <c r="K78" s="144" t="str">
@@ -40506,7 +40974,7 @@
       <c r="H79" s="133"/>
       <c r="I79" s="144">
         <f>IF(CRS!I53="","",CRS!I53)</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J79" s="145"/>
       <c r="K79" s="144" t="str">
@@ -40565,7 +41033,7 @@
       <c r="H80" s="133"/>
       <c r="I80" s="144">
         <f>IF(CRS!I54="","",CRS!I54)</f>
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="J80" s="145"/>
       <c r="K80" s="144" t="str">
@@ -40624,7 +41092,7 @@
       <c r="H81" s="133"/>
       <c r="I81" s="144">
         <f>IF(CRS!I55="","",CRS!I55)</f>
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J81" s="145"/>
       <c r="K81" s="144" t="str">

--- a/2T1617CR/2T1617 - CITCS-ICS2-CITCS INTL 3.xlsx
+++ b/2T1617CR/2T1617 - CITCS-ICS2-CITCS INTL 3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INITIAL INPUT" sheetId="1" r:id="rId1"/>
@@ -12111,8 +12111,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y135"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A18" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -12481,15 +12481,15 @@
       </c>
       <c r="G9" s="83">
         <f>IF(PRELIM!AD9="","",$G$8*PRELIM!AD9)</f>
-        <v>13.940000000000001</v>
+        <v>17.34</v>
       </c>
       <c r="H9" s="84">
         <f t="shared" ref="H9:H40" si="0">IF(SUM(E9:G9)=0,"",SUM(E9:G9))</f>
-        <v>63.531666666666666</v>
+        <v>66.931666666666672</v>
       </c>
       <c r="I9" s="85">
         <f>IF(H9="","",VLOOKUP(H9,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J9" s="83" t="str">
         <f>IF(MIDTERM!P9="","",$J$8*MIDTERM!P9)</f>
@@ -12572,11 +12572,11 @@
       </c>
       <c r="G10" s="83">
         <f>IF(PRELIM!AD10="","",$G$8*PRELIM!AD10)</f>
-        <v>6.4600000000000009</v>
+        <v>9.5200000000000014</v>
       </c>
       <c r="H10" s="84">
         <f t="shared" si="0"/>
-        <v>44.593333333333327</v>
+        <v>47.653333333333329</v>
       </c>
       <c r="I10" s="85">
         <f>IF(H10="","",VLOOKUP(H10,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -12760,15 +12760,15 @@
       </c>
       <c r="G12" s="83">
         <f>IF(PRELIM!AD12="","",$G$8*PRELIM!AD12)</f>
-        <v>15.64</v>
+        <v>19.040000000000003</v>
       </c>
       <c r="H12" s="84">
         <f t="shared" si="0"/>
-        <v>30.673333333333332</v>
+        <v>34.073333333333338</v>
       </c>
       <c r="I12" s="85">
         <f>IF(H12="","",VLOOKUP(H12,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" s="83" t="str">
         <f>IF(MIDTERM!P12="","",$J$8*MIDTERM!P12)</f>
@@ -12854,15 +12854,15 @@
       </c>
       <c r="G13" s="83">
         <f>IF(PRELIM!AD13="","",$G$8*PRELIM!AD13)</f>
-        <v>25.16</v>
+        <v>28.560000000000002</v>
       </c>
       <c r="H13" s="84">
         <f t="shared" si="0"/>
-        <v>91.16</v>
+        <v>94.56</v>
       </c>
       <c r="I13" s="85">
         <f>IF(H13="","",VLOOKUP(H13,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J13" s="83" t="str">
         <f>IF(MIDTERM!P13="","",$J$8*MIDTERM!P13)</f>
@@ -13042,11 +13042,11 @@
       </c>
       <c r="G15" s="83">
         <f>IF(PRELIM!AD15="","",$G$8*PRELIM!AD15)</f>
-        <v>15.3</v>
+        <v>18.700000000000003</v>
       </c>
       <c r="H15" s="84">
         <f t="shared" si="0"/>
-        <v>43.716666666666669</v>
+        <v>47.116666666666674</v>
       </c>
       <c r="I15" s="85">
         <f>IF(H15="","",VLOOKUP(H15,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -13324,15 +13324,15 @@
       </c>
       <c r="G18" s="83">
         <f>IF(PRELIM!AD18="","",$G$8*PRELIM!AD18)</f>
-        <v>10.200000000000001</v>
+        <v>25.500000000000004</v>
       </c>
       <c r="H18" s="84">
         <f t="shared" si="0"/>
-        <v>50.35</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="I18" s="85">
         <f>IF(H18="","",VLOOKUP(H18,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J18" s="83" t="str">
         <f>IF(MIDTERM!P18="","",$J$8*MIDTERM!P18)</f>
@@ -13418,11 +13418,11 @@
       </c>
       <c r="G19" s="83">
         <f>IF(PRELIM!AD19="","",$G$8*PRELIM!AD19)</f>
-        <v>10.88</v>
+        <v>14.280000000000001</v>
       </c>
       <c r="H19" s="84">
         <f t="shared" si="0"/>
-        <v>14.546666666666667</v>
+        <v>17.946666666666669</v>
       </c>
       <c r="I19" s="85">
         <f>IF(H19="","",VLOOKUP(H19,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -13512,15 +13512,15 @@
       </c>
       <c r="G20" s="83">
         <f>IF(PRELIM!AD20="","",$G$8*PRELIM!AD20)</f>
-        <v>21.42</v>
+        <v>24.82</v>
       </c>
       <c r="H20" s="84">
         <f t="shared" si="0"/>
-        <v>82.653333333333336</v>
+        <v>86.053333333333342</v>
       </c>
       <c r="I20" s="85">
         <f>IF(H20="","",VLOOKUP(H20,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J20" s="83" t="str">
         <f>IF(MIDTERM!P20="","",$J$8*MIDTERM!P20)</f>
@@ -13700,15 +13700,15 @@
       </c>
       <c r="G22" s="83">
         <f>IF(PRELIM!AD22="","",$G$8*PRELIM!AD22)</f>
-        <v>18.02</v>
+        <v>21.42</v>
       </c>
       <c r="H22" s="84">
         <f t="shared" si="0"/>
-        <v>80.353333333333325</v>
+        <v>83.75333333333333</v>
       </c>
       <c r="I22" s="85">
         <f>IF(H22="","",VLOOKUP(H22,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J22" s="83" t="str">
         <f>IF(MIDTERM!P22="","",$J$8*MIDTERM!P22)</f>
@@ -13794,11 +13794,11 @@
       </c>
       <c r="G23" s="83">
         <f>IF(PRELIM!AD23="","",$G$8*PRELIM!AD23)</f>
-        <v>10.200000000000001</v>
+        <v>13.600000000000001</v>
       </c>
       <c r="H23" s="84">
         <f t="shared" si="0"/>
-        <v>44.4375</v>
+        <v>47.837499999999999</v>
       </c>
       <c r="I23" s="85">
         <f>IF(H23="","",VLOOKUP(H23,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -13888,15 +13888,15 @@
       </c>
       <c r="G24" s="83">
         <f>IF(PRELIM!AD24="","",$G$8*PRELIM!AD24)</f>
-        <v>12.920000000000002</v>
+        <v>16.32</v>
       </c>
       <c r="H24" s="84">
         <f t="shared" si="0"/>
-        <v>73.465833333333336</v>
+        <v>76.865833333333342</v>
       </c>
       <c r="I24" s="85">
         <f>IF(H24="","",VLOOKUP(H24,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J24" s="83" t="str">
         <f>IF(MIDTERM!P24="","",$J$8*MIDTERM!P24)</f>
@@ -13982,15 +13982,15 @@
       </c>
       <c r="G25" s="83">
         <f>IF(PRELIM!AD25="","",$G$8*PRELIM!AD25)</f>
-        <v>21.42</v>
+        <v>24.82</v>
       </c>
       <c r="H25" s="84">
         <f t="shared" si="0"/>
-        <v>64.732500000000002</v>
+        <v>68.132499999999993</v>
       </c>
       <c r="I25" s="85">
         <f>IF(H25="","",VLOOKUP(H25,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J25" s="83" t="str">
         <f>IF(MIDTERM!P25="","",$J$8*MIDTERM!P25)</f>
@@ -14076,15 +14076,15 @@
       </c>
       <c r="G26" s="83">
         <f>IF(PRELIM!AD26="","",$G$8*PRELIM!AD26)</f>
-        <v>17</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" si="0"/>
-        <v>76.079166666666666</v>
+        <v>79.479166666666671</v>
       </c>
       <c r="I26" s="85">
         <f>IF(H26="","",VLOOKUP(H26,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J26" s="83" t="str">
         <f>IF(MIDTERM!P26="","",$J$8*MIDTERM!P26)</f>
@@ -14173,15 +14173,15 @@
       </c>
       <c r="G27" s="83">
         <f>IF(PRELIM!AD27="","",$G$8*PRELIM!AD27)</f>
-        <v>10.540000000000001</v>
+        <v>13.940000000000001</v>
       </c>
       <c r="H27" s="84">
         <f t="shared" si="0"/>
-        <v>53.852499999999999</v>
+        <v>57.252499999999998</v>
       </c>
       <c r="I27" s="85">
         <f>IF(H27="","",VLOOKUP(H27,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J27" s="83" t="str">
         <f>IF(MIDTERM!P27="","",$J$8*MIDTERM!P27)</f>
@@ -14363,15 +14363,15 @@
       </c>
       <c r="G29" s="83">
         <f>IF(PRELIM!AD29="","",$G$8*PRELIM!AD29)</f>
-        <v>19.72</v>
+        <v>23.12</v>
       </c>
       <c r="H29" s="84">
         <f t="shared" si="0"/>
-        <v>29.986666666666665</v>
+        <v>33.38666666666667</v>
       </c>
       <c r="I29" s="85">
         <f>IF(H29="","",VLOOKUP(H29,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J29" s="83" t="str">
         <f>IF(MIDTERM!P29="","",$J$8*MIDTERM!P29)</f>
@@ -14454,19 +14454,19 @@
       </c>
       <c r="F30" s="83">
         <f>IF(PRELIM!AB30="","",$F$8*PRELIM!AB30)</f>
-        <v>32.3125</v>
+        <v>33</v>
       </c>
       <c r="G30" s="83">
         <f>IF(PRELIM!AD30="","",$G$8*PRELIM!AD30)</f>
-        <v>19.38</v>
+        <v>23.12</v>
       </c>
       <c r="H30" s="84">
         <f t="shared" si="0"/>
-        <v>74.05916666666667</v>
+        <v>78.486666666666679</v>
       </c>
       <c r="I30" s="85">
         <f>IF(H30="","",VLOOKUP(H30,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J30" s="83" t="str">
         <f>IF(MIDTERM!P30="","",$J$8*MIDTERM!P30)</f>
@@ -14553,15 +14553,15 @@
       </c>
       <c r="G31" s="83">
         <f>IF(PRELIM!AD31="","",$G$8*PRELIM!AD31)</f>
-        <v>18.02</v>
+        <v>21.42</v>
       </c>
       <c r="H31" s="84">
         <f t="shared" si="0"/>
-        <v>78.52</v>
+        <v>81.92</v>
       </c>
       <c r="I31" s="85">
         <f>IF(H31="","",VLOOKUP(H31,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J31" s="83" t="str">
         <f>IF(MIDTERM!P31="","",$J$8*MIDTERM!P31)</f>
@@ -14648,15 +14648,15 @@
       </c>
       <c r="G32" s="83">
         <f>IF(PRELIM!AD32="","",$G$8*PRELIM!AD32)</f>
-        <v>9.1800000000000015</v>
+        <v>12.58</v>
       </c>
       <c r="H32" s="84">
         <f t="shared" si="0"/>
-        <v>46.763333333333335</v>
+        <v>50.163333333333334</v>
       </c>
       <c r="I32" s="85">
         <f>IF(H32="","",VLOOKUP(H32,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J32" s="83" t="str">
         <f>IF(MIDTERM!P32="","",$J$8*MIDTERM!P32)</f>
@@ -14743,11 +14743,11 @@
       </c>
       <c r="G33" s="83">
         <f>IF(PRELIM!AD33="","",$G$8*PRELIM!AD33)</f>
-        <v>12.24</v>
+        <v>15.64</v>
       </c>
       <c r="H33" s="84">
         <f t="shared" si="0"/>
-        <v>39.006666666666668</v>
+        <v>42.406666666666666</v>
       </c>
       <c r="I33" s="85">
         <f>IF(H33="","",VLOOKUP(H33,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -14838,15 +14838,15 @@
       </c>
       <c r="G34" s="83">
         <f>IF(PRELIM!AD34="","",$G$8*PRELIM!AD34)</f>
-        <v>17</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="H34" s="84">
         <f t="shared" si="0"/>
-        <v>67.233333333333334</v>
+        <v>70.63333333333334</v>
       </c>
       <c r="I34" s="85">
         <f>IF(H34="","",VLOOKUP(H34,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J34" s="83" t="str">
         <f>IF(MIDTERM!P34="","",$J$8*MIDTERM!P34)</f>
@@ -14933,15 +14933,15 @@
       </c>
       <c r="G35" s="83">
         <f>IF(PRELIM!AD35="","",$G$8*PRELIM!AD35)</f>
-        <v>15.3</v>
+        <v>18.700000000000003</v>
       </c>
       <c r="H35" s="84">
         <f t="shared" si="0"/>
-        <v>73.737499999999997</v>
+        <v>77.137500000000003</v>
       </c>
       <c r="I35" s="85">
         <f>IF(H35="","",VLOOKUP(H35,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J35" s="83" t="str">
         <f>IF(MIDTERM!P35="","",$J$8*MIDTERM!P35)</f>
@@ -15028,15 +15028,15 @@
       </c>
       <c r="G36" s="83">
         <f>IF(PRELIM!AD36="","",$G$8*PRELIM!AD36)</f>
-        <v>17</v>
+        <v>20.400000000000002</v>
       </c>
       <c r="H36" s="84">
         <f t="shared" si="0"/>
-        <v>74.2</v>
+        <v>77.600000000000009</v>
       </c>
       <c r="I36" s="85">
         <f>IF(H36="","",VLOOKUP(H36,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J36" s="83" t="str">
         <f>IF(MIDTERM!P36="","",$J$8*MIDTERM!P36)</f>
@@ -15218,15 +15218,15 @@
       </c>
       <c r="G38" s="83">
         <f>IF(PRELIM!AD38="","",$G$8*PRELIM!AD38)</f>
-        <v>16.66</v>
+        <v>20.060000000000002</v>
       </c>
       <c r="H38" s="84">
         <f t="shared" si="0"/>
-        <v>76.793333333333337</v>
+        <v>80.193333333333328</v>
       </c>
       <c r="I38" s="85">
         <f>IF(H38="","",VLOOKUP(H38,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J38" s="83" t="str">
         <f>IF(MIDTERM!P38="","",$J$8*MIDTERM!P38)</f>
@@ -15408,11 +15408,11 @@
       </c>
       <c r="G40" s="83">
         <f>IF(PRELIM!AD40="","",$G$8*PRELIM!AD40)</f>
-        <v>9.86</v>
+        <v>13.260000000000002</v>
       </c>
       <c r="H40" s="84">
         <f t="shared" si="0"/>
-        <v>19.484999999999999</v>
+        <v>22.885000000000002</v>
       </c>
       <c r="I40" s="85">
         <f>IF(H40="","",VLOOKUP(H40,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -15813,15 +15813,15 @@
       </c>
       <c r="G50" s="83">
         <f>IF(PRELIM!AD50="","",$G$8*PRELIM!AD50)</f>
-        <v>1.7000000000000002</v>
+        <v>5.1000000000000005</v>
       </c>
       <c r="H50" s="84">
         <f t="shared" ref="H50:H80" si="6">IF(SUM(E50:G50)=0,"",SUM(E50:G50))</f>
-        <v>29.2</v>
+        <v>32.6</v>
       </c>
       <c r="I50" s="85">
         <f>IF(H50="","",VLOOKUP(H50,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J50" s="83" t="str">
         <f>IF(MIDTERM!P50="","",$J$8*MIDTERM!P50)</f>
@@ -15907,15 +15907,15 @@
       </c>
       <c r="G51" s="83">
         <f>IF(PRELIM!AD51="","",$G$8*PRELIM!AD51)</f>
-        <v>11.22</v>
+        <v>14.620000000000001</v>
       </c>
       <c r="H51" s="84">
         <f t="shared" si="6"/>
-        <v>52.653333333333336</v>
+        <v>56.053333333333342</v>
       </c>
       <c r="I51" s="85">
         <f>IF(H51="","",VLOOKUP(H51,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J51" s="83" t="str">
         <f>IF(MIDTERM!P51="","",$J$8*MIDTERM!P51)</f>
@@ -16001,15 +16001,15 @@
       </c>
       <c r="G52" s="83">
         <f>IF(PRELIM!AD52="","",$G$8*PRELIM!AD52)</f>
-        <v>27.200000000000003</v>
+        <v>30.6</v>
       </c>
       <c r="H52" s="84">
         <f t="shared" si="6"/>
-        <v>92.466666666666669</v>
+        <v>95.866666666666674</v>
       </c>
       <c r="I52" s="85">
         <f>IF(H52="","",VLOOKUP(H52,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J52" s="83" t="str">
         <f>IF(MIDTERM!P52="","",$J$8*MIDTERM!P52)</f>
@@ -16095,15 +16095,15 @@
       </c>
       <c r="G53" s="83">
         <f>IF(PRELIM!AD53="","",$G$8*PRELIM!AD53)</f>
-        <v>11.22</v>
+        <v>14.620000000000001</v>
       </c>
       <c r="H53" s="84">
         <f t="shared" si="6"/>
-        <v>53.06583333333333</v>
+        <v>56.465833333333336</v>
       </c>
       <c r="I53" s="85">
         <f>IF(H53="","",VLOOKUP(H53,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J53" s="83" t="str">
         <f>IF(MIDTERM!P53="","",$J$8*MIDTERM!P53)</f>
@@ -16189,15 +16189,15 @@
       </c>
       <c r="G54" s="83">
         <f>IF(PRELIM!AD54="","",$G$8*PRELIM!AD54)</f>
-        <v>7.82</v>
+        <v>11.22</v>
       </c>
       <c r="H54" s="84">
         <f t="shared" si="6"/>
-        <v>49.07</v>
+        <v>52.47</v>
       </c>
       <c r="I54" s="85">
         <f>IF(H54="","",VLOOKUP(H54,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J54" s="83" t="str">
         <f>IF(MIDTERM!P54="","",$J$8*MIDTERM!P54)</f>
@@ -16275,23 +16275,23 @@
       </c>
       <c r="E55" s="82">
         <f>IF(PRELIM!P55="","",$E$8*PRELIM!P55)</f>
-        <v>19.8</v>
+        <v>23.466666666666669</v>
       </c>
       <c r="F55" s="83">
         <f>IF(PRELIM!AB55="","",$F$8*PRELIM!AB55)</f>
-        <v>28.875</v>
+        <v>30.25</v>
       </c>
       <c r="G55" s="83">
         <f>IF(PRELIM!AD55="","",$G$8*PRELIM!AD55)</f>
-        <v>8.84</v>
+        <v>12.24</v>
       </c>
       <c r="H55" s="84">
         <f t="shared" si="6"/>
-        <v>57.515000000000001</v>
+        <v>65.956666666666663</v>
       </c>
       <c r="I55" s="85">
         <f>IF(H55="","",VLOOKUP(H55,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J55" s="83" t="str">
         <f>IF(MIDTERM!P55="","",$J$8*MIDTERM!P55)</f>
@@ -19533,7 +19533,7 @@
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" errorStyle="warning" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Grade entered is not the same as the final computed grade. Do you really want to change it?" sqref="V50:V80">
       <formula1>U50</formula1>
     </dataValidation>
@@ -19559,8 +19559,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V67" sqref="V67"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="B16" zoomScale="104" zoomScaleNormal="100" zoomScalePageLayoutView="104" workbookViewId="0">
+      <selection activeCell="AC55" sqref="AC55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20101,19 +20101,19 @@
         <v>79.166666666666657</v>
       </c>
       <c r="AC9" s="111">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD9" s="67">
         <f>IF(AC9="","",AC9/$AC$5*100)</f>
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE9" s="66">
         <f>CRS!H9</f>
-        <v>63.531666666666666</v>
+        <v>66.931666666666672</v>
       </c>
       <c r="AF9" s="64">
         <f>CRS!I9</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG9" s="61"/>
       <c r="AH9" s="61"/>
@@ -20194,15 +20194,15 @@
         <v>66.666666666666657</v>
       </c>
       <c r="AC10" s="111">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AD10" s="67">
         <f t="shared" ref="AD10:AD40" si="4">IF(AC10="","",AC10/$AC$5*100)</f>
-        <v>19</v>
+        <v>28.000000000000004</v>
       </c>
       <c r="AE10" s="66">
         <f>CRS!H10</f>
-        <v>44.593333333333327</v>
+        <v>47.653333333333329</v>
       </c>
       <c r="AF10" s="64">
         <f>CRS!I10</f>
@@ -20350,19 +20350,19 @@
         <v>16.666666666666664</v>
       </c>
       <c r="AC12" s="111">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="AD12" s="67">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>56.000000000000007</v>
       </c>
       <c r="AE12" s="66">
         <f>CRS!H12</f>
-        <v>30.673333333333332</v>
+        <v>34.073333333333338</v>
       </c>
       <c r="AF12" s="64">
         <f>CRS!I12</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG12" s="55"/>
       <c r="AH12" s="55"/>
@@ -20445,19 +20445,19 @@
         <v>100</v>
       </c>
       <c r="AC13" s="111">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AD13" s="67">
         <f t="shared" si="4"/>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AE13" s="66">
         <f>CRS!H13</f>
-        <v>91.16</v>
+        <v>94.56</v>
       </c>
       <c r="AF13" s="64">
         <f>CRS!I13</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG13" s="55"/>
       <c r="AH13" s="55"/>
@@ -20609,15 +20609,15 @@
         <v>58.333333333333336</v>
       </c>
       <c r="AC15" s="111">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AD15" s="67">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="AE15" s="66">
         <f>CRS!H15</f>
-        <v>43.716666666666669</v>
+        <v>47.116666666666674</v>
       </c>
       <c r="AF15" s="64">
         <f>CRS!I15</f>
@@ -20863,19 +20863,19 @@
         <v>75</v>
       </c>
       <c r="AC18" s="111">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AD18" s="67">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AE18" s="66">
         <f>CRS!H18</f>
-        <v>50.35</v>
+        <v>65.650000000000006</v>
       </c>
       <c r="AF18" s="64">
         <f>CRS!I18</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
@@ -20939,15 +20939,15 @@
         <v/>
       </c>
       <c r="AC19" s="111">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AD19" s="67">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AE19" s="66">
         <f>CRS!H19</f>
-        <v>14.546666666666667</v>
+        <v>17.946666666666669</v>
       </c>
       <c r="AF19" s="64">
         <f>CRS!I19</f>
@@ -21031,19 +21031,19 @@
         <v>100</v>
       </c>
       <c r="AC20" s="111">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AD20" s="67">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AE20" s="66">
         <f>CRS!H20</f>
-        <v>82.653333333333336</v>
+        <v>86.053333333333342</v>
       </c>
       <c r="AF20" s="64">
         <f>CRS!I20</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="AG20" s="55"/>
       <c r="AH20" s="55"/>
@@ -21191,19 +21191,19 @@
         <v>100</v>
       </c>
       <c r="AC22" s="111">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="AD22" s="67">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="AE22" s="66">
         <f>CRS!H22</f>
-        <v>80.353333333333325</v>
+        <v>83.75333333333333</v>
       </c>
       <c r="AF22" s="64">
         <f>CRS!I22</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AG22" s="55"/>
       <c r="AH22" s="55"/>
@@ -21279,15 +21279,15 @@
         <v>93.75</v>
       </c>
       <c r="AC23" s="111">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AD23" s="67">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AE23" s="66">
         <f>CRS!H23</f>
-        <v>44.4375</v>
+        <v>47.837499999999999</v>
       </c>
       <c r="AF23" s="64">
         <f>CRS!I23</f>
@@ -21371,19 +21371,19 @@
         <v>97.916666666666657</v>
       </c>
       <c r="AC24" s="111">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AD24" s="67">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AE24" s="66">
         <f>CRS!H24</f>
-        <v>73.465833333333336</v>
+        <v>76.865833333333342</v>
       </c>
       <c r="AF24" s="64">
         <f>CRS!I24</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG24" s="55"/>
       <c r="AH24" s="55"/>
@@ -21457,19 +21457,19 @@
         <v>97.916666666666657</v>
       </c>
       <c r="AC25" s="111">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AD25" s="67">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="AE25" s="66">
         <f>CRS!H25</f>
-        <v>64.732500000000002</v>
+        <v>68.132499999999993</v>
       </c>
       <c r="AF25" s="64">
         <f>CRS!I25</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG25" s="55"/>
       <c r="AH25" s="55"/>
@@ -21547,19 +21547,19 @@
         <v>97.916666666666657</v>
       </c>
       <c r="AC26" s="111">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD26" s="67">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE26" s="66">
         <f>CRS!H26</f>
-        <v>76.079166666666666</v>
+        <v>79.479166666666671</v>
       </c>
       <c r="AF26" s="64">
         <f>CRS!I26</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG26" s="373"/>
       <c r="AH26" s="371" t="s">
@@ -21635,19 +21635,19 @@
         <v>97.916666666666657</v>
       </c>
       <c r="AC27" s="111">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AD27" s="67">
         <f t="shared" si="4"/>
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="AE27" s="66">
         <f>CRS!H27</f>
-        <v>53.852499999999999</v>
+        <v>57.252499999999998</v>
       </c>
       <c r="AF27" s="64">
         <f>CRS!I27</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AG27" s="374"/>
       <c r="AH27" s="372"/>
@@ -21777,19 +21777,19 @@
         <v/>
       </c>
       <c r="AC29" s="111">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AD29" s="67">
         <f t="shared" si="4"/>
-        <v>57.999999999999993</v>
+        <v>68</v>
       </c>
       <c r="AE29" s="66">
         <f>CRS!H29</f>
-        <v>29.986666666666665</v>
+        <v>33.38666666666667</v>
       </c>
       <c r="AF29" s="64">
         <f>CRS!I29</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AG29" s="374"/>
       <c r="AH29" s="372"/>
@@ -21837,7 +21837,7 @@
         <v>67.777777777777786</v>
       </c>
       <c r="Q30" s="109">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="R30" s="109">
         <v>40</v>
@@ -21860,26 +21860,26 @@
       <c r="Z30" s="109"/>
       <c r="AA30" s="60">
         <f t="shared" si="2"/>
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AB30" s="67">
         <f t="shared" si="3"/>
-        <v>97.916666666666657</v>
+        <v>100</v>
       </c>
       <c r="AC30" s="111">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="AD30" s="67">
         <f t="shared" si="4"/>
-        <v>56.999999999999993</v>
+        <v>68</v>
       </c>
       <c r="AE30" s="66">
         <f>CRS!H30</f>
-        <v>74.05916666666667</v>
+        <v>78.486666666666679</v>
       </c>
       <c r="AF30" s="64">
         <f>CRS!I30</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG30" s="374"/>
       <c r="AH30" s="372"/>
@@ -21959,19 +21959,19 @@
         <v>100</v>
       </c>
       <c r="AC31" s="111">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="AD31" s="67">
         <f t="shared" si="4"/>
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="AE31" s="66">
         <f>CRS!H31</f>
-        <v>78.52</v>
+        <v>81.92</v>
       </c>
       <c r="AF31" s="64">
         <f>CRS!I31</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="AG31" s="374"/>
       <c r="AH31" s="372"/>
@@ -22043,19 +22043,19 @@
         <v>91.666666666666657</v>
       </c>
       <c r="AC32" s="111">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AD32" s="67">
         <f t="shared" si="4"/>
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="AE32" s="66">
         <f>CRS!H32</f>
-        <v>46.763333333333335</v>
+        <v>50.163333333333334</v>
       </c>
       <c r="AF32" s="64">
         <f>CRS!I32</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG32" s="374"/>
       <c r="AH32" s="372"/>
@@ -22129,15 +22129,15 @@
         <v>50</v>
       </c>
       <c r="AC33" s="111">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AD33" s="67">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AE33" s="66">
         <f>CRS!H33</f>
-        <v>39.006666666666668</v>
+        <v>42.406666666666666</v>
       </c>
       <c r="AF33" s="64">
         <f>CRS!I33</f>
@@ -22220,19 +22220,19 @@
         <v>100</v>
       </c>
       <c r="AC34" s="111">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD34" s="67">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE34" s="66">
         <f>CRS!H34</f>
-        <v>67.233333333333334</v>
+        <v>70.63333333333334</v>
       </c>
       <c r="AF34" s="64">
         <f>CRS!I34</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG34" s="374"/>
       <c r="AH34" s="372"/>
@@ -22315,19 +22315,19 @@
         <v>93.75</v>
       </c>
       <c r="AC35" s="111">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AD35" s="67">
         <f t="shared" si="4"/>
-        <v>45</v>
+        <v>55.000000000000007</v>
       </c>
       <c r="AE35" s="66">
         <f>CRS!H35</f>
-        <v>73.737499999999997</v>
+        <v>77.137500000000003</v>
       </c>
       <c r="AF35" s="64">
         <f>CRS!I35</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG35" s="374"/>
       <c r="AH35" s="372"/>
@@ -22408,19 +22408,19 @@
         <v>100</v>
       </c>
       <c r="AC36" s="111">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AD36" s="67">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE36" s="66">
         <f>CRS!H36</f>
-        <v>74.2</v>
+        <v>77.600000000000009</v>
       </c>
       <c r="AF36" s="64">
         <f>CRS!I36</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AG36" s="374"/>
       <c r="AH36" s="372"/>
@@ -22572,19 +22572,19 @@
         <v>100</v>
       </c>
       <c r="AC38" s="111">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AD38" s="67">
         <f t="shared" si="4"/>
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="AE38" s="66">
         <f>CRS!H38</f>
-        <v>76.793333333333337</v>
+        <v>80.193333333333328</v>
       </c>
       <c r="AF38" s="64">
         <f>CRS!I38</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AG38" s="374"/>
       <c r="AH38" s="372"/>
@@ -22728,15 +22728,15 @@
         <v>29.166666666666668</v>
       </c>
       <c r="AC40" s="111">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AD40" s="67">
         <f t="shared" si="4"/>
-        <v>28.999999999999996</v>
+        <v>39</v>
       </c>
       <c r="AE40" s="66">
         <f>CRS!H40</f>
-        <v>19.484999999999999</v>
+        <v>22.885000000000002</v>
       </c>
       <c r="AF40" s="64">
         <f>CRS!I40</f>
@@ -23385,19 +23385,19 @@
         <v>50</v>
       </c>
       <c r="AC50" s="111">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AD50" s="67">
         <f t="shared" ref="AD50:AD80" si="13">IF(AC50="","",AC50/$AC$5*100)</f>
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AE50" s="66">
         <f>CRS!H50</f>
-        <v>29.2</v>
+        <v>32.6</v>
       </c>
       <c r="AF50" s="64">
         <f>CRS!I50</f>
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23473,19 +23473,19 @@
         <v>83.333333333333343</v>
       </c>
       <c r="AC51" s="111">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AD51" s="67">
         <f t="shared" si="13"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AE51" s="66">
         <f>CRS!H51</f>
-        <v>52.653333333333336</v>
+        <v>56.053333333333342</v>
       </c>
       <c r="AF51" s="64">
         <f>CRS!I51</f>
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23563,19 +23563,19 @@
         <v>100</v>
       </c>
       <c r="AC52" s="111">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD52" s="67">
         <f t="shared" si="13"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AE52" s="66">
         <f>CRS!H52</f>
-        <v>92.466666666666669</v>
+        <v>95.866666666666674</v>
       </c>
       <c r="AF52" s="64">
         <f>CRS!I52</f>
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23649,19 +23649,19 @@
         <v>97.916666666666657</v>
       </c>
       <c r="AC53" s="111">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AD53" s="67">
         <f t="shared" si="13"/>
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AE53" s="66">
         <f>CRS!H53</f>
-        <v>53.06583333333333</v>
+        <v>56.465833333333336</v>
       </c>
       <c r="AF53" s="64">
         <f>CRS!I53</f>
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23735,19 +23735,19 @@
         <v>91.666666666666657</v>
       </c>
       <c r="AC54" s="111">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AD54" s="67">
         <f t="shared" si="13"/>
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="AE54" s="66">
         <f>CRS!H54</f>
-        <v>49.07</v>
+        <v>52.47</v>
       </c>
       <c r="AF54" s="64">
         <f>CRS!I54</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23778,7 +23778,9 @@
       <c r="H55" s="109">
         <v>10</v>
       </c>
-      <c r="I55" s="109"/>
+      <c r="I55" s="109">
+        <v>10</v>
+      </c>
       <c r="J55" s="109"/>
       <c r="K55" s="109"/>
       <c r="L55" s="109"/>
@@ -23786,17 +23788,17 @@
       <c r="N55" s="109"/>
       <c r="O55" s="60">
         <f t="shared" si="9"/>
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="P55" s="67">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>71.111111111111114</v>
       </c>
       <c r="Q55" s="109">
         <v>30</v>
       </c>
       <c r="R55" s="109">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S55" s="109">
         <v>40</v>
@@ -23816,26 +23818,26 @@
       <c r="Z55" s="109"/>
       <c r="AA55" s="60">
         <f t="shared" si="11"/>
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AB55" s="67">
         <f t="shared" si="12"/>
-        <v>87.5</v>
+        <v>91.666666666666657</v>
       </c>
       <c r="AC55" s="111">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AD55" s="67">
         <f t="shared" si="13"/>
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AE55" s="66">
         <f>CRS!H55</f>
-        <v>57.515000000000001</v>
+        <v>65.956666666666663</v>
       </c>
       <c r="AF55" s="64">
         <f>CRS!I55</f>
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -38396,7 +38398,7 @@
       <c r="H15" s="133"/>
       <c r="I15" s="144">
         <f>IF(CRS!I9="","",CRS!I9)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J15" s="145"/>
       <c r="K15" s="144" t="str">
@@ -38573,7 +38575,7 @@
       <c r="H18" s="133"/>
       <c r="I18" s="144">
         <f>IF(CRS!I12="","",CRS!I12)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J18" s="145"/>
       <c r="K18" s="144" t="str">
@@ -38632,7 +38634,7 @@
       <c r="H19" s="133"/>
       <c r="I19" s="144">
         <f>IF(CRS!I13="","",CRS!I13)</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J19" s="145"/>
       <c r="K19" s="144" t="str">
@@ -38927,7 +38929,7 @@
       <c r="H24" s="133"/>
       <c r="I24" s="144">
         <f>IF(CRS!I18="","",CRS!I18)</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="J24" s="145"/>
       <c r="K24" s="144" t="str">
@@ -39045,7 +39047,7 @@
       <c r="H26" s="133"/>
       <c r="I26" s="144">
         <f>IF(CRS!I20="","",CRS!I20)</f>
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J26" s="145"/>
       <c r="K26" s="144" t="str">
@@ -39163,7 +39165,7 @@
       <c r="H28" s="133"/>
       <c r="I28" s="144">
         <f>IF(CRS!I22="","",CRS!I22)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J28" s="145"/>
       <c r="K28" s="144" t="str">
@@ -39281,7 +39283,7 @@
       <c r="H30" s="133"/>
       <c r="I30" s="144">
         <f>IF(CRS!I24="","",CRS!I24)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J30" s="145"/>
       <c r="K30" s="144" t="str">
@@ -39340,7 +39342,7 @@
       <c r="H31" s="133"/>
       <c r="I31" s="144">
         <f>IF(CRS!I25="","",CRS!I25)</f>
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J31" s="145"/>
       <c r="K31" s="144" t="str">
@@ -39399,7 +39401,7 @@
       <c r="H32" s="133"/>
       <c r="I32" s="144">
         <f>IF(CRS!I26="","",CRS!I26)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J32" s="145"/>
       <c r="K32" s="144" t="str">
@@ -39458,7 +39460,7 @@
       <c r="H33" s="133"/>
       <c r="I33" s="144">
         <f>IF(CRS!I27="","",CRS!I27)</f>
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J33" s="145"/>
       <c r="K33" s="144" t="str">
@@ -39576,7 +39578,7 @@
       <c r="H35" s="133"/>
       <c r="I35" s="144">
         <f>IF(CRS!I29="","",CRS!I29)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J35" s="145"/>
       <c r="K35" s="144" t="str">
@@ -39635,7 +39637,7 @@
       <c r="H36" s="133"/>
       <c r="I36" s="144">
         <f>IF(CRS!I30="","",CRS!I30)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J36" s="145"/>
       <c r="K36" s="144" t="str">
@@ -39694,7 +39696,7 @@
       <c r="H37" s="133"/>
       <c r="I37" s="144">
         <f>IF(CRS!I31="","",CRS!I31)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J37" s="145"/>
       <c r="K37" s="144" t="str">
@@ -39753,7 +39755,7 @@
       <c r="H38" s="133"/>
       <c r="I38" s="144">
         <f>IF(CRS!I32="","",CRS!I32)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J38" s="145"/>
       <c r="K38" s="144" t="str">
@@ -39871,7 +39873,7 @@
       <c r="H40" s="133"/>
       <c r="I40" s="144">
         <f>IF(CRS!I34="","",CRS!I34)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J40" s="145"/>
       <c r="K40" s="144" t="str">
@@ -39930,7 +39932,7 @@
       <c r="H41" s="133"/>
       <c r="I41" s="144">
         <f>IF(CRS!I35="","",CRS!I35)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J41" s="145"/>
       <c r="K41" s="144" t="str">
@@ -39989,7 +39991,7 @@
       <c r="H42" s="133"/>
       <c r="I42" s="144">
         <f>IF(CRS!I36="","",CRS!I36)</f>
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J42" s="145"/>
       <c r="K42" s="144" t="str">
@@ -40107,7 +40109,7 @@
       <c r="H44" s="133"/>
       <c r="I44" s="144">
         <f>IF(CRS!I38="","",CRS!I38)</f>
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J44" s="145"/>
       <c r="K44" s="144" t="str">
@@ -40797,7 +40799,7 @@
       <c r="H76" s="133"/>
       <c r="I76" s="144">
         <f>IF(CRS!I50="","",CRS!I50)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J76" s="145"/>
       <c r="K76" s="144" t="str">
@@ -40856,7 +40858,7 @@
       <c r="H77" s="133"/>
       <c r="I77" s="144">
         <f>IF(CRS!I51="","",CRS!I51)</f>
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J77" s="145"/>
       <c r="K77" s="144" t="str">
@@ -40915,7 +40917,7 @@
       <c r="H78" s="133"/>
       <c r="I78" s="144">
         <f>IF(CRS!I52="","",CRS!I52)</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J78" s="145"/>
       <c r="K78" s="144" t="str">
@@ -40974,7 +40976,7 @@
       <c r="H79" s="133"/>
       <c r="I79" s="144">
         <f>IF(CRS!I53="","",CRS!I53)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J79" s="145"/>
       <c r="K79" s="144" t="str">
@@ -41033,7 +41035,7 @@
       <c r="H80" s="133"/>
       <c r="I80" s="144">
         <f>IF(CRS!I54="","",CRS!I54)</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J80" s="145"/>
       <c r="K80" s="144" t="str">
@@ -41092,7 +41094,7 @@
       <c r="H81" s="133"/>
       <c r="I81" s="144">
         <f>IF(CRS!I55="","",CRS!I55)</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="J81" s="145"/>
       <c r="K81" s="144" t="str">

--- a/2T1617CR/2T1617 - CITCS-ICS2-CITCS INTL 3.xlsx
+++ b/2T1617CR/2T1617 - CITCS-ICS2-CITCS INTL 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INITIAL INPUT" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="256">
   <si>
     <t>J</t>
   </si>
@@ -945,6 +945,18 @@
   </si>
   <si>
     <t>Lab Act 06</t>
+  </si>
+  <si>
+    <t>MLAB01</t>
+  </si>
+  <si>
+    <t>MLAB02</t>
+  </si>
+  <si>
+    <t>MLAB03</t>
+  </si>
+  <si>
+    <t>MLAB04</t>
   </si>
 </sst>
 </file>
@@ -11163,8 +11175,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E39"/>
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12111,7 +12123,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A18" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
@@ -12499,21 +12511,21 @@
         <f>IF(MIDTERM!AB9="","",$K$8*MIDTERM!AB9)</f>
         <v/>
       </c>
-      <c r="L9" s="83" t="str">
+      <c r="L9" s="83">
         <f>IF(MIDTERM!AD9="","",$L$8*MIDTERM!AD9)</f>
-        <v/>
-      </c>
-      <c r="M9" s="86" t="str">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="M9" s="86">
         <f>IF(SUM(J9:L9)=0,"",SUM(J9:L9))</f>
-        <v/>
-      </c>
-      <c r="N9" s="87" t="str">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="N9" s="87">
         <f>IF(M9="","",('INITIAL INPUT'!$J$25*CRS!H9+'INITIAL INPUT'!$K$25*CRS!M9))</f>
-        <v/>
-      </c>
-      <c r="O9" s="85" t="str">
+        <v>36.865833333333335</v>
+      </c>
+      <c r="O9" s="85">
         <f>IF(N9="","",VLOOKUP(N9,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P9" s="83" t="str">
         <f>IF(FINAL!P9="","",CRS!$P$8*FINAL!P9)</f>
@@ -12756,7 +12768,7 @@
       </c>
       <c r="F12" s="83">
         <f>IF(PRELIM!AB12="","",$F$8*PRELIM!AB12)</f>
-        <v>5.4999999999999991</v>
+        <v>12.375</v>
       </c>
       <c r="G12" s="83">
         <f>IF(PRELIM!AD12="","",$G$8*PRELIM!AD12)</f>
@@ -12764,7 +12776,7 @@
       </c>
       <c r="H12" s="84">
         <f t="shared" si="0"/>
-        <v>34.073333333333338</v>
+        <v>40.948333333333338</v>
       </c>
       <c r="I12" s="85">
         <f>IF(H12="","",VLOOKUP(H12,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -12864,29 +12876,29 @@
         <f>IF(H13="","",VLOOKUP(H13,'INITIAL INPUT'!$P$4:$R$34,3))</f>
         <v>97</v>
       </c>
-      <c r="J13" s="83" t="str">
+      <c r="J13" s="83">
         <f>IF(MIDTERM!P13="","",$J$8*MIDTERM!P13)</f>
-        <v/>
-      </c>
-      <c r="K13" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="K13" s="83">
         <f>IF(MIDTERM!AB13="","",$K$8*MIDTERM!AB13)</f>
-        <v/>
-      </c>
-      <c r="L13" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="L13" s="83">
         <f>IF(MIDTERM!AD13="","",$L$8*MIDTERM!AD13)</f>
-        <v/>
-      </c>
-      <c r="M13" s="86" t="str">
+        <v>20.400000000000002</v>
+      </c>
+      <c r="M13" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N13" s="87" t="str">
+        <v>86.4</v>
+      </c>
+      <c r="N13" s="87">
         <f>IF(M13="","",('INITIAL INPUT'!$J$25*CRS!H13+'INITIAL INPUT'!$K$25*CRS!M13))</f>
-        <v/>
-      </c>
-      <c r="O13" s="85" t="str">
+        <v>90.48</v>
+      </c>
+      <c r="O13" s="85">
         <f>IF(N13="","",VLOOKUP(N13,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>95</v>
       </c>
       <c r="P13" s="83" t="str">
         <f>IF(FINAL!P13="","",CRS!$P$8*FINAL!P13)</f>
@@ -13060,21 +13072,21 @@
         <f>IF(MIDTERM!AB15="","",$K$8*MIDTERM!AB15)</f>
         <v/>
       </c>
-      <c r="L15" s="83" t="str">
+      <c r="L15" s="83">
         <f>IF(MIDTERM!AD15="","",$L$8*MIDTERM!AD15)</f>
-        <v/>
-      </c>
-      <c r="M15" s="86" t="str">
+        <v>5.8285714285714292</v>
+      </c>
+      <c r="M15" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N15" s="87" t="str">
+        <v>5.8285714285714292</v>
+      </c>
+      <c r="N15" s="87">
         <f>IF(M15="","",('INITIAL INPUT'!$J$25*CRS!H15+'INITIAL INPUT'!$K$25*CRS!M15))</f>
-        <v/>
-      </c>
-      <c r="O15" s="85" t="str">
+        <v>26.472619047619052</v>
+      </c>
+      <c r="O15" s="85">
         <f>IF(N15="","",VLOOKUP(N15,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="P15" s="83" t="str">
         <f>IF(FINAL!P15="","",CRS!$P$8*FINAL!P15)</f>
@@ -13248,21 +13260,21 @@
         <f>IF(MIDTERM!AB17="","",$K$8*MIDTERM!AB17)</f>
         <v/>
       </c>
-      <c r="L17" s="83" t="str">
+      <c r="L17" s="83">
         <f>IF(MIDTERM!AD17="","",$L$8*MIDTERM!AD17)</f>
-        <v/>
-      </c>
-      <c r="M17" s="86" t="str">
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="M17" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N17" s="87" t="str">
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="N17" s="87">
         <f>IF(M17="","",('INITIAL INPUT'!$J$25*CRS!H17+'INITIAL INPUT'!$K$25*CRS!M17))</f>
-        <v/>
-      </c>
-      <c r="O17" s="85" t="str">
+        <v>33.896726190476194</v>
+      </c>
+      <c r="O17" s="85">
         <f>IF(N17="","",VLOOKUP(N17,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P17" s="83" t="str">
         <f>IF(FINAL!P17="","",CRS!$P$8*FINAL!P17)</f>
@@ -13436,21 +13448,21 @@
         <f>IF(MIDTERM!AB19="","",$K$8*MIDTERM!AB19)</f>
         <v/>
       </c>
-      <c r="L19" s="83" t="str">
+      <c r="L19" s="83">
         <f>IF(MIDTERM!AD19="","",$L$8*MIDTERM!AD19)</f>
-        <v/>
-      </c>
-      <c r="M19" s="86" t="str">
+        <v>12.62857142857143</v>
+      </c>
+      <c r="M19" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N19" s="87" t="str">
+        <v>12.62857142857143</v>
+      </c>
+      <c r="N19" s="87">
         <f>IF(M19="","",('INITIAL INPUT'!$J$25*CRS!H19+'INITIAL INPUT'!$K$25*CRS!M19))</f>
-        <v/>
-      </c>
-      <c r="O19" s="85" t="str">
+        <v>15.287619047619049</v>
+      </c>
+      <c r="O19" s="85">
         <f>IF(N19="","",VLOOKUP(N19,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>71</v>
       </c>
       <c r="P19" s="83" t="str">
         <f>IF(FINAL!P19="","",CRS!$P$8*FINAL!P19)</f>
@@ -13530,21 +13542,21 @@
         <f>IF(MIDTERM!AB20="","",$K$8*MIDTERM!AB20)</f>
         <v/>
       </c>
-      <c r="L20" s="83" t="str">
+      <c r="L20" s="83">
         <f>IF(MIDTERM!AD20="","",$L$8*MIDTERM!AD20)</f>
-        <v/>
-      </c>
-      <c r="M20" s="86" t="str">
+        <v>8.742857142857142</v>
+      </c>
+      <c r="M20" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N20" s="87" t="str">
+        <v>8.742857142857142</v>
+      </c>
+      <c r="N20" s="87">
         <f>IF(M20="","",('INITIAL INPUT'!$J$25*CRS!H20+'INITIAL INPUT'!$K$25*CRS!M20))</f>
-        <v/>
-      </c>
-      <c r="O20" s="85" t="str">
+        <v>47.398095238095244</v>
+      </c>
+      <c r="O20" s="85">
         <f>IF(N20="","",VLOOKUP(N20,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P20" s="83" t="str">
         <f>IF(FINAL!P20="","",CRS!$P$8*FINAL!P20)</f>
@@ -13718,21 +13730,21 @@
         <f>IF(MIDTERM!AB22="","",$K$8*MIDTERM!AB22)</f>
         <v/>
       </c>
-      <c r="L22" s="83" t="str">
+      <c r="L22" s="83">
         <f>IF(MIDTERM!AD22="","",$L$8*MIDTERM!AD22)</f>
-        <v/>
-      </c>
-      <c r="M22" s="86" t="str">
+        <v>12.62857142857143</v>
+      </c>
+      <c r="M22" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N22" s="87" t="str">
+        <v>12.62857142857143</v>
+      </c>
+      <c r="N22" s="87">
         <f>IF(M22="","",('INITIAL INPUT'!$J$25*CRS!H22+'INITIAL INPUT'!$K$25*CRS!M22))</f>
-        <v/>
-      </c>
-      <c r="O22" s="85" t="str">
+        <v>48.190952380952382</v>
+      </c>
+      <c r="O22" s="85">
         <f>IF(N22="","",VLOOKUP(N22,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P22" s="83" t="str">
         <f>IF(FINAL!P22="","",CRS!$P$8*FINAL!P22)</f>
@@ -13906,21 +13918,21 @@
         <f>IF(MIDTERM!AB24="","",$K$8*MIDTERM!AB24)</f>
         <v/>
       </c>
-      <c r="L24" s="83" t="str">
+      <c r="L24" s="83">
         <f>IF(MIDTERM!AD24="","",$L$8*MIDTERM!AD24)</f>
-        <v/>
-      </c>
-      <c r="M24" s="86" t="str">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="M24" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N24" s="87" t="str">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="N24" s="87">
         <f>IF(M24="","",('INITIAL INPUT'!$J$25*CRS!H24+'INITIAL INPUT'!$K$25*CRS!M24))</f>
-        <v/>
-      </c>
-      <c r="O24" s="85" t="str">
+        <v>41.832916666666669</v>
+      </c>
+      <c r="O24" s="85">
         <f>IF(N24="","",VLOOKUP(N24,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P24" s="83" t="str">
         <f>IF(FINAL!P24="","",CRS!$P$8*FINAL!P24)</f>
@@ -14000,21 +14012,21 @@
         <f>IF(MIDTERM!AB25="","",$K$8*MIDTERM!AB25)</f>
         <v/>
       </c>
-      <c r="L25" s="83" t="str">
+      <c r="L25" s="83">
         <f>IF(MIDTERM!AD25="","",$L$8*MIDTERM!AD25)</f>
-        <v/>
-      </c>
-      <c r="M25" s="86" t="str">
+        <v>11.657142857142858</v>
+      </c>
+      <c r="M25" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N25" s="87" t="str">
+        <v>11.657142857142858</v>
+      </c>
+      <c r="N25" s="87">
         <f>IF(M25="","",('INITIAL INPUT'!$J$25*CRS!H25+'INITIAL INPUT'!$K$25*CRS!M25))</f>
-        <v/>
-      </c>
-      <c r="O25" s="85" t="str">
+        <v>39.894821428571426</v>
+      </c>
+      <c r="O25" s="85">
         <f>IF(N25="","",VLOOKUP(N25,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P25" s="83" t="str">
         <f>IF(FINAL!P25="","",CRS!$P$8*FINAL!P25)</f>
@@ -14094,21 +14106,21 @@
         <f>IF(MIDTERM!AB26="","",$K$8*MIDTERM!AB26)</f>
         <v/>
       </c>
-      <c r="L26" s="83" t="str">
+      <c r="L26" s="83">
         <f>IF(MIDTERM!AD26="","",$L$8*MIDTERM!AD26)</f>
-        <v/>
-      </c>
-      <c r="M26" s="86" t="str">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="M26" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N26" s="87" t="str">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="N26" s="87">
         <f>IF(M26="","",('INITIAL INPUT'!$J$25*CRS!H26+'INITIAL INPUT'!$K$25*CRS!M26))</f>
-        <v/>
-      </c>
-      <c r="O26" s="85" t="str">
+        <v>43.139583333333334</v>
+      </c>
+      <c r="O26" s="85">
         <f>IF(N26="","",VLOOKUP(N26,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P26" s="83" t="str">
         <f>IF(FINAL!P26="","",CRS!$P$8*FINAL!P26)</f>
@@ -14286,21 +14298,21 @@
         <f>IF(MIDTERM!AB28="","",$K$8*MIDTERM!AB28)</f>
         <v/>
       </c>
-      <c r="L28" s="83" t="str">
+      <c r="L28" s="83">
         <f>IF(MIDTERM!AD28="","",$L$8*MIDTERM!AD28)</f>
-        <v/>
-      </c>
-      <c r="M28" s="86" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="M28" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N28" s="87" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="N28" s="87" t="e">
         <f>IF(M28="","",('INITIAL INPUT'!$J$25*CRS!H28+'INITIAL INPUT'!$K$25*CRS!M28))</f>
-        <v/>
-      </c>
-      <c r="O28" s="85" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O28" s="85" t="e">
         <f>IF(N28="","",VLOOKUP(N28,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="P28" s="83" t="str">
         <f>IF(FINAL!P28="","",CRS!$P$8*FINAL!P28)</f>
@@ -14476,21 +14488,21 @@
         <f>IF(MIDTERM!AB30="","",$K$8*MIDTERM!AB30)</f>
         <v/>
       </c>
-      <c r="L30" s="83" t="str">
+      <c r="L30" s="83">
         <f>IF(MIDTERM!AD30="","",$L$8*MIDTERM!AD30)</f>
-        <v/>
-      </c>
-      <c r="M30" s="86" t="str">
+        <v>7.7714285714285722</v>
+      </c>
+      <c r="M30" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N30" s="87" t="str">
+        <v>7.7714285714285722</v>
+      </c>
+      <c r="N30" s="87">
         <f>IF(M30="","",('INITIAL INPUT'!$J$25*CRS!H30+'INITIAL INPUT'!$K$25*CRS!M30))</f>
-        <v/>
-      </c>
-      <c r="O30" s="85" t="str">
+        <v>43.129047619047626</v>
+      </c>
+      <c r="O30" s="85">
         <f>IF(N30="","",VLOOKUP(N30,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P30" s="83" t="str">
         <f>IF(FINAL!P30="","",CRS!$P$8*FINAL!P30)</f>
@@ -14666,21 +14678,21 @@
         <f>IF(MIDTERM!AB32="","",$K$8*MIDTERM!AB32)</f>
         <v/>
       </c>
-      <c r="L32" s="83" t="str">
+      <c r="L32" s="83">
         <f>IF(MIDTERM!AD32="","",$L$8*MIDTERM!AD32)</f>
-        <v/>
-      </c>
-      <c r="M32" s="86" t="str">
+        <v>5.8285714285714292</v>
+      </c>
+      <c r="M32" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N32" s="87" t="str">
+        <v>5.8285714285714292</v>
+      </c>
+      <c r="N32" s="87">
         <f>IF(M32="","",('INITIAL INPUT'!$J$25*CRS!H32+'INITIAL INPUT'!$K$25*CRS!M32))</f>
-        <v/>
-      </c>
-      <c r="O32" s="85" t="str">
+        <v>27.995952380952382</v>
+      </c>
+      <c r="O32" s="85">
         <f>IF(N32="","",VLOOKUP(N32,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="P32" s="83" t="str">
         <f>IF(FINAL!P32="","",CRS!$P$8*FINAL!P32)</f>
@@ -14951,21 +14963,21 @@
         <f>IF(MIDTERM!AB35="","",$K$8*MIDTERM!AB35)</f>
         <v/>
       </c>
-      <c r="L35" s="83" t="str">
+      <c r="L35" s="83">
         <f>IF(MIDTERM!AD35="","",$L$8*MIDTERM!AD35)</f>
-        <v/>
-      </c>
-      <c r="M35" s="86" t="str">
+        <v>8.742857142857142</v>
+      </c>
+      <c r="M35" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N35" s="87" t="str">
+        <v>8.742857142857142</v>
+      </c>
+      <c r="N35" s="87">
         <f>IF(M35="","",('INITIAL INPUT'!$J$25*CRS!H35+'INITIAL INPUT'!$K$25*CRS!M35))</f>
-        <v/>
-      </c>
-      <c r="O35" s="85" t="str">
+        <v>42.940178571428575</v>
+      </c>
+      <c r="O35" s="85">
         <f>IF(N35="","",VLOOKUP(N35,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P35" s="83" t="str">
         <f>IF(FINAL!P35="","",CRS!$P$8*FINAL!P35)</f>
@@ -15236,21 +15248,21 @@
         <f>IF(MIDTERM!AB38="","",$K$8*MIDTERM!AB38)</f>
         <v/>
       </c>
-      <c r="L38" s="83" t="str">
+      <c r="L38" s="83">
         <f>IF(MIDTERM!AD38="","",$L$8*MIDTERM!AD38)</f>
-        <v/>
-      </c>
-      <c r="M38" s="86" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="M38" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N38" s="87" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="N38" s="87">
         <f>IF(M38="","",('INITIAL INPUT'!$J$25*CRS!H38+'INITIAL INPUT'!$K$25*CRS!M38))</f>
-        <v/>
-      </c>
-      <c r="O38" s="85" t="str">
+        <v>45.439523809523806</v>
+      </c>
+      <c r="O38" s="85">
         <f>IF(N38="","",VLOOKUP(N38,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="P38" s="83" t="str">
         <f>IF(FINAL!P38="","",CRS!$P$8*FINAL!P38)</f>
@@ -15831,21 +15843,21 @@
         <f>IF(MIDTERM!AB50="","",$K$8*MIDTERM!AB50)</f>
         <v/>
       </c>
-      <c r="L50" s="83" t="str">
+      <c r="L50" s="83">
         <f>IF(MIDTERM!AD50="","",$L$8*MIDTERM!AD50)</f>
-        <v/>
-      </c>
-      <c r="M50" s="86" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="M50" s="86">
         <f t="shared" ref="M50:M80" si="7">IF(SUM(J50:L50)=0,"",SUM(J50:L50))</f>
-        <v/>
-      </c>
-      <c r="N50" s="87" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="N50" s="87">
         <f>IF(M50="","",('INITIAL INPUT'!$J$25*CRS!H50+'INITIAL INPUT'!$K$25*CRS!M50))</f>
-        <v/>
-      </c>
-      <c r="O50" s="85" t="str">
+        <v>21.642857142857146</v>
+      </c>
+      <c r="O50" s="85">
         <f>IF(N50="","",VLOOKUP(N50,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="P50" s="83" t="str">
         <f>IF(FINAL!P50="","",CRS!$P$8*FINAL!P50)</f>
@@ -15925,21 +15937,21 @@
         <f>IF(MIDTERM!AB51="","",$K$8*MIDTERM!AB51)</f>
         <v/>
       </c>
-      <c r="L51" s="83" t="str">
+      <c r="L51" s="83">
         <f>IF(MIDTERM!AD51="","",$L$8*MIDTERM!AD51)</f>
-        <v/>
-      </c>
-      <c r="M51" s="86" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="M51" s="86">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N51" s="87" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="N51" s="87">
         <f>IF(M51="","",('INITIAL INPUT'!$J$25*CRS!H51+'INITIAL INPUT'!$K$25*CRS!M51))</f>
-        <v/>
-      </c>
-      <c r="O51" s="85" t="str">
+        <v>33.369523809523812</v>
+      </c>
+      <c r="O51" s="85">
         <f>IF(N51="","",VLOOKUP(N51,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P51" s="83" t="str">
         <f>IF(FINAL!P51="","",CRS!$P$8*FINAL!P51)</f>
@@ -16011,29 +16023,29 @@
         <f>IF(H52="","",VLOOKUP(H52,'INITIAL INPUT'!$P$4:$R$34,3))</f>
         <v>98</v>
       </c>
-      <c r="J52" s="83" t="str">
+      <c r="J52" s="83">
         <f>IF(MIDTERM!P52="","",$J$8*MIDTERM!P52)</f>
-        <v/>
-      </c>
-      <c r="K52" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="K52" s="83">
         <f>IF(MIDTERM!AB52="","",$K$8*MIDTERM!AB52)</f>
-        <v/>
-      </c>
-      <c r="L52" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="L52" s="83">
         <f>IF(MIDTERM!AD52="","",$L$8*MIDTERM!AD52)</f>
-        <v/>
-      </c>
-      <c r="M52" s="86" t="str">
+        <v>17.485714285714284</v>
+      </c>
+      <c r="M52" s="86">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N52" s="87" t="str">
+        <v>83.48571428571428</v>
+      </c>
+      <c r="N52" s="87">
         <f>IF(M52="","",('INITIAL INPUT'!$J$25*CRS!H52+'INITIAL INPUT'!$K$25*CRS!M52))</f>
-        <v/>
-      </c>
-      <c r="O52" s="85" t="str">
+        <v>89.67619047619047</v>
+      </c>
+      <c r="O52" s="85">
         <f>IF(N52="","",VLOOKUP(N52,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>95</v>
       </c>
       <c r="P52" s="83" t="str">
         <f>IF(FINAL!P52="","",CRS!$P$8*FINAL!P52)</f>
@@ -16207,21 +16219,21 @@
         <f>IF(MIDTERM!AB54="","",$K$8*MIDTERM!AB54)</f>
         <v/>
       </c>
-      <c r="L54" s="83" t="str">
+      <c r="L54" s="83">
         <f>IF(MIDTERM!AD54="","",$L$8*MIDTERM!AD54)</f>
-        <v/>
-      </c>
-      <c r="M54" s="86" t="str">
+        <v>7.7714285714285722</v>
+      </c>
+      <c r="M54" s="86">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N54" s="87" t="str">
+        <v>7.7714285714285722</v>
+      </c>
+      <c r="N54" s="87">
         <f>IF(M54="","",('INITIAL INPUT'!$J$25*CRS!H54+'INITIAL INPUT'!$K$25*CRS!M54))</f>
-        <v/>
-      </c>
-      <c r="O54" s="85" t="str">
+        <v>30.120714285714286</v>
+      </c>
+      <c r="O54" s="85">
         <f>IF(N54="","",VLOOKUP(N54,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="P54" s="83" t="str">
         <f>IF(FINAL!P54="","",CRS!$P$8*FINAL!P54)</f>
@@ -16301,21 +16313,21 @@
         <f>IF(MIDTERM!AB55="","",$K$8*MIDTERM!AB55)</f>
         <v/>
       </c>
-      <c r="L55" s="83" t="str">
+      <c r="L55" s="83">
         <f>IF(MIDTERM!AD55="","",$L$8*MIDTERM!AD55)</f>
-        <v/>
-      </c>
-      <c r="M55" s="86" t="str">
+        <v>5.8285714285714292</v>
+      </c>
+      <c r="M55" s="86">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N55" s="87" t="str">
+        <v>5.8285714285714292</v>
+      </c>
+      <c r="N55" s="87">
         <f>IF(M55="","",('INITIAL INPUT'!$J$25*CRS!H55+'INITIAL INPUT'!$K$25*CRS!M55))</f>
-        <v/>
-      </c>
-      <c r="O55" s="85" t="str">
+        <v>35.89261904761905</v>
+      </c>
+      <c r="O55" s="85">
         <f>IF(N55="","",VLOOKUP(N55,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P55" s="83" t="str">
         <f>IF(FINAL!P55="","",CRS!$P$8*FINAL!P55)</f>
@@ -19559,8 +19571,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK135"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="B16" zoomScale="104" zoomScaleNormal="100" zoomScalePageLayoutView="104" workbookViewId="0">
-      <selection activeCell="AC55" sqref="AC55"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="B7" zoomScale="104" zoomScaleNormal="100" zoomScalePageLayoutView="104" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20332,22 +20344,32 @@
       <c r="Q12" s="109">
         <v>40</v>
       </c>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109"/>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109"/>
-      <c r="V12" s="109"/>
+      <c r="R12" s="109">
+        <v>10</v>
+      </c>
+      <c r="S12" s="109">
+        <v>10</v>
+      </c>
+      <c r="T12" s="109">
+        <v>10</v>
+      </c>
+      <c r="U12" s="109">
+        <v>10</v>
+      </c>
+      <c r="V12" s="109">
+        <v>10</v>
+      </c>
       <c r="W12" s="109"/>
       <c r="X12" s="109"/>
       <c r="Y12" s="109"/>
       <c r="Z12" s="109"/>
       <c r="AA12" s="60">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AB12" s="67">
         <f t="shared" si="3"/>
-        <v>16.666666666666664</v>
+        <v>37.5</v>
       </c>
       <c r="AC12" s="111">
         <v>56</v>
@@ -20358,7 +20380,7 @@
       </c>
       <c r="AE12" s="66">
         <f>CRS!H12</f>
-        <v>34.073333333333338</v>
+        <v>40.948333333333338</v>
       </c>
       <c r="AF12" s="64">
         <f>CRS!I12</f>
@@ -26012,8 +26034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL135"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26280,9 +26302,15 @@
       <c r="B5" s="324"/>
       <c r="C5" s="325"/>
       <c r="D5" s="325"/>
-      <c r="E5" s="108"/>
-      <c r="F5" s="108"/>
-      <c r="G5" s="108"/>
+      <c r="E5" s="108">
+        <v>20</v>
+      </c>
+      <c r="F5" s="108">
+        <v>20</v>
+      </c>
+      <c r="G5" s="108">
+        <v>20</v>
+      </c>
       <c r="H5" s="108"/>
       <c r="I5" s="108"/>
       <c r="J5" s="108"/>
@@ -26292,10 +26320,18 @@
       <c r="N5" s="108"/>
       <c r="O5" s="341"/>
       <c r="P5" s="312"/>
-      <c r="Q5" s="108"/>
-      <c r="R5" s="108"/>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
+      <c r="Q5" s="108">
+        <v>40</v>
+      </c>
+      <c r="R5" s="108">
+        <v>40</v>
+      </c>
+      <c r="S5" s="108">
+        <v>40</v>
+      </c>
+      <c r="T5" s="108">
+        <v>40</v>
+      </c>
       <c r="U5" s="108"/>
       <c r="V5" s="108"/>
       <c r="W5" s="108"/>
@@ -26304,7 +26340,9 @@
       <c r="Z5" s="108"/>
       <c r="AA5" s="341"/>
       <c r="AB5" s="312"/>
-      <c r="AC5" s="110"/>
+      <c r="AC5" s="110">
+        <v>105</v>
+      </c>
       <c r="AD5" s="349"/>
       <c r="AE5" s="375"/>
       <c r="AF5" s="347"/>
@@ -26333,24 +26371,32 @@
       <c r="L6" s="305"/>
       <c r="M6" s="305"/>
       <c r="N6" s="305"/>
-      <c r="O6" s="366" t="str">
+      <c r="O6" s="366">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
-        <v/>
+        <v>60</v>
       </c>
       <c r="P6" s="312"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="305"/>
-      <c r="S6" s="305"/>
-      <c r="T6" s="305"/>
+      <c r="Q6" s="305" t="s">
+        <v>252</v>
+      </c>
+      <c r="R6" s="305" t="s">
+        <v>253</v>
+      </c>
+      <c r="S6" s="305" t="s">
+        <v>254</v>
+      </c>
+      <c r="T6" s="305" t="s">
+        <v>255</v>
+      </c>
       <c r="U6" s="305"/>
       <c r="V6" s="305"/>
       <c r="W6" s="305"/>
       <c r="X6" s="305"/>
       <c r="Y6" s="305"/>
       <c r="Z6" s="305"/>
-      <c r="AA6" s="342" t="str">
+      <c r="AA6" s="342">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
-        <v/>
+        <v>160</v>
       </c>
       <c r="AB6" s="312"/>
       <c r="AC6" s="356">
@@ -26505,22 +26551,24 @@
         <f>IF(AA9="","",AA9/$AA$6*100)</f>
         <v/>
       </c>
-      <c r="AC9" s="111"/>
-      <c r="AD9" s="67" t="str">
+      <c r="AC9" s="111">
+        <v>21</v>
+      </c>
+      <c r="AD9" s="67">
         <f>IF(AC9="","",AC9/$AC$5*100)</f>
-        <v/>
-      </c>
-      <c r="AE9" s="112" t="str">
+        <v>20</v>
+      </c>
+      <c r="AE9" s="112">
         <f>CRS!M9</f>
-        <v/>
-      </c>
-      <c r="AF9" s="66" t="str">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="AF9" s="66">
         <f>CRS!N9</f>
-        <v/>
-      </c>
-      <c r="AG9" s="64" t="str">
+        <v>36.865833333333335</v>
+      </c>
+      <c r="AG9" s="64">
         <f>CRS!O9</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH9" s="61"/>
       <c r="AI9" s="61"/>
@@ -26769,9 +26817,15 @@
         <f>CRS!D13</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
+      <c r="E13" s="109">
+        <v>20</v>
+      </c>
+      <c r="F13" s="109">
+        <v>20</v>
+      </c>
+      <c r="G13" s="109">
+        <v>20</v>
+      </c>
       <c r="H13" s="109"/>
       <c r="I13" s="109"/>
       <c r="J13" s="109"/>
@@ -26779,48 +26833,58 @@
       <c r="L13" s="109"/>
       <c r="M13" s="109"/>
       <c r="N13" s="109"/>
-      <c r="O13" s="60" t="str">
+      <c r="O13" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P13" s="67" t="str">
+        <v>60</v>
+      </c>
+      <c r="P13" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
+        <v>100</v>
+      </c>
+      <c r="Q13" s="109">
+        <v>40</v>
+      </c>
+      <c r="R13" s="109">
+        <v>40</v>
+      </c>
+      <c r="S13" s="109">
+        <v>40</v>
+      </c>
+      <c r="T13" s="109">
+        <v>40</v>
+      </c>
       <c r="U13" s="109"/>
       <c r="V13" s="109"/>
       <c r="W13" s="109"/>
       <c r="X13" s="109"/>
       <c r="Y13" s="109"/>
       <c r="Z13" s="109"/>
-      <c r="AA13" s="60" t="str">
+      <c r="AA13" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB13" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB13" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC13" s="111"/>
-      <c r="AD13" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC13" s="111">
+        <v>63</v>
+      </c>
+      <c r="AD13" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE13" s="112" t="str">
+        <v>60</v>
+      </c>
+      <c r="AE13" s="112">
         <f>CRS!M13</f>
-        <v/>
-      </c>
-      <c r="AF13" s="66" t="str">
+        <v>86.4</v>
+      </c>
+      <c r="AF13" s="66">
         <f>CRS!N13</f>
-        <v/>
-      </c>
-      <c r="AG13" s="64" t="str">
+        <v>90.48</v>
+      </c>
+      <c r="AG13" s="64">
         <f>CRS!O13</f>
-        <v/>
+        <v>95</v>
       </c>
       <c r="AH13" s="55"/>
       <c r="AI13" s="55"/>
@@ -26955,22 +27019,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC15" s="111"/>
-      <c r="AD15" s="67" t="str">
+      <c r="AC15" s="111">
+        <v>18</v>
+      </c>
+      <c r="AD15" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE15" s="112" t="str">
+        <v>17.142857142857142</v>
+      </c>
+      <c r="AE15" s="112">
         <f>CRS!M15</f>
-        <v/>
-      </c>
-      <c r="AF15" s="66" t="str">
+        <v>5.8285714285714292</v>
+      </c>
+      <c r="AF15" s="66">
         <f>CRS!N15</f>
-        <v/>
-      </c>
-      <c r="AG15" s="64" t="str">
+        <v>26.472619047619052</v>
+      </c>
+      <c r="AG15" s="64">
         <f>CRS!O15</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="AH15" s="55"/>
       <c r="AI15" s="55"/>
@@ -27105,22 +27171,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="67" t="str">
+      <c r="AC17" s="111">
+        <v>30</v>
+      </c>
+      <c r="AD17" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE17" s="112" t="str">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="AE17" s="112">
         <f>CRS!M17</f>
-        <v/>
-      </c>
-      <c r="AF17" s="66" t="str">
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="AF17" s="66">
         <f>CRS!N17</f>
-        <v/>
-      </c>
-      <c r="AG17" s="64" t="str">
+        <v>33.896726190476194</v>
+      </c>
+      <c r="AG17" s="64">
         <f>CRS!O17</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH17" s="55"/>
       <c r="AI17" s="55"/>
@@ -27249,22 +27317,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC19" s="111"/>
-      <c r="AD19" s="67" t="str">
+      <c r="AC19" s="111">
+        <v>39</v>
+      </c>
+      <c r="AD19" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE19" s="112" t="str">
+        <v>37.142857142857146</v>
+      </c>
+      <c r="AE19" s="112">
         <f>CRS!M19</f>
-        <v/>
-      </c>
-      <c r="AF19" s="66" t="str">
+        <v>12.62857142857143</v>
+      </c>
+      <c r="AF19" s="66">
         <f>CRS!N19</f>
-        <v/>
-      </c>
-      <c r="AG19" s="64" t="str">
+        <v>15.287619047619049</v>
+      </c>
+      <c r="AG19" s="64">
         <f>CRS!O19</f>
-        <v/>
+        <v>71</v>
       </c>
       <c r="AH19" s="55"/>
       <c r="AI19" s="55"/>
@@ -27321,22 +27391,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC20" s="111"/>
-      <c r="AD20" s="67" t="str">
+      <c r="AC20" s="111">
+        <v>27</v>
+      </c>
+      <c r="AD20" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE20" s="112" t="str">
+        <v>25.714285714285712</v>
+      </c>
+      <c r="AE20" s="112">
         <f>CRS!M20</f>
-        <v/>
-      </c>
-      <c r="AF20" s="66" t="str">
+        <v>8.742857142857142</v>
+      </c>
+      <c r="AF20" s="66">
         <f>CRS!N20</f>
-        <v/>
-      </c>
-      <c r="AG20" s="64" t="str">
+        <v>47.398095238095244</v>
+      </c>
+      <c r="AG20" s="64">
         <f>CRS!O20</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH20" s="55"/>
       <c r="AI20" s="55"/>
@@ -27465,22 +27537,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="67" t="str">
+      <c r="AC22" s="111">
+        <v>39</v>
+      </c>
+      <c r="AD22" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE22" s="112" t="str">
+        <v>37.142857142857146</v>
+      </c>
+      <c r="AE22" s="112">
         <f>CRS!M22</f>
-        <v/>
-      </c>
-      <c r="AF22" s="66" t="str">
+        <v>12.62857142857143</v>
+      </c>
+      <c r="AF22" s="66">
         <f>CRS!N22</f>
-        <v/>
-      </c>
-      <c r="AG22" s="64" t="str">
+        <v>48.190952380952382</v>
+      </c>
+      <c r="AG22" s="64">
         <f>CRS!O22</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH22" s="55"/>
       <c r="AI22" s="55"/>
@@ -27609,22 +27683,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC24" s="111"/>
-      <c r="AD24" s="67" t="str">
+      <c r="AC24" s="111">
+        <v>21</v>
+      </c>
+      <c r="AD24" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE24" s="112" t="str">
+        <v>20</v>
+      </c>
+      <c r="AE24" s="112">
         <f>CRS!M24</f>
-        <v/>
-      </c>
-      <c r="AF24" s="66" t="str">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="AF24" s="66">
         <f>CRS!N24</f>
-        <v/>
-      </c>
-      <c r="AG24" s="64" t="str">
+        <v>41.832916666666669</v>
+      </c>
+      <c r="AG24" s="64">
         <f>CRS!O24</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH24" s="55"/>
       <c r="AI24" s="55"/>
@@ -27681,22 +27757,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="67" t="str">
+      <c r="AC25" s="111">
+        <v>36</v>
+      </c>
+      <c r="AD25" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE25" s="112" t="str">
+        <v>34.285714285714285</v>
+      </c>
+      <c r="AE25" s="112">
         <f>CRS!M25</f>
-        <v/>
-      </c>
-      <c r="AF25" s="66" t="str">
+        <v>11.657142857142858</v>
+      </c>
+      <c r="AF25" s="66">
         <f>CRS!N25</f>
-        <v/>
-      </c>
-      <c r="AG25" s="64" t="str">
+        <v>39.894821428571426</v>
+      </c>
+      <c r="AG25" s="64">
         <f>CRS!O25</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH25" s="55"/>
       <c r="AI25" s="55"/>
@@ -27753,22 +27831,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="67" t="str">
+      <c r="AC26" s="111">
+        <v>21</v>
+      </c>
+      <c r="AD26" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE26" s="112" t="str">
+        <v>20</v>
+      </c>
+      <c r="AE26" s="112">
         <f>CRS!M26</f>
-        <v/>
-      </c>
-      <c r="AF26" s="66" t="str">
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="AF26" s="66">
         <f>CRS!N26</f>
-        <v/>
-      </c>
-      <c r="AG26" s="64" t="str">
+        <v>43.139583333333334</v>
+      </c>
+      <c r="AG26" s="64">
         <f>CRS!O26</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH26" s="373"/>
       <c r="AI26" s="371" t="s">
@@ -27899,22 +27979,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="67" t="str">
+      <c r="AC28" s="111">
+        <v>33</v>
+      </c>
+      <c r="AD28" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE28" s="112" t="str">
+        <v>31.428571428571427</v>
+      </c>
+      <c r="AE28" s="112">
         <f>CRS!M28</f>
-        <v/>
-      </c>
-      <c r="AF28" s="66" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="AF28" s="66" t="e">
         <f>CRS!N28</f>
-        <v/>
-      </c>
-      <c r="AG28" s="64" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AG28" s="64" t="e">
         <f>CRS!O28</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="AH28" s="374"/>
       <c r="AI28" s="372"/>
@@ -28043,22 +28125,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="67" t="str">
+      <c r="AC30" s="111">
+        <v>24</v>
+      </c>
+      <c r="AD30" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE30" s="112" t="str">
+        <v>22.857142857142858</v>
+      </c>
+      <c r="AE30" s="112">
         <f>CRS!M30</f>
-        <v/>
-      </c>
-      <c r="AF30" s="66" t="str">
+        <v>7.7714285714285722</v>
+      </c>
+      <c r="AF30" s="66">
         <f>CRS!N30</f>
-        <v/>
-      </c>
-      <c r="AG30" s="64" t="str">
+        <v>43.129047619047626</v>
+      </c>
+      <c r="AG30" s="64">
         <f>CRS!O30</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH30" s="374"/>
       <c r="AI30" s="372"/>
@@ -28187,22 +28271,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC32" s="111"/>
-      <c r="AD32" s="67" t="str">
+      <c r="AC32" s="111">
+        <v>18</v>
+      </c>
+      <c r="AD32" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE32" s="112" t="str">
+        <v>17.142857142857142</v>
+      </c>
+      <c r="AE32" s="112">
         <f>CRS!M32</f>
-        <v/>
-      </c>
-      <c r="AF32" s="66" t="str">
+        <v>5.8285714285714292</v>
+      </c>
+      <c r="AF32" s="66">
         <f>CRS!N32</f>
-        <v/>
-      </c>
-      <c r="AG32" s="64" t="str">
+        <v>27.995952380952382</v>
+      </c>
+      <c r="AG32" s="64">
         <f>CRS!O32</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="AH32" s="374"/>
       <c r="AI32" s="372"/>
@@ -28409,22 +28495,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC35" s="111"/>
-      <c r="AD35" s="67" t="str">
+      <c r="AC35" s="111">
+        <v>27</v>
+      </c>
+      <c r="AD35" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE35" s="112" t="str">
+        <v>25.714285714285712</v>
+      </c>
+      <c r="AE35" s="112">
         <f>CRS!M35</f>
-        <v/>
-      </c>
-      <c r="AF35" s="66" t="str">
+        <v>8.742857142857142</v>
+      </c>
+      <c r="AF35" s="66">
         <f>CRS!N35</f>
-        <v/>
-      </c>
-      <c r="AG35" s="64" t="str">
+        <v>42.940178571428575</v>
+      </c>
+      <c r="AG35" s="64">
         <f>CRS!O35</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH35" s="374"/>
       <c r="AI35" s="372"/>
@@ -28634,22 +28722,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC38" s="111"/>
-      <c r="AD38" s="67" t="str">
+      <c r="AC38" s="111">
+        <v>33</v>
+      </c>
+      <c r="AD38" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE38" s="112" t="str">
+        <v>31.428571428571427</v>
+      </c>
+      <c r="AE38" s="112">
         <f>CRS!M38</f>
-        <v/>
-      </c>
-      <c r="AF38" s="66" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="AF38" s="66">
         <f>CRS!N38</f>
-        <v/>
-      </c>
-      <c r="AG38" s="64" t="str">
+        <v>45.439523809523806</v>
+      </c>
+      <c r="AG38" s="64">
         <f>CRS!O38</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="AH38" s="374"/>
       <c r="AI38" s="372"/>
@@ -29096,17 +29186,17 @@
       <c r="B46" s="324"/>
       <c r="C46" s="325"/>
       <c r="D46" s="325"/>
-      <c r="E46" s="57" t="str">
+      <c r="E46" s="57">
         <f t="shared" ref="E46:N47" si="5">IF(E5="","",E5)</f>
-        <v/>
-      </c>
-      <c r="F46" s="57" t="str">
+        <v>20</v>
+      </c>
+      <c r="F46" s="57">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G46" s="57" t="str">
+        <v>20</v>
+      </c>
+      <c r="G46" s="57">
         <f t="shared" si="5"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="H46" s="57" t="str">
         <f t="shared" si="5"/>
@@ -29138,21 +29228,21 @@
       </c>
       <c r="O46" s="340"/>
       <c r="P46" s="311"/>
-      <c r="Q46" s="57" t="str">
+      <c r="Q46" s="57">
         <f>IF(Q5="","",Q5)</f>
-        <v/>
-      </c>
-      <c r="R46" s="57" t="str">
+        <v>40</v>
+      </c>
+      <c r="R46" s="57">
         <f t="shared" ref="R46:Z46" si="6">IF(R5="","",R5)</f>
-        <v/>
-      </c>
-      <c r="S46" s="57" t="str">
+        <v>40</v>
+      </c>
+      <c r="S46" s="57">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="T46" s="57" t="str">
+        <v>40</v>
+      </c>
+      <c r="T46" s="57">
         <f t="shared" si="6"/>
-        <v/>
+        <v>40</v>
       </c>
       <c r="U46" s="57" t="str">
         <f t="shared" si="6"/>
@@ -29180,9 +29270,9 @@
       </c>
       <c r="AA46" s="341"/>
       <c r="AB46" s="312"/>
-      <c r="AC46" s="57" t="str">
+      <c r="AC46" s="57">
         <f>IF(AC5="","",AC5)</f>
-        <v/>
+        <v>105</v>
       </c>
       <c r="AD46" s="349"/>
       <c r="AE46" s="375"/>
@@ -29242,26 +29332,26 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O47" s="369" t="str">
+      <c r="O47" s="369">
         <f>O6</f>
-        <v/>
+        <v>60</v>
       </c>
       <c r="P47" s="311"/>
       <c r="Q47" s="317" t="str">
         <f t="shared" ref="Q47:Z47" si="7">IF(Q6="","",Q6)</f>
-        <v/>
+        <v>MLAB01</v>
       </c>
       <c r="R47" s="317" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>MLAB02</v>
       </c>
       <c r="S47" s="317" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>MLAB03</v>
       </c>
       <c r="T47" s="317" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>MLAB04</v>
       </c>
       <c r="U47" s="317" t="str">
         <f t="shared" si="7"/>
@@ -29287,9 +29377,9 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA47" s="369" t="str">
+      <c r="AA47" s="369">
         <f>AA6</f>
-        <v/>
+        <v>160</v>
       </c>
       <c r="AB47" s="312"/>
       <c r="AC47" s="308">
@@ -29439,22 +29529,24 @@
         <f t="shared" ref="AB50:AB80" si="11">IF(AA50="","",AA50/$AA$6*100)</f>
         <v/>
       </c>
-      <c r="AC50" s="111"/>
-      <c r="AD50" s="67" t="str">
+      <c r="AC50" s="111">
+        <v>33</v>
+      </c>
+      <c r="AD50" s="67">
         <f t="shared" ref="AD50:AD80" si="12">IF(AC50="","",AC50/$AC$5*100)</f>
-        <v/>
-      </c>
-      <c r="AE50" s="112" t="str">
+        <v>31.428571428571427</v>
+      </c>
+      <c r="AE50" s="112">
         <f>CRS!M50</f>
-        <v/>
-      </c>
-      <c r="AF50" s="66" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="AF50" s="66">
         <f>CRS!N50</f>
-        <v/>
-      </c>
-      <c r="AG50" s="64" t="str">
+        <v>21.642857142857146</v>
+      </c>
+      <c r="AG50" s="64">
         <f>CRS!O50</f>
-        <v/>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29509,22 +29601,24 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AC51" s="111"/>
-      <c r="AD51" s="67" t="str">
+      <c r="AC51" s="111">
+        <v>33</v>
+      </c>
+      <c r="AD51" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AE51" s="112" t="str">
+        <v>31.428571428571427</v>
+      </c>
+      <c r="AE51" s="112">
         <f>CRS!M51</f>
-        <v/>
-      </c>
-      <c r="AF51" s="66" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="AF51" s="66">
         <f>CRS!N51</f>
-        <v/>
-      </c>
-      <c r="AG51" s="64" t="str">
+        <v>33.369523809523812</v>
+      </c>
+      <c r="AG51" s="64">
         <f>CRS!O51</f>
-        <v/>
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29543,9 +29637,15 @@
         <f>CRS!D52</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
+      <c r="E52" s="109">
+        <v>20</v>
+      </c>
+      <c r="F52" s="109">
+        <v>20</v>
+      </c>
+      <c r="G52" s="109">
+        <v>20</v>
+      </c>
       <c r="H52" s="109"/>
       <c r="I52" s="109"/>
       <c r="J52" s="109"/>
@@ -29553,48 +29653,58 @@
       <c r="L52" s="109"/>
       <c r="M52" s="109"/>
       <c r="N52" s="109"/>
-      <c r="O52" s="60" t="str">
+      <c r="O52" s="60">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="P52" s="67" t="str">
+        <v>60</v>
+      </c>
+      <c r="P52" s="67">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="109"/>
-      <c r="S52" s="109"/>
-      <c r="T52" s="109"/>
+        <v>100</v>
+      </c>
+      <c r="Q52" s="109">
+        <v>40</v>
+      </c>
+      <c r="R52" s="109">
+        <v>40</v>
+      </c>
+      <c r="S52" s="109">
+        <v>40</v>
+      </c>
+      <c r="T52" s="109">
+        <v>40</v>
+      </c>
       <c r="U52" s="109"/>
       <c r="V52" s="109"/>
       <c r="W52" s="109"/>
       <c r="X52" s="109"/>
       <c r="Y52" s="109"/>
       <c r="Z52" s="109"/>
-      <c r="AA52" s="60" t="str">
+      <c r="AA52" s="60">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB52" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB52" s="67">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="AC52" s="111"/>
-      <c r="AD52" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC52" s="111">
+        <v>54</v>
+      </c>
+      <c r="AD52" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AE52" s="112" t="str">
+        <v>51.428571428571423</v>
+      </c>
+      <c r="AE52" s="112">
         <f>CRS!M52</f>
-        <v/>
-      </c>
-      <c r="AF52" s="66" t="str">
+        <v>83.48571428571428</v>
+      </c>
+      <c r="AF52" s="66">
         <f>CRS!N52</f>
-        <v/>
-      </c>
-      <c r="AG52" s="64" t="str">
+        <v>89.67619047619047</v>
+      </c>
+      <c r="AG52" s="64">
         <f>CRS!O52</f>
-        <v/>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29719,22 +29829,24 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AC54" s="111"/>
-      <c r="AD54" s="67" t="str">
+      <c r="AC54" s="111">
+        <v>24</v>
+      </c>
+      <c r="AD54" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AE54" s="112" t="str">
+        <v>22.857142857142858</v>
+      </c>
+      <c r="AE54" s="112">
         <f>CRS!M54</f>
-        <v/>
-      </c>
-      <c r="AF54" s="66" t="str">
+        <v>7.7714285714285722</v>
+      </c>
+      <c r="AF54" s="66">
         <f>CRS!N54</f>
-        <v/>
-      </c>
-      <c r="AG54" s="64" t="str">
+        <v>30.120714285714286</v>
+      </c>
+      <c r="AG54" s="64">
         <f>CRS!O54</f>
-        <v/>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29789,22 +29901,24 @@
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="AC55" s="111"/>
-      <c r="AD55" s="67" t="str">
+      <c r="AC55" s="111">
+        <v>18</v>
+      </c>
+      <c r="AD55" s="67">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="AE55" s="112" t="str">
+        <v>17.142857142857142</v>
+      </c>
+      <c r="AE55" s="112">
         <f>CRS!M55</f>
-        <v/>
-      </c>
-      <c r="AF55" s="66" t="str">
+        <v>5.8285714285714292</v>
+      </c>
+      <c r="AF55" s="66">
         <f>CRS!N55</f>
-        <v/>
-      </c>
-      <c r="AG55" s="64" t="str">
+        <v>35.89261904761905</v>
+      </c>
+      <c r="AG55" s="64">
         <f>CRS!O55</f>
-        <v/>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -32000,7 +32114,7 @@
     <mergeCell ref="AA47:AA49"/>
     <mergeCell ref="AD46:AD49"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="21">
+  <dataValidations count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="AC9:AC40 AC50:AC80">
       <formula1>$AC$5</formula1>
     </dataValidation>
@@ -38401,9 +38515,9 @@
         <v>83</v>
       </c>
       <c r="J15" s="145"/>
-      <c r="K15" s="144" t="str">
+      <c r="K15" s="144">
         <f>IF(CRS!O9="","",CRS!O9)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L15" s="146"/>
       <c r="M15" s="144" t="str">
@@ -38637,9 +38751,9 @@
         <v>97</v>
       </c>
       <c r="J19" s="145"/>
-      <c r="K19" s="144" t="str">
+      <c r="K19" s="144">
         <f>IF(CRS!O13="","",CRS!O13)</f>
-        <v/>
+        <v>95</v>
       </c>
       <c r="L19" s="146"/>
       <c r="M19" s="144" t="str">
@@ -38755,9 +38869,9 @@
         <v>74</v>
       </c>
       <c r="J21" s="145"/>
-      <c r="K21" s="144" t="str">
+      <c r="K21" s="144">
         <f>IF(CRS!O15="","",CRS!O15)</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="L21" s="146"/>
       <c r="M21" s="144" t="str">
@@ -38873,9 +38987,9 @@
         <v>79</v>
       </c>
       <c r="J23" s="145"/>
-      <c r="K23" s="144" t="str">
+      <c r="K23" s="144">
         <f>IF(CRS!O17="","",CRS!O17)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L23" s="146"/>
       <c r="M23" s="144" t="str">
@@ -38991,9 +39105,9 @@
         <v>71</v>
       </c>
       <c r="J25" s="145"/>
-      <c r="K25" s="144" t="str">
+      <c r="K25" s="144">
         <f>IF(CRS!O19="","",CRS!O19)</f>
-        <v/>
+        <v>71</v>
       </c>
       <c r="L25" s="146"/>
       <c r="M25" s="144" t="str">
@@ -39050,9 +39164,9 @@
         <v>93</v>
       </c>
       <c r="J26" s="145"/>
-      <c r="K26" s="144" t="str">
+      <c r="K26" s="144">
         <f>IF(CRS!O20="","",CRS!O20)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L26" s="146"/>
       <c r="M26" s="144" t="str">
@@ -39168,9 +39282,9 @@
         <v>92</v>
       </c>
       <c r="J28" s="145"/>
-      <c r="K28" s="144" t="str">
+      <c r="K28" s="144">
         <f>IF(CRS!O22="","",CRS!O22)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L28" s="146"/>
       <c r="M28" s="144" t="str">
@@ -39286,9 +39400,9 @@
         <v>88</v>
       </c>
       <c r="J30" s="145"/>
-      <c r="K30" s="144" t="str">
+      <c r="K30" s="144">
         <f>IF(CRS!O24="","",CRS!O24)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L30" s="146"/>
       <c r="M30" s="144" t="str">
@@ -39345,9 +39459,9 @@
         <v>84</v>
       </c>
       <c r="J31" s="145"/>
-      <c r="K31" s="144" t="str">
+      <c r="K31" s="144">
         <f>IF(CRS!O25="","",CRS!O25)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L31" s="146"/>
       <c r="M31" s="144" t="str">
@@ -39404,9 +39518,9 @@
         <v>90</v>
       </c>
       <c r="J32" s="145"/>
-      <c r="K32" s="144" t="str">
+      <c r="K32" s="144">
         <f>IF(CRS!O26="","",CRS!O26)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L32" s="146"/>
       <c r="M32" s="144" t="str">
@@ -39522,9 +39636,9 @@
         <v/>
       </c>
       <c r="J34" s="145"/>
-      <c r="K34" s="144" t="str">
+      <c r="K34" s="144" t="e">
         <f>IF(CRS!O28="","",CRS!O28)</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="L34" s="146"/>
       <c r="M34" s="144" t="str">
@@ -39640,9 +39754,9 @@
         <v>89</v>
       </c>
       <c r="J36" s="145"/>
-      <c r="K36" s="144" t="str">
+      <c r="K36" s="144">
         <f>IF(CRS!O30="","",CRS!O30)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L36" s="146"/>
       <c r="M36" s="144" t="str">
@@ -39758,9 +39872,9 @@
         <v>75</v>
       </c>
       <c r="J38" s="145"/>
-      <c r="K38" s="144" t="str">
+      <c r="K38" s="144">
         <f>IF(CRS!O32="","",CRS!O32)</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="L38" s="146"/>
       <c r="M38" s="144" t="str">
@@ -39935,9 +40049,9 @@
         <v>89</v>
       </c>
       <c r="J41" s="145"/>
-      <c r="K41" s="144" t="str">
+      <c r="K41" s="144">
         <f>IF(CRS!O35="","",CRS!O35)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L41" s="146"/>
       <c r="M41" s="144" t="str">
@@ -40112,9 +40226,9 @@
         <v>90</v>
       </c>
       <c r="J44" s="145"/>
-      <c r="K44" s="144" t="str">
+      <c r="K44" s="144">
         <f>IF(CRS!O38="","",CRS!O38)</f>
-        <v/>
+        <v>74</v>
       </c>
       <c r="L44" s="146"/>
       <c r="M44" s="144" t="str">
@@ -40802,9 +40916,9 @@
         <v>73</v>
       </c>
       <c r="J76" s="145"/>
-      <c r="K76" s="144" t="str">
+      <c r="K76" s="144">
         <f>IF(CRS!O50="","",CRS!O50)</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="L76" s="146"/>
       <c r="M76" s="144" t="str">
@@ -40861,9 +40975,9 @@
         <v>78</v>
       </c>
       <c r="J77" s="145"/>
-      <c r="K77" s="144" t="str">
+      <c r="K77" s="144">
         <f>IF(CRS!O51="","",CRS!O51)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L77" s="146"/>
       <c r="M77" s="144" t="str">
@@ -40920,9 +41034,9 @@
         <v>98</v>
       </c>
       <c r="J78" s="145"/>
-      <c r="K78" s="144" t="str">
+      <c r="K78" s="144">
         <f>IF(CRS!O52="","",CRS!O52)</f>
-        <v/>
+        <v>95</v>
       </c>
       <c r="L78" s="146"/>
       <c r="M78" s="144" t="str">
@@ -41038,9 +41152,9 @@
         <v>76</v>
       </c>
       <c r="J80" s="145"/>
-      <c r="K80" s="144" t="str">
+      <c r="K80" s="144">
         <f>IF(CRS!O54="","",CRS!O54)</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="L80" s="146"/>
       <c r="M80" s="144" t="str">
@@ -41097,9 +41211,9 @@
         <v>83</v>
       </c>
       <c r="J81" s="145"/>
-      <c r="K81" s="144" t="str">
+      <c r="K81" s="144">
         <f>IF(CRS!O55="","",CRS!O55)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L81" s="146"/>
       <c r="M81" s="144" t="str">

--- a/2T1617CR/2T1617 - CITCS-ICS2-CITCS INTL 3.xlsx
+++ b/2T1617CR/2T1617 - CITCS-ICS2-CITCS INTL 3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard Reyes\Desktop\ClassRecords\2T1617CR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT FILES\ClassRecords\2T1617CR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="INITIAL INPUT" sheetId="1" r:id="rId1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="261">
   <si>
     <t>J</t>
   </si>
@@ -957,6 +957,21 @@
   </si>
   <si>
     <t>MLAB04</t>
+  </si>
+  <si>
+    <t>SW 021517</t>
+  </si>
+  <si>
+    <t>SW 030317</t>
+  </si>
+  <si>
+    <t>SW 030117</t>
+  </si>
+  <si>
+    <t>SW 022117</t>
+  </si>
+  <si>
+    <t>SW 022417</t>
   </si>
 </sst>
 </file>
@@ -11175,7 +11190,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B39"/>
     </sheetView>
   </sheetViews>
@@ -12123,8 +12138,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y135"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="B2" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -12493,23 +12508,23 @@
       </c>
       <c r="G9" s="83">
         <f>IF(PRELIM!AD9="","",$G$8*PRELIM!AD9)</f>
-        <v>17.34</v>
+        <v>13.940000000000001</v>
       </c>
       <c r="H9" s="84">
         <f t="shared" ref="H9:H40" si="0">IF(SUM(E9:G9)=0,"",SUM(E9:G9))</f>
-        <v>66.931666666666672</v>
+        <v>63.531666666666666</v>
       </c>
       <c r="I9" s="85">
         <f>IF(H9="","",VLOOKUP(H9,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>83</v>
-      </c>
-      <c r="J9" s="83" t="str">
+        <v>82</v>
+      </c>
+      <c r="J9" s="83">
         <f>IF(MIDTERM!P9="","",$J$8*MIDTERM!P9)</f>
-        <v/>
-      </c>
-      <c r="K9" s="83" t="str">
+        <v>29.700000000000003</v>
+      </c>
+      <c r="K9" s="83">
         <f>IF(MIDTERM!AB9="","",$K$8*MIDTERM!AB9)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L9" s="83">
         <f>IF(MIDTERM!AD9="","",$L$8*MIDTERM!AD9)</f>
@@ -12517,15 +12532,15 @@
       </c>
       <c r="M9" s="86">
         <f>IF(SUM(J9:L9)=0,"",SUM(J9:L9))</f>
-        <v>6.8000000000000007</v>
+        <v>69.5</v>
       </c>
       <c r="N9" s="87">
         <f>IF(M9="","",('INITIAL INPUT'!$J$25*CRS!H9+'INITIAL INPUT'!$K$25*CRS!M9))</f>
-        <v>36.865833333333335</v>
+        <v>66.515833333333333</v>
       </c>
       <c r="O9" s="85">
         <f>IF(N9="","",VLOOKUP(N9,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P9" s="83" t="str">
         <f>IF(FINAL!P9="","",CRS!$P$8*FINAL!P9)</f>
@@ -12584,11 +12599,11 @@
       </c>
       <c r="G10" s="83">
         <f>IF(PRELIM!AD10="","",$G$8*PRELIM!AD10)</f>
-        <v>9.5200000000000014</v>
+        <v>9.1800000000000015</v>
       </c>
       <c r="H10" s="84">
         <f t="shared" si="0"/>
-        <v>47.653333333333329</v>
+        <v>47.313333333333325</v>
       </c>
       <c r="I10" s="85">
         <f>IF(H10="","",VLOOKUP(H10,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -12772,11 +12787,11 @@
       </c>
       <c r="G12" s="83">
         <f>IF(PRELIM!AD12="","",$G$8*PRELIM!AD12)</f>
-        <v>19.040000000000003</v>
+        <v>15.64</v>
       </c>
       <c r="H12" s="84">
         <f t="shared" si="0"/>
-        <v>40.948333333333338</v>
+        <v>37.548333333333332</v>
       </c>
       <c r="I12" s="85">
         <f>IF(H12="","",VLOOKUP(H12,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -12790,21 +12805,21 @@
         <f>IF(MIDTERM!AB12="","",$K$8*MIDTERM!AB12)</f>
         <v/>
       </c>
-      <c r="L12" s="83" t="str">
+      <c r="L12" s="83">
         <f>IF(MIDTERM!AD12="","",$L$8*MIDTERM!AD12)</f>
-        <v/>
-      </c>
-      <c r="M12" s="86" t="str">
+        <v>8.742857142857142</v>
+      </c>
+      <c r="M12" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N12" s="87" t="str">
+        <v>8.742857142857142</v>
+      </c>
+      <c r="N12" s="87">
         <f>IF(M12="","",('INITIAL INPUT'!$J$25*CRS!H12+'INITIAL INPUT'!$K$25*CRS!M12))</f>
-        <v/>
-      </c>
-      <c r="O12" s="85" t="str">
+        <v>23.145595238095236</v>
+      </c>
+      <c r="O12" s="85">
         <f>IF(N12="","",VLOOKUP(N12,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="P12" s="83" t="str">
         <f>IF(FINAL!P12="","",CRS!$P$8*FINAL!P12)</f>
@@ -12866,15 +12881,15 @@
       </c>
       <c r="G13" s="83">
         <f>IF(PRELIM!AD13="","",$G$8*PRELIM!AD13)</f>
-        <v>28.560000000000002</v>
+        <v>25.16</v>
       </c>
       <c r="H13" s="84">
         <f t="shared" si="0"/>
-        <v>94.56</v>
+        <v>91.16</v>
       </c>
       <c r="I13" s="85">
         <f>IF(H13="","",VLOOKUP(H13,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J13" s="83">
         <f>IF(MIDTERM!P13="","",$J$8*MIDTERM!P13)</f>
@@ -12894,11 +12909,11 @@
       </c>
       <c r="N13" s="87">
         <f>IF(M13="","",('INITIAL INPUT'!$J$25*CRS!H13+'INITIAL INPUT'!$K$25*CRS!M13))</f>
-        <v>90.48</v>
+        <v>88.78</v>
       </c>
       <c r="O13" s="85">
         <f>IF(N13="","",VLOOKUP(N13,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P13" s="83" t="str">
         <f>IF(FINAL!P13="","",CRS!$P$8*FINAL!P13)</f>
@@ -13054,23 +13069,23 @@
       </c>
       <c r="G15" s="83">
         <f>IF(PRELIM!AD15="","",$G$8*PRELIM!AD15)</f>
-        <v>18.700000000000003</v>
+        <v>15.3</v>
       </c>
       <c r="H15" s="84">
         <f t="shared" si="0"/>
-        <v>47.116666666666674</v>
+        <v>43.716666666666669</v>
       </c>
       <c r="I15" s="85">
         <f>IF(H15="","",VLOOKUP(H15,'INITIAL INPUT'!$P$4:$R$34,3))</f>
         <v>74</v>
       </c>
-      <c r="J15" s="83" t="str">
+      <c r="J15" s="83">
         <f>IF(MIDTERM!P15="","",$J$8*MIDTERM!P15)</f>
-        <v/>
-      </c>
-      <c r="K15" s="83" t="str">
+        <v>23.1</v>
+      </c>
+      <c r="K15" s="83">
         <f>IF(MIDTERM!AB15="","",$K$8*MIDTERM!AB15)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L15" s="83">
         <f>IF(MIDTERM!AD15="","",$L$8*MIDTERM!AD15)</f>
@@ -13078,15 +13093,15 @@
       </c>
       <c r="M15" s="86">
         <f t="shared" si="2"/>
-        <v>5.8285714285714292</v>
+        <v>61.928571428571431</v>
       </c>
       <c r="N15" s="87">
         <f>IF(M15="","",('INITIAL INPUT'!$J$25*CRS!H15+'INITIAL INPUT'!$K$25*CRS!M15))</f>
-        <v>26.472619047619052</v>
+        <v>52.82261904761905</v>
       </c>
       <c r="O15" s="85">
         <f>IF(N15="","",VLOOKUP(N15,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P15" s="83" t="str">
         <f>IF(FINAL!P15="","",CRS!$P$8*FINAL!P15)</f>
@@ -13252,13 +13267,13 @@
         <f>IF(H17="","",VLOOKUP(H17,'INITIAL INPUT'!$P$4:$R$34,3))</f>
         <v>79</v>
       </c>
-      <c r="J17" s="83" t="str">
+      <c r="J17" s="83">
         <f>IF(MIDTERM!P17="","",$J$8*MIDTERM!P17)</f>
-        <v/>
-      </c>
-      <c r="K17" s="83" t="str">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="K17" s="83">
         <f>IF(MIDTERM!AB17="","",$K$8*MIDTERM!AB17)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L17" s="83">
         <f>IF(MIDTERM!AD17="","",$L$8*MIDTERM!AD17)</f>
@@ -13266,15 +13281,15 @@
       </c>
       <c r="M17" s="86">
         <f t="shared" si="2"/>
-        <v>9.7142857142857135</v>
+        <v>46.014285714285712</v>
       </c>
       <c r="N17" s="87">
         <f>IF(M17="","",('INITIAL INPUT'!$J$25*CRS!H17+'INITIAL INPUT'!$K$25*CRS!M17))</f>
-        <v>33.896726190476194</v>
+        <v>52.046726190476193</v>
       </c>
       <c r="O17" s="85">
         <f>IF(N17="","",VLOOKUP(N17,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P17" s="83" t="str">
         <f>IF(FINAL!P17="","",CRS!$P$8*FINAL!P17)</f>
@@ -13336,19 +13351,19 @@
       </c>
       <c r="G18" s="83">
         <f>IF(PRELIM!AD18="","",$G$8*PRELIM!AD18)</f>
-        <v>25.500000000000004</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="H18" s="84">
         <f t="shared" si="0"/>
-        <v>65.650000000000006</v>
+        <v>50.35</v>
       </c>
       <c r="I18" s="85">
         <f>IF(H18="","",VLOOKUP(H18,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>83</v>
-      </c>
-      <c r="J18" s="83" t="str">
+        <v>75</v>
+      </c>
+      <c r="J18" s="83">
         <f>IF(MIDTERM!P18="","",$J$8*MIDTERM!P18)</f>
-        <v/>
+        <v>9.9</v>
       </c>
       <c r="K18" s="83" t="str">
         <f>IF(MIDTERM!AB18="","",$K$8*MIDTERM!AB18)</f>
@@ -13358,17 +13373,17 @@
         <f>IF(MIDTERM!AD18="","",$L$8*MIDTERM!AD18)</f>
         <v/>
       </c>
-      <c r="M18" s="86" t="str">
+      <c r="M18" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N18" s="87" t="str">
+        <v>9.9</v>
+      </c>
+      <c r="N18" s="87">
         <f>IF(M18="","",('INITIAL INPUT'!$J$25*CRS!H18+'INITIAL INPUT'!$K$25*CRS!M18))</f>
-        <v/>
-      </c>
-      <c r="O18" s="85" t="str">
+        <v>30.125</v>
+      </c>
+      <c r="O18" s="85">
         <f>IF(N18="","",VLOOKUP(N18,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="P18" s="83" t="str">
         <f>IF(FINAL!P18="","",CRS!$P$8*FINAL!P18)</f>
@@ -13430,23 +13445,23 @@
       </c>
       <c r="G19" s="83">
         <f>IF(PRELIM!AD19="","",$G$8*PRELIM!AD19)</f>
-        <v>14.280000000000001</v>
+        <v>10.88</v>
       </c>
       <c r="H19" s="84">
         <f t="shared" si="0"/>
-        <v>17.946666666666669</v>
+        <v>14.546666666666667</v>
       </c>
       <c r="I19" s="85">
         <f>IF(H19="","",VLOOKUP(H19,'INITIAL INPUT'!$P$4:$R$34,3))</f>
         <v>71</v>
       </c>
-      <c r="J19" s="83" t="str">
+      <c r="J19" s="83">
         <f>IF(MIDTERM!P19="","",$J$8*MIDTERM!P19)</f>
-        <v/>
-      </c>
-      <c r="K19" s="83" t="str">
+        <v>19.8</v>
+      </c>
+      <c r="K19" s="83">
         <f>IF(MIDTERM!AB19="","",$K$8*MIDTERM!AB19)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L19" s="83">
         <f>IF(MIDTERM!AD19="","",$L$8*MIDTERM!AD19)</f>
@@ -13454,15 +13469,15 @@
       </c>
       <c r="M19" s="86">
         <f t="shared" si="2"/>
-        <v>12.62857142857143</v>
+        <v>65.428571428571431</v>
       </c>
       <c r="N19" s="87">
         <f>IF(M19="","",('INITIAL INPUT'!$J$25*CRS!H19+'INITIAL INPUT'!$K$25*CRS!M19))</f>
-        <v>15.287619047619049</v>
+        <v>39.987619047619049</v>
       </c>
       <c r="O19" s="85">
         <f>IF(N19="","",VLOOKUP(N19,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P19" s="83" t="str">
         <f>IF(FINAL!P19="","",CRS!$P$8*FINAL!P19)</f>
@@ -13524,23 +13539,23 @@
       </c>
       <c r="G20" s="83">
         <f>IF(PRELIM!AD20="","",$G$8*PRELIM!AD20)</f>
-        <v>24.82</v>
+        <v>21.42</v>
       </c>
       <c r="H20" s="84">
         <f t="shared" si="0"/>
-        <v>86.053333333333342</v>
+        <v>82.653333333333336</v>
       </c>
       <c r="I20" s="85">
         <f>IF(H20="","",VLOOKUP(H20,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>93</v>
-      </c>
-      <c r="J20" s="83" t="str">
+        <v>91</v>
+      </c>
+      <c r="J20" s="83">
         <f>IF(MIDTERM!P20="","",$J$8*MIDTERM!P20)</f>
-        <v/>
-      </c>
-      <c r="K20" s="83" t="str">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="K20" s="83">
         <f>IF(MIDTERM!AB20="","",$K$8*MIDTERM!AB20)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L20" s="83">
         <f>IF(MIDTERM!AD20="","",$L$8*MIDTERM!AD20)</f>
@@ -13548,15 +13563,15 @@
       </c>
       <c r="M20" s="86">
         <f t="shared" si="2"/>
-        <v>8.742857142857142</v>
+        <v>54.942857142857143</v>
       </c>
       <c r="N20" s="87">
         <f>IF(M20="","",('INITIAL INPUT'!$J$25*CRS!H20+'INITIAL INPUT'!$K$25*CRS!M20))</f>
-        <v>47.398095238095244</v>
+        <v>68.798095238095243</v>
       </c>
       <c r="O20" s="85">
         <f>IF(N20="","",VLOOKUP(N20,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P20" s="83" t="str">
         <f>IF(FINAL!P20="","",CRS!$P$8*FINAL!P20)</f>
@@ -13712,23 +13727,23 @@
       </c>
       <c r="G22" s="83">
         <f>IF(PRELIM!AD22="","",$G$8*PRELIM!AD22)</f>
-        <v>21.42</v>
+        <v>18.02</v>
       </c>
       <c r="H22" s="84">
         <f t="shared" si="0"/>
-        <v>83.75333333333333</v>
+        <v>80.353333333333325</v>
       </c>
       <c r="I22" s="85">
         <f>IF(H22="","",VLOOKUP(H22,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>92</v>
-      </c>
-      <c r="J22" s="83" t="str">
+        <v>90</v>
+      </c>
+      <c r="J22" s="83">
         <f>IF(MIDTERM!P22="","",$J$8*MIDTERM!P22)</f>
-        <v/>
-      </c>
-      <c r="K22" s="83" t="str">
+        <v>26.400000000000002</v>
+      </c>
+      <c r="K22" s="83">
         <f>IF(MIDTERM!AB22="","",$K$8*MIDTERM!AB22)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L22" s="83">
         <f>IF(MIDTERM!AD22="","",$L$8*MIDTERM!AD22)</f>
@@ -13736,15 +13751,15 @@
       </c>
       <c r="M22" s="86">
         <f t="shared" si="2"/>
-        <v>12.62857142857143</v>
+        <v>72.028571428571439</v>
       </c>
       <c r="N22" s="87">
         <f>IF(M22="","",('INITIAL INPUT'!$J$25*CRS!H22+'INITIAL INPUT'!$K$25*CRS!M22))</f>
-        <v>48.190952380952382</v>
+        <v>76.190952380952382</v>
       </c>
       <c r="O22" s="85">
         <f>IF(N22="","",VLOOKUP(N22,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="P22" s="83" t="str">
         <f>IF(FINAL!P22="","",CRS!$P$8*FINAL!P22)</f>
@@ -13806,11 +13821,11 @@
       </c>
       <c r="G23" s="83">
         <f>IF(PRELIM!AD23="","",$G$8*PRELIM!AD23)</f>
-        <v>13.600000000000001</v>
+        <v>10.200000000000001</v>
       </c>
       <c r="H23" s="84">
         <f t="shared" si="0"/>
-        <v>47.837499999999999</v>
+        <v>44.4375</v>
       </c>
       <c r="I23" s="85">
         <f>IF(H23="","",VLOOKUP(H23,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -13900,23 +13915,23 @@
       </c>
       <c r="G24" s="83">
         <f>IF(PRELIM!AD24="","",$G$8*PRELIM!AD24)</f>
-        <v>16.32</v>
+        <v>12.920000000000002</v>
       </c>
       <c r="H24" s="84">
         <f t="shared" si="0"/>
-        <v>76.865833333333342</v>
+        <v>73.465833333333336</v>
       </c>
       <c r="I24" s="85">
         <f>IF(H24="","",VLOOKUP(H24,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>88</v>
-      </c>
-      <c r="J24" s="83" t="str">
+        <v>87</v>
+      </c>
+      <c r="J24" s="83">
         <f>IF(MIDTERM!P24="","",$J$8*MIDTERM!P24)</f>
-        <v/>
-      </c>
-      <c r="K24" s="83" t="str">
+        <v>23.1</v>
+      </c>
+      <c r="K24" s="83">
         <f>IF(MIDTERM!AB24="","",$K$8*MIDTERM!AB24)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L24" s="83">
         <f>IF(MIDTERM!AD24="","",$L$8*MIDTERM!AD24)</f>
@@ -13924,15 +13939,15 @@
       </c>
       <c r="M24" s="86">
         <f t="shared" si="2"/>
-        <v>6.8000000000000007</v>
+        <v>62.900000000000006</v>
       </c>
       <c r="N24" s="87">
         <f>IF(M24="","",('INITIAL INPUT'!$J$25*CRS!H24+'INITIAL INPUT'!$K$25*CRS!M24))</f>
-        <v>41.832916666666669</v>
+        <v>68.182916666666671</v>
       </c>
       <c r="O24" s="85">
         <f>IF(N24="","",VLOOKUP(N24,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P24" s="83" t="str">
         <f>IF(FINAL!P24="","",CRS!$P$8*FINAL!P24)</f>
@@ -13994,23 +14009,23 @@
       </c>
       <c r="G25" s="83">
         <f>IF(PRELIM!AD25="","",$G$8*PRELIM!AD25)</f>
-        <v>24.82</v>
+        <v>21.42</v>
       </c>
       <c r="H25" s="84">
         <f t="shared" si="0"/>
-        <v>68.132499999999993</v>
+        <v>64.732500000000002</v>
       </c>
       <c r="I25" s="85">
         <f>IF(H25="","",VLOOKUP(H25,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>84</v>
-      </c>
-      <c r="J25" s="83" t="str">
+        <v>82</v>
+      </c>
+      <c r="J25" s="83">
         <f>IF(MIDTERM!P25="","",$J$8*MIDTERM!P25)</f>
-        <v/>
-      </c>
-      <c r="K25" s="83" t="str">
+        <v>23.1</v>
+      </c>
+      <c r="K25" s="83">
         <f>IF(MIDTERM!AB25="","",$K$8*MIDTERM!AB25)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L25" s="83">
         <f>IF(MIDTERM!AD25="","",$L$8*MIDTERM!AD25)</f>
@@ -14018,15 +14033,15 @@
       </c>
       <c r="M25" s="86">
         <f t="shared" si="2"/>
-        <v>11.657142857142858</v>
+        <v>67.757142857142867</v>
       </c>
       <c r="N25" s="87">
         <f>IF(M25="","",('INITIAL INPUT'!$J$25*CRS!H25+'INITIAL INPUT'!$K$25*CRS!M25))</f>
-        <v>39.894821428571426</v>
+        <v>66.244821428571441</v>
       </c>
       <c r="O25" s="85">
         <f>IF(N25="","",VLOOKUP(N25,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="P25" s="83" t="str">
         <f>IF(FINAL!P25="","",CRS!$P$8*FINAL!P25)</f>
@@ -14088,23 +14103,23 @@
       </c>
       <c r="G26" s="83">
         <f>IF(PRELIM!AD26="","",$G$8*PRELIM!AD26)</f>
-        <v>20.400000000000002</v>
+        <v>17</v>
       </c>
       <c r="H26" s="84">
         <f t="shared" si="0"/>
-        <v>79.479166666666671</v>
+        <v>76.079166666666666</v>
       </c>
       <c r="I26" s="85">
         <f>IF(H26="","",VLOOKUP(H26,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>90</v>
-      </c>
-      <c r="J26" s="83" t="str">
+        <v>88</v>
+      </c>
+      <c r="J26" s="83">
         <f>IF(MIDTERM!P26="","",$J$8*MIDTERM!P26)</f>
-        <v/>
-      </c>
-      <c r="K26" s="83" t="str">
+        <v>4.95</v>
+      </c>
+      <c r="K26" s="83">
         <f>IF(MIDTERM!AB26="","",$K$8*MIDTERM!AB26)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L26" s="83">
         <f>IF(MIDTERM!AD26="","",$L$8*MIDTERM!AD26)</f>
@@ -14112,15 +14127,15 @@
       </c>
       <c r="M26" s="86">
         <f t="shared" si="2"/>
-        <v>6.8000000000000007</v>
+        <v>44.75</v>
       </c>
       <c r="N26" s="87">
         <f>IF(M26="","",('INITIAL INPUT'!$J$25*CRS!H26+'INITIAL INPUT'!$K$25*CRS!M26))</f>
-        <v>43.139583333333334</v>
+        <v>60.414583333333333</v>
       </c>
       <c r="O26" s="85">
         <f>IF(N26="","",VLOOKUP(N26,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="P26" s="83" t="str">
         <f>IF(FINAL!P26="","",CRS!$P$8*FINAL!P26)</f>
@@ -14185,19 +14200,19 @@
       </c>
       <c r="G27" s="83">
         <f>IF(PRELIM!AD27="","",$G$8*PRELIM!AD27)</f>
-        <v>13.940000000000001</v>
+        <v>10.540000000000001</v>
       </c>
       <c r="H27" s="84">
         <f t="shared" si="0"/>
-        <v>57.252499999999998</v>
+        <v>53.852499999999999</v>
       </c>
       <c r="I27" s="85">
         <f>IF(H27="","",VLOOKUP(H27,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>79</v>
-      </c>
-      <c r="J27" s="83" t="str">
+        <v>77</v>
+      </c>
+      <c r="J27" s="83">
         <f>IF(MIDTERM!P27="","",$J$8*MIDTERM!P27)</f>
-        <v/>
+        <v>9.9</v>
       </c>
       <c r="K27" s="83" t="str">
         <f>IF(MIDTERM!AB27="","",$K$8*MIDTERM!AB27)</f>
@@ -14207,17 +14222,17 @@
         <f>IF(MIDTERM!AD27="","",$L$8*MIDTERM!AD27)</f>
         <v/>
       </c>
-      <c r="M27" s="86" t="str">
+      <c r="M27" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N27" s="87" t="str">
+        <v>9.9</v>
+      </c>
+      <c r="N27" s="87">
         <f>IF(M27="","",('INITIAL INPUT'!$J$25*CRS!H27+'INITIAL INPUT'!$K$25*CRS!M27))</f>
-        <v/>
-      </c>
-      <c r="O27" s="85" t="str">
+        <v>31.876249999999999</v>
+      </c>
+      <c r="O27" s="85">
         <f>IF(N27="","",VLOOKUP(N27,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P27" s="83" t="str">
         <f>IF(FINAL!P27="","",CRS!$P$8*FINAL!P27)</f>
@@ -14274,29 +14289,29 @@
         <f>IF(PRELIM!P28="","",$E$8*PRELIM!P28)</f>
         <v/>
       </c>
-      <c r="F28" s="83" t="str">
+      <c r="F28" s="83">
         <f>IF(PRELIM!AB28="","",$F$8*PRELIM!AB28)</f>
-        <v/>
-      </c>
-      <c r="G28" s="83" t="str">
+        <v>16.5</v>
+      </c>
+      <c r="G28" s="83">
         <f>IF(PRELIM!AD28="","",$G$8*PRELIM!AD28)</f>
-        <v/>
-      </c>
-      <c r="H28" s="84" t="str">
+        <v>6.4600000000000009</v>
+      </c>
+      <c r="H28" s="84">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="I28" s="85" t="str">
+        <v>22.96</v>
+      </c>
+      <c r="I28" s="85">
         <f>IF(H28="","",VLOOKUP(H28,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
-      </c>
-      <c r="J28" s="83" t="str">
+        <v>72</v>
+      </c>
+      <c r="J28" s="83">
         <f>IF(MIDTERM!P28="","",$J$8*MIDTERM!P28)</f>
-        <v/>
-      </c>
-      <c r="K28" s="83" t="str">
+        <v>9.9</v>
+      </c>
+      <c r="K28" s="83">
         <f>IF(MIDTERM!AB28="","",$K$8*MIDTERM!AB28)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L28" s="83">
         <f>IF(MIDTERM!AD28="","",$L$8*MIDTERM!AD28)</f>
@@ -14304,15 +14319,15 @@
       </c>
       <c r="M28" s="86">
         <f t="shared" si="2"/>
-        <v>10.685714285714287</v>
-      </c>
-      <c r="N28" s="87" t="e">
+        <v>53.585714285714289</v>
+      </c>
+      <c r="N28" s="87">
         <f>IF(M28="","",('INITIAL INPUT'!$J$25*CRS!H28+'INITIAL INPUT'!$K$25*CRS!M28))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O28" s="85" t="e">
+        <v>38.272857142857148</v>
+      </c>
+      <c r="O28" s="85">
         <f>IF(N28="","",VLOOKUP(N28,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>#VALUE!</v>
+        <v>73</v>
       </c>
       <c r="P28" s="83" t="str">
         <f>IF(FINAL!P28="","",CRS!$P$8*FINAL!P28)</f>
@@ -14373,17 +14388,17 @@
         <f>IF(PRELIM!AB29="","",$F$8*PRELIM!AB29)</f>
         <v/>
       </c>
-      <c r="G29" s="83">
+      <c r="G29" s="83" t="str">
         <f>IF(PRELIM!AD29="","",$G$8*PRELIM!AD29)</f>
-        <v>23.12</v>
+        <v/>
       </c>
       <c r="H29" s="84">
         <f t="shared" si="0"/>
-        <v>33.38666666666667</v>
+        <v>10.266666666666667</v>
       </c>
       <c r="I29" s="85">
         <f>IF(H29="","",VLOOKUP(H29,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J29" s="83" t="str">
         <f>IF(MIDTERM!P29="","",$J$8*MIDTERM!P29)</f>
@@ -14470,23 +14485,23 @@
       </c>
       <c r="G30" s="83">
         <f>IF(PRELIM!AD30="","",$G$8*PRELIM!AD30)</f>
-        <v>23.12</v>
+        <v>19.72</v>
       </c>
       <c r="H30" s="84">
         <f t="shared" si="0"/>
-        <v>78.486666666666679</v>
+        <v>75.086666666666673</v>
       </c>
       <c r="I30" s="85">
         <f>IF(H30="","",VLOOKUP(H30,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>89</v>
-      </c>
-      <c r="J30" s="83" t="str">
+        <v>88</v>
+      </c>
+      <c r="J30" s="83">
         <f>IF(MIDTERM!P30="","",$J$8*MIDTERM!P30)</f>
-        <v/>
-      </c>
-      <c r="K30" s="83" t="str">
+        <v>9.9</v>
+      </c>
+      <c r="K30" s="83">
         <f>IF(MIDTERM!AB30="","",$K$8*MIDTERM!AB30)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L30" s="83">
         <f>IF(MIDTERM!AD30="","",$L$8*MIDTERM!AD30)</f>
@@ -14494,15 +14509,15 @@
       </c>
       <c r="M30" s="86">
         <f t="shared" si="2"/>
-        <v>7.7714285714285722</v>
+        <v>50.671428571428571</v>
       </c>
       <c r="N30" s="87">
         <f>IF(M30="","",('INITIAL INPUT'!$J$25*CRS!H30+'INITIAL INPUT'!$K$25*CRS!M30))</f>
-        <v>43.129047619047626</v>
+        <v>62.879047619047626</v>
       </c>
       <c r="O30" s="85">
         <f>IF(N30="","",VLOOKUP(N30,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="P30" s="83" t="str">
         <f>IF(FINAL!P30="","",CRS!$P$8*FINAL!P30)</f>
@@ -14565,39 +14580,39 @@
       </c>
       <c r="G31" s="83">
         <f>IF(PRELIM!AD31="","",$G$8*PRELIM!AD31)</f>
-        <v>21.42</v>
+        <v>19.38</v>
       </c>
       <c r="H31" s="84">
         <f t="shared" si="0"/>
-        <v>81.92</v>
+        <v>79.88</v>
       </c>
       <c r="I31" s="85">
         <f>IF(H31="","",VLOOKUP(H31,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>91</v>
-      </c>
-      <c r="J31" s="83" t="str">
+        <v>90</v>
+      </c>
+      <c r="J31" s="83">
         <f>IF(MIDTERM!P31="","",$J$8*MIDTERM!P31)</f>
-        <v/>
-      </c>
-      <c r="K31" s="83" t="str">
+        <v>16.5</v>
+      </c>
+      <c r="K31" s="83">
         <f>IF(MIDTERM!AB31="","",$K$8*MIDTERM!AB31)</f>
-        <v/>
-      </c>
-      <c r="L31" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="L31" s="83">
         <f>IF(MIDTERM!AD31="","",$L$8*MIDTERM!AD31)</f>
-        <v/>
-      </c>
-      <c r="M31" s="86" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="M31" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N31" s="87" t="str">
+        <v>60.185714285714283</v>
+      </c>
+      <c r="N31" s="87">
         <f>IF(M31="","",('INITIAL INPUT'!$J$25*CRS!H31+'INITIAL INPUT'!$K$25*CRS!M31))</f>
-        <v/>
-      </c>
-      <c r="O31" s="85" t="str">
+        <v>70.032857142857139</v>
+      </c>
+      <c r="O31" s="85">
         <f>IF(N31="","",VLOOKUP(N31,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>85</v>
       </c>
       <c r="P31" s="83" t="str">
         <f>IF(FINAL!P31="","",CRS!$P$8*FINAL!P31)</f>
@@ -14660,23 +14675,23 @@
       </c>
       <c r="G32" s="83">
         <f>IF(PRELIM!AD32="","",$G$8*PRELIM!AD32)</f>
-        <v>12.58</v>
+        <v>18.02</v>
       </c>
       <c r="H32" s="84">
         <f t="shared" si="0"/>
-        <v>50.163333333333334</v>
+        <v>55.603333333333339</v>
       </c>
       <c r="I32" s="85">
         <f>IF(H32="","",VLOOKUP(H32,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>75</v>
-      </c>
-      <c r="J32" s="83" t="str">
+        <v>78</v>
+      </c>
+      <c r="J32" s="83">
         <f>IF(MIDTERM!P32="","",$J$8*MIDTERM!P32)</f>
-        <v/>
-      </c>
-      <c r="K32" s="83" t="str">
+        <v>11.55</v>
+      </c>
+      <c r="K32" s="83">
         <f>IF(MIDTERM!AB32="","",$K$8*MIDTERM!AB32)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L32" s="83">
         <f>IF(MIDTERM!AD32="","",$L$8*MIDTERM!AD32)</f>
@@ -14684,15 +14699,15 @@
       </c>
       <c r="M32" s="86">
         <f t="shared" si="2"/>
-        <v>5.8285714285714292</v>
+        <v>50.378571428571426</v>
       </c>
       <c r="N32" s="87">
         <f>IF(M32="","",('INITIAL INPUT'!$J$25*CRS!H32+'INITIAL INPUT'!$K$25*CRS!M32))</f>
-        <v>27.995952380952382</v>
+        <v>52.990952380952379</v>
       </c>
       <c r="O32" s="85">
         <f>IF(N32="","",VLOOKUP(N32,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P32" s="83" t="str">
         <f>IF(FINAL!P32="","",CRS!$P$8*FINAL!P32)</f>
@@ -14755,11 +14770,11 @@
       </c>
       <c r="G33" s="83">
         <f>IF(PRELIM!AD33="","",$G$8*PRELIM!AD33)</f>
-        <v>15.64</v>
+        <v>12.24</v>
       </c>
       <c r="H33" s="84">
         <f t="shared" si="0"/>
-        <v>42.406666666666666</v>
+        <v>39.006666666666668</v>
       </c>
       <c r="I33" s="85">
         <f>IF(H33="","",VLOOKUP(H33,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -14850,39 +14865,39 @@
       </c>
       <c r="G34" s="83">
         <f>IF(PRELIM!AD34="","",$G$8*PRELIM!AD34)</f>
-        <v>20.400000000000002</v>
+        <v>17</v>
       </c>
       <c r="H34" s="84">
         <f t="shared" si="0"/>
-        <v>70.63333333333334</v>
+        <v>67.233333333333334</v>
       </c>
       <c r="I34" s="85">
         <f>IF(H34="","",VLOOKUP(H34,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>85</v>
-      </c>
-      <c r="J34" s="83" t="str">
+        <v>84</v>
+      </c>
+      <c r="J34" s="83">
         <f>IF(MIDTERM!P34="","",$J$8*MIDTERM!P34)</f>
-        <v/>
-      </c>
-      <c r="K34" s="83" t="str">
+        <v>19.8</v>
+      </c>
+      <c r="K34" s="83">
         <f>IF(MIDTERM!AB34="","",$K$8*MIDTERM!AB34)</f>
-        <v/>
-      </c>
-      <c r="L34" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="L34" s="83">
         <f>IF(MIDTERM!AD34="","",$L$8*MIDTERM!AD34)</f>
-        <v/>
-      </c>
-      <c r="M34" s="86" t="str">
+        <v>9.7142857142857135</v>
+      </c>
+      <c r="M34" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N34" s="87" t="str">
+        <v>62.514285714285712</v>
+      </c>
+      <c r="N34" s="87">
         <f>IF(M34="","",('INITIAL INPUT'!$J$25*CRS!H34+'INITIAL INPUT'!$K$25*CRS!M34))</f>
-        <v/>
-      </c>
-      <c r="O34" s="85" t="str">
+        <v>64.873809523809527</v>
+      </c>
+      <c r="O34" s="85">
         <f>IF(N34="","",VLOOKUP(N34,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>82</v>
       </c>
       <c r="P34" s="83" t="str">
         <f>IF(FINAL!P34="","",CRS!$P$8*FINAL!P34)</f>
@@ -14945,23 +14960,23 @@
       </c>
       <c r="G35" s="83">
         <f>IF(PRELIM!AD35="","",$G$8*PRELIM!AD35)</f>
-        <v>18.700000000000003</v>
+        <v>15.3</v>
       </c>
       <c r="H35" s="84">
         <f t="shared" si="0"/>
-        <v>77.137500000000003</v>
+        <v>73.737499999999997</v>
       </c>
       <c r="I35" s="85">
         <f>IF(H35="","",VLOOKUP(H35,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>89</v>
-      </c>
-      <c r="J35" s="83" t="str">
+        <v>87</v>
+      </c>
+      <c r="J35" s="83">
         <f>IF(MIDTERM!P35="","",$J$8*MIDTERM!P35)</f>
-        <v/>
-      </c>
-      <c r="K35" s="83" t="str">
+        <v>9.9</v>
+      </c>
+      <c r="K35" s="83">
         <f>IF(MIDTERM!AB35="","",$K$8*MIDTERM!AB35)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L35" s="83">
         <f>IF(MIDTERM!AD35="","",$L$8*MIDTERM!AD35)</f>
@@ -14969,15 +14984,15 @@
       </c>
       <c r="M35" s="86">
         <f t="shared" si="2"/>
-        <v>8.742857142857142</v>
+        <v>51.642857142857139</v>
       </c>
       <c r="N35" s="87">
         <f>IF(M35="","",('INITIAL INPUT'!$J$25*CRS!H35+'INITIAL INPUT'!$K$25*CRS!M35))</f>
-        <v>42.940178571428575</v>
+        <v>62.690178571428568</v>
       </c>
       <c r="O35" s="85">
         <f>IF(N35="","",VLOOKUP(N35,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P35" s="83" t="str">
         <f>IF(FINAL!P35="","",CRS!$P$8*FINAL!P35)</f>
@@ -15040,39 +15055,39 @@
       </c>
       <c r="G36" s="83">
         <f>IF(PRELIM!AD36="","",$G$8*PRELIM!AD36)</f>
-        <v>20.400000000000002</v>
+        <v>17</v>
       </c>
       <c r="H36" s="84">
         <f t="shared" si="0"/>
-        <v>77.600000000000009</v>
+        <v>74.2</v>
       </c>
       <c r="I36" s="85">
         <f>IF(H36="","",VLOOKUP(H36,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>89</v>
-      </c>
-      <c r="J36" s="83" t="str">
+        <v>87</v>
+      </c>
+      <c r="J36" s="83">
         <f>IF(MIDTERM!P36="","",$J$8*MIDTERM!P36)</f>
-        <v/>
-      </c>
-      <c r="K36" s="83" t="str">
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="K36" s="83">
         <f>IF(MIDTERM!AB36="","",$K$8*MIDTERM!AB36)</f>
-        <v/>
-      </c>
-      <c r="L36" s="83" t="str">
+        <v>33</v>
+      </c>
+      <c r="L36" s="83">
         <f>IF(MIDTERM!AD36="","",$L$8*MIDTERM!AD36)</f>
-        <v/>
-      </c>
-      <c r="M36" s="86" t="str">
+        <v>10.685714285714287</v>
+      </c>
+      <c r="M36" s="86">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N36" s="87" t="str">
+        <v>46.98571428571428</v>
+      </c>
+      <c r="N36" s="87">
         <f>IF(M36="","",('INITIAL INPUT'!$J$25*CRS!H36+'INITIAL INPUT'!$K$25*CRS!M36))</f>
-        <v/>
-      </c>
-      <c r="O36" s="85" t="str">
+        <v>60.592857142857142</v>
+      </c>
+      <c r="O36" s="85">
         <f>IF(N36="","",VLOOKUP(N36,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="P36" s="83" t="str">
         <f>IF(FINAL!P36="","",CRS!$P$8*FINAL!P36)</f>
@@ -15230,23 +15245,23 @@
       </c>
       <c r="G38" s="83">
         <f>IF(PRELIM!AD38="","",$G$8*PRELIM!AD38)</f>
-        <v>20.060000000000002</v>
+        <v>16.66</v>
       </c>
       <c r="H38" s="84">
         <f t="shared" si="0"/>
-        <v>80.193333333333328</v>
+        <v>76.793333333333337</v>
       </c>
       <c r="I38" s="85">
         <f>IF(H38="","",VLOOKUP(H38,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>90</v>
-      </c>
-      <c r="J38" s="83" t="str">
+        <v>88</v>
+      </c>
+      <c r="J38" s="83">
         <f>IF(MIDTERM!P38="","",$J$8*MIDTERM!P38)</f>
-        <v/>
-      </c>
-      <c r="K38" s="83" t="str">
+        <v>24.75</v>
+      </c>
+      <c r="K38" s="83">
         <f>IF(MIDTERM!AB38="","",$K$8*MIDTERM!AB38)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L38" s="83">
         <f>IF(MIDTERM!AD38="","",$L$8*MIDTERM!AD38)</f>
@@ -15254,15 +15269,15 @@
       </c>
       <c r="M38" s="86">
         <f t="shared" si="2"/>
-        <v>10.685714285714287</v>
+        <v>68.435714285714283</v>
       </c>
       <c r="N38" s="87">
         <f>IF(M38="","",('INITIAL INPUT'!$J$25*CRS!H38+'INITIAL INPUT'!$K$25*CRS!M38))</f>
-        <v>45.439523809523806</v>
+        <v>72.614523809523803</v>
       </c>
       <c r="O38" s="85">
         <f>IF(N38="","",VLOOKUP(N38,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="P38" s="83" t="str">
         <f>IF(FINAL!P38="","",CRS!$P$8*FINAL!P38)</f>
@@ -15420,11 +15435,11 @@
       </c>
       <c r="G40" s="83">
         <f>IF(PRELIM!AD40="","",$G$8*PRELIM!AD40)</f>
-        <v>13.260000000000002</v>
+        <v>9.86</v>
       </c>
       <c r="H40" s="84">
         <f t="shared" si="0"/>
-        <v>22.885000000000002</v>
+        <v>19.484999999999999</v>
       </c>
       <c r="I40" s="85">
         <f>IF(H40="","",VLOOKUP(H40,'INITIAL INPUT'!$P$4:$R$34,3))</f>
@@ -15825,23 +15840,23 @@
       </c>
       <c r="G50" s="83">
         <f>IF(PRELIM!AD50="","",$G$8*PRELIM!AD50)</f>
-        <v>5.1000000000000005</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="H50" s="84">
         <f t="shared" ref="H50:H80" si="6">IF(SUM(E50:G50)=0,"",SUM(E50:G50))</f>
-        <v>32.6</v>
+        <v>29.2</v>
       </c>
       <c r="I50" s="85">
         <f>IF(H50="","",VLOOKUP(H50,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
-      </c>
-      <c r="J50" s="83" t="str">
+        <v>72</v>
+      </c>
+      <c r="J50" s="83">
         <f>IF(MIDTERM!P50="","",$J$8*MIDTERM!P50)</f>
-        <v/>
-      </c>
-      <c r="K50" s="83" t="str">
+        <v>14.850000000000001</v>
+      </c>
+      <c r="K50" s="83">
         <f>IF(MIDTERM!AB50="","",$K$8*MIDTERM!AB50)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L50" s="83">
         <f>IF(MIDTERM!AD50="","",$L$8*MIDTERM!AD50)</f>
@@ -15849,15 +15864,15 @@
       </c>
       <c r="M50" s="86">
         <f t="shared" ref="M50:M80" si="7">IF(SUM(J50:L50)=0,"",SUM(J50:L50))</f>
-        <v>10.685714285714287</v>
+        <v>58.535714285714292</v>
       </c>
       <c r="N50" s="87">
         <f>IF(M50="","",('INITIAL INPUT'!$J$25*CRS!H50+'INITIAL INPUT'!$K$25*CRS!M50))</f>
-        <v>21.642857142857146</v>
+        <v>43.867857142857147</v>
       </c>
       <c r="O50" s="85">
         <f>IF(N50="","",VLOOKUP(N50,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P50" s="83" t="str">
         <f>IF(FINAL!P50="","",CRS!$P$8*FINAL!P50)</f>
@@ -15919,23 +15934,23 @@
       </c>
       <c r="G51" s="83">
         <f>IF(PRELIM!AD51="","",$G$8*PRELIM!AD51)</f>
-        <v>14.620000000000001</v>
+        <v>11.22</v>
       </c>
       <c r="H51" s="84">
         <f t="shared" si="6"/>
-        <v>56.053333333333342</v>
+        <v>52.653333333333336</v>
       </c>
       <c r="I51" s="85">
         <f>IF(H51="","",VLOOKUP(H51,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>78</v>
-      </c>
-      <c r="J51" s="83" t="str">
+        <v>76</v>
+      </c>
+      <c r="J51" s="83">
         <f>IF(MIDTERM!P51="","",$J$8*MIDTERM!P51)</f>
-        <v/>
-      </c>
-      <c r="K51" s="83" t="str">
+        <v>10.89</v>
+      </c>
+      <c r="K51" s="83">
         <f>IF(MIDTERM!AB51="","",$K$8*MIDTERM!AB51)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L51" s="83">
         <f>IF(MIDTERM!AD51="","",$L$8*MIDTERM!AD51)</f>
@@ -15943,15 +15958,15 @@
       </c>
       <c r="M51" s="86">
         <f t="shared" si="7"/>
-        <v>10.685714285714287</v>
+        <v>54.575714285714284</v>
       </c>
       <c r="N51" s="87">
         <f>IF(M51="","",('INITIAL INPUT'!$J$25*CRS!H51+'INITIAL INPUT'!$K$25*CRS!M51))</f>
-        <v>33.369523809523812</v>
+        <v>53.61452380952381</v>
       </c>
       <c r="O51" s="85">
         <f>IF(N51="","",VLOOKUP(N51,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="P51" s="83" t="str">
         <f>IF(FINAL!P51="","",CRS!$P$8*FINAL!P51)</f>
@@ -16013,15 +16028,15 @@
       </c>
       <c r="G52" s="83">
         <f>IF(PRELIM!AD52="","",$G$8*PRELIM!AD52)</f>
-        <v>30.6</v>
+        <v>27.200000000000003</v>
       </c>
       <c r="H52" s="84">
         <f t="shared" si="6"/>
-        <v>95.866666666666674</v>
+        <v>92.466666666666669</v>
       </c>
       <c r="I52" s="85">
         <f>IF(H52="","",VLOOKUP(H52,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J52" s="83">
         <f>IF(MIDTERM!P52="","",$J$8*MIDTERM!P52)</f>
@@ -16041,11 +16056,11 @@
       </c>
       <c r="N52" s="87">
         <f>IF(M52="","",('INITIAL INPUT'!$J$25*CRS!H52+'INITIAL INPUT'!$K$25*CRS!M52))</f>
-        <v>89.67619047619047</v>
+        <v>87.976190476190482</v>
       </c>
       <c r="O52" s="85">
         <f>IF(N52="","",VLOOKUP(N52,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P52" s="83" t="str">
         <f>IF(FINAL!P52="","",CRS!$P$8*FINAL!P52)</f>
@@ -16107,19 +16122,19 @@
       </c>
       <c r="G53" s="83">
         <f>IF(PRELIM!AD53="","",$G$8*PRELIM!AD53)</f>
-        <v>14.620000000000001</v>
+        <v>11.22</v>
       </c>
       <c r="H53" s="84">
         <f t="shared" si="6"/>
-        <v>56.465833333333336</v>
+        <v>53.06583333333333</v>
       </c>
       <c r="I53" s="85">
         <f>IF(H53="","",VLOOKUP(H53,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>78</v>
-      </c>
-      <c r="J53" s="83" t="str">
+        <v>77</v>
+      </c>
+      <c r="J53" s="83">
         <f>IF(MIDTERM!P53="","",$J$8*MIDTERM!P53)</f>
-        <v/>
+        <v>13.200000000000001</v>
       </c>
       <c r="K53" s="83" t="str">
         <f>IF(MIDTERM!AB53="","",$K$8*MIDTERM!AB53)</f>
@@ -16129,17 +16144,17 @@
         <f>IF(MIDTERM!AD53="","",$L$8*MIDTERM!AD53)</f>
         <v/>
       </c>
-      <c r="M53" s="86" t="str">
+      <c r="M53" s="86">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N53" s="87" t="str">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="N53" s="87">
         <f>IF(M53="","",('INITIAL INPUT'!$J$25*CRS!H53+'INITIAL INPUT'!$K$25*CRS!M53))</f>
-        <v/>
-      </c>
-      <c r="O53" s="85" t="str">
+        <v>33.132916666666667</v>
+      </c>
+      <c r="O53" s="85">
         <f>IF(N53="","",VLOOKUP(N53,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="P53" s="83" t="str">
         <f>IF(FINAL!P53="","",CRS!$P$8*FINAL!P53)</f>
@@ -16201,23 +16216,23 @@
       </c>
       <c r="G54" s="83">
         <f>IF(PRELIM!AD54="","",$G$8*PRELIM!AD54)</f>
-        <v>11.22</v>
+        <v>7.82</v>
       </c>
       <c r="H54" s="84">
         <f t="shared" si="6"/>
-        <v>52.47</v>
+        <v>49.07</v>
       </c>
       <c r="I54" s="85">
         <f>IF(H54="","",VLOOKUP(H54,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>76</v>
-      </c>
-      <c r="J54" s="83" t="str">
+        <v>74</v>
+      </c>
+      <c r="J54" s="83">
         <f>IF(MIDTERM!P54="","",$J$8*MIDTERM!P54)</f>
-        <v/>
-      </c>
-      <c r="K54" s="83" t="str">
+        <v>18.150000000000002</v>
+      </c>
+      <c r="K54" s="83">
         <f>IF(MIDTERM!AB54="","",$K$8*MIDTERM!AB54)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L54" s="83">
         <f>IF(MIDTERM!AD54="","",$L$8*MIDTERM!AD54)</f>
@@ -16225,15 +16240,15 @@
       </c>
       <c r="M54" s="86">
         <f t="shared" si="7"/>
-        <v>7.7714285714285722</v>
+        <v>58.921428571428578</v>
       </c>
       <c r="N54" s="87">
         <f>IF(M54="","",('INITIAL INPUT'!$J$25*CRS!H54+'INITIAL INPUT'!$K$25*CRS!M54))</f>
-        <v>30.120714285714286</v>
+        <v>53.995714285714286</v>
       </c>
       <c r="O54" s="85">
         <f>IF(N54="","",VLOOKUP(N54,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P54" s="83" t="str">
         <f>IF(FINAL!P54="","",CRS!$P$8*FINAL!P54)</f>
@@ -16295,23 +16310,23 @@
       </c>
       <c r="G55" s="83">
         <f>IF(PRELIM!AD55="","",$G$8*PRELIM!AD55)</f>
-        <v>12.24</v>
+        <v>8.84</v>
       </c>
       <c r="H55" s="84">
         <f t="shared" si="6"/>
-        <v>65.956666666666663</v>
+        <v>62.556666666666672</v>
       </c>
       <c r="I55" s="85">
         <f>IF(H55="","",VLOOKUP(H55,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>83</v>
-      </c>
-      <c r="J55" s="83" t="str">
+        <v>81</v>
+      </c>
+      <c r="J55" s="83">
         <f>IF(MIDTERM!P55="","",$J$8*MIDTERM!P55)</f>
-        <v/>
-      </c>
-      <c r="K55" s="83" t="str">
+        <v>19.8</v>
+      </c>
+      <c r="K55" s="83">
         <f>IF(MIDTERM!AB55="","",$K$8*MIDTERM!AB55)</f>
-        <v/>
+        <v>33</v>
       </c>
       <c r="L55" s="83">
         <f>IF(MIDTERM!AD55="","",$L$8*MIDTERM!AD55)</f>
@@ -16319,15 +16334,15 @@
       </c>
       <c r="M55" s="86">
         <f t="shared" si="7"/>
-        <v>5.8285714285714292</v>
+        <v>58.628571428571426</v>
       </c>
       <c r="N55" s="87">
         <f>IF(M55="","",('INITIAL INPUT'!$J$25*CRS!H55+'INITIAL INPUT'!$K$25*CRS!M55))</f>
-        <v>35.89261904761905</v>
+        <v>60.592619047619053</v>
       </c>
       <c r="O55" s="85">
         <f>IF(N55="","",VLOOKUP(N55,'INITIAL INPUT'!$P$4:$R$34,3))</f>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="P55" s="83" t="str">
         <f>IF(FINAL!P55="","",CRS!$P$8*FINAL!P55)</f>
@@ -19571,8 +19586,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AK135"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="B7" zoomScale="104" zoomScaleNormal="100" zoomScalePageLayoutView="104" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView showGridLines="0" topLeftCell="A35" zoomScaleNormal="100" zoomScalePageLayoutView="104" workbookViewId="0">
+      <selection activeCell="AC50" sqref="AC50:AC55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20113,19 +20128,19 @@
         <v>79.166666666666657</v>
       </c>
       <c r="AC9" s="111">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD9" s="67">
         <f>IF(AC9="","",AC9/$AC$5*100)</f>
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE9" s="66">
         <f>CRS!H9</f>
-        <v>66.931666666666672</v>
+        <v>63.531666666666666</v>
       </c>
       <c r="AF9" s="64">
         <f>CRS!I9</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG9" s="61"/>
       <c r="AH9" s="61"/>
@@ -20206,15 +20221,15 @@
         <v>66.666666666666657</v>
       </c>
       <c r="AC10" s="111">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD10" s="67">
         <f t="shared" ref="AD10:AD40" si="4">IF(AC10="","",AC10/$AC$5*100)</f>
-        <v>28.000000000000004</v>
+        <v>27</v>
       </c>
       <c r="AE10" s="66">
         <f>CRS!H10</f>
-        <v>47.653333333333329</v>
+        <v>47.313333333333325</v>
       </c>
       <c r="AF10" s="64">
         <f>CRS!I10</f>
@@ -20372,15 +20387,15 @@
         <v>37.5</v>
       </c>
       <c r="AC12" s="111">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="AD12" s="67">
         <f t="shared" si="4"/>
-        <v>56.000000000000007</v>
+        <v>46</v>
       </c>
       <c r="AE12" s="66">
         <f>CRS!H12</f>
-        <v>40.948333333333338</v>
+        <v>37.548333333333332</v>
       </c>
       <c r="AF12" s="64">
         <f>CRS!I12</f>
@@ -20467,19 +20482,19 @@
         <v>100</v>
       </c>
       <c r="AC13" s="111">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AD13" s="67">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AE13" s="66">
         <f>CRS!H13</f>
-        <v>94.56</v>
+        <v>91.16</v>
       </c>
       <c r="AF13" s="64">
         <f>CRS!I13</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AG13" s="55"/>
       <c r="AH13" s="55"/>
@@ -20631,15 +20646,15 @@
         <v>58.333333333333336</v>
       </c>
       <c r="AC15" s="111">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AD15" s="67">
         <f t="shared" si="4"/>
-        <v>55.000000000000007</v>
+        <v>45</v>
       </c>
       <c r="AE15" s="66">
         <f>CRS!H15</f>
-        <v>47.116666666666674</v>
+        <v>43.716666666666669</v>
       </c>
       <c r="AF15" s="64">
         <f>CRS!I15</f>
@@ -20885,19 +20900,19 @@
         <v>75</v>
       </c>
       <c r="AC18" s="111">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AD18" s="67">
         <f t="shared" si="4"/>
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AE18" s="66">
         <f>CRS!H18</f>
-        <v>65.650000000000006</v>
+        <v>50.35</v>
       </c>
       <c r="AF18" s="64">
         <f>CRS!I18</f>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AG18" s="55"/>
       <c r="AH18" s="55"/>
@@ -20961,15 +20976,15 @@
         <v/>
       </c>
       <c r="AC19" s="111">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AD19" s="67">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AE19" s="66">
         <f>CRS!H19</f>
-        <v>17.946666666666669</v>
+        <v>14.546666666666667</v>
       </c>
       <c r="AF19" s="64">
         <f>CRS!I19</f>
@@ -21053,19 +21068,19 @@
         <v>100</v>
       </c>
       <c r="AC20" s="111">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AD20" s="67">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AE20" s="66">
         <f>CRS!H20</f>
-        <v>86.053333333333342</v>
+        <v>82.653333333333336</v>
       </c>
       <c r="AF20" s="64">
         <f>CRS!I20</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AG20" s="55"/>
       <c r="AH20" s="55"/>
@@ -21213,19 +21228,19 @@
         <v>100</v>
       </c>
       <c r="AC22" s="111">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AD22" s="67">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="AE22" s="66">
         <f>CRS!H22</f>
-        <v>83.75333333333333</v>
+        <v>80.353333333333325</v>
       </c>
       <c r="AF22" s="64">
         <f>CRS!I22</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AG22" s="55"/>
       <c r="AH22" s="55"/>
@@ -21301,15 +21316,15 @@
         <v>93.75</v>
       </c>
       <c r="AC23" s="111">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AD23" s="67">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AE23" s="66">
         <f>CRS!H23</f>
-        <v>47.837499999999999</v>
+        <v>44.4375</v>
       </c>
       <c r="AF23" s="64">
         <f>CRS!I23</f>
@@ -21393,19 +21408,19 @@
         <v>97.916666666666657</v>
       </c>
       <c r="AC24" s="111">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AD24" s="67">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AE24" s="66">
         <f>CRS!H24</f>
-        <v>76.865833333333342</v>
+        <v>73.465833333333336</v>
       </c>
       <c r="AF24" s="64">
         <f>CRS!I24</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AG24" s="55"/>
       <c r="AH24" s="55"/>
@@ -21479,19 +21494,19 @@
         <v>97.916666666666657</v>
       </c>
       <c r="AC25" s="111">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AD25" s="67">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="AE25" s="66">
         <f>CRS!H25</f>
-        <v>68.132499999999993</v>
+        <v>64.732500000000002</v>
       </c>
       <c r="AF25" s="64">
         <f>CRS!I25</f>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG25" s="55"/>
       <c r="AH25" s="55"/>
@@ -21569,19 +21584,19 @@
         <v>97.916666666666657</v>
       </c>
       <c r="AC26" s="111">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD26" s="67">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE26" s="66">
         <f>CRS!H26</f>
-        <v>79.479166666666671</v>
+        <v>76.079166666666666</v>
       </c>
       <c r="AF26" s="64">
         <f>CRS!I26</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG26" s="373"/>
       <c r="AH26" s="371" t="s">
@@ -21657,19 +21672,19 @@
         <v>97.916666666666657</v>
       </c>
       <c r="AC27" s="111">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AD27" s="67">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AE27" s="66">
         <f>CRS!H27</f>
-        <v>57.252499999999998</v>
+        <v>53.852499999999999</v>
       </c>
       <c r="AF27" s="64">
         <f>CRS!I27</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AG27" s="374"/>
       <c r="AH27" s="372"/>
@@ -21708,36 +21723,50 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
-      <c r="U28" s="109"/>
-      <c r="V28" s="109"/>
+      <c r="Q28" s="109">
+        <v>20</v>
+      </c>
+      <c r="R28" s="109">
+        <v>20</v>
+      </c>
+      <c r="S28" s="109">
+        <v>20</v>
+      </c>
+      <c r="T28" s="109">
+        <v>20</v>
+      </c>
+      <c r="U28" s="109">
+        <v>20</v>
+      </c>
+      <c r="V28" s="109">
+        <v>20</v>
+      </c>
       <c r="W28" s="109"/>
       <c r="X28" s="109"/>
       <c r="Y28" s="109"/>
       <c r="Z28" s="109"/>
-      <c r="AA28" s="60" t="str">
+      <c r="AA28" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB28" s="67" t="str">
+        <v>120</v>
+      </c>
+      <c r="AB28" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC28" s="111"/>
-      <c r="AD28" s="67" t="str">
+        <v>50</v>
+      </c>
+      <c r="AC28" s="111">
+        <v>19</v>
+      </c>
+      <c r="AD28" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE28" s="66" t="str">
+        <v>19</v>
+      </c>
+      <c r="AE28" s="66">
         <f>CRS!H28</f>
-        <v/>
-      </c>
-      <c r="AF28" s="64" t="str">
+        <v>22.96</v>
+      </c>
+      <c r="AF28" s="64">
         <f>CRS!I28</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="AG28" s="374"/>
       <c r="AH28" s="372"/>
@@ -21798,20 +21827,18 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC29" s="111">
-        <v>68</v>
-      </c>
-      <c r="AD29" s="67">
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="67" t="str">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v/>
       </c>
       <c r="AE29" s="66">
         <f>CRS!H29</f>
-        <v>33.38666666666667</v>
+        <v>10.266666666666667</v>
       </c>
       <c r="AF29" s="64">
         <f>CRS!I29</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AG29" s="374"/>
       <c r="AH29" s="372"/>
@@ -21889,19 +21916,19 @@
         <v>100</v>
       </c>
       <c r="AC30" s="111">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="AD30" s="67">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>57.999999999999993</v>
       </c>
       <c r="AE30" s="66">
         <f>CRS!H30</f>
-        <v>78.486666666666679</v>
+        <v>75.086666666666673</v>
       </c>
       <c r="AF30" s="64">
         <f>CRS!I30</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG30" s="374"/>
       <c r="AH30" s="372"/>
@@ -21981,19 +22008,19 @@
         <v>100</v>
       </c>
       <c r="AC31" s="111">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AD31" s="67">
         <f t="shared" si="4"/>
-        <v>63</v>
+        <v>56.999999999999993</v>
       </c>
       <c r="AE31" s="66">
         <f>CRS!H31</f>
-        <v>81.92</v>
+        <v>79.88</v>
       </c>
       <c r="AF31" s="64">
         <f>CRS!I31</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AG31" s="374"/>
       <c r="AH31" s="372"/>
@@ -22065,19 +22092,19 @@
         <v>91.666666666666657</v>
       </c>
       <c r="AC32" s="111">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AD32" s="67">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="AE32" s="66">
         <f>CRS!H32</f>
-        <v>50.163333333333334</v>
+        <v>55.603333333333339</v>
       </c>
       <c r="AF32" s="64">
         <f>CRS!I32</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AG32" s="374"/>
       <c r="AH32" s="372"/>
@@ -22151,15 +22178,15 @@
         <v>50</v>
       </c>
       <c r="AC33" s="111">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AD33" s="67">
         <f t="shared" si="4"/>
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AE33" s="66">
         <f>CRS!H33</f>
-        <v>42.406666666666666</v>
+        <v>39.006666666666668</v>
       </c>
       <c r="AF33" s="64">
         <f>CRS!I33</f>
@@ -22242,19 +22269,19 @@
         <v>100</v>
       </c>
       <c r="AC34" s="111">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD34" s="67">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE34" s="66">
         <f>CRS!H34</f>
-        <v>70.63333333333334</v>
+        <v>67.233333333333334</v>
       </c>
       <c r="AF34" s="64">
         <f>CRS!I34</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG34" s="374"/>
       <c r="AH34" s="372"/>
@@ -22337,19 +22364,19 @@
         <v>93.75</v>
       </c>
       <c r="AC35" s="111">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AD35" s="67">
         <f t="shared" si="4"/>
-        <v>55.000000000000007</v>
+        <v>45</v>
       </c>
       <c r="AE35" s="66">
         <f>CRS!H35</f>
-        <v>77.137500000000003</v>
+        <v>73.737499999999997</v>
       </c>
       <c r="AF35" s="64">
         <f>CRS!I35</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG35" s="374"/>
       <c r="AH35" s="372"/>
@@ -22430,19 +22457,19 @@
         <v>100</v>
       </c>
       <c r="AC36" s="111">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD36" s="67">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AE36" s="66">
         <f>CRS!H36</f>
-        <v>77.600000000000009</v>
+        <v>74.2</v>
       </c>
       <c r="AF36" s="64">
         <f>CRS!I36</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AG36" s="374"/>
       <c r="AH36" s="372"/>
@@ -22594,19 +22621,19 @@
         <v>100</v>
       </c>
       <c r="AC38" s="111">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AD38" s="67">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AE38" s="66">
         <f>CRS!H38</f>
-        <v>80.193333333333328</v>
+        <v>76.793333333333337</v>
       </c>
       <c r="AF38" s="64">
         <f>CRS!I38</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AG38" s="374"/>
       <c r="AH38" s="372"/>
@@ -22750,15 +22777,15 @@
         <v>29.166666666666668</v>
       </c>
       <c r="AC40" s="111">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="AD40" s="67">
         <f t="shared" si="4"/>
-        <v>39</v>
+        <v>28.999999999999996</v>
       </c>
       <c r="AE40" s="66">
         <f>CRS!H40</f>
-        <v>22.885000000000002</v>
+        <v>19.484999999999999</v>
       </c>
       <c r="AF40" s="64">
         <f>CRS!I40</f>
@@ -23407,19 +23434,19 @@
         <v>50</v>
       </c>
       <c r="AC50" s="111">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AD50" s="67">
         <f t="shared" ref="AD50:AD80" si="13">IF(AC50="","",AC50/$AC$5*100)</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE50" s="66">
         <f>CRS!H50</f>
-        <v>32.6</v>
+        <v>29.2</v>
       </c>
       <c r="AF50" s="64">
         <f>CRS!I50</f>
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23495,19 +23522,19 @@
         <v>83.333333333333343</v>
       </c>
       <c r="AC51" s="111">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AD51" s="67">
         <f t="shared" si="13"/>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AE51" s="66">
         <f>CRS!H51</f>
-        <v>56.053333333333342</v>
+        <v>52.653333333333336</v>
       </c>
       <c r="AF51" s="64">
         <f>CRS!I51</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23585,19 +23612,19 @@
         <v>100</v>
       </c>
       <c r="AC52" s="111">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD52" s="67">
         <f t="shared" si="13"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AE52" s="66">
         <f>CRS!H52</f>
-        <v>95.866666666666674</v>
+        <v>92.466666666666669</v>
       </c>
       <c r="AF52" s="64">
         <f>CRS!I52</f>
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23671,19 +23698,19 @@
         <v>97.916666666666657</v>
       </c>
       <c r="AC53" s="111">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AD53" s="67">
         <f t="shared" si="13"/>
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="AE53" s="66">
         <f>CRS!H53</f>
-        <v>56.465833333333336</v>
+        <v>53.06583333333333</v>
       </c>
       <c r="AF53" s="64">
         <f>CRS!I53</f>
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23757,19 +23784,19 @@
         <v>91.666666666666657</v>
       </c>
       <c r="AC54" s="111">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AD54" s="67">
         <f t="shared" si="13"/>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="AE54" s="66">
         <f>CRS!H54</f>
-        <v>52.47</v>
+        <v>49.07</v>
       </c>
       <c r="AF54" s="64">
         <f>CRS!I54</f>
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -23847,19 +23874,19 @@
         <v>91.666666666666657</v>
       </c>
       <c r="AC55" s="111">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AD55" s="67">
         <f t="shared" si="13"/>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AE55" s="66">
         <f>CRS!H55</f>
-        <v>65.956666666666663</v>
+        <v>62.556666666666672</v>
       </c>
       <c r="AF55" s="64">
         <f>CRS!I55</f>
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -26034,8 +26061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC56" sqref="AC56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26311,8 +26338,12 @@
       <c r="G5" s="108">
         <v>20</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
+      <c r="H5" s="108">
+        <v>10</v>
+      </c>
+      <c r="I5" s="108">
+        <v>30</v>
+      </c>
       <c r="J5" s="108"/>
       <c r="K5" s="108"/>
       <c r="L5" s="108"/>
@@ -26361,11 +26392,21 @@
       <c r="B6" s="316"/>
       <c r="C6" s="304"/>
       <c r="D6" s="304"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
+      <c r="E6" s="305" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="305" t="s">
+        <v>257</v>
+      </c>
+      <c r="G6" s="305" t="s">
+        <v>258</v>
+      </c>
+      <c r="H6" s="305" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" s="305" t="s">
+        <v>260</v>
+      </c>
       <c r="J6" s="305"/>
       <c r="K6" s="305"/>
       <c r="L6" s="305"/>
@@ -26373,7 +26414,7 @@
       <c r="N6" s="305"/>
       <c r="O6" s="366">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="P6" s="312"/>
       <c r="Q6" s="305" t="s">
@@ -26515,41 +26556,59 @@
         <f>CRS!D9</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="109"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="109"/>
+      <c r="E9" s="109">
+        <v>20</v>
+      </c>
+      <c r="F9" s="109">
+        <v>10</v>
+      </c>
+      <c r="G9" s="109">
+        <v>20</v>
+      </c>
+      <c r="H9" s="109">
+        <v>10</v>
+      </c>
+      <c r="I9" s="109">
+        <v>30</v>
+      </c>
       <c r="J9" s="109"/>
       <c r="K9" s="109"/>
       <c r="L9" s="109"/>
       <c r="M9" s="109"/>
       <c r="N9" s="109"/>
-      <c r="O9" s="60" t="str">
+      <c r="O9" s="60">
         <f>IF(SUM(E9:N9)=0,"",SUM(E9:N9))</f>
-        <v/>
-      </c>
-      <c r="P9" s="67" t="str">
+        <v>90</v>
+      </c>
+      <c r="P9" s="67">
         <f>IF(O9="","",O9/$O$6*100)</f>
-        <v/>
-      </c>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="109"/>
-      <c r="T9" s="109"/>
+        <v>90</v>
+      </c>
+      <c r="Q9" s="109">
+        <v>40</v>
+      </c>
+      <c r="R9" s="109">
+        <v>40</v>
+      </c>
+      <c r="S9" s="109">
+        <v>40</v>
+      </c>
+      <c r="T9" s="109">
+        <v>40</v>
+      </c>
       <c r="U9" s="109"/>
       <c r="V9" s="109"/>
       <c r="W9" s="109"/>
       <c r="X9" s="109"/>
       <c r="Y9" s="109"/>
       <c r="Z9" s="109"/>
-      <c r="AA9" s="60" t="str">
+      <c r="AA9" s="60">
         <f>IF(SUM(Q9:Z9)=0,"",SUM(Q9:Z9))</f>
-        <v/>
-      </c>
-      <c r="AB9" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB9" s="67">
         <f>IF(AA9="","",AA9/$AA$6*100)</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC9" s="111">
         <v>21</v>
@@ -26560,15 +26619,15 @@
       </c>
       <c r="AE9" s="112">
         <f>CRS!M9</f>
-        <v>6.8000000000000007</v>
+        <v>69.5</v>
       </c>
       <c r="AF9" s="66">
         <f>CRS!N9</f>
-        <v>36.865833333333335</v>
+        <v>66.515833333333333</v>
       </c>
       <c r="AG9" s="64">
         <f>CRS!O9</f>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AH9" s="61"/>
       <c r="AI9" s="61"/>
@@ -26778,22 +26837,24 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="AC12" s="111"/>
-      <c r="AD12" s="67" t="str">
+      <c r="AC12" s="111">
+        <v>27</v>
+      </c>
+      <c r="AD12" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE12" s="112" t="str">
+        <v>25.714285714285712</v>
+      </c>
+      <c r="AE12" s="112">
         <f>CRS!M12</f>
-        <v/>
-      </c>
-      <c r="AF12" s="66" t="str">
+        <v>8.742857142857142</v>
+      </c>
+      <c r="AF12" s="66">
         <f>CRS!N12</f>
-        <v/>
-      </c>
-      <c r="AG12" s="64" t="str">
+        <v>23.145595238095236</v>
+      </c>
+      <c r="AG12" s="64">
         <f>CRS!O12</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="AH12" s="55"/>
       <c r="AI12" s="55"/>
@@ -26826,8 +26887,12 @@
       <c r="G13" s="109">
         <v>20</v>
       </c>
-      <c r="H13" s="109"/>
-      <c r="I13" s="109"/>
+      <c r="H13" s="109">
+        <v>10</v>
+      </c>
+      <c r="I13" s="109">
+        <v>30</v>
+      </c>
       <c r="J13" s="109"/>
       <c r="K13" s="109"/>
       <c r="L13" s="109"/>
@@ -26835,7 +26900,7 @@
       <c r="N13" s="109"/>
       <c r="O13" s="60">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="P13" s="67">
         <f t="shared" si="1"/>
@@ -26880,11 +26945,11 @@
       </c>
       <c r="AF13" s="66">
         <f>CRS!N13</f>
-        <v>90.48</v>
+        <v>88.78</v>
       </c>
       <c r="AG13" s="64">
         <f>CRS!O13</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH13" s="55"/>
       <c r="AI13" s="55"/>
@@ -26983,41 +27048,57 @@
         <f>CRS!D15</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
+      <c r="E15" s="109">
+        <v>20</v>
+      </c>
+      <c r="F15" s="109">
+        <v>10</v>
+      </c>
       <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
-      <c r="I15" s="109"/>
+      <c r="H15" s="109">
+        <v>10</v>
+      </c>
+      <c r="I15" s="109">
+        <v>30</v>
+      </c>
       <c r="J15" s="109"/>
       <c r="K15" s="109"/>
       <c r="L15" s="109"/>
       <c r="M15" s="109"/>
       <c r="N15" s="109"/>
-      <c r="O15" s="60" t="str">
+      <c r="O15" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P15" s="67" t="str">
+        <v>70</v>
+      </c>
+      <c r="P15" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-      <c r="S15" s="109"/>
-      <c r="T15" s="109"/>
+        <v>70</v>
+      </c>
+      <c r="Q15" s="109">
+        <v>40</v>
+      </c>
+      <c r="R15" s="109">
+        <v>40</v>
+      </c>
+      <c r="S15" s="109">
+        <v>40</v>
+      </c>
+      <c r="T15" s="109">
+        <v>40</v>
+      </c>
       <c r="U15" s="109"/>
       <c r="V15" s="109"/>
       <c r="W15" s="109"/>
       <c r="X15" s="109"/>
       <c r="Y15" s="109"/>
       <c r="Z15" s="109"/>
-      <c r="AA15" s="60" t="str">
+      <c r="AA15" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB15" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB15" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC15" s="111">
         <v>18</v>
@@ -27028,15 +27109,15 @@
       </c>
       <c r="AE15" s="112">
         <f>CRS!M15</f>
-        <v>5.8285714285714292</v>
+        <v>61.928571428571431</v>
       </c>
       <c r="AF15" s="66">
         <f>CRS!N15</f>
-        <v>26.472619047619052</v>
+        <v>52.82261904761905</v>
       </c>
       <c r="AG15" s="64">
         <f>CRS!O15</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH15" s="55"/>
       <c r="AI15" s="55"/>
@@ -27138,38 +27219,48 @@
       <c r="E17" s="109"/>
       <c r="F17" s="109"/>
       <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
+      <c r="H17" s="109">
+        <v>10</v>
+      </c>
       <c r="I17" s="109"/>
       <c r="J17" s="109"/>
       <c r="K17" s="109"/>
       <c r="L17" s="109"/>
       <c r="M17" s="109"/>
       <c r="N17" s="109"/>
-      <c r="O17" s="60" t="str">
+      <c r="O17" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P17" s="67" t="str">
+        <v>10</v>
+      </c>
+      <c r="P17" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
+        <v>10</v>
+      </c>
+      <c r="Q17" s="109">
+        <v>40</v>
+      </c>
+      <c r="R17" s="109">
+        <v>40</v>
+      </c>
+      <c r="S17" s="109">
+        <v>40</v>
+      </c>
+      <c r="T17" s="109">
+        <v>40</v>
+      </c>
       <c r="U17" s="109"/>
       <c r="V17" s="109"/>
       <c r="W17" s="109"/>
       <c r="X17" s="109"/>
       <c r="Y17" s="109"/>
       <c r="Z17" s="109"/>
-      <c r="AA17" s="60" t="str">
+      <c r="AA17" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB17" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB17" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC17" s="111">
         <v>30</v>
@@ -27180,15 +27271,15 @@
       </c>
       <c r="AE17" s="112">
         <f>CRS!M17</f>
-        <v>9.7142857142857135</v>
+        <v>46.014285714285712</v>
       </c>
       <c r="AF17" s="66">
         <f>CRS!N17</f>
-        <v>33.896726190476194</v>
+        <v>52.046726190476193</v>
       </c>
       <c r="AG17" s="64">
         <f>CRS!O17</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AH17" s="55"/>
       <c r="AI17" s="55"/>
@@ -27213,19 +27304,21 @@
       <c r="F18" s="109"/>
       <c r="G18" s="109"/>
       <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
+      <c r="I18" s="109">
+        <v>30</v>
+      </c>
       <c r="J18" s="109"/>
       <c r="K18" s="109"/>
       <c r="L18" s="109"/>
       <c r="M18" s="109"/>
       <c r="N18" s="109"/>
-      <c r="O18" s="60" t="str">
+      <c r="O18" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P18" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="P18" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="Q18" s="109"/>
       <c r="R18" s="109"/>
@@ -27250,17 +27343,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE18" s="112" t="str">
+      <c r="AE18" s="112">
         <f>CRS!M18</f>
-        <v/>
-      </c>
-      <c r="AF18" s="66" t="str">
+        <v>9.9</v>
+      </c>
+      <c r="AF18" s="66">
         <f>CRS!N18</f>
-        <v/>
-      </c>
-      <c r="AG18" s="64" t="str">
+        <v>30.125</v>
+      </c>
+      <c r="AG18" s="64">
         <f>CRS!O18</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="AH18" s="55"/>
       <c r="AI18" s="55"/>
@@ -27282,40 +27375,54 @@
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
       <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
+      <c r="F19" s="109">
+        <v>10</v>
+      </c>
+      <c r="G19" s="109">
+        <v>20</v>
+      </c>
       <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
+      <c r="I19" s="109">
+        <v>30</v>
+      </c>
       <c r="J19" s="109"/>
       <c r="K19" s="109"/>
       <c r="L19" s="109"/>
       <c r="M19" s="109"/>
       <c r="N19" s="109"/>
-      <c r="O19" s="60" t="str">
+      <c r="O19" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P19" s="67" t="str">
+        <v>60</v>
+      </c>
+      <c r="P19" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q19" s="109"/>
-      <c r="R19" s="109"/>
-      <c r="S19" s="109"/>
-      <c r="T19" s="109"/>
+        <v>60</v>
+      </c>
+      <c r="Q19" s="109">
+        <v>40</v>
+      </c>
+      <c r="R19" s="109">
+        <v>40</v>
+      </c>
+      <c r="S19" s="109">
+        <v>40</v>
+      </c>
+      <c r="T19" s="109">
+        <v>40</v>
+      </c>
       <c r="U19" s="109"/>
       <c r="V19" s="109"/>
       <c r="W19" s="109"/>
       <c r="X19" s="109"/>
       <c r="Y19" s="109"/>
       <c r="Z19" s="109"/>
-      <c r="AA19" s="60" t="str">
+      <c r="AA19" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB19" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB19" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC19" s="111">
         <v>39</v>
@@ -27326,15 +27433,15 @@
       </c>
       <c r="AE19" s="112">
         <f>CRS!M19</f>
-        <v>12.62857142857143</v>
+        <v>65.428571428571431</v>
       </c>
       <c r="AF19" s="66">
         <f>CRS!N19</f>
-        <v>15.287619047619049</v>
+        <v>39.987619047619049</v>
       </c>
       <c r="AG19" s="64">
         <f>CRS!O19</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AH19" s="55"/>
       <c r="AI19" s="55"/>
@@ -27356,40 +27463,54 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
+      <c r="F20" s="109">
+        <v>10</v>
+      </c>
+      <c r="G20" s="109">
+        <v>20</v>
+      </c>
+      <c r="H20" s="109">
+        <v>10</v>
+      </c>
       <c r="I20" s="109"/>
       <c r="J20" s="109"/>
       <c r="K20" s="109"/>
       <c r="L20" s="109"/>
       <c r="M20" s="109"/>
       <c r="N20" s="109"/>
-      <c r="O20" s="60" t="str">
+      <c r="O20" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P20" s="67" t="str">
+        <v>40</v>
+      </c>
+      <c r="P20" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q20" s="109"/>
-      <c r="R20" s="109"/>
-      <c r="S20" s="109"/>
-      <c r="T20" s="109"/>
+        <v>40</v>
+      </c>
+      <c r="Q20" s="109">
+        <v>40</v>
+      </c>
+      <c r="R20" s="109">
+        <v>40</v>
+      </c>
+      <c r="S20" s="109">
+        <v>40</v>
+      </c>
+      <c r="T20" s="109">
+        <v>40</v>
+      </c>
       <c r="U20" s="109"/>
       <c r="V20" s="109"/>
       <c r="W20" s="109"/>
       <c r="X20" s="109"/>
       <c r="Y20" s="109"/>
       <c r="Z20" s="109"/>
-      <c r="AA20" s="60" t="str">
+      <c r="AA20" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB20" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB20" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC20" s="111">
         <v>27</v>
@@ -27400,15 +27521,15 @@
       </c>
       <c r="AE20" s="112">
         <f>CRS!M20</f>
-        <v>8.742857142857142</v>
+        <v>54.942857142857143</v>
       </c>
       <c r="AF20" s="66">
         <f>CRS!N20</f>
-        <v>47.398095238095244</v>
+        <v>68.798095238095243</v>
       </c>
       <c r="AG20" s="64">
         <f>CRS!O20</f>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="AH20" s="55"/>
       <c r="AI20" s="55"/>
@@ -27501,41 +27622,57 @@
         <f>CRS!D22</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E22" s="109"/>
+      <c r="E22" s="109">
+        <v>20</v>
+      </c>
       <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
+      <c r="G22" s="109">
+        <v>20</v>
+      </c>
+      <c r="H22" s="109">
+        <v>10</v>
+      </c>
+      <c r="I22" s="109">
+        <v>30</v>
+      </c>
       <c r="J22" s="109"/>
       <c r="K22" s="109"/>
       <c r="L22" s="109"/>
       <c r="M22" s="109"/>
       <c r="N22" s="109"/>
-      <c r="O22" s="60" t="str">
+      <c r="O22" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P22" s="67" t="str">
+        <v>80</v>
+      </c>
+      <c r="P22" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
+        <v>80</v>
+      </c>
+      <c r="Q22" s="109">
+        <v>40</v>
+      </c>
+      <c r="R22" s="109">
+        <v>40</v>
+      </c>
+      <c r="S22" s="109">
+        <v>40</v>
+      </c>
+      <c r="T22" s="109">
+        <v>40</v>
+      </c>
       <c r="U22" s="109"/>
       <c r="V22" s="109"/>
       <c r="W22" s="109"/>
       <c r="X22" s="109"/>
       <c r="Y22" s="109"/>
       <c r="Z22" s="109"/>
-      <c r="AA22" s="60" t="str">
+      <c r="AA22" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB22" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB22" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC22" s="111">
         <v>39</v>
@@ -27546,15 +27683,15 @@
       </c>
       <c r="AE22" s="112">
         <f>CRS!M22</f>
-        <v>12.62857142857143</v>
+        <v>72.028571428571439</v>
       </c>
       <c r="AF22" s="66">
         <f>CRS!N22</f>
-        <v>48.190952380952382</v>
+        <v>76.190952380952382</v>
       </c>
       <c r="AG22" s="64">
         <f>CRS!O22</f>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="AH22" s="55"/>
       <c r="AI22" s="55"/>
@@ -27647,41 +27784,57 @@
         <f>CRS!D24</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
+      <c r="E24" s="109">
+        <v>20</v>
+      </c>
+      <c r="F24" s="109">
+        <v>10</v>
+      </c>
       <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
+      <c r="H24" s="109">
+        <v>10</v>
+      </c>
+      <c r="I24" s="109">
+        <v>30</v>
+      </c>
       <c r="J24" s="109"/>
       <c r="K24" s="109"/>
       <c r="L24" s="109"/>
       <c r="M24" s="109"/>
       <c r="N24" s="109"/>
-      <c r="O24" s="60" t="str">
+      <c r="O24" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P24" s="67" t="str">
+        <v>70</v>
+      </c>
+      <c r="P24" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q24" s="109"/>
-      <c r="R24" s="109"/>
-      <c r="S24" s="109"/>
-      <c r="T24" s="109"/>
+        <v>70</v>
+      </c>
+      <c r="Q24" s="109">
+        <v>40</v>
+      </c>
+      <c r="R24" s="109">
+        <v>40</v>
+      </c>
+      <c r="S24" s="109">
+        <v>40</v>
+      </c>
+      <c r="T24" s="109">
+        <v>40</v>
+      </c>
       <c r="U24" s="109"/>
       <c r="V24" s="109"/>
       <c r="W24" s="109"/>
       <c r="X24" s="109"/>
       <c r="Y24" s="109"/>
       <c r="Z24" s="109"/>
-      <c r="AA24" s="60" t="str">
+      <c r="AA24" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB24" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB24" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC24" s="111">
         <v>21</v>
@@ -27692,15 +27845,15 @@
       </c>
       <c r="AE24" s="112">
         <f>CRS!M24</f>
-        <v>6.8000000000000007</v>
+        <v>62.900000000000006</v>
       </c>
       <c r="AF24" s="66">
         <f>CRS!N24</f>
-        <v>41.832916666666669</v>
+        <v>68.182916666666671</v>
       </c>
       <c r="AG24" s="64">
         <f>CRS!O24</f>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="AH24" s="55"/>
       <c r="AI24" s="55"/>
@@ -27722,40 +27875,56 @@
         <v>BSIT-ERP TRACK-1</v>
       </c>
       <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="109"/>
+      <c r="F25" s="109">
+        <v>10</v>
+      </c>
+      <c r="G25" s="109">
+        <v>20</v>
+      </c>
+      <c r="H25" s="109">
+        <v>10</v>
+      </c>
+      <c r="I25" s="109">
+        <v>30</v>
+      </c>
       <c r="J25" s="109"/>
       <c r="K25" s="109"/>
       <c r="L25" s="109"/>
       <c r="M25" s="109"/>
       <c r="N25" s="109"/>
-      <c r="O25" s="60" t="str">
+      <c r="O25" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P25" s="67" t="str">
+        <v>70</v>
+      </c>
+      <c r="P25" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
+        <v>70</v>
+      </c>
+      <c r="Q25" s="109">
+        <v>40</v>
+      </c>
+      <c r="R25" s="109">
+        <v>40</v>
+      </c>
+      <c r="S25" s="109">
+        <v>40</v>
+      </c>
+      <c r="T25" s="109">
+        <v>40</v>
+      </c>
       <c r="U25" s="109"/>
       <c r="V25" s="109"/>
       <c r="W25" s="109"/>
       <c r="X25" s="109"/>
       <c r="Y25" s="109"/>
       <c r="Z25" s="109"/>
-      <c r="AA25" s="60" t="str">
+      <c r="AA25" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB25" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB25" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC25" s="111">
         <v>36</v>
@@ -27766,15 +27935,15 @@
       </c>
       <c r="AE25" s="112">
         <f>CRS!M25</f>
-        <v>11.657142857142858</v>
+        <v>67.757142857142867</v>
       </c>
       <c r="AF25" s="66">
         <f>CRS!N25</f>
-        <v>39.894821428571426</v>
+        <v>66.244821428571441</v>
       </c>
       <c r="AG25" s="64">
         <f>CRS!O25</f>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AH25" s="55"/>
       <c r="AI25" s="55"/>
@@ -27796,40 +27965,52 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
+      <c r="F26" s="109">
+        <v>10</v>
+      </c>
       <c r="G26" s="109"/>
-      <c r="H26" s="109"/>
+      <c r="H26" s="109">
+        <v>5</v>
+      </c>
       <c r="I26" s="109"/>
       <c r="J26" s="109"/>
       <c r="K26" s="109"/>
       <c r="L26" s="109"/>
       <c r="M26" s="109"/>
       <c r="N26" s="109"/>
-      <c r="O26" s="60" t="str">
+      <c r="O26" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P26" s="67" t="str">
+        <v>15</v>
+      </c>
+      <c r="P26" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
+        <v>15</v>
+      </c>
+      <c r="Q26" s="109">
+        <v>40</v>
+      </c>
+      <c r="R26" s="109">
+        <v>40</v>
+      </c>
+      <c r="S26" s="109">
+        <v>40</v>
+      </c>
+      <c r="T26" s="109">
+        <v>40</v>
+      </c>
       <c r="U26" s="109"/>
       <c r="V26" s="109"/>
       <c r="W26" s="109"/>
       <c r="X26" s="109"/>
       <c r="Y26" s="109"/>
       <c r="Z26" s="109"/>
-      <c r="AA26" s="60" t="str">
+      <c r="AA26" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB26" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB26" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC26" s="111">
         <v>21</v>
@@ -27840,15 +28021,15 @@
       </c>
       <c r="AE26" s="112">
         <f>CRS!M26</f>
-        <v>6.8000000000000007</v>
+        <v>44.75</v>
       </c>
       <c r="AF26" s="66">
         <f>CRS!N26</f>
-        <v>43.139583333333334</v>
+        <v>60.414583333333333</v>
       </c>
       <c r="AG26" s="64">
         <f>CRS!O26</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="AH26" s="373"/>
       <c r="AI26" s="371" t="s">
@@ -27873,21 +28054,25 @@
       </c>
       <c r="E27" s="109"/>
       <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
+      <c r="G27" s="109">
+        <v>20</v>
+      </c>
+      <c r="H27" s="109">
+        <v>10</v>
+      </c>
       <c r="I27" s="109"/>
       <c r="J27" s="109"/>
       <c r="K27" s="109"/>
       <c r="L27" s="109"/>
       <c r="M27" s="109"/>
       <c r="N27" s="109"/>
-      <c r="O27" s="60" t="str">
+      <c r="O27" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P27" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="P27" s="67">
         <f t="shared" si="1"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="Q27" s="109"/>
       <c r="R27" s="109"/>
@@ -27912,17 +28097,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AE27" s="112" t="str">
+      <c r="AE27" s="112">
         <f>CRS!M27</f>
-        <v/>
-      </c>
-      <c r="AF27" s="66" t="str">
+        <v>9.9</v>
+      </c>
+      <c r="AF27" s="66">
         <f>CRS!N27</f>
-        <v/>
-      </c>
-      <c r="AG27" s="64" t="str">
+        <v>31.876249999999999</v>
+      </c>
+      <c r="AG27" s="64">
         <f>CRS!O27</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="AH27" s="374"/>
       <c r="AI27" s="372"/>
@@ -27943,8 +28128,12 @@
         <f>CRS!D28</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
+      <c r="E28" s="109">
+        <v>20</v>
+      </c>
+      <c r="F28" s="109">
+        <v>10</v>
+      </c>
       <c r="G28" s="109"/>
       <c r="H28" s="109"/>
       <c r="I28" s="109"/>
@@ -27953,31 +28142,39 @@
       <c r="L28" s="109"/>
       <c r="M28" s="109"/>
       <c r="N28" s="109"/>
-      <c r="O28" s="60" t="str">
+      <c r="O28" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P28" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="P28" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q28" s="109"/>
-      <c r="R28" s="109"/>
-      <c r="S28" s="109"/>
-      <c r="T28" s="109"/>
+        <v>30</v>
+      </c>
+      <c r="Q28" s="109">
+        <v>40</v>
+      </c>
+      <c r="R28" s="109">
+        <v>40</v>
+      </c>
+      <c r="S28" s="109">
+        <v>40</v>
+      </c>
+      <c r="T28" s="109">
+        <v>40</v>
+      </c>
       <c r="U28" s="109"/>
       <c r="V28" s="109"/>
       <c r="W28" s="109"/>
       <c r="X28" s="109"/>
       <c r="Y28" s="109"/>
       <c r="Z28" s="109"/>
-      <c r="AA28" s="60" t="str">
+      <c r="AA28" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB28" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB28" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC28" s="111">
         <v>33</v>
@@ -27988,15 +28185,15 @@
       </c>
       <c r="AE28" s="112">
         <f>CRS!M28</f>
-        <v>10.685714285714287</v>
-      </c>
-      <c r="AF28" s="66" t="e">
+        <v>53.585714285714289</v>
+      </c>
+      <c r="AF28" s="66">
         <f>CRS!N28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG28" s="64" t="e">
+        <v>38.272857142857148</v>
+      </c>
+      <c r="AG28" s="64">
         <f>CRS!O28</f>
-        <v>#VALUE!</v>
+        <v>73</v>
       </c>
       <c r="AH28" s="374"/>
       <c r="AI28" s="372"/>
@@ -28089,41 +28286,53 @@
         <f>CRS!D30</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E30" s="109"/>
+      <c r="E30" s="109">
+        <v>20</v>
+      </c>
       <c r="F30" s="109"/>
       <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
+      <c r="H30" s="109">
+        <v>10</v>
+      </c>
       <c r="I30" s="109"/>
       <c r="J30" s="109"/>
       <c r="K30" s="109"/>
       <c r="L30" s="109"/>
       <c r="M30" s="109"/>
       <c r="N30" s="109"/>
-      <c r="O30" s="60" t="str">
+      <c r="O30" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P30" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="P30" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
+        <v>30</v>
+      </c>
+      <c r="Q30" s="109">
+        <v>40</v>
+      </c>
+      <c r="R30" s="109">
+        <v>40</v>
+      </c>
+      <c r="S30" s="109">
+        <v>40</v>
+      </c>
+      <c r="T30" s="109">
+        <v>40</v>
+      </c>
       <c r="U30" s="109"/>
       <c r="V30" s="109"/>
       <c r="W30" s="109"/>
       <c r="X30" s="109"/>
       <c r="Y30" s="109"/>
       <c r="Z30" s="109"/>
-      <c r="AA30" s="60" t="str">
+      <c r="AA30" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB30" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB30" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC30" s="111">
         <v>24</v>
@@ -28134,15 +28343,15 @@
       </c>
       <c r="AE30" s="112">
         <f>CRS!M30</f>
-        <v>7.7714285714285722</v>
+        <v>50.671428571428571</v>
       </c>
       <c r="AF30" s="66">
         <f>CRS!N30</f>
-        <v>43.129047619047626</v>
+        <v>62.879047619047626</v>
       </c>
       <c r="AG30" s="64">
         <f>CRS!O30</f>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH30" s="374"/>
       <c r="AI30" s="372"/>
@@ -28164,57 +28373,73 @@
         <v>BSIT-WEB TRACK-2</v>
       </c>
       <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
+      <c r="F31" s="109">
+        <v>10</v>
+      </c>
       <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
+      <c r="H31" s="109">
+        <v>10</v>
+      </c>
+      <c r="I31" s="109">
+        <v>30</v>
+      </c>
       <c r="J31" s="109"/>
       <c r="K31" s="109"/>
       <c r="L31" s="109"/>
       <c r="M31" s="109"/>
       <c r="N31" s="109"/>
-      <c r="O31" s="60" t="str">
+      <c r="O31" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P31" s="67" t="str">
+        <v>50</v>
+      </c>
+      <c r="P31" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q31" s="109"/>
-      <c r="R31" s="109"/>
-      <c r="S31" s="109"/>
-      <c r="T31" s="109"/>
+        <v>50</v>
+      </c>
+      <c r="Q31" s="109">
+        <v>40</v>
+      </c>
+      <c r="R31" s="109">
+        <v>40</v>
+      </c>
+      <c r="S31" s="109">
+        <v>40</v>
+      </c>
+      <c r="T31" s="109">
+        <v>40</v>
+      </c>
       <c r="U31" s="109"/>
       <c r="V31" s="109"/>
       <c r="W31" s="109"/>
       <c r="X31" s="109"/>
       <c r="Y31" s="109"/>
       <c r="Z31" s="109"/>
-      <c r="AA31" s="60" t="str">
+      <c r="AA31" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB31" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB31" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC31" s="111"/>
-      <c r="AD31" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC31" s="111">
+        <v>33</v>
+      </c>
+      <c r="AD31" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE31" s="112" t="str">
+        <v>31.428571428571427</v>
+      </c>
+      <c r="AE31" s="112">
         <f>CRS!M31</f>
-        <v/>
-      </c>
-      <c r="AF31" s="66" t="str">
+        <v>60.185714285714283</v>
+      </c>
+      <c r="AF31" s="66">
         <f>CRS!N31</f>
-        <v/>
-      </c>
-      <c r="AG31" s="64" t="str">
+        <v>70.032857142857139</v>
+      </c>
+      <c r="AG31" s="64">
         <f>CRS!O31</f>
-        <v/>
+        <v>85</v>
       </c>
       <c r="AH31" s="374"/>
       <c r="AI31" s="372"/>
@@ -28235,41 +28460,55 @@
         <f>CRS!D32</f>
         <v>BSIT-NET SEC TRACK-2</v>
       </c>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
+      <c r="E32" s="109">
+        <v>20</v>
+      </c>
+      <c r="F32" s="109">
+        <v>10</v>
+      </c>
       <c r="G32" s="109"/>
-      <c r="H32" s="109"/>
+      <c r="H32" s="109">
+        <v>5</v>
+      </c>
       <c r="I32" s="109"/>
       <c r="J32" s="109"/>
       <c r="K32" s="109"/>
       <c r="L32" s="109"/>
       <c r="M32" s="109"/>
       <c r="N32" s="109"/>
-      <c r="O32" s="60" t="str">
+      <c r="O32" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P32" s="67" t="str">
+        <v>35</v>
+      </c>
+      <c r="P32" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q32" s="109"/>
-      <c r="R32" s="109"/>
-      <c r="S32" s="109"/>
-      <c r="T32" s="109"/>
+        <v>35</v>
+      </c>
+      <c r="Q32" s="109">
+        <v>40</v>
+      </c>
+      <c r="R32" s="109">
+        <v>40</v>
+      </c>
+      <c r="S32" s="109">
+        <v>40</v>
+      </c>
+      <c r="T32" s="109">
+        <v>40</v>
+      </c>
       <c r="U32" s="109"/>
       <c r="V32" s="109"/>
       <c r="W32" s="109"/>
       <c r="X32" s="109"/>
       <c r="Y32" s="109"/>
       <c r="Z32" s="109"/>
-      <c r="AA32" s="60" t="str">
+      <c r="AA32" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB32" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB32" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC32" s="111">
         <v>18</v>
@@ -28280,15 +28519,15 @@
       </c>
       <c r="AE32" s="112">
         <f>CRS!M32</f>
-        <v>5.8285714285714292</v>
+        <v>50.378571428571426</v>
       </c>
       <c r="AF32" s="66">
         <f>CRS!N32</f>
-        <v>27.995952380952382</v>
+        <v>52.990952380952379</v>
       </c>
       <c r="AG32" s="64">
         <f>CRS!O32</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH32" s="374"/>
       <c r="AI32" s="372"/>
@@ -28384,58 +28623,74 @@
         <f>CRS!D34</f>
         <v>BSIT-WEB TRACK-1</v>
       </c>
-      <c r="E34" s="109"/>
+      <c r="E34" s="109">
+        <v>20</v>
+      </c>
       <c r="F34" s="109"/>
       <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
+      <c r="H34" s="109">
+        <v>10</v>
+      </c>
+      <c r="I34" s="109">
+        <v>30</v>
+      </c>
       <c r="J34" s="109"/>
       <c r="K34" s="109"/>
       <c r="L34" s="109"/>
       <c r="M34" s="109"/>
       <c r="N34" s="109"/>
-      <c r="O34" s="60" t="str">
+      <c r="O34" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P34" s="67" t="str">
+        <v>60</v>
+      </c>
+      <c r="P34" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
+        <v>60</v>
+      </c>
+      <c r="Q34" s="109">
+        <v>40</v>
+      </c>
+      <c r="R34" s="109">
+        <v>40</v>
+      </c>
+      <c r="S34" s="109">
+        <v>40</v>
+      </c>
+      <c r="T34" s="109">
+        <v>40</v>
+      </c>
       <c r="U34" s="109"/>
       <c r="V34" s="109"/>
       <c r="W34" s="109"/>
       <c r="X34" s="109"/>
       <c r="Y34" s="109"/>
       <c r="Z34" s="109"/>
-      <c r="AA34" s="60" t="str">
+      <c r="AA34" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB34" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB34" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC34" s="111"/>
-      <c r="AD34" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC34" s="111">
+        <v>30</v>
+      </c>
+      <c r="AD34" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE34" s="112" t="str">
+        <v>28.571428571428569</v>
+      </c>
+      <c r="AE34" s="112">
         <f>CRS!M34</f>
-        <v/>
-      </c>
-      <c r="AF34" s="66" t="str">
+        <v>62.514285714285712</v>
+      </c>
+      <c r="AF34" s="66">
         <f>CRS!N34</f>
-        <v/>
-      </c>
-      <c r="AG34" s="64" t="str">
+        <v>64.873809523809527</v>
+      </c>
+      <c r="AG34" s="64">
         <f>CRS!O34</f>
-        <v/>
+        <v>82</v>
       </c>
       <c r="AH34" s="374"/>
       <c r="AI34" s="372"/>
@@ -28459,8 +28714,12 @@
         <f>CRS!D35</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
+      <c r="E35" s="109">
+        <v>20</v>
+      </c>
+      <c r="F35" s="109">
+        <v>10</v>
+      </c>
       <c r="G35" s="109"/>
       <c r="H35" s="109"/>
       <c r="I35" s="109"/>
@@ -28469,31 +28728,39 @@
       <c r="L35" s="109"/>
       <c r="M35" s="109"/>
       <c r="N35" s="109"/>
-      <c r="O35" s="60" t="str">
+      <c r="O35" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P35" s="67" t="str">
+        <v>30</v>
+      </c>
+      <c r="P35" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q35" s="109"/>
-      <c r="R35" s="109"/>
-      <c r="S35" s="109"/>
-      <c r="T35" s="109"/>
+        <v>30</v>
+      </c>
+      <c r="Q35" s="109">
+        <v>40</v>
+      </c>
+      <c r="R35" s="109">
+        <v>40</v>
+      </c>
+      <c r="S35" s="109">
+        <v>40</v>
+      </c>
+      <c r="T35" s="109">
+        <v>40</v>
+      </c>
       <c r="U35" s="109"/>
       <c r="V35" s="109"/>
       <c r="W35" s="109"/>
       <c r="X35" s="109"/>
       <c r="Y35" s="109"/>
       <c r="Z35" s="109"/>
-      <c r="AA35" s="60" t="str">
+      <c r="AA35" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB35" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB35" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC35" s="111">
         <v>27</v>
@@ -28504,15 +28771,15 @@
       </c>
       <c r="AE35" s="112">
         <f>CRS!M35</f>
-        <v>8.742857142857142</v>
+        <v>51.642857142857139</v>
       </c>
       <c r="AF35" s="66">
         <f>CRS!N35</f>
-        <v>42.940178571428575</v>
+        <v>62.690178571428568</v>
       </c>
       <c r="AG35" s="64">
         <f>CRS!O35</f>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="AH35" s="374"/>
       <c r="AI35" s="372"/>
@@ -28537,57 +28804,71 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="E36" s="109"/>
-      <c r="F36" s="109"/>
+      <c r="F36" s="109">
+        <v>5</v>
+      </c>
       <c r="G36" s="109"/>
-      <c r="H36" s="109"/>
+      <c r="H36" s="109">
+        <v>5</v>
+      </c>
       <c r="I36" s="109"/>
       <c r="J36" s="109"/>
       <c r="K36" s="109"/>
       <c r="L36" s="109"/>
       <c r="M36" s="109"/>
       <c r="N36" s="109"/>
-      <c r="O36" s="60" t="str">
+      <c r="O36" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P36" s="67" t="str">
+        <v>10</v>
+      </c>
+      <c r="P36" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q36" s="109"/>
-      <c r="R36" s="109"/>
-      <c r="S36" s="109"/>
-      <c r="T36" s="109"/>
+        <v>10</v>
+      </c>
+      <c r="Q36" s="109">
+        <v>40</v>
+      </c>
+      <c r="R36" s="109">
+        <v>40</v>
+      </c>
+      <c r="S36" s="109">
+        <v>40</v>
+      </c>
+      <c r="T36" s="109">
+        <v>40</v>
+      </c>
       <c r="U36" s="109"/>
       <c r="V36" s="109"/>
       <c r="W36" s="109"/>
       <c r="X36" s="109"/>
       <c r="Y36" s="109"/>
       <c r="Z36" s="109"/>
-      <c r="AA36" s="60" t="str">
+      <c r="AA36" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB36" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB36" s="67">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="AC36" s="111"/>
-      <c r="AD36" s="67" t="str">
+        <v>100</v>
+      </c>
+      <c r="AC36" s="111">
+        <v>33</v>
+      </c>
+      <c r="AD36" s="67">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="AE36" s="112" t="str">
+        <v>31.428571428571427</v>
+      </c>
+      <c r="AE36" s="112">
         <f>CRS!M36</f>
-        <v/>
-      </c>
-      <c r="AF36" s="66" t="str">
+        <v>46.98571428571428</v>
+      </c>
+      <c r="AF36" s="66">
         <f>CRS!N36</f>
-        <v/>
-      </c>
-      <c r="AG36" s="64" t="str">
+        <v>60.592857142857142</v>
+      </c>
+      <c r="AG36" s="64">
         <f>CRS!O36</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="AH36" s="374"/>
       <c r="AI36" s="372"/>
@@ -28687,40 +28968,56 @@
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
       <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="109"/>
+      <c r="F38" s="109">
+        <v>15</v>
+      </c>
+      <c r="G38" s="109">
+        <v>20</v>
+      </c>
+      <c r="H38" s="109">
+        <v>10</v>
+      </c>
+      <c r="I38" s="109">
+        <v>30</v>
+      </c>
       <c r="J38" s="109"/>
       <c r="K38" s="109"/>
       <c r="L38" s="109"/>
       <c r="M38" s="109"/>
       <c r="N38" s="109"/>
-      <c r="O38" s="60" t="str">
+      <c r="O38" s="60">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="P38" s="67" t="str">
+        <v>75</v>
+      </c>
+      <c r="P38" s="67">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="109"/>
+        <v>75</v>
+      </c>
+      <c r="Q38" s="109">
+        <v>40</v>
+      </c>
+      <c r="R38" s="109">
+        <v>40</v>
+      </c>
+      <c r="S38" s="109">
+        <v>40</v>
+      </c>
+      <c r="T38" s="109">
+        <v>40</v>
+      </c>
       <c r="U38" s="109"/>
       <c r="V38" s="109"/>
       <c r="W38" s="109"/>
       <c r="X38" s="109"/>
       <c r="Y38" s="109"/>
       <c r="Z38" s="109"/>
-      <c r="AA38" s="60" t="str">
+      <c r="AA38" s="60">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="AB38" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB38" s="67">
         <f t="shared" si="3"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC38" s="111">
         <v>33</v>
@@ -28731,15 +29028,15 @@
       </c>
       <c r="AE38" s="112">
         <f>CRS!M38</f>
-        <v>10.685714285714287</v>
+        <v>68.435714285714283</v>
       </c>
       <c r="AF38" s="66">
         <f>CRS!N38</f>
-        <v>45.439523809523806</v>
+        <v>72.614523809523803</v>
       </c>
       <c r="AG38" s="64">
         <f>CRS!O38</f>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="AH38" s="374"/>
       <c r="AI38" s="372"/>
@@ -29198,13 +29495,13 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="H46" s="57" t="str">
+      <c r="H46" s="57">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I46" s="57" t="str">
+        <v>10</v>
+      </c>
+      <c r="I46" s="57">
         <f t="shared" si="5"/>
-        <v/>
+        <v>30</v>
       </c>
       <c r="J46" s="57" t="str">
         <f t="shared" si="5"/>
@@ -29294,23 +29591,23 @@
       <c r="D47" s="304"/>
       <c r="E47" s="317" t="str">
         <f>IF(E6="","",E6)</f>
-        <v/>
+        <v>SW 021517</v>
       </c>
       <c r="F47" s="317" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>SW 030317</v>
       </c>
       <c r="G47" s="317" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>SW 030117</v>
       </c>
       <c r="H47" s="317" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>SW 022117</v>
       </c>
       <c r="I47" s="317" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>SW 022417</v>
       </c>
       <c r="J47" s="317" t="str">
         <f t="shared" si="5"/>
@@ -29334,7 +29631,7 @@
       </c>
       <c r="O47" s="369">
         <f>O6</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="P47" s="311"/>
       <c r="Q47" s="317" t="str">
@@ -29494,40 +29791,54 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
+      <c r="F50" s="109">
+        <v>10</v>
+      </c>
       <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
+      <c r="H50" s="109">
+        <v>5</v>
+      </c>
+      <c r="I50" s="109">
+        <v>30</v>
+      </c>
       <c r="J50" s="109"/>
       <c r="K50" s="109"/>
       <c r="L50" s="109"/>
       <c r="M50" s="109"/>
       <c r="N50" s="109"/>
-      <c r="O50" s="60" t="str">
+      <c r="O50" s="60">
         <f t="shared" ref="O50:O80" si="8">IF(SUM(E50:N50)=0,"",SUM(E50:N50))</f>
-        <v/>
-      </c>
-      <c r="P50" s="67" t="str">
+        <v>45</v>
+      </c>
+      <c r="P50" s="67">
         <f t="shared" ref="P50:P80" si="9">IF(O50="","",O50/$O$6*100)</f>
-        <v/>
-      </c>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="109"/>
-      <c r="T50" s="109"/>
+        <v>45</v>
+      </c>
+      <c r="Q50" s="109">
+        <v>40</v>
+      </c>
+      <c r="R50" s="109">
+        <v>40</v>
+      </c>
+      <c r="S50" s="109">
+        <v>40</v>
+      </c>
+      <c r="T50" s="109">
+        <v>40</v>
+      </c>
       <c r="U50" s="109"/>
       <c r="V50" s="109"/>
       <c r="W50" s="109"/>
       <c r="X50" s="109"/>
       <c r="Y50" s="109"/>
       <c r="Z50" s="109"/>
-      <c r="AA50" s="60" t="str">
+      <c r="AA50" s="60">
         <f t="shared" ref="AA50:AA80" si="10">IF(SUM(Q50:Z50)=0,"",SUM(Q50:Z50))</f>
-        <v/>
-      </c>
-      <c r="AB50" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB50" s="67">
         <f t="shared" ref="AB50:AB80" si="11">IF(AA50="","",AA50/$AA$6*100)</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC50" s="111">
         <v>33</v>
@@ -29538,15 +29849,15 @@
       </c>
       <c r="AE50" s="112">
         <f>CRS!M50</f>
-        <v>10.685714285714287</v>
+        <v>58.535714285714292</v>
       </c>
       <c r="AF50" s="66">
         <f>CRS!N50</f>
-        <v>21.642857142857146</v>
+        <v>43.867857142857147</v>
       </c>
       <c r="AG50" s="64">
         <f>CRS!O50</f>
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29565,41 +29876,55 @@
         <f>CRS!D51</f>
         <v>BSCS-MOBILE TECH TRACK-1</v>
       </c>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
+      <c r="E51" s="109">
+        <v>20</v>
+      </c>
+      <c r="F51" s="109">
+        <v>10</v>
+      </c>
       <c r="G51" s="109"/>
       <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
+      <c r="I51" s="109">
+        <v>3</v>
+      </c>
       <c r="J51" s="109"/>
       <c r="K51" s="109"/>
       <c r="L51" s="109"/>
       <c r="M51" s="109"/>
       <c r="N51" s="109"/>
-      <c r="O51" s="60" t="str">
+      <c r="O51" s="60">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="P51" s="67" t="str">
+        <v>33</v>
+      </c>
+      <c r="P51" s="67">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q51" s="109"/>
-      <c r="R51" s="109"/>
-      <c r="S51" s="109"/>
-      <c r="T51" s="109"/>
+        <v>33</v>
+      </c>
+      <c r="Q51" s="109">
+        <v>40</v>
+      </c>
+      <c r="R51" s="109">
+        <v>40</v>
+      </c>
+      <c r="S51" s="109">
+        <v>40</v>
+      </c>
+      <c r="T51" s="109">
+        <v>40</v>
+      </c>
       <c r="U51" s="109"/>
       <c r="V51" s="109"/>
       <c r="W51" s="109"/>
       <c r="X51" s="109"/>
       <c r="Y51" s="109"/>
       <c r="Z51" s="109"/>
-      <c r="AA51" s="60" t="str">
+      <c r="AA51" s="60">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB51" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB51" s="67">
         <f t="shared" si="11"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC51" s="111">
         <v>33</v>
@@ -29610,15 +29935,15 @@
       </c>
       <c r="AE51" s="112">
         <f>CRS!M51</f>
-        <v>10.685714285714287</v>
+        <v>54.575714285714284</v>
       </c>
       <c r="AF51" s="66">
         <f>CRS!N51</f>
-        <v>33.369523809523812</v>
+        <v>53.61452380952381</v>
       </c>
       <c r="AG51" s="64">
         <f>CRS!O51</f>
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29646,8 +29971,12 @@
       <c r="G52" s="109">
         <v>20</v>
       </c>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
+      <c r="H52" s="109">
+        <v>10</v>
+      </c>
+      <c r="I52" s="109">
+        <v>30</v>
+      </c>
       <c r="J52" s="109"/>
       <c r="K52" s="109"/>
       <c r="L52" s="109"/>
@@ -29655,7 +29984,7 @@
       <c r="N52" s="109"/>
       <c r="O52" s="60">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="P52" s="67">
         <f t="shared" si="9"/>
@@ -29700,11 +30029,11 @@
       </c>
       <c r="AF52" s="66">
         <f>CRS!N52</f>
-        <v>89.67619047619047</v>
+        <v>87.976190476190482</v>
       </c>
       <c r="AG52" s="64">
         <f>CRS!O52</f>
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29723,9 +30052,13 @@
         <f>CRS!D53</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E53" s="109"/>
+      <c r="E53" s="109">
+        <v>20</v>
+      </c>
       <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
+      <c r="G53" s="109">
+        <v>20</v>
+      </c>
       <c r="H53" s="109"/>
       <c r="I53" s="109"/>
       <c r="J53" s="109"/>
@@ -29733,13 +30066,13 @@
       <c r="L53" s="109"/>
       <c r="M53" s="109"/>
       <c r="N53" s="109"/>
-      <c r="O53" s="60" t="str">
+      <c r="O53" s="60">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="P53" s="67" t="str">
+        <v>40</v>
+      </c>
+      <c r="P53" s="67">
         <f t="shared" si="9"/>
-        <v/>
+        <v>40</v>
       </c>
       <c r="Q53" s="109"/>
       <c r="R53" s="109"/>
@@ -29764,17 +30097,17 @@
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="AE53" s="112" t="str">
+      <c r="AE53" s="112">
         <f>CRS!M53</f>
-        <v/>
-      </c>
-      <c r="AF53" s="66" t="str">
+        <v>13.200000000000001</v>
+      </c>
+      <c r="AF53" s="66">
         <f>CRS!N53</f>
-        <v/>
-      </c>
-      <c r="AG53" s="64" t="str">
+        <v>33.132916666666667</v>
+      </c>
+      <c r="AG53" s="64">
         <f>CRS!O53</f>
-        <v/>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29793,41 +30126,57 @@
         <f>CRS!D54</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
+      <c r="E54" s="109">
+        <v>20</v>
+      </c>
+      <c r="F54" s="109">
+        <v>10</v>
+      </c>
+      <c r="G54" s="109">
+        <v>20</v>
+      </c>
+      <c r="H54" s="109">
+        <v>5</v>
+      </c>
       <c r="I54" s="109"/>
       <c r="J54" s="109"/>
       <c r="K54" s="109"/>
       <c r="L54" s="109"/>
       <c r="M54" s="109"/>
       <c r="N54" s="109"/>
-      <c r="O54" s="60" t="str">
+      <c r="O54" s="60">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="P54" s="67" t="str">
+        <v>55</v>
+      </c>
+      <c r="P54" s="67">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q54" s="109"/>
-      <c r="R54" s="109"/>
-      <c r="S54" s="109"/>
-      <c r="T54" s="109"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="Q54" s="109">
+        <v>40</v>
+      </c>
+      <c r="R54" s="109">
+        <v>40</v>
+      </c>
+      <c r="S54" s="109">
+        <v>40</v>
+      </c>
+      <c r="T54" s="109">
+        <v>40</v>
+      </c>
       <c r="U54" s="109"/>
       <c r="V54" s="109"/>
       <c r="W54" s="109"/>
       <c r="X54" s="109"/>
       <c r="Y54" s="109"/>
       <c r="Z54" s="109"/>
-      <c r="AA54" s="60" t="str">
+      <c r="AA54" s="60">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB54" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB54" s="67">
         <f t="shared" si="11"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC54" s="111">
         <v>24</v>
@@ -29838,15 +30187,15 @@
       </c>
       <c r="AE54" s="112">
         <f>CRS!M54</f>
-        <v>7.7714285714285722</v>
+        <v>58.921428571428578</v>
       </c>
       <c r="AF54" s="66">
         <f>CRS!N54</f>
-        <v>30.120714285714286</v>
+        <v>53.995714285714286</v>
       </c>
       <c r="AG54" s="64">
         <f>CRS!O54</f>
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -29865,41 +30214,57 @@
         <f>CRS!D55</f>
         <v>BSIT-NET SEC TRACK-1</v>
       </c>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
+      <c r="E55" s="109">
+        <v>20</v>
+      </c>
+      <c r="F55" s="109">
+        <v>10</v>
+      </c>
+      <c r="G55" s="109">
+        <v>20</v>
+      </c>
+      <c r="H55" s="109">
+        <v>10</v>
+      </c>
       <c r="I55" s="109"/>
       <c r="J55" s="109"/>
       <c r="K55" s="109"/>
       <c r="L55" s="109"/>
       <c r="M55" s="109"/>
       <c r="N55" s="109"/>
-      <c r="O55" s="60" t="str">
+      <c r="O55" s="60">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="P55" s="67" t="str">
+        <v>60</v>
+      </c>
+      <c r="P55" s="67">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q55" s="109"/>
-      <c r="R55" s="109"/>
-      <c r="S55" s="109"/>
-      <c r="T55" s="109"/>
+        <v>60</v>
+      </c>
+      <c r="Q55" s="109">
+        <v>40</v>
+      </c>
+      <c r="R55" s="109">
+        <v>40</v>
+      </c>
+      <c r="S55" s="109">
+        <v>40</v>
+      </c>
+      <c r="T55" s="109">
+        <v>40</v>
+      </c>
       <c r="U55" s="109"/>
       <c r="V55" s="109"/>
       <c r="W55" s="109"/>
       <c r="X55" s="109"/>
       <c r="Y55" s="109"/>
       <c r="Z55" s="109"/>
-      <c r="AA55" s="60" t="str">
+      <c r="AA55" s="60">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="AB55" s="67" t="str">
+        <v>160</v>
+      </c>
+      <c r="AB55" s="67">
         <f t="shared" si="11"/>
-        <v/>
+        <v>100</v>
       </c>
       <c r="AC55" s="111">
         <v>18</v>
@@ -29910,15 +30275,15 @@
       </c>
       <c r="AE55" s="112">
         <f>CRS!M55</f>
-        <v>5.8285714285714292</v>
+        <v>58.628571428571426</v>
       </c>
       <c r="AF55" s="66">
         <f>CRS!N55</f>
-        <v>35.89261904761905</v>
+        <v>60.592619047619053</v>
       </c>
       <c r="AG55" s="64">
         <f>CRS!O55</f>
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -38512,12 +38877,12 @@
       <c r="H15" s="133"/>
       <c r="I15" s="144">
         <f>IF(CRS!I9="","",CRS!I9)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J15" s="145"/>
       <c r="K15" s="144">
         <f>IF(CRS!O9="","",CRS!O9)</f>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="L15" s="146"/>
       <c r="M15" s="144" t="str">
@@ -38692,9 +39057,9 @@
         <v>73</v>
       </c>
       <c r="J18" s="145"/>
-      <c r="K18" s="144" t="str">
+      <c r="K18" s="144">
         <f>IF(CRS!O12="","",CRS!O12)</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="L18" s="146"/>
       <c r="M18" s="144" t="str">
@@ -38748,12 +39113,12 @@
       <c r="H19" s="133"/>
       <c r="I19" s="144">
         <f>IF(CRS!I13="","",CRS!I13)</f>
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J19" s="145"/>
       <c r="K19" s="144">
         <f>IF(CRS!O13="","",CRS!O13)</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L19" s="146"/>
       <c r="M19" s="144" t="str">
@@ -38871,7 +39236,7 @@
       <c r="J21" s="145"/>
       <c r="K21" s="144">
         <f>IF(CRS!O15="","",CRS!O15)</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L21" s="146"/>
       <c r="M21" s="144" t="str">
@@ -38989,7 +39354,7 @@
       <c r="J23" s="145"/>
       <c r="K23" s="144">
         <f>IF(CRS!O17="","",CRS!O17)</f>
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="L23" s="146"/>
       <c r="M23" s="144" t="str">
@@ -39043,12 +39408,12 @@
       <c r="H24" s="133"/>
       <c r="I24" s="144">
         <f>IF(CRS!I18="","",CRS!I18)</f>
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="J24" s="145"/>
-      <c r="K24" s="144" t="str">
+      <c r="K24" s="144">
         <f>IF(CRS!O18="","",CRS!O18)</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="L24" s="146"/>
       <c r="M24" s="144" t="str">
@@ -39107,7 +39472,7 @@
       <c r="J25" s="145"/>
       <c r="K25" s="144">
         <f>IF(CRS!O19="","",CRS!O19)</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L25" s="146"/>
       <c r="M25" s="144" t="str">
@@ -39161,12 +39526,12 @@
       <c r="H26" s="133"/>
       <c r="I26" s="144">
         <f>IF(CRS!I20="","",CRS!I20)</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J26" s="145"/>
       <c r="K26" s="144">
         <f>IF(CRS!O20="","",CRS!O20)</f>
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="L26" s="146"/>
       <c r="M26" s="144" t="str">
@@ -39279,12 +39644,12 @@
       <c r="H28" s="133"/>
       <c r="I28" s="144">
         <f>IF(CRS!I22="","",CRS!I22)</f>
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J28" s="145"/>
       <c r="K28" s="144">
         <f>IF(CRS!O22="","",CRS!O22)</f>
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="L28" s="146"/>
       <c r="M28" s="144" t="str">
@@ -39397,12 +39762,12 @@
       <c r="H30" s="133"/>
       <c r="I30" s="144">
         <f>IF(CRS!I24="","",CRS!I24)</f>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J30" s="145"/>
       <c r="K30" s="144">
         <f>IF(CRS!O24="","",CRS!O24)</f>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="L30" s="146"/>
       <c r="M30" s="144" t="str">
@@ -39456,12 +39821,12 @@
       <c r="H31" s="133"/>
       <c r="I31" s="144">
         <f>IF(CRS!I25="","",CRS!I25)</f>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J31" s="145"/>
       <c r="K31" s="144">
         <f>IF(CRS!O25="","",CRS!O25)</f>
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="L31" s="146"/>
       <c r="M31" s="144" t="str">
@@ -39515,12 +39880,12 @@
       <c r="H32" s="133"/>
       <c r="I32" s="144">
         <f>IF(CRS!I26="","",CRS!I26)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J32" s="145"/>
       <c r="K32" s="144">
         <f>IF(CRS!O26="","",CRS!O26)</f>
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="L32" s="146"/>
       <c r="M32" s="144" t="str">
@@ -39574,12 +39939,12 @@
       <c r="H33" s="133"/>
       <c r="I33" s="144">
         <f>IF(CRS!I27="","",CRS!I27)</f>
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J33" s="145"/>
-      <c r="K33" s="144" t="str">
+      <c r="K33" s="144">
         <f>IF(CRS!O27="","",CRS!O27)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L33" s="146"/>
       <c r="M33" s="144" t="str">
@@ -39631,14 +39996,14 @@
         <v>BSIT-WEB TRACK-1</v>
       </c>
       <c r="H34" s="133"/>
-      <c r="I34" s="144" t="str">
+      <c r="I34" s="144">
         <f>IF(CRS!I28="","",CRS!I28)</f>
-        <v/>
+        <v>72</v>
       </c>
       <c r="J34" s="145"/>
-      <c r="K34" s="144" t="e">
+      <c r="K34" s="144">
         <f>IF(CRS!O28="","",CRS!O28)</f>
-        <v>#VALUE!</v>
+        <v>73</v>
       </c>
       <c r="L34" s="146"/>
       <c r="M34" s="144" t="str">
@@ -39692,7 +40057,7 @@
       <c r="H35" s="133"/>
       <c r="I35" s="144">
         <f>IF(CRS!I29="","",CRS!I29)</f>
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J35" s="145"/>
       <c r="K35" s="144" t="str">
@@ -39751,12 +40116,12 @@
       <c r="H36" s="133"/>
       <c r="I36" s="144">
         <f>IF(CRS!I30="","",CRS!I30)</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J36" s="145"/>
       <c r="K36" s="144">
         <f>IF(CRS!O30="","",CRS!O30)</f>
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="L36" s="146"/>
       <c r="M36" s="144" t="str">
@@ -39810,12 +40175,12 @@
       <c r="H37" s="133"/>
       <c r="I37" s="144">
         <f>IF(CRS!I31="","",CRS!I31)</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="145"/>
-      <c r="K37" s="144" t="str">
+      <c r="K37" s="144">
         <f>IF(CRS!O31="","",CRS!O31)</f>
-        <v/>
+        <v>85</v>
       </c>
       <c r="L37" s="146"/>
       <c r="M37" s="144" t="str">
@@ -39869,12 +40234,12 @@
       <c r="H38" s="133"/>
       <c r="I38" s="144">
         <f>IF(CRS!I32="","",CRS!I32)</f>
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J38" s="145"/>
       <c r="K38" s="144">
         <f>IF(CRS!O32="","",CRS!O32)</f>
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L38" s="146"/>
       <c r="M38" s="144" t="str">
@@ -39987,12 +40352,12 @@
       <c r="H40" s="133"/>
       <c r="I40" s="144">
         <f>IF(CRS!I34="","",CRS!I34)</f>
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J40" s="145"/>
-      <c r="K40" s="144" t="str">
+      <c r="K40" s="144">
         <f>IF(CRS!O34="","",CRS!O34)</f>
-        <v/>
+        <v>82</v>
       </c>
       <c r="L40" s="146"/>
       <c r="M40" s="144" t="str">
@@ -40046,12 +40411,12 @@
       <c r="H41" s="133"/>
       <c r="I41" s="144">
         <f>IF(CRS!I35="","",CRS!I35)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J41" s="145"/>
       <c r="K41" s="144">
         <f>IF(CRS!O35="","",CRS!O35)</f>
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="L41" s="146"/>
       <c r="M41" s="144" t="str">
@@ -40105,12 +40470,12 @@
       <c r="H42" s="133"/>
       <c r="I42" s="144">
         <f>IF(CRS!I36="","",CRS!I36)</f>
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J42" s="145"/>
-      <c r="K42" s="144" t="str">
+      <c r="K42" s="144">
         <f>IF(CRS!O36="","",CRS!O36)</f>
-        <v/>
+        <v>80</v>
       </c>
       <c r="L42" s="146"/>
       <c r="M42" s="144" t="str">
@@ -40223,12 +40588,12 @@
       <c r="H44" s="133"/>
       <c r="I44" s="144">
         <f>IF(CRS!I38="","",CRS!I38)</f>
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J44" s="145"/>
       <c r="K44" s="144">
         <f>IF(CRS!O38="","",CRS!O38)</f>
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="L44" s="146"/>
       <c r="M44" s="144" t="str">
@@ -40913,12 +41278,12 @@
       <c r="H76" s="133"/>
       <c r="I76" s="144">
         <f>IF(CRS!I50="","",CRS!I50)</f>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J76" s="145"/>
       <c r="K76" s="144">
         <f>IF(CRS!O50="","",CRS!O50)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L76" s="146"/>
       <c r="M76" s="144" t="str">
@@ -40972,12 +41337,12 @@
       <c r="H77" s="133"/>
       <c r="I77" s="144">
         <f>IF(CRS!I51="","",CRS!I51)</f>
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J77" s="145"/>
       <c r="K77" s="144">
         <f>IF(CRS!O51="","",CRS!O51)</f>
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L77" s="146"/>
       <c r="M77" s="144" t="str">
@@ -41031,12 +41396,12 @@
       <c r="H78" s="133"/>
       <c r="I78" s="144">
         <f>IF(CRS!I52="","",CRS!I52)</f>
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J78" s="145"/>
       <c r="K78" s="144">
         <f>IF(CRS!O52="","",CRS!O52)</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L78" s="146"/>
       <c r="M78" s="144" t="str">
@@ -41090,12 +41455,12 @@
       <c r="H79" s="133"/>
       <c r="I79" s="144">
         <f>IF(CRS!I53="","",CRS!I53)</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J79" s="145"/>
-      <c r="K79" s="144" t="str">
+      <c r="K79" s="144">
         <f>IF(CRS!O53="","",CRS!O53)</f>
-        <v/>
+        <v>73</v>
       </c>
       <c r="L79" s="146"/>
       <c r="M79" s="144" t="str">
@@ -41149,12 +41514,12 @@
       <c r="H80" s="133"/>
       <c r="I80" s="144">
         <f>IF(CRS!I54="","",CRS!I54)</f>
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J80" s="145"/>
       <c r="K80" s="144">
         <f>IF(CRS!O54="","",CRS!O54)</f>
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L80" s="146"/>
       <c r="M80" s="144" t="str">
@@ -41208,12 +41573,12 @@
       <c r="H81" s="133"/>
       <c r="I81" s="144">
         <f>IF(CRS!I55="","",CRS!I55)</f>
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J81" s="145"/>
       <c r="K81" s="144">
         <f>IF(CRS!O55="","",CRS!O55)</f>
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L81" s="146"/>
       <c r="M81" s="144" t="str">

--- a/2T1617CR/2T1617 - CITCS-ICS2-CITCS INTL 3.xlsx
+++ b/2T1617CR/2T1617 - CITCS-ICS2-CITCS INTL 3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INITIAL INPUT" sheetId="1" r:id="rId1"/>
@@ -3040,10 +3040,126 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3055,10 +3171,6 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="6" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3122,10 +3234,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="37" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="38" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -3133,222 +3241,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="38" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="15" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="5" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="6" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="6" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="46" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="43" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3382,74 +3280,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="44" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3478,8 +3308,76 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="46" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="43" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3502,55 +3400,186 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="44" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="15" fontId="46" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="61" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="62" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="63" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="59" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="62" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="63" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="46" fillId="0" borderId="64" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="45" fillId="0" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="45" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="66" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="67" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="68" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="69" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -3566,61 +3595,74 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="68" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="22" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3643,126 +3685,12 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="55" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="70" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3793,37 +3721,109 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="68" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="54" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="62" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="64" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="65" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="74" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="2" fontId="69" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3840,22 +3840,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="76" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3882,6 +3866,22 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="1" fontId="59" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
@@ -8071,39 +8071,39 @@
   <sheetData>
     <row r="1" spans="2:18" s="24" customFormat="1" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:18" ht="13.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="177"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="179"/>
-      <c r="P2" s="210" t="s">
+      <c r="B2" s="207"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="209"/>
+      <c r="P2" s="169" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="210"/>
-      <c r="R2" s="210"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
     </row>
     <row r="3" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="182"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
       <c r="P3" s="27" t="s">
         <v>25</v>
       </c>
@@ -8115,19 +8115,19 @@
       </c>
     </row>
     <row r="4" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="180"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="181"/>
-      <c r="I4" s="181"/>
-      <c r="J4" s="181"/>
-      <c r="K4" s="181"/>
-      <c r="L4" s="181"/>
-      <c r="M4" s="181"/>
-      <c r="N4" s="182"/>
+      <c r="B4" s="210"/>
+      <c r="C4" s="211"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="211"/>
+      <c r="F4" s="211"/>
+      <c r="G4" s="211"/>
+      <c r="H4" s="211"/>
+      <c r="I4" s="211"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="211"/>
+      <c r="N4" s="212"/>
       <c r="P4" s="27">
         <v>0</v>
       </c>
@@ -8139,19 +8139,19 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="180"/>
-      <c r="C5" s="181"/>
-      <c r="D5" s="181"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="181"/>
-      <c r="G5" s="181"/>
-      <c r="H5" s="181"/>
-      <c r="I5" s="181"/>
-      <c r="J5" s="181"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="181"/>
-      <c r="M5" s="181"/>
-      <c r="N5" s="182"/>
+      <c r="B5" s="210"/>
+      <c r="C5" s="211"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="211"/>
+      <c r="F5" s="211"/>
+      <c r="G5" s="211"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="211"/>
+      <c r="J5" s="211"/>
+      <c r="K5" s="211"/>
+      <c r="L5" s="211"/>
+      <c r="M5" s="211"/>
+      <c r="N5" s="212"/>
       <c r="P5" s="27">
         <v>7</v>
       </c>
@@ -8163,19 +8163,19 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="180"/>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181"/>
-      <c r="E6" s="181"/>
-      <c r="F6" s="181"/>
-      <c r="G6" s="181"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181"/>
-      <c r="J6" s="181"/>
-      <c r="K6" s="181"/>
-      <c r="L6" s="181"/>
-      <c r="M6" s="181"/>
-      <c r="N6" s="182"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="212"/>
       <c r="P6" s="27">
         <v>19</v>
       </c>
@@ -8187,19 +8187,19 @@
       </c>
     </row>
     <row r="7" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="180"/>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="181"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
-      <c r="K7" s="181"/>
-      <c r="L7" s="181"/>
-      <c r="M7" s="181"/>
-      <c r="N7" s="182"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="212"/>
       <c r="P7" s="27">
         <v>31</v>
       </c>
@@ -8211,19 +8211,19 @@
       </c>
     </row>
     <row r="8" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="180"/>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181"/>
-      <c r="E8" s="181"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="181"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181"/>
-      <c r="J8" s="181"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="182"/>
+      <c r="B8" s="210"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="212"/>
       <c r="P8" s="27">
         <v>43</v>
       </c>
@@ -8235,19 +8235,19 @@
       </c>
     </row>
     <row r="9" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="183"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="184"/>
-      <c r="K9" s="184"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="185"/>
+      <c r="B9" s="213"/>
+      <c r="C9" s="214"/>
+      <c r="D9" s="214"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="214"/>
+      <c r="H9" s="214"/>
+      <c r="I9" s="214"/>
+      <c r="J9" s="214"/>
+      <c r="K9" s="214"/>
+      <c r="L9" s="214"/>
+      <c r="M9" s="214"/>
+      <c r="N9" s="215"/>
       <c r="P9" s="27">
         <v>50</v>
       </c>
@@ -8260,19 +8260,19 @@
     </row>
     <row r="10" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="29"/>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="216" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="188"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="217"/>
+      <c r="F10" s="217"/>
+      <c r="G10" s="217"/>
+      <c r="H10" s="217"/>
+      <c r="I10" s="217"/>
+      <c r="J10" s="217"/>
+      <c r="K10" s="217"/>
+      <c r="L10" s="217"/>
+      <c r="M10" s="218"/>
       <c r="N10" s="30"/>
       <c r="P10" s="27">
         <v>51.5</v>
@@ -8286,17 +8286,17 @@
     </row>
     <row r="11" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="31"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="170"/>
-      <c r="E11" s="170"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="171"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="186"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="186"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="186"/>
+      <c r="J11" s="186"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="202"/>
       <c r="N11" s="32"/>
       <c r="P11" s="27">
         <v>53</v>
@@ -8311,21 +8311,21 @@
     <row r="12" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="31"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="193" t="s">
+      <c r="D12" s="187" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="194"/>
+      <c r="E12" s="223"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="189" t="s">
+      <c r="G12" s="219" t="s">
         <v>240</v>
       </c>
-      <c r="H12" s="192"/>
+      <c r="H12" s="222"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="189" t="s">
+      <c r="J12" s="219" t="s">
         <v>241</v>
       </c>
-      <c r="K12" s="190"/>
-      <c r="L12" s="191"/>
+      <c r="K12" s="220"/>
+      <c r="L12" s="221"/>
       <c r="M12" s="14"/>
       <c r="N12" s="32"/>
       <c r="P12" s="27">
@@ -8341,21 +8341,21 @@
     <row r="13" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="31"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="174" t="s">
+      <c r="D13" s="173" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="214"/>
+      <c r="E13" s="174"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="174" t="s">
+      <c r="G13" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="174"/>
+      <c r="H13" s="173"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="174" t="s">
+      <c r="J13" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="186"/>
       <c r="M13" s="14"/>
       <c r="N13" s="32"/>
       <c r="P13" s="27">
@@ -8371,15 +8371,15 @@
     <row r="14" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="31"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="189" t="s">
+      <c r="D14" s="219" t="s">
         <v>242</v>
       </c>
-      <c r="E14" s="192"/>
+      <c r="E14" s="222"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="189" t="s">
+      <c r="G14" s="219" t="s">
         <v>243</v>
       </c>
-      <c r="H14" s="192"/>
+      <c r="H14" s="222"/>
       <c r="I14" s="5"/>
       <c r="J14" s="167" t="s">
         <v>244</v>
@@ -8403,21 +8403,21 @@
     <row r="15" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="31"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="174" t="s">
+      <c r="D15" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="199"/>
+      <c r="E15" s="185"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="174" t="s">
+      <c r="G15" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="199"/>
+      <c r="H15" s="185"/>
       <c r="I15" s="5"/>
       <c r="J15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="195"/>
-      <c r="L15" s="170"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="186"/>
       <c r="M15" s="14"/>
       <c r="N15" s="32"/>
       <c r="P15" s="27">
@@ -8433,21 +8433,21 @@
     <row r="16" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="31"/>
       <c r="C16" s="13"/>
-      <c r="D16" s="193" t="s">
+      <c r="D16" s="187" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="200"/>
+      <c r="E16" s="188"/>
       <c r="F16" s="4"/>
       <c r="G16" s="168">
         <v>2</v>
       </c>
-      <c r="H16" s="219"/>
-      <c r="I16" s="219"/>
-      <c r="J16" s="215" t="s">
+      <c r="H16" s="179"/>
+      <c r="I16" s="179"/>
+      <c r="J16" s="175" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="216"/>
-      <c r="L16" s="217"/>
+      <c r="K16" s="176"/>
+      <c r="L16" s="177"/>
       <c r="M16" s="14"/>
       <c r="N16" s="32"/>
       <c r="P16" s="27">
@@ -8463,21 +8463,21 @@
     <row r="17" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="31"/>
       <c r="C17" s="13"/>
-      <c r="D17" s="174" t="s">
+      <c r="D17" s="173" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="209"/>
+      <c r="E17" s="197"/>
       <c r="F17" s="4"/>
       <c r="G17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="174" t="s">
+      <c r="J17" s="173" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
+      <c r="K17" s="186"/>
+      <c r="L17" s="186"/>
       <c r="M17" s="14"/>
       <c r="N17" s="32"/>
       <c r="P17" s="27">
@@ -8493,12 +8493,12 @@
     <row r="18" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="31"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="222"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="183"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -8517,16 +8517,16 @@
     <row r="19" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="31"/>
       <c r="C19" s="17"/>
-      <c r="D19" s="206" t="s">
+      <c r="D19" s="194" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="208"/>
+      <c r="E19" s="196"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="206" t="s">
+      <c r="G19" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="H19" s="207"/>
-      <c r="I19" s="207"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
       <c r="J19" s="43" t="str">
         <f>IF(J23="","Prelim","ERROR")</f>
         <v>Prelim</v>
@@ -8554,16 +8554,16 @@
     <row r="20" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="31"/>
       <c r="C20" s="19"/>
-      <c r="D20" s="172">
+      <c r="D20" s="203">
         <v>40575</v>
       </c>
-      <c r="E20" s="173"/>
+      <c r="E20" s="204"/>
       <c r="F20" s="8"/>
-      <c r="G20" s="196" t="s">
+      <c r="G20" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="197"/>
-      <c r="I20" s="198"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="200"/>
       <c r="J20" s="36">
         <v>0.33</v>
       </c>
@@ -8588,16 +8588,16 @@
     <row r="21" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="31"/>
       <c r="C21" s="19"/>
-      <c r="D21" s="174" t="s">
+      <c r="D21" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="214"/>
+      <c r="E21" s="174"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="196" t="s">
+      <c r="G21" s="198" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="197"/>
-      <c r="I21" s="198"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="200"/>
       <c r="J21" s="36">
         <v>0.33</v>
       </c>
@@ -8622,16 +8622,16 @@
     <row r="22" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="31"/>
       <c r="C22" s="19"/>
-      <c r="D22" s="220">
+      <c r="D22" s="180">
         <v>40603</v>
       </c>
-      <c r="E22" s="221"/>
+      <c r="E22" s="181"/>
       <c r="F22" s="8"/>
-      <c r="G22" s="175" t="s">
+      <c r="G22" s="205" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="176"/>
-      <c r="I22" s="176"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="206"/>
       <c r="J22" s="38">
         <v>0.34</v>
       </c>
@@ -8656,14 +8656,14 @@
     <row r="23" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="31"/>
       <c r="C23" s="19"/>
-      <c r="D23" s="174" t="s">
+      <c r="D23" s="173" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="214"/>
+      <c r="E23" s="174"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="218"/>
+      <c r="G23" s="178"/>
+      <c r="H23" s="178"/>
+      <c r="I23" s="178"/>
       <c r="J23" s="10" t="str">
         <f>IF((SUM(J20:J22))=1,"",(SUM(J20:J22))-1)</f>
         <v/>
@@ -8691,16 +8691,16 @@
     <row r="24" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="31"/>
       <c r="C24" s="19"/>
-      <c r="D24" s="220">
+      <c r="D24" s="180">
         <v>40634</v>
       </c>
-      <c r="E24" s="224"/>
+      <c r="E24" s="184"/>
       <c r="F24" s="9"/>
-      <c r="G24" s="206" t="s">
+      <c r="G24" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="195"/>
       <c r="J24" s="44" t="s">
         <v>8</v>
       </c>
@@ -8725,16 +8725,16 @@
     <row r="25" spans="2:18" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="31"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="174" t="s">
+      <c r="D25" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="214"/>
+      <c r="E25" s="174"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="201" t="s">
+      <c r="G25" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="202"/>
-      <c r="I25" s="202"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="190"/>
       <c r="J25" s="40">
         <v>0.5</v>
       </c>
@@ -8757,14 +8757,14 @@
     <row r="26" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="31"/>
       <c r="C26" s="19"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="170"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="186"/>
       <c r="F26" s="8"/>
-      <c r="G26" s="203" t="s">
+      <c r="G26" s="191" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="204"/>
-      <c r="I26" s="205"/>
+      <c r="H26" s="192"/>
+      <c r="I26" s="193"/>
       <c r="J26" s="41">
         <v>0.25</v>
       </c>
@@ -8788,15 +8788,15 @@
     </row>
     <row r="27" spans="2:18" ht="13.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="31"/>
-      <c r="C27" s="212" t="s">
+      <c r="C27" s="171" t="s">
         <v>152</v>
       </c>
-      <c r="D27" s="213"/>
-      <c r="E27" s="213"/>
+      <c r="D27" s="172"/>
+      <c r="E27" s="172"/>
       <c r="F27" s="21"/>
-      <c r="G27" s="211"/>
-      <c r="H27" s="211"/>
-      <c r="I27" s="211"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
       <c r="L27" s="22"/>
@@ -11138,6 +11138,30 @@
   </sheetData>
   <sheetProtection password="D04D" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="40">
+    <mergeCell ref="C11:M11"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B2:N9"/>
+    <mergeCell ref="C10:M10"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="G21:I21"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="G27:I27"/>
     <mergeCell ref="C27:E27"/>
@@ -11154,30 +11178,6 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="C11:M11"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B2:N9"/>
-    <mergeCell ref="C10:M10"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12138,7 +12138,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y135"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="B2" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
@@ -12168,273 +12168,273 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="253" t="str">
+      <c r="A1" s="227" t="str">
         <f>CONCATENATE('INITIAL INPUT'!D12,"  ",'INITIAL INPUT'!G12)</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="254"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="259" t="s">
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="259" t="s">
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="235"/>
+      <c r="J1" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="K1" s="260"/>
-      <c r="L1" s="260"/>
-      <c r="M1" s="260"/>
-      <c r="N1" s="260"/>
-      <c r="O1" s="261"/>
-      <c r="P1" s="259" t="s">
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="235"/>
+      <c r="P1" s="233" t="s">
         <v>131</v>
       </c>
-      <c r="Q1" s="260"/>
-      <c r="R1" s="260"/>
-      <c r="S1" s="260"/>
-      <c r="T1" s="260"/>
-      <c r="U1" s="260"/>
-      <c r="V1" s="261"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="234"/>
+      <c r="T1" s="234"/>
+      <c r="U1" s="234"/>
+      <c r="V1" s="235"/>
       <c r="W1" s="72"/>
     </row>
     <row r="2" spans="1:24" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="256"/>
-      <c r="B2" s="257"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="250" t="str">
+      <c r="A2" s="230"/>
+      <c r="B2" s="231"/>
+      <c r="C2" s="231"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="278" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="228" t="str">
+      <c r="F2" s="271" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="G2" s="231" t="s">
+      <c r="G2" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="238" t="s">
+      <c r="H2" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="247" t="str">
+      <c r="I2" s="275" t="str">
         <f>IF('INITIAL INPUT'!J23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="J2" s="250" t="str">
+      <c r="J2" s="278" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="K2" s="228" t="str">
+      <c r="K2" s="271" t="str">
         <f>F2</f>
         <v>Laboratory</v>
       </c>
-      <c r="L2" s="231" t="str">
+      <c r="L2" s="266" t="str">
         <f>G2</f>
         <v>EXAM</v>
       </c>
-      <c r="M2" s="264" t="s">
+      <c r="M2" s="267" t="s">
         <v>132</v>
       </c>
-      <c r="N2" s="238" t="s">
+      <c r="N2" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="O2" s="247" t="str">
+      <c r="O2" s="275" t="str">
         <f>IF('INITIAL INPUT'!K23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="P2" s="250" t="str">
+      <c r="P2" s="278" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="Q2" s="228" t="str">
+      <c r="Q2" s="271" t="str">
         <f>F2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="231" t="s">
+      <c r="R2" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="S2" s="264" t="s">
+      <c r="S2" s="267" t="s">
         <v>132</v>
       </c>
-      <c r="T2" s="238" t="s">
+      <c r="T2" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="247" t="str">
+      <c r="U2" s="275" t="str">
         <f>IF('INITIAL INPUT'!L23="","GRADE (%)","INVALID GRADE")</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="V2" s="267" t="str">
+      <c r="V2" s="281" t="str">
         <f>IF(U2="INVALID GRADE","INVALID FINAL GRADE","FINAL GRADE (%)")</f>
         <v>FINAL GRADE (%)</v>
       </c>
-      <c r="W2" s="225" t="s">
+      <c r="W2" s="293" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="279" t="str">
+      <c r="A3" s="236" t="str">
         <f>'INITIAL INPUT'!J12</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="280"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="251"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="248"/>
-      <c r="P3" s="251"/>
-      <c r="Q3" s="229"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="264"/>
-      <c r="T3" s="246"/>
-      <c r="U3" s="248"/>
-      <c r="V3" s="268"/>
-      <c r="W3" s="226"/>
+      <c r="B3" s="237"/>
+      <c r="C3" s="237"/>
+      <c r="D3" s="238"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="279"/>
+      <c r="K3" s="272"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="267"/>
+      <c r="N3" s="274"/>
+      <c r="O3" s="276"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="272"/>
+      <c r="R3" s="244"/>
+      <c r="S3" s="267"/>
+      <c r="T3" s="274"/>
+      <c r="U3" s="276"/>
+      <c r="V3" s="282"/>
+      <c r="W3" s="294"/>
     </row>
     <row r="4" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="282" t="str">
+      <c r="A4" s="239" t="str">
         <f>CONCATENATE('INITIAL INPUT'!D14,"  ",'INITIAL INPUT'!G14)</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="284"/>
+      <c r="B4" s="240"/>
+      <c r="C4" s="241"/>
       <c r="D4" s="103" t="str">
         <f>'INITIAL INPUT'!J14</f>
         <v>M303</v>
       </c>
-      <c r="E4" s="251"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="232"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="248"/>
-      <c r="J4" s="251"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="232"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="246"/>
-      <c r="O4" s="248"/>
-      <c r="P4" s="251"/>
-      <c r="Q4" s="229"/>
-      <c r="R4" s="232"/>
-      <c r="S4" s="264"/>
-      <c r="T4" s="246"/>
-      <c r="U4" s="248"/>
-      <c r="V4" s="268"/>
-      <c r="W4" s="226"/>
+      <c r="E4" s="279"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="274"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="279"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="244"/>
+      <c r="M4" s="267"/>
+      <c r="N4" s="274"/>
+      <c r="O4" s="276"/>
+      <c r="P4" s="279"/>
+      <c r="Q4" s="272"/>
+      <c r="R4" s="244"/>
+      <c r="S4" s="267"/>
+      <c r="T4" s="274"/>
+      <c r="U4" s="276"/>
+      <c r="V4" s="282"/>
+      <c r="W4" s="294"/>
     </row>
     <row r="5" spans="1:24" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="282" t="str">
+      <c r="A5" s="239" t="str">
         <f>CONCATENATE('INITIAL INPUT'!G16," Trimester ","SY ",'INITIAL INPUT'!D16)</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="283"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="229"/>
-      <c r="G5" s="237">
+      <c r="B5" s="240"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="272"/>
+      <c r="G5" s="284">
         <f>'INITIAL INPUT'!D20</f>
         <v>40575</v>
       </c>
-      <c r="H5" s="246"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="251"/>
-      <c r="K5" s="229"/>
-      <c r="L5" s="237">
+      <c r="H5" s="274"/>
+      <c r="I5" s="276"/>
+      <c r="J5" s="279"/>
+      <c r="K5" s="272"/>
+      <c r="L5" s="284">
         <f>'INITIAL INPUT'!D22</f>
         <v>40603</v>
       </c>
-      <c r="M5" s="264"/>
-      <c r="N5" s="246"/>
-      <c r="O5" s="248"/>
-      <c r="P5" s="251"/>
-      <c r="Q5" s="229"/>
-      <c r="R5" s="237">
+      <c r="M5" s="267"/>
+      <c r="N5" s="274"/>
+      <c r="O5" s="276"/>
+      <c r="P5" s="279"/>
+      <c r="Q5" s="272"/>
+      <c r="R5" s="284">
         <f>'INITIAL INPUT'!D24</f>
         <v>40634</v>
       </c>
-      <c r="S5" s="264"/>
-      <c r="T5" s="246"/>
-      <c r="U5" s="248"/>
-      <c r="V5" s="268"/>
-      <c r="W5" s="226"/>
+      <c r="S5" s="267"/>
+      <c r="T5" s="274"/>
+      <c r="U5" s="276"/>
+      <c r="V5" s="282"/>
+      <c r="W5" s="294"/>
     </row>
     <row r="6" spans="1:24" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="270" t="str">
+      <c r="A6" s="252" t="str">
         <f>CONCATENATE("Inst/Prof:", 'INITIAL INPUT'!J16)</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="271"/>
-      <c r="C6" s="271"/>
-      <c r="D6" s="272"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="246"/>
-      <c r="I6" s="248"/>
-      <c r="J6" s="251"/>
-      <c r="K6" s="229"/>
-      <c r="L6" s="229"/>
-      <c r="M6" s="264"/>
-      <c r="N6" s="246"/>
-      <c r="O6" s="248"/>
-      <c r="P6" s="251"/>
-      <c r="Q6" s="229"/>
-      <c r="R6" s="229"/>
-      <c r="S6" s="264"/>
-      <c r="T6" s="246"/>
-      <c r="U6" s="248"/>
-      <c r="V6" s="268"/>
-      <c r="W6" s="226"/>
+      <c r="B6" s="253"/>
+      <c r="C6" s="253"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="274"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="272"/>
+      <c r="L6" s="272"/>
+      <c r="M6" s="267"/>
+      <c r="N6" s="274"/>
+      <c r="O6" s="276"/>
+      <c r="P6" s="279"/>
+      <c r="Q6" s="272"/>
+      <c r="R6" s="272"/>
+      <c r="S6" s="267"/>
+      <c r="T6" s="274"/>
+      <c r="U6" s="276"/>
+      <c r="V6" s="282"/>
+      <c r="W6" s="294"/>
     </row>
     <row r="7" spans="1:24" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="273" t="s">
+      <c r="A7" s="255" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="274"/>
-      <c r="C7" s="277" t="s">
+      <c r="B7" s="256"/>
+      <c r="C7" s="259" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="262" t="s">
+      <c r="D7" s="225" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="252"/>
-      <c r="F7" s="230"/>
-      <c r="G7" s="230"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="248"/>
-      <c r="J7" s="252"/>
-      <c r="K7" s="230"/>
-      <c r="L7" s="230"/>
-      <c r="M7" s="265"/>
-      <c r="N7" s="246"/>
-      <c r="O7" s="248"/>
-      <c r="P7" s="252"/>
-      <c r="Q7" s="230"/>
-      <c r="R7" s="230"/>
-      <c r="S7" s="265"/>
-      <c r="T7" s="246"/>
-      <c r="U7" s="248"/>
-      <c r="V7" s="268"/>
-      <c r="W7" s="226"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="273"/>
+      <c r="G7" s="273"/>
+      <c r="H7" s="274"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="280"/>
+      <c r="K7" s="273"/>
+      <c r="L7" s="273"/>
+      <c r="M7" s="268"/>
+      <c r="N7" s="274"/>
+      <c r="O7" s="276"/>
+      <c r="P7" s="280"/>
+      <c r="Q7" s="273"/>
+      <c r="R7" s="273"/>
+      <c r="S7" s="268"/>
+      <c r="T7" s="274"/>
+      <c r="U7" s="276"/>
+      <c r="V7" s="282"/>
+      <c r="W7" s="294"/>
     </row>
     <row r="8" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="275"/>
-      <c r="B8" s="276"/>
-      <c r="C8" s="278"/>
-      <c r="D8" s="263"/>
+      <c r="A8" s="257"/>
+      <c r="B8" s="258"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="226"/>
       <c r="E8" s="76">
         <f>'INITIAL INPUT'!J20</f>
         <v>0.33</v>
@@ -12447,8 +12447,8 @@
         <f>'INITIAL INPUT'!J22</f>
         <v>0.34</v>
       </c>
-      <c r="H8" s="240"/>
-      <c r="I8" s="249"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="277"/>
       <c r="J8" s="76">
         <f>'INITIAL INPUT'!K20</f>
         <v>0.33</v>
@@ -12461,9 +12461,9 @@
         <f>'INITIAL INPUT'!K22</f>
         <v>0.34</v>
       </c>
-      <c r="M8" s="266"/>
-      <c r="N8" s="240"/>
-      <c r="O8" s="249"/>
+      <c r="M8" s="269"/>
+      <c r="N8" s="248"/>
+      <c r="O8" s="277"/>
       <c r="P8" s="76">
         <f>'INITIAL INPUT'!L20</f>
         <v>0.33</v>
@@ -12476,11 +12476,11 @@
         <f>'INITIAL INPUT'!L22</f>
         <v>0.34</v>
       </c>
-      <c r="S8" s="266"/>
-      <c r="T8" s="240"/>
-      <c r="U8" s="249"/>
-      <c r="V8" s="269"/>
-      <c r="W8" s="227"/>
+      <c r="S8" s="269"/>
+      <c r="T8" s="248"/>
+      <c r="U8" s="277"/>
+      <c r="V8" s="283"/>
+      <c r="W8" s="295"/>
     </row>
     <row r="9" spans="1:24" s="89" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="78" t="s">
@@ -14169,8 +14169,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X26" s="233"/>
-      <c r="Y26" s="235" t="s">
+      <c r="X26" s="296"/>
+      <c r="Y26" s="286" t="s">
         <v>127</v>
       </c>
     </row>
@@ -14266,8 +14266,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X27" s="234"/>
-      <c r="Y27" s="236"/>
+      <c r="X27" s="297"/>
+      <c r="Y27" s="287"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
@@ -14361,8 +14361,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X28" s="234"/>
-      <c r="Y28" s="236"/>
+      <c r="X28" s="297"/>
+      <c r="Y28" s="287"/>
     </row>
     <row r="29" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
@@ -14456,8 +14456,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X29" s="234"/>
-      <c r="Y29" s="236"/>
+      <c r="X29" s="297"/>
+      <c r="Y29" s="287"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
@@ -14551,8 +14551,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X30" s="234"/>
-      <c r="Y30" s="236"/>
+      <c r="X30" s="297"/>
+      <c r="Y30" s="287"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
@@ -14646,8 +14646,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X31" s="234"/>
-      <c r="Y31" s="236"/>
+      <c r="X31" s="297"/>
+      <c r="Y31" s="287"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
@@ -14741,8 +14741,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X32" s="234"/>
-      <c r="Y32" s="236"/>
+      <c r="X32" s="297"/>
+      <c r="Y32" s="287"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
@@ -14836,8 +14836,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X33" s="234"/>
-      <c r="Y33" s="236"/>
+      <c r="X33" s="297"/>
+      <c r="Y33" s="287"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
@@ -14931,8 +14931,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X34" s="234"/>
-      <c r="Y34" s="236"/>
+      <c r="X34" s="297"/>
+      <c r="Y34" s="287"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
@@ -15026,8 +15026,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X35" s="234"/>
-      <c r="Y35" s="236"/>
+      <c r="X35" s="297"/>
+      <c r="Y35" s="287"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
@@ -15121,8 +15121,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X36" s="234"/>
-      <c r="Y36" s="236"/>
+      <c r="X36" s="297"/>
+      <c r="Y36" s="287"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
@@ -15216,8 +15216,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X37" s="234"/>
-      <c r="Y37" s="236"/>
+      <c r="X37" s="297"/>
+      <c r="Y37" s="287"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
@@ -15311,8 +15311,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X38" s="234"/>
-      <c r="Y38" s="236"/>
+      <c r="X38" s="297"/>
+      <c r="Y38" s="287"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
@@ -15406,8 +15406,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X39" s="234"/>
-      <c r="Y39" s="236"/>
+      <c r="X39" s="297"/>
+      <c r="Y39" s="287"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
@@ -15501,8 +15501,8 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="X40" s="234"/>
-      <c r="Y40" s="236"/>
+      <c r="X40" s="297"/>
+      <c r="Y40" s="287"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="92"/>
@@ -15517,301 +15517,301 @@
       <c r="X41" s="91"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="253" t="str">
+      <c r="A42" s="227" t="str">
         <f>A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B42" s="254"/>
-      <c r="C42" s="254"/>
-      <c r="D42" s="255"/>
-      <c r="E42" s="259" t="s">
+      <c r="B42" s="228"/>
+      <c r="C42" s="228"/>
+      <c r="D42" s="229"/>
+      <c r="E42" s="233" t="s">
         <v>129</v>
       </c>
-      <c r="F42" s="260"/>
-      <c r="G42" s="260"/>
-      <c r="H42" s="260"/>
-      <c r="I42" s="261"/>
-      <c r="J42" s="259" t="s">
+      <c r="F42" s="234"/>
+      <c r="G42" s="234"/>
+      <c r="H42" s="234"/>
+      <c r="I42" s="235"/>
+      <c r="J42" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="K42" s="260"/>
-      <c r="L42" s="260"/>
-      <c r="M42" s="260"/>
-      <c r="N42" s="260"/>
-      <c r="O42" s="261"/>
-      <c r="P42" s="259" t="s">
+      <c r="K42" s="234"/>
+      <c r="L42" s="234"/>
+      <c r="M42" s="234"/>
+      <c r="N42" s="234"/>
+      <c r="O42" s="235"/>
+      <c r="P42" s="233" t="s">
         <v>131</v>
       </c>
-      <c r="Q42" s="260"/>
-      <c r="R42" s="260"/>
-      <c r="S42" s="260"/>
-      <c r="T42" s="260"/>
-      <c r="U42" s="260"/>
-      <c r="V42" s="286"/>
+      <c r="Q42" s="234"/>
+      <c r="R42" s="234"/>
+      <c r="S42" s="234"/>
+      <c r="T42" s="234"/>
+      <c r="U42" s="234"/>
+      <c r="V42" s="270"/>
       <c r="W42" s="72"/>
       <c r="X42" s="91"/>
     </row>
     <row r="43" spans="1:25" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="256"/>
-      <c r="B43" s="257"/>
-      <c r="C43" s="257"/>
-      <c r="D43" s="258"/>
-      <c r="E43" s="287" t="str">
+      <c r="A43" s="230"/>
+      <c r="B43" s="231"/>
+      <c r="C43" s="231"/>
+      <c r="D43" s="232"/>
+      <c r="E43" s="261" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="290" t="str">
+      <c r="F43" s="264" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="G43" s="231" t="s">
+      <c r="G43" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="H43" s="238" t="str">
+      <c r="H43" s="246" t="str">
         <f>H2</f>
         <v>SCORE</v>
       </c>
-      <c r="I43" s="294" t="str">
+      <c r="I43" s="249" t="str">
         <f>I2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="J43" s="287" t="str">
+      <c r="J43" s="261" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="K43" s="290" t="str">
+      <c r="K43" s="264" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="L43" s="231" t="s">
+      <c r="L43" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="M43" s="264" t="str">
+      <c r="M43" s="267" t="str">
         <f>M2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="N43" s="238" t="str">
+      <c r="N43" s="246" t="str">
         <f>N2</f>
         <v>SCORE</v>
       </c>
-      <c r="O43" s="294" t="str">
+      <c r="O43" s="249" t="str">
         <f>O2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="P43" s="287" t="str">
+      <c r="P43" s="261" t="str">
         <f>IF(PART1=0,"",PART1)</f>
         <v>Class Standing</v>
       </c>
-      <c r="Q43" s="290" t="str">
+      <c r="Q43" s="264" t="str">
         <f>IF(PART2=0,"",PART2)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="231" t="s">
+      <c r="R43" s="266" t="s">
         <v>98</v>
       </c>
-      <c r="S43" s="264" t="str">
+      <c r="S43" s="267" t="str">
         <f>S2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="T43" s="238" t="str">
+      <c r="T43" s="246" t="str">
         <f>T2</f>
         <v>SCORE</v>
       </c>
-      <c r="U43" s="241" t="str">
+      <c r="U43" s="288" t="str">
         <f>U2</f>
         <v>GRADE (%)</v>
       </c>
-      <c r="V43" s="244" t="str">
+      <c r="V43" s="291" t="str">
         <f>V2</f>
         <v>FINAL GRADE (%)</v>
       </c>
-      <c r="W43" s="225" t="s">
+      <c r="W43" s="293" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:25" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="279" t="str">
+      <c r="A44" s="236" t="str">
         <f>A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B44" s="280"/>
-      <c r="C44" s="280"/>
-      <c r="D44" s="281"/>
-      <c r="E44" s="288"/>
-      <c r="F44" s="291"/>
-      <c r="G44" s="232"/>
-      <c r="H44" s="239"/>
-      <c r="I44" s="295"/>
-      <c r="J44" s="288"/>
-      <c r="K44" s="291"/>
-      <c r="L44" s="232"/>
-      <c r="M44" s="264"/>
-      <c r="N44" s="239"/>
-      <c r="O44" s="295"/>
-      <c r="P44" s="288"/>
-      <c r="Q44" s="291"/>
-      <c r="R44" s="232"/>
-      <c r="S44" s="264"/>
-      <c r="T44" s="239"/>
-      <c r="U44" s="242"/>
-      <c r="V44" s="244"/>
-      <c r="W44" s="226"/>
+      <c r="B44" s="237"/>
+      <c r="C44" s="237"/>
+      <c r="D44" s="238"/>
+      <c r="E44" s="262"/>
+      <c r="F44" s="265"/>
+      <c r="G44" s="244"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="250"/>
+      <c r="J44" s="262"/>
+      <c r="K44" s="265"/>
+      <c r="L44" s="244"/>
+      <c r="M44" s="267"/>
+      <c r="N44" s="247"/>
+      <c r="O44" s="250"/>
+      <c r="P44" s="262"/>
+      <c r="Q44" s="265"/>
+      <c r="R44" s="244"/>
+      <c r="S44" s="267"/>
+      <c r="T44" s="247"/>
+      <c r="U44" s="289"/>
+      <c r="V44" s="291"/>
+      <c r="W44" s="294"/>
     </row>
     <row r="45" spans="1:25" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="282" t="str">
+      <c r="A45" s="239" t="str">
         <f>A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B45" s="283"/>
-      <c r="C45" s="284"/>
+      <c r="B45" s="240"/>
+      <c r="C45" s="241"/>
       <c r="D45" s="75" t="str">
         <f>D4</f>
         <v>M303</v>
       </c>
-      <c r="E45" s="288"/>
-      <c r="F45" s="291"/>
-      <c r="G45" s="232"/>
-      <c r="H45" s="239"/>
-      <c r="I45" s="295"/>
-      <c r="J45" s="288"/>
-      <c r="K45" s="291"/>
-      <c r="L45" s="232"/>
-      <c r="M45" s="264"/>
-      <c r="N45" s="239"/>
-      <c r="O45" s="295"/>
-      <c r="P45" s="288"/>
-      <c r="Q45" s="291"/>
-      <c r="R45" s="232"/>
-      <c r="S45" s="264"/>
-      <c r="T45" s="239"/>
-      <c r="U45" s="242"/>
-      <c r="V45" s="244"/>
-      <c r="W45" s="226"/>
+      <c r="E45" s="262"/>
+      <c r="F45" s="265"/>
+      <c r="G45" s="244"/>
+      <c r="H45" s="247"/>
+      <c r="I45" s="250"/>
+      <c r="J45" s="262"/>
+      <c r="K45" s="265"/>
+      <c r="L45" s="244"/>
+      <c r="M45" s="267"/>
+      <c r="N45" s="247"/>
+      <c r="O45" s="250"/>
+      <c r="P45" s="262"/>
+      <c r="Q45" s="265"/>
+      <c r="R45" s="244"/>
+      <c r="S45" s="267"/>
+      <c r="T45" s="247"/>
+      <c r="U45" s="289"/>
+      <c r="V45" s="291"/>
+      <c r="W45" s="294"/>
     </row>
     <row r="46" spans="1:25" s="74" customFormat="1" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="282" t="str">
+      <c r="A46" s="239" t="str">
         <f>A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="283"/>
-      <c r="C46" s="284"/>
-      <c r="D46" s="285"/>
-      <c r="E46" s="288"/>
-      <c r="F46" s="291"/>
-      <c r="G46" s="293">
+      <c r="B46" s="240"/>
+      <c r="C46" s="241"/>
+      <c r="D46" s="242"/>
+      <c r="E46" s="262"/>
+      <c r="F46" s="265"/>
+      <c r="G46" s="243">
         <f>G5</f>
         <v>40575</v>
       </c>
-      <c r="H46" s="239"/>
-      <c r="I46" s="295"/>
-      <c r="J46" s="288"/>
-      <c r="K46" s="291"/>
-      <c r="L46" s="293">
+      <c r="H46" s="247"/>
+      <c r="I46" s="250"/>
+      <c r="J46" s="262"/>
+      <c r="K46" s="265"/>
+      <c r="L46" s="243">
         <f>L5</f>
         <v>40603</v>
       </c>
-      <c r="M46" s="264"/>
-      <c r="N46" s="239"/>
-      <c r="O46" s="295"/>
-      <c r="P46" s="288"/>
-      <c r="Q46" s="291"/>
-      <c r="R46" s="293">
+      <c r="M46" s="267"/>
+      <c r="N46" s="247"/>
+      <c r="O46" s="250"/>
+      <c r="P46" s="262"/>
+      <c r="Q46" s="265"/>
+      <c r="R46" s="243">
         <f>R5</f>
         <v>40634</v>
       </c>
-      <c r="S46" s="264"/>
-      <c r="T46" s="239"/>
-      <c r="U46" s="242"/>
-      <c r="V46" s="244"/>
-      <c r="W46" s="226"/>
+      <c r="S46" s="267"/>
+      <c r="T46" s="247"/>
+      <c r="U46" s="289"/>
+      <c r="V46" s="291"/>
+      <c r="W46" s="294"/>
     </row>
     <row r="47" spans="1:25" s="74" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="270" t="str">
+      <c r="A47" s="252" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="271"/>
-      <c r="C47" s="232"/>
-      <c r="D47" s="297"/>
-      <c r="E47" s="288"/>
-      <c r="F47" s="291"/>
-      <c r="G47" s="232"/>
-      <c r="H47" s="239"/>
-      <c r="I47" s="295"/>
-      <c r="J47" s="288"/>
-      <c r="K47" s="291"/>
-      <c r="L47" s="232"/>
-      <c r="M47" s="264"/>
-      <c r="N47" s="239"/>
-      <c r="O47" s="295"/>
-      <c r="P47" s="288"/>
-      <c r="Q47" s="291"/>
-      <c r="R47" s="232"/>
-      <c r="S47" s="264"/>
-      <c r="T47" s="239"/>
-      <c r="U47" s="242"/>
-      <c r="V47" s="244"/>
-      <c r="W47" s="226"/>
+      <c r="B47" s="253"/>
+      <c r="C47" s="244"/>
+      <c r="D47" s="254"/>
+      <c r="E47" s="262"/>
+      <c r="F47" s="265"/>
+      <c r="G47" s="244"/>
+      <c r="H47" s="247"/>
+      <c r="I47" s="250"/>
+      <c r="J47" s="262"/>
+      <c r="K47" s="265"/>
+      <c r="L47" s="244"/>
+      <c r="M47" s="267"/>
+      <c r="N47" s="247"/>
+      <c r="O47" s="250"/>
+      <c r="P47" s="262"/>
+      <c r="Q47" s="265"/>
+      <c r="R47" s="244"/>
+      <c r="S47" s="267"/>
+      <c r="T47" s="247"/>
+      <c r="U47" s="289"/>
+      <c r="V47" s="291"/>
+      <c r="W47" s="294"/>
     </row>
     <row r="48" spans="1:25" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="273" t="str">
+      <c r="A48" s="255" t="str">
         <f>A7</f>
         <v>CLASS LIST</v>
       </c>
-      <c r="B48" s="274"/>
-      <c r="C48" s="277" t="str">
+      <c r="B48" s="256"/>
+      <c r="C48" s="259" t="str">
         <f>C7</f>
         <v>SEX</v>
       </c>
-      <c r="D48" s="262" t="str">
+      <c r="D48" s="225" t="str">
         <f>D7</f>
         <v>Course</v>
       </c>
-      <c r="E48" s="288"/>
-      <c r="F48" s="291"/>
-      <c r="G48" s="232"/>
-      <c r="H48" s="239"/>
-      <c r="I48" s="295"/>
-      <c r="J48" s="288"/>
-      <c r="K48" s="291"/>
-      <c r="L48" s="232"/>
-      <c r="M48" s="265"/>
-      <c r="N48" s="239"/>
-      <c r="O48" s="295"/>
-      <c r="P48" s="288"/>
-      <c r="Q48" s="291"/>
-      <c r="R48" s="232"/>
-      <c r="S48" s="265"/>
-      <c r="T48" s="239"/>
-      <c r="U48" s="242"/>
-      <c r="V48" s="244"/>
-      <c r="W48" s="226"/>
+      <c r="E48" s="262"/>
+      <c r="F48" s="265"/>
+      <c r="G48" s="244"/>
+      <c r="H48" s="247"/>
+      <c r="I48" s="250"/>
+      <c r="J48" s="262"/>
+      <c r="K48" s="265"/>
+      <c r="L48" s="244"/>
+      <c r="M48" s="268"/>
+      <c r="N48" s="247"/>
+      <c r="O48" s="250"/>
+      <c r="P48" s="262"/>
+      <c r="Q48" s="265"/>
+      <c r="R48" s="244"/>
+      <c r="S48" s="268"/>
+      <c r="T48" s="247"/>
+      <c r="U48" s="289"/>
+      <c r="V48" s="291"/>
+      <c r="W48" s="294"/>
       <c r="X48" s="91"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="275"/>
-      <c r="B49" s="276"/>
-      <c r="C49" s="278"/>
-      <c r="D49" s="263"/>
-      <c r="E49" s="289"/>
-      <c r="F49" s="292"/>
-      <c r="G49" s="292"/>
-      <c r="H49" s="240"/>
-      <c r="I49" s="296"/>
-      <c r="J49" s="289"/>
-      <c r="K49" s="292"/>
-      <c r="L49" s="292"/>
-      <c r="M49" s="266"/>
-      <c r="N49" s="240"/>
-      <c r="O49" s="296"/>
-      <c r="P49" s="289"/>
-      <c r="Q49" s="292"/>
-      <c r="R49" s="292"/>
-      <c r="S49" s="266"/>
-      <c r="T49" s="240"/>
-      <c r="U49" s="243"/>
-      <c r="V49" s="245"/>
-      <c r="W49" s="227"/>
+      <c r="A49" s="257"/>
+      <c r="B49" s="258"/>
+      <c r="C49" s="260"/>
+      <c r="D49" s="226"/>
+      <c r="E49" s="263"/>
+      <c r="F49" s="245"/>
+      <c r="G49" s="245"/>
+      <c r="H49" s="248"/>
+      <c r="I49" s="251"/>
+      <c r="J49" s="263"/>
+      <c r="K49" s="245"/>
+      <c r="L49" s="245"/>
+      <c r="M49" s="269"/>
+      <c r="N49" s="248"/>
+      <c r="O49" s="251"/>
+      <c r="P49" s="263"/>
+      <c r="Q49" s="245"/>
+      <c r="R49" s="245"/>
+      <c r="S49" s="269"/>
+      <c r="T49" s="248"/>
+      <c r="U49" s="290"/>
+      <c r="V49" s="292"/>
+      <c r="W49" s="295"/>
       <c r="X49" s="91"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
@@ -17410,8 +17410,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X66" s="233"/>
-      <c r="Y66" s="235" t="s">
+      <c r="X66" s="296"/>
+      <c r="Y66" s="286" t="s">
         <v>127</v>
       </c>
     </row>
@@ -17507,8 +17507,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X67" s="234"/>
-      <c r="Y67" s="236"/>
+      <c r="X67" s="297"/>
+      <c r="Y67" s="287"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="90" t="s">
@@ -17602,8 +17602,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X68" s="234"/>
-      <c r="Y68" s="236"/>
+      <c r="X68" s="297"/>
+      <c r="Y68" s="287"/>
     </row>
     <row r="69" spans="1:25" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="90" t="s">
@@ -17697,8 +17697,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X69" s="234"/>
-      <c r="Y69" s="236"/>
+      <c r="X69" s="297"/>
+      <c r="Y69" s="287"/>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="90" t="s">
@@ -17792,8 +17792,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X70" s="234"/>
-      <c r="Y70" s="236"/>
+      <c r="X70" s="297"/>
+      <c r="Y70" s="287"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="90" t="s">
@@ -17887,8 +17887,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X71" s="234"/>
-      <c r="Y71" s="236"/>
+      <c r="X71" s="297"/>
+      <c r="Y71" s="287"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="90" t="s">
@@ -17982,8 +17982,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X72" s="234"/>
-      <c r="Y72" s="236"/>
+      <c r="X72" s="297"/>
+      <c r="Y72" s="287"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="90" t="s">
@@ -18077,8 +18077,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X73" s="234"/>
-      <c r="Y73" s="236"/>
+      <c r="X73" s="297"/>
+      <c r="Y73" s="287"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="90" t="s">
@@ -18172,8 +18172,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X74" s="234"/>
-      <c r="Y74" s="236"/>
+      <c r="X74" s="297"/>
+      <c r="Y74" s="287"/>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="90" t="s">
@@ -18267,8 +18267,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X75" s="234"/>
-      <c r="Y75" s="236"/>
+      <c r="X75" s="297"/>
+      <c r="Y75" s="287"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="90" t="s">
@@ -18362,8 +18362,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X76" s="234"/>
-      <c r="Y76" s="236"/>
+      <c r="X76" s="297"/>
+      <c r="Y76" s="287"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="90" t="s">
@@ -18457,8 +18457,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X77" s="234"/>
-      <c r="Y77" s="236"/>
+      <c r="X77" s="297"/>
+      <c r="Y77" s="287"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="90" t="s">
@@ -18552,8 +18552,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X78" s="234"/>
-      <c r="Y78" s="236"/>
+      <c r="X78" s="297"/>
+      <c r="Y78" s="287"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="90" t="s">
@@ -18647,8 +18647,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X79" s="234"/>
-      <c r="Y79" s="236"/>
+      <c r="X79" s="297"/>
+      <c r="Y79" s="287"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="90" t="s">
@@ -18742,8 +18742,8 @@
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="X80" s="234"/>
-      <c r="Y80" s="236"/>
+      <c r="X80" s="297"/>
+      <c r="Y80" s="287"/>
     </row>
     <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="99"/>
@@ -19433,6 +19433,60 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="GZ2E3Q8WEFdjxloU03lKdfoTfFNevSEi4w4kRAAFLmLZBlPJPvR9jNl5/+XN/MDnESBW2fUaxEwTzg6XJj6vHA==" saltValue="O98nYpKCTff7QIvFUliSrQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="70">
+    <mergeCell ref="W2:W8"/>
+    <mergeCell ref="Q2:Q7"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="X26:X40"/>
+    <mergeCell ref="Y26:Y40"/>
+    <mergeCell ref="R5:R7"/>
+    <mergeCell ref="Y66:Y80"/>
+    <mergeCell ref="T43:T49"/>
+    <mergeCell ref="U43:U49"/>
+    <mergeCell ref="V43:V49"/>
+    <mergeCell ref="W43:W49"/>
+    <mergeCell ref="X66:X80"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="I2:I8"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="P2:P7"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="J2:J7"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="S2:S8"/>
+    <mergeCell ref="T2:T8"/>
+    <mergeCell ref="U2:U8"/>
+    <mergeCell ref="V2:V8"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="P42:V42"/>
+    <mergeCell ref="E43:E49"/>
+    <mergeCell ref="F43:F49"/>
+    <mergeCell ref="G43:G45"/>
+    <mergeCell ref="R46:R49"/>
+    <mergeCell ref="N43:N49"/>
+    <mergeCell ref="O43:O49"/>
+    <mergeCell ref="K2:K7"/>
+    <mergeCell ref="L2:L4"/>
+    <mergeCell ref="M2:M8"/>
+    <mergeCell ref="N2:N8"/>
+    <mergeCell ref="O2:O8"/>
+    <mergeCell ref="P43:P49"/>
+    <mergeCell ref="Q43:Q49"/>
+    <mergeCell ref="R43:R45"/>
+    <mergeCell ref="S43:S49"/>
+    <mergeCell ref="M43:M49"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="A42:D43"/>
     <mergeCell ref="E42:I42"/>
@@ -19449,60 +19503,6 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="J43:J49"/>
     <mergeCell ref="K43:K49"/>
-    <mergeCell ref="P43:P49"/>
-    <mergeCell ref="Q43:Q49"/>
-    <mergeCell ref="R43:R45"/>
-    <mergeCell ref="S43:S49"/>
-    <mergeCell ref="M43:M49"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="P42:V42"/>
-    <mergeCell ref="E43:E49"/>
-    <mergeCell ref="F43:F49"/>
-    <mergeCell ref="G43:G45"/>
-    <mergeCell ref="R46:R49"/>
-    <mergeCell ref="N43:N49"/>
-    <mergeCell ref="O43:O49"/>
-    <mergeCell ref="K2:K7"/>
-    <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M8"/>
-    <mergeCell ref="N2:N8"/>
-    <mergeCell ref="O2:O8"/>
-    <mergeCell ref="P2:P7"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="J2:J7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="S2:S8"/>
-    <mergeCell ref="T2:T8"/>
-    <mergeCell ref="U2:U8"/>
-    <mergeCell ref="V2:V8"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="F2:F7"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H8"/>
-    <mergeCell ref="I2:I8"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="Y66:Y80"/>
-    <mergeCell ref="T43:T49"/>
-    <mergeCell ref="U43:U49"/>
-    <mergeCell ref="V43:V49"/>
-    <mergeCell ref="W43:W49"/>
-    <mergeCell ref="X66:X80"/>
-    <mergeCell ref="W2:W8"/>
-    <mergeCell ref="Q2:Q7"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="X26:X40"/>
-    <mergeCell ref="Y26:Y40"/>
-    <mergeCell ref="R5:R7"/>
   </mergeCells>
   <conditionalFormatting sqref="U9:U40 U50:U80">
     <cfRule type="cellIs" dxfId="20" priority="12" stopIfTrue="1" operator="between">
@@ -19607,43 +19607,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="319" t="str">
+      <c r="A1" s="350" t="str">
         <f>CRS!A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="328" t="s">
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="325" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="329"/>
-      <c r="O1" s="329"/>
-      <c r="P1" s="329"/>
-      <c r="Q1" s="329"/>
-      <c r="R1" s="329"/>
-      <c r="S1" s="329"/>
-      <c r="T1" s="329"/>
-      <c r="U1" s="329"/>
-      <c r="V1" s="329"/>
-      <c r="W1" s="329"/>
-      <c r="X1" s="329"/>
-      <c r="Y1" s="329"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="329"/>
-      <c r="AB1" s="329"/>
-      <c r="AC1" s="330"/>
-      <c r="AD1" s="330"/>
-      <c r="AE1" s="330"/>
-      <c r="AF1" s="331"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326"/>
+      <c r="S1" s="326"/>
+      <c r="T1" s="326"/>
+      <c r="U1" s="326"/>
+      <c r="V1" s="326"/>
+      <c r="W1" s="326"/>
+      <c r="X1" s="326"/>
+      <c r="Y1" s="326"/>
+      <c r="Z1" s="326"/>
+      <c r="AA1" s="326"/>
+      <c r="AB1" s="326"/>
+      <c r="AC1" s="327"/>
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="328"/>
       <c r="AG1" s="63"/>
       <c r="AH1" s="55"/>
       <c r="AI1" s="55"/>
@@ -19651,48 +19651,48 @@
       <c r="AK1" s="55"/>
     </row>
     <row r="2" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="321"/>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="300" t="str">
+      <c r="A2" s="352"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="368" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="302"/>
-      <c r="Q2" s="315" t="str">
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368"/>
+      <c r="K2" s="369"/>
+      <c r="L2" s="369"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="369"/>
+      <c r="O2" s="369"/>
+      <c r="P2" s="370"/>
+      <c r="Q2" s="309" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="316"/>
-      <c r="S2" s="316"/>
-      <c r="T2" s="316"/>
-      <c r="U2" s="316"/>
-      <c r="V2" s="316"/>
-      <c r="W2" s="316"/>
-      <c r="X2" s="316"/>
-      <c r="Y2" s="316"/>
-      <c r="Z2" s="316"/>
-      <c r="AA2" s="316"/>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="352" t="s">
+      <c r="R2" s="310"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="310"/>
+      <c r="U2" s="310"/>
+      <c r="V2" s="310"/>
+      <c r="W2" s="310"/>
+      <c r="X2" s="310"/>
+      <c r="Y2" s="310"/>
+      <c r="Z2" s="310"/>
+      <c r="AA2" s="310"/>
+      <c r="AB2" s="311"/>
+      <c r="AC2" s="318" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="353"/>
-      <c r="AE2" s="347" t="s">
+      <c r="AD2" s="319"/>
+      <c r="AE2" s="361" t="s">
         <v>99</v>
       </c>
-      <c r="AF2" s="298" t="s">
+      <c r="AF2" s="363" t="s">
         <v>100</v>
       </c>
       <c r="AG2" s="62"/>
@@ -19702,89 +19702,89 @@
       <c r="AK2" s="62"/>
     </row>
     <row r="3" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="345" t="str">
+      <c r="A3" s="339" t="str">
         <f>CRS!A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="303" t="s">
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="303" t="s">
+      <c r="F3" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="303" t="s">
+      <c r="G3" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="303" t="s">
+      <c r="I3" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="303" t="s">
+      <c r="J3" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="303" t="s">
+      <c r="K3" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="303" t="s">
+      <c r="L3" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="303" t="s">
+      <c r="M3" s="312" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="303" t="s">
+      <c r="N3" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="340" t="s">
+      <c r="O3" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="311" t="s">
+      <c r="P3" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="303" t="s">
+      <c r="Q3" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="303" t="s">
+      <c r="R3" s="312" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="303" t="s">
+      <c r="S3" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="303" t="s">
+      <c r="T3" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="303" t="s">
+      <c r="U3" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="303" t="s">
+      <c r="V3" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="303" t="s">
+      <c r="W3" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="303" t="s">
+      <c r="X3" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="303" t="s">
+      <c r="Y3" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="303" t="s">
+      <c r="Z3" s="312" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="340" t="s">
+      <c r="AA3" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="311" t="s">
+      <c r="AB3" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="354"/>
-      <c r="AD3" s="355"/>
-      <c r="AE3" s="347"/>
-      <c r="AF3" s="298"/>
+      <c r="AC3" s="320"/>
+      <c r="AD3" s="321"/>
+      <c r="AE3" s="361"/>
+      <c r="AF3" s="363"/>
       <c r="AG3" s="62"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
@@ -19792,48 +19792,48 @@
       <c r="AK3" s="62"/>
     </row>
     <row r="4" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="323" t="str">
+      <c r="A4" s="334" t="str">
         <f>CRS!A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B4" s="324"/>
-      <c r="C4" s="325"/>
+      <c r="B4" s="335"/>
+      <c r="C4" s="336"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>M303</v>
       </c>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="304"/>
-      <c r="J4" s="304"/>
-      <c r="K4" s="304"/>
-      <c r="L4" s="304"/>
-      <c r="M4" s="304"/>
-      <c r="N4" s="304"/>
-      <c r="O4" s="341"/>
-      <c r="P4" s="312"/>
-      <c r="Q4" s="304"/>
-      <c r="R4" s="304"/>
-      <c r="S4" s="304"/>
-      <c r="T4" s="304"/>
-      <c r="U4" s="304"/>
-      <c r="V4" s="304"/>
-      <c r="W4" s="304"/>
-      <c r="X4" s="304"/>
-      <c r="Y4" s="304"/>
-      <c r="Z4" s="304"/>
-      <c r="AA4" s="341"/>
-      <c r="AB4" s="312"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="311"/>
+      <c r="J4" s="311"/>
+      <c r="K4" s="311"/>
+      <c r="L4" s="311"/>
+      <c r="M4" s="311"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="311"/>
+      <c r="W4" s="311"/>
+      <c r="X4" s="311"/>
+      <c r="Y4" s="311"/>
+      <c r="Z4" s="311"/>
+      <c r="AA4" s="330"/>
+      <c r="AB4" s="307"/>
       <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
       <c r="AD4" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="AE4" s="347"/>
-      <c r="AF4" s="298"/>
+      <c r="AE4" s="361"/>
+      <c r="AF4" s="363"/>
       <c r="AG4" s="62"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
@@ -19841,13 +19841,13 @@
       <c r="AK4" s="62"/>
     </row>
     <row r="5" spans="1:37" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="323" t="str">
+      <c r="A5" s="334" t="str">
         <f>CRS!A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="324"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
+      <c r="B5" s="335"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
       <c r="E5" s="108">
         <v>30</v>
       </c>
@@ -19868,8 +19868,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="341"/>
-      <c r="P5" s="312"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="307"/>
       <c r="Q5" s="108">
         <v>40</v>
       </c>
@@ -19892,14 +19892,14 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="341"/>
-      <c r="AB5" s="312"/>
+      <c r="AA5" s="330"/>
+      <c r="AB5" s="307"/>
       <c r="AC5" s="110">
         <v>100</v>
       </c>
-      <c r="AD5" s="349"/>
-      <c r="AE5" s="347"/>
-      <c r="AF5" s="298"/>
+      <c r="AD5" s="322"/>
+      <c r="AE5" s="361"/>
+      <c r="AF5" s="363"/>
       <c r="AG5" s="62"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
@@ -19907,62 +19907,62 @@
       <c r="AK5" s="62"/>
     </row>
     <row r="6" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="359" t="str">
+      <c r="A6" s="341" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="316"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
-      <c r="O6" s="366">
+      <c r="B6" s="310"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="313"/>
+      <c r="K6" s="313"/>
+      <c r="L6" s="313"/>
+      <c r="M6" s="313"/>
+      <c r="N6" s="313"/>
+      <c r="O6" s="331">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v>90</v>
       </c>
-      <c r="P6" s="312"/>
-      <c r="Q6" s="305" t="s">
+      <c r="P6" s="307"/>
+      <c r="Q6" s="313" t="s">
         <v>246</v>
       </c>
-      <c r="R6" s="305" t="s">
+      <c r="R6" s="313" t="s">
         <v>247</v>
       </c>
-      <c r="S6" s="305" t="s">
+      <c r="S6" s="313" t="s">
         <v>248</v>
       </c>
-      <c r="T6" s="305" t="s">
+      <c r="T6" s="313" t="s">
         <v>249</v>
       </c>
-      <c r="U6" s="305" t="s">
+      <c r="U6" s="313" t="s">
         <v>250</v>
       </c>
-      <c r="V6" s="305" t="s">
+      <c r="V6" s="313" t="s">
         <v>251</v>
       </c>
-      <c r="W6" s="305"/>
-      <c r="X6" s="305"/>
-      <c r="Y6" s="305"/>
-      <c r="Z6" s="305"/>
-      <c r="AA6" s="342">
+      <c r="W6" s="313"/>
+      <c r="X6" s="313"/>
+      <c r="Y6" s="313"/>
+      <c r="Z6" s="313"/>
+      <c r="AA6" s="358">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v>240</v>
       </c>
-      <c r="AB6" s="312"/>
-      <c r="AC6" s="356">
+      <c r="AB6" s="307"/>
+      <c r="AC6" s="365">
         <f>'INITIAL INPUT'!D20</f>
         <v>40575</v>
       </c>
-      <c r="AD6" s="350"/>
-      <c r="AE6" s="347"/>
-      <c r="AF6" s="298"/>
+      <c r="AD6" s="323"/>
+      <c r="AE6" s="361"/>
+      <c r="AF6" s="363"/>
       <c r="AG6" s="62"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
@@ -19970,44 +19970,44 @@
       <c r="AK6" s="62"/>
     </row>
     <row r="7" spans="1:37" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="359" t="s">
+      <c r="A7" s="341" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="315"/>
-      <c r="C7" s="336" t="s">
+      <c r="B7" s="309"/>
+      <c r="C7" s="348" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="326" t="s">
+      <c r="D7" s="337" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="306"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="338"/>
-      <c r="I7" s="338"/>
-      <c r="J7" s="338"/>
-      <c r="K7" s="338"/>
-      <c r="L7" s="338"/>
-      <c r="M7" s="338"/>
-      <c r="N7" s="338"/>
-      <c r="O7" s="367"/>
-      <c r="P7" s="312"/>
-      <c r="Q7" s="306"/>
-      <c r="R7" s="306"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="306"/>
-      <c r="V7" s="306"/>
-      <c r="W7" s="306"/>
-      <c r="X7" s="306"/>
-      <c r="Y7" s="306"/>
-      <c r="Z7" s="306"/>
-      <c r="AA7" s="343"/>
-      <c r="AB7" s="312"/>
-      <c r="AC7" s="357"/>
-      <c r="AD7" s="350"/>
-      <c r="AE7" s="347"/>
-      <c r="AF7" s="298"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="316"/>
+      <c r="G7" s="316"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="316"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
+      <c r="M7" s="316"/>
+      <c r="N7" s="316"/>
+      <c r="O7" s="332"/>
+      <c r="P7" s="307"/>
+      <c r="Q7" s="314"/>
+      <c r="R7" s="314"/>
+      <c r="S7" s="314"/>
+      <c r="T7" s="314"/>
+      <c r="U7" s="314"/>
+      <c r="V7" s="314"/>
+      <c r="W7" s="314"/>
+      <c r="X7" s="314"/>
+      <c r="Y7" s="314"/>
+      <c r="Z7" s="314"/>
+      <c r="AA7" s="359"/>
+      <c r="AB7" s="307"/>
+      <c r="AC7" s="366"/>
+      <c r="AD7" s="323"/>
+      <c r="AE7" s="361"/>
+      <c r="AF7" s="363"/>
       <c r="AG7" s="55"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
@@ -20015,38 +20015,38 @@
       <c r="AK7" s="55"/>
     </row>
     <row r="8" spans="1:37" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="360"/>
-      <c r="B8" s="361"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="327"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="339"/>
-      <c r="G8" s="339"/>
-      <c r="H8" s="339"/>
-      <c r="I8" s="339"/>
-      <c r="J8" s="339"/>
-      <c r="K8" s="339"/>
-      <c r="L8" s="339"/>
-      <c r="M8" s="339"/>
-      <c r="N8" s="339"/>
-      <c r="O8" s="368"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="307"/>
-      <c r="R8" s="307"/>
-      <c r="S8" s="307"/>
-      <c r="T8" s="307"/>
-      <c r="U8" s="307"/>
-      <c r="V8" s="307"/>
-      <c r="W8" s="307"/>
-      <c r="X8" s="307"/>
-      <c r="Y8" s="307"/>
-      <c r="Z8" s="307"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="313"/>
-      <c r="AC8" s="358"/>
-      <c r="AD8" s="351"/>
-      <c r="AE8" s="348"/>
-      <c r="AF8" s="299"/>
+      <c r="A8" s="342"/>
+      <c r="B8" s="343"/>
+      <c r="C8" s="349"/>
+      <c r="D8" s="338"/>
+      <c r="E8" s="315"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="317"/>
+      <c r="H8" s="317"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="317"/>
+      <c r="K8" s="317"/>
+      <c r="L8" s="317"/>
+      <c r="M8" s="317"/>
+      <c r="N8" s="317"/>
+      <c r="O8" s="333"/>
+      <c r="P8" s="308"/>
+      <c r="Q8" s="315"/>
+      <c r="R8" s="315"/>
+      <c r="S8" s="315"/>
+      <c r="T8" s="315"/>
+      <c r="U8" s="315"/>
+      <c r="V8" s="315"/>
+      <c r="W8" s="315"/>
+      <c r="X8" s="315"/>
+      <c r="Y8" s="315"/>
+      <c r="Z8" s="315"/>
+      <c r="AA8" s="360"/>
+      <c r="AB8" s="308"/>
+      <c r="AC8" s="367"/>
+      <c r="AD8" s="324"/>
+      <c r="AE8" s="362"/>
+      <c r="AF8" s="364"/>
       <c r="AG8" s="55"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
@@ -21598,8 +21598,8 @@
         <f>CRS!I26</f>
         <v>88</v>
       </c>
-      <c r="AG26" s="373"/>
-      <c r="AH26" s="371" t="s">
+      <c r="AG26" s="300"/>
+      <c r="AH26" s="298" t="s">
         <v>127</v>
       </c>
     </row>
@@ -21686,8 +21686,8 @@
         <f>CRS!I27</f>
         <v>77</v>
       </c>
-      <c r="AG27" s="374"/>
-      <c r="AH27" s="372"/>
+      <c r="AG27" s="301"/>
+      <c r="AH27" s="299"/>
     </row>
     <row r="28" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -21768,8 +21768,8 @@
         <f>CRS!I28</f>
         <v>72</v>
       </c>
-      <c r="AG28" s="374"/>
-      <c r="AH28" s="372"/>
+      <c r="AG28" s="301"/>
+      <c r="AH28" s="299"/>
     </row>
     <row r="29" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -21840,8 +21840,8 @@
         <f>CRS!I29</f>
         <v>71</v>
       </c>
-      <c r="AG29" s="374"/>
-      <c r="AH29" s="372"/>
+      <c r="AG29" s="301"/>
+      <c r="AH29" s="299"/>
     </row>
     <row r="30" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -21930,8 +21930,8 @@
         <f>CRS!I30</f>
         <v>88</v>
       </c>
-      <c r="AG30" s="374"/>
-      <c r="AH30" s="372"/>
+      <c r="AG30" s="301"/>
+      <c r="AH30" s="299"/>
     </row>
     <row r="31" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -22022,8 +22022,8 @@
         <f>CRS!I31</f>
         <v>90</v>
       </c>
-      <c r="AG31" s="374"/>
-      <c r="AH31" s="372"/>
+      <c r="AG31" s="301"/>
+      <c r="AH31" s="299"/>
     </row>
     <row r="32" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -22106,8 +22106,8 @@
         <f>CRS!I32</f>
         <v>78</v>
       </c>
-      <c r="AG32" s="374"/>
-      <c r="AH32" s="372"/>
+      <c r="AG32" s="301"/>
+      <c r="AH32" s="299"/>
     </row>
     <row r="33" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -22192,8 +22192,8 @@
         <f>CRS!I33</f>
         <v>73</v>
       </c>
-      <c r="AG33" s="374"/>
-      <c r="AH33" s="372"/>
+      <c r="AG33" s="301"/>
+      <c r="AH33" s="299"/>
       <c r="AI33" s="55"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
@@ -22283,8 +22283,8 @@
         <f>CRS!I34</f>
         <v>84</v>
       </c>
-      <c r="AG34" s="374"/>
-      <c r="AH34" s="372"/>
+      <c r="AG34" s="301"/>
+      <c r="AH34" s="299"/>
       <c r="AI34" s="55"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
@@ -22378,8 +22378,8 @@
         <f>CRS!I35</f>
         <v>87</v>
       </c>
-      <c r="AG35" s="374"/>
-      <c r="AH35" s="372"/>
+      <c r="AG35" s="301"/>
+      <c r="AH35" s="299"/>
       <c r="AI35" s="55"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
@@ -22471,8 +22471,8 @@
         <f>CRS!I36</f>
         <v>87</v>
       </c>
-      <c r="AG36" s="374"/>
-      <c r="AH36" s="372"/>
+      <c r="AG36" s="301"/>
+      <c r="AH36" s="299"/>
       <c r="AI36" s="55"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
@@ -22542,8 +22542,8 @@
         <f>CRS!I37</f>
         <v/>
       </c>
-      <c r="AG37" s="374"/>
-      <c r="AH37" s="372"/>
+      <c r="AG37" s="301"/>
+      <c r="AH37" s="299"/>
       <c r="AI37" s="55"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
@@ -22635,8 +22635,8 @@
         <f>CRS!I38</f>
         <v>88</v>
       </c>
-      <c r="AG38" s="374"/>
-      <c r="AH38" s="372"/>
+      <c r="AG38" s="301"/>
+      <c r="AH38" s="299"/>
       <c r="AI38" s="55"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
@@ -22706,8 +22706,8 @@
         <f>CRS!I39</f>
         <v/>
       </c>
-      <c r="AG39" s="374"/>
-      <c r="AH39" s="372"/>
+      <c r="AG39" s="301"/>
+      <c r="AH39" s="299"/>
       <c r="AI39" s="55"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
@@ -22791,8 +22791,8 @@
         <f>CRS!I40</f>
         <v>72</v>
       </c>
-      <c r="AG40" s="374"/>
-      <c r="AH40" s="372"/>
+      <c r="AG40" s="301"/>
+      <c r="AH40" s="299"/>
       <c r="AI40" s="55"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
@@ -22837,43 +22837,43 @@
       <c r="AK41" s="55"/>
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="332" t="str">
+      <c r="A42" s="354" t="str">
         <f>A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B42" s="333"/>
-      <c r="C42" s="333"/>
-      <c r="D42" s="333"/>
-      <c r="E42" s="328" t="s">
+      <c r="B42" s="355"/>
+      <c r="C42" s="355"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="325" t="s">
         <v>97</v>
       </c>
-      <c r="F42" s="328"/>
-      <c r="G42" s="328"/>
-      <c r="H42" s="328"/>
-      <c r="I42" s="328"/>
-      <c r="J42" s="328"/>
-      <c r="K42" s="329"/>
-      <c r="L42" s="329"/>
-      <c r="M42" s="329"/>
-      <c r="N42" s="329"/>
-      <c r="O42" s="329"/>
-      <c r="P42" s="329"/>
-      <c r="Q42" s="329"/>
-      <c r="R42" s="329"/>
-      <c r="S42" s="329"/>
-      <c r="T42" s="329"/>
-      <c r="U42" s="329"/>
-      <c r="V42" s="329"/>
-      <c r="W42" s="329"/>
-      <c r="X42" s="329"/>
-      <c r="Y42" s="329"/>
-      <c r="Z42" s="329"/>
-      <c r="AA42" s="329"/>
-      <c r="AB42" s="329"/>
-      <c r="AC42" s="330"/>
-      <c r="AD42" s="330"/>
-      <c r="AE42" s="330"/>
-      <c r="AF42" s="331"/>
+      <c r="F42" s="325"/>
+      <c r="G42" s="325"/>
+      <c r="H42" s="325"/>
+      <c r="I42" s="325"/>
+      <c r="J42" s="325"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="326"/>
+      <c r="N42" s="326"/>
+      <c r="O42" s="326"/>
+      <c r="P42" s="326"/>
+      <c r="Q42" s="326"/>
+      <c r="R42" s="326"/>
+      <c r="S42" s="326"/>
+      <c r="T42" s="326"/>
+      <c r="U42" s="326"/>
+      <c r="V42" s="326"/>
+      <c r="W42" s="326"/>
+      <c r="X42" s="326"/>
+      <c r="Y42" s="326"/>
+      <c r="Z42" s="326"/>
+      <c r="AA42" s="326"/>
+      <c r="AB42" s="326"/>
+      <c r="AC42" s="327"/>
+      <c r="AD42" s="327"/>
+      <c r="AE42" s="327"/>
+      <c r="AF42" s="328"/>
       <c r="AG42" s="55"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
@@ -22881,48 +22881,48 @@
       <c r="AK42" s="55"/>
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="334"/>
-      <c r="B43" s="335"/>
-      <c r="C43" s="335"/>
-      <c r="D43" s="335"/>
-      <c r="E43" s="315" t="str">
+      <c r="A43" s="356"/>
+      <c r="B43" s="357"/>
+      <c r="C43" s="357"/>
+      <c r="D43" s="357"/>
+      <c r="E43" s="309" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="315"/>
-      <c r="G43" s="315"/>
-      <c r="H43" s="315"/>
-      <c r="I43" s="315"/>
-      <c r="J43" s="315"/>
-      <c r="K43" s="316"/>
-      <c r="L43" s="316"/>
-      <c r="M43" s="316"/>
-      <c r="N43" s="316"/>
-      <c r="O43" s="316"/>
-      <c r="P43" s="304"/>
-      <c r="Q43" s="315" t="str">
+      <c r="F43" s="309"/>
+      <c r="G43" s="309"/>
+      <c r="H43" s="309"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="309"/>
+      <c r="K43" s="310"/>
+      <c r="L43" s="310"/>
+      <c r="M43" s="310"/>
+      <c r="N43" s="310"/>
+      <c r="O43" s="310"/>
+      <c r="P43" s="311"/>
+      <c r="Q43" s="309" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="316"/>
-      <c r="S43" s="316"/>
-      <c r="T43" s="316"/>
-      <c r="U43" s="316"/>
-      <c r="V43" s="316"/>
-      <c r="W43" s="316"/>
-      <c r="X43" s="316"/>
-      <c r="Y43" s="316"/>
-      <c r="Z43" s="316"/>
-      <c r="AA43" s="316"/>
-      <c r="AB43" s="304"/>
-      <c r="AC43" s="352" t="s">
+      <c r="R43" s="310"/>
+      <c r="S43" s="310"/>
+      <c r="T43" s="310"/>
+      <c r="U43" s="310"/>
+      <c r="V43" s="310"/>
+      <c r="W43" s="310"/>
+      <c r="X43" s="310"/>
+      <c r="Y43" s="310"/>
+      <c r="Z43" s="310"/>
+      <c r="AA43" s="310"/>
+      <c r="AB43" s="311"/>
+      <c r="AC43" s="318" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="353"/>
-      <c r="AE43" s="347" t="s">
+      <c r="AD43" s="319"/>
+      <c r="AE43" s="361" t="s">
         <v>99</v>
       </c>
-      <c r="AF43" s="298" t="s">
+      <c r="AF43" s="363" t="s">
         <v>100</v>
       </c>
       <c r="AG43" s="62"/>
@@ -22932,89 +22932,89 @@
       <c r="AK43" s="62"/>
     </row>
     <row r="44" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="345" t="str">
+      <c r="A44" s="339" t="str">
         <f>A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B44" s="346"/>
-      <c r="C44" s="346"/>
-      <c r="D44" s="346"/>
-      <c r="E44" s="303" t="s">
+      <c r="B44" s="340"/>
+      <c r="C44" s="340"/>
+      <c r="D44" s="340"/>
+      <c r="E44" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="303" t="s">
+      <c r="F44" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="303" t="s">
+      <c r="G44" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="303" t="s">
+      <c r="H44" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="303" t="s">
+      <c r="I44" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="303" t="s">
+      <c r="J44" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="303" t="s">
+      <c r="K44" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="303" t="s">
+      <c r="L44" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="303" t="s">
+      <c r="M44" s="312" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="303" t="s">
+      <c r="N44" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="340" t="s">
+      <c r="O44" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="P44" s="311" t="s">
+      <c r="P44" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="Q44" s="303" t="s">
+      <c r="Q44" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="R44" s="303" t="s">
+      <c r="R44" s="312" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="303" t="s">
+      <c r="S44" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="T44" s="303" t="s">
+      <c r="T44" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="303" t="s">
+      <c r="U44" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="303" t="s">
+      <c r="V44" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="W44" s="303" t="s">
+      <c r="W44" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="X44" s="303" t="s">
+      <c r="X44" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="303" t="s">
+      <c r="Y44" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="Z44" s="303" t="s">
+      <c r="Z44" s="312" t="s">
         <v>121</v>
       </c>
-      <c r="AA44" s="340" t="s">
+      <c r="AA44" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="AB44" s="311" t="s">
+      <c r="AB44" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="354"/>
-      <c r="AD44" s="355"/>
-      <c r="AE44" s="347"/>
-      <c r="AF44" s="298"/>
+      <c r="AC44" s="320"/>
+      <c r="AD44" s="321"/>
+      <c r="AE44" s="361"/>
+      <c r="AF44" s="363"/>
       <c r="AG44" s="62"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
@@ -23022,48 +23022,48 @@
       <c r="AK44" s="62"/>
     </row>
     <row r="45" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="323" t="str">
+      <c r="A45" s="334" t="str">
         <f>A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B45" s="324"/>
-      <c r="C45" s="325"/>
+      <c r="B45" s="335"/>
+      <c r="C45" s="336"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>M303</v>
       </c>
-      <c r="E45" s="303"/>
-      <c r="F45" s="303"/>
-      <c r="G45" s="303"/>
-      <c r="H45" s="303"/>
-      <c r="I45" s="303"/>
-      <c r="J45" s="303"/>
-      <c r="K45" s="303"/>
-      <c r="L45" s="303"/>
-      <c r="M45" s="303"/>
-      <c r="N45" s="303"/>
-      <c r="O45" s="340"/>
-      <c r="P45" s="311"/>
-      <c r="Q45" s="304"/>
-      <c r="R45" s="304"/>
-      <c r="S45" s="304"/>
-      <c r="T45" s="304"/>
-      <c r="U45" s="303"/>
-      <c r="V45" s="303"/>
-      <c r="W45" s="304"/>
-      <c r="X45" s="304"/>
-      <c r="Y45" s="304"/>
-      <c r="Z45" s="304"/>
-      <c r="AA45" s="341"/>
-      <c r="AB45" s="312"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="312"/>
+      <c r="G45" s="312"/>
+      <c r="H45" s="312"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="312"/>
+      <c r="K45" s="312"/>
+      <c r="L45" s="312"/>
+      <c r="M45" s="312"/>
+      <c r="N45" s="312"/>
+      <c r="O45" s="329"/>
+      <c r="P45" s="306"/>
+      <c r="Q45" s="311"/>
+      <c r="R45" s="311"/>
+      <c r="S45" s="311"/>
+      <c r="T45" s="311"/>
+      <c r="U45" s="312"/>
+      <c r="V45" s="312"/>
+      <c r="W45" s="311"/>
+      <c r="X45" s="311"/>
+      <c r="Y45" s="311"/>
+      <c r="Z45" s="311"/>
+      <c r="AA45" s="330"/>
+      <c r="AB45" s="307"/>
       <c r="AC45" s="68" t="s">
         <v>122</v>
       </c>
       <c r="AD45" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="AE45" s="347"/>
-      <c r="AF45" s="298"/>
+      <c r="AE45" s="361"/>
+      <c r="AF45" s="363"/>
       <c r="AG45" s="62"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
@@ -23071,13 +23071,13 @@
       <c r="AK45" s="62"/>
     </row>
     <row r="46" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="323" t="str">
+      <c r="A46" s="334" t="str">
         <f>A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="324"/>
-      <c r="C46" s="325"/>
-      <c r="D46" s="325"/>
+      <c r="B46" s="335"/>
+      <c r="C46" s="336"/>
+      <c r="D46" s="336"/>
       <c r="E46" s="57">
         <f t="shared" ref="E46:N46" si="5">IF(E5="","",E5)</f>
         <v>30</v>
@@ -23118,8 +23118,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="340"/>
-      <c r="P46" s="311"/>
+      <c r="O46" s="329"/>
+      <c r="P46" s="306"/>
       <c r="Q46" s="57">
         <f>IF(Q5="","",Q5)</f>
         <v>40</v>
@@ -23160,15 +23160,15 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="341"/>
-      <c r="AB46" s="312"/>
+      <c r="AA46" s="330"/>
+      <c r="AB46" s="307"/>
       <c r="AC46" s="57">
         <f>IF(AC5="","",AC5)</f>
         <v>100</v>
       </c>
-      <c r="AD46" s="349"/>
-      <c r="AE46" s="347"/>
-      <c r="AF46" s="298"/>
+      <c r="AD46" s="322"/>
+      <c r="AE46" s="361"/>
+      <c r="AF46" s="363"/>
       <c r="AG46" s="62"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
@@ -23176,110 +23176,110 @@
       <c r="AK46" s="62"/>
     </row>
     <row r="47" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="359" t="str">
+      <c r="A47" s="341" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="316"/>
-      <c r="C47" s="304"/>
-      <c r="D47" s="304"/>
-      <c r="E47" s="317" t="str">
+      <c r="B47" s="310"/>
+      <c r="C47" s="311"/>
+      <c r="D47" s="311"/>
+      <c r="E47" s="302" t="str">
         <f>IF(E6="","",E6)</f>
         <v/>
       </c>
-      <c r="F47" s="317" t="str">
+      <c r="F47" s="302" t="str">
         <f t="shared" ref="F47:N47" si="7">IF(F6="","",F6)</f>
         <v/>
       </c>
-      <c r="G47" s="317" t="str">
+      <c r="G47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="H47" s="317" t="str">
+      <c r="H47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I47" s="317" t="str">
+      <c r="I47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J47" s="317" t="str">
+      <c r="J47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K47" s="317" t="str">
+      <c r="K47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L47" s="317" t="str">
+      <c r="L47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M47" s="317" t="str">
+      <c r="M47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N47" s="317" t="str">
+      <c r="N47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="O47" s="369">
+      <c r="O47" s="304">
         <f>O6</f>
         <v>90</v>
       </c>
-      <c r="P47" s="311"/>
-      <c r="Q47" s="317" t="str">
+      <c r="P47" s="306"/>
+      <c r="Q47" s="302" t="str">
         <f t="shared" ref="Q47:Z47" si="8">IF(Q6="","",Q6)</f>
         <v>Lab Act 01</v>
       </c>
-      <c r="R47" s="317" t="str">
+      <c r="R47" s="302" t="str">
         <f t="shared" si="8"/>
         <v>Lab Act 02</v>
       </c>
-      <c r="S47" s="317" t="str">
+      <c r="S47" s="302" t="str">
         <f t="shared" si="8"/>
         <v>Lab Act 03</v>
       </c>
-      <c r="T47" s="317" t="str">
+      <c r="T47" s="302" t="str">
         <f t="shared" si="8"/>
         <v>Lab Act 04</v>
       </c>
-      <c r="U47" s="317" t="str">
+      <c r="U47" s="302" t="str">
         <f t="shared" si="8"/>
         <v>Lab Act 05</v>
       </c>
-      <c r="V47" s="317" t="str">
+      <c r="V47" s="302" t="str">
         <f t="shared" si="8"/>
         <v>Lab Act 06</v>
       </c>
-      <c r="W47" s="317" t="str">
+      <c r="W47" s="302" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="X47" s="317" t="str">
+      <c r="X47" s="302" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Y47" s="317" t="str">
+      <c r="Y47" s="302" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="Z47" s="317" t="str">
+      <c r="Z47" s="302" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AA47" s="369">
+      <c r="AA47" s="304">
         <f>AA6</f>
         <v>240</v>
       </c>
-      <c r="AB47" s="312"/>
-      <c r="AC47" s="308">
+      <c r="AB47" s="307"/>
+      <c r="AC47" s="371">
         <f>AC6</f>
         <v>40575</v>
       </c>
-      <c r="AD47" s="350"/>
-      <c r="AE47" s="347"/>
-      <c r="AF47" s="298"/>
+      <c r="AD47" s="323"/>
+      <c r="AE47" s="361"/>
+      <c r="AF47" s="363"/>
       <c r="AG47" s="62"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
@@ -23287,44 +23287,44 @@
       <c r="AK47" s="62"/>
     </row>
     <row r="48" spans="1:37" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="362" t="s">
+      <c r="A48" s="344" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="363"/>
-      <c r="C48" s="336" t="s">
+      <c r="B48" s="345"/>
+      <c r="C48" s="348" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="326" t="s">
+      <c r="D48" s="337" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="317"/>
-      <c r="F48" s="317"/>
-      <c r="G48" s="317"/>
-      <c r="H48" s="317"/>
-      <c r="I48" s="317"/>
-      <c r="J48" s="317"/>
-      <c r="K48" s="317"/>
-      <c r="L48" s="317"/>
-      <c r="M48" s="317"/>
-      <c r="N48" s="317"/>
-      <c r="O48" s="369"/>
-      <c r="P48" s="311"/>
-      <c r="Q48" s="317"/>
-      <c r="R48" s="317"/>
-      <c r="S48" s="317"/>
-      <c r="T48" s="317"/>
-      <c r="U48" s="317"/>
-      <c r="V48" s="317"/>
-      <c r="W48" s="317"/>
-      <c r="X48" s="317"/>
-      <c r="Y48" s="317"/>
-      <c r="Z48" s="317"/>
-      <c r="AA48" s="369"/>
-      <c r="AB48" s="312"/>
-      <c r="AC48" s="309"/>
-      <c r="AD48" s="350"/>
-      <c r="AE48" s="347"/>
-      <c r="AF48" s="298"/>
+      <c r="E48" s="302"/>
+      <c r="F48" s="302"/>
+      <c r="G48" s="302"/>
+      <c r="H48" s="302"/>
+      <c r="I48" s="302"/>
+      <c r="J48" s="302"/>
+      <c r="K48" s="302"/>
+      <c r="L48" s="302"/>
+      <c r="M48" s="302"/>
+      <c r="N48" s="302"/>
+      <c r="O48" s="304"/>
+      <c r="P48" s="306"/>
+      <c r="Q48" s="302"/>
+      <c r="R48" s="302"/>
+      <c r="S48" s="302"/>
+      <c r="T48" s="302"/>
+      <c r="U48" s="302"/>
+      <c r="V48" s="302"/>
+      <c r="W48" s="302"/>
+      <c r="X48" s="302"/>
+      <c r="Y48" s="302"/>
+      <c r="Z48" s="302"/>
+      <c r="AA48" s="304"/>
+      <c r="AB48" s="307"/>
+      <c r="AC48" s="372"/>
+      <c r="AD48" s="323"/>
+      <c r="AE48" s="361"/>
+      <c r="AF48" s="363"/>
       <c r="AG48" s="55"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
@@ -23332,38 +23332,38 @@
       <c r="AK48" s="55"/>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A49" s="364"/>
-      <c r="B49" s="365"/>
-      <c r="C49" s="337"/>
-      <c r="D49" s="327"/>
-      <c r="E49" s="318"/>
-      <c r="F49" s="318"/>
-      <c r="G49" s="318"/>
-      <c r="H49" s="318"/>
-      <c r="I49" s="318"/>
-      <c r="J49" s="318"/>
-      <c r="K49" s="318"/>
-      <c r="L49" s="318"/>
-      <c r="M49" s="318"/>
-      <c r="N49" s="318"/>
-      <c r="O49" s="370"/>
-      <c r="P49" s="314"/>
-      <c r="Q49" s="318"/>
-      <c r="R49" s="318"/>
-      <c r="S49" s="318"/>
-      <c r="T49" s="318"/>
-      <c r="U49" s="318"/>
-      <c r="V49" s="318"/>
-      <c r="W49" s="318"/>
-      <c r="X49" s="318"/>
-      <c r="Y49" s="318"/>
-      <c r="Z49" s="318"/>
-      <c r="AA49" s="370"/>
-      <c r="AB49" s="313"/>
-      <c r="AC49" s="310"/>
-      <c r="AD49" s="351"/>
-      <c r="AE49" s="348"/>
-      <c r="AF49" s="299"/>
+      <c r="A49" s="346"/>
+      <c r="B49" s="347"/>
+      <c r="C49" s="349"/>
+      <c r="D49" s="338"/>
+      <c r="E49" s="303"/>
+      <c r="F49" s="303"/>
+      <c r="G49" s="303"/>
+      <c r="H49" s="303"/>
+      <c r="I49" s="303"/>
+      <c r="J49" s="303"/>
+      <c r="K49" s="303"/>
+      <c r="L49" s="303"/>
+      <c r="M49" s="303"/>
+      <c r="N49" s="303"/>
+      <c r="O49" s="305"/>
+      <c r="P49" s="374"/>
+      <c r="Q49" s="303"/>
+      <c r="R49" s="303"/>
+      <c r="S49" s="303"/>
+      <c r="T49" s="303"/>
+      <c r="U49" s="303"/>
+      <c r="V49" s="303"/>
+      <c r="W49" s="303"/>
+      <c r="X49" s="303"/>
+      <c r="Y49" s="303"/>
+      <c r="Z49" s="303"/>
+      <c r="AA49" s="305"/>
+      <c r="AB49" s="308"/>
+      <c r="AC49" s="373"/>
+      <c r="AD49" s="324"/>
+      <c r="AE49" s="362"/>
+      <c r="AF49" s="364"/>
     </row>
     <row r="50" spans="1:32" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -24616,8 +24616,8 @@
         <f>CRS!I66</f>
         <v/>
       </c>
-      <c r="AG66" s="373"/>
-      <c r="AH66" s="371" t="s">
+      <c r="AG66" s="300"/>
+      <c r="AH66" s="298" t="s">
         <v>127</v>
       </c>
     </row>
@@ -24686,8 +24686,8 @@
         <f>CRS!I67</f>
         <v/>
       </c>
-      <c r="AG67" s="374"/>
-      <c r="AH67" s="372"/>
+      <c r="AG67" s="301"/>
+      <c r="AH67" s="299"/>
     </row>
     <row r="68" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -24754,8 +24754,8 @@
         <f>CRS!I68</f>
         <v/>
       </c>
-      <c r="AG68" s="374"/>
-      <c r="AH68" s="372"/>
+      <c r="AG68" s="301"/>
+      <c r="AH68" s="299"/>
     </row>
     <row r="69" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -24822,8 +24822,8 @@
         <f>CRS!I69</f>
         <v/>
       </c>
-      <c r="AG69" s="374"/>
-      <c r="AH69" s="372"/>
+      <c r="AG69" s="301"/>
+      <c r="AH69" s="299"/>
     </row>
     <row r="70" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -24890,8 +24890,8 @@
         <f>CRS!I70</f>
         <v/>
       </c>
-      <c r="AG70" s="374"/>
-      <c r="AH70" s="372"/>
+      <c r="AG70" s="301"/>
+      <c r="AH70" s="299"/>
     </row>
     <row r="71" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -24958,8 +24958,8 @@
         <f>CRS!I71</f>
         <v/>
       </c>
-      <c r="AG71" s="374"/>
-      <c r="AH71" s="372"/>
+      <c r="AG71" s="301"/>
+      <c r="AH71" s="299"/>
     </row>
     <row r="72" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -25026,8 +25026,8 @@
         <f>CRS!I72</f>
         <v/>
       </c>
-      <c r="AG72" s="374"/>
-      <c r="AH72" s="372"/>
+      <c r="AG72" s="301"/>
+      <c r="AH72" s="299"/>
     </row>
     <row r="73" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -25094,8 +25094,8 @@
         <f>CRS!I73</f>
         <v/>
       </c>
-      <c r="AG73" s="374"/>
-      <c r="AH73" s="372"/>
+      <c r="AG73" s="301"/>
+      <c r="AH73" s="299"/>
     </row>
     <row r="74" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -25162,8 +25162,8 @@
         <f>CRS!I74</f>
         <v/>
       </c>
-      <c r="AG74" s="374"/>
-      <c r="AH74" s="372"/>
+      <c r="AG74" s="301"/>
+      <c r="AH74" s="299"/>
     </row>
     <row r="75" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -25230,8 +25230,8 @@
         <f>CRS!I75</f>
         <v/>
       </c>
-      <c r="AG75" s="374"/>
-      <c r="AH75" s="372"/>
+      <c r="AG75" s="301"/>
+      <c r="AH75" s="299"/>
     </row>
     <row r="76" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -25298,8 +25298,8 @@
         <f>CRS!I76</f>
         <v/>
       </c>
-      <c r="AG76" s="374"/>
-      <c r="AH76" s="372"/>
+      <c r="AG76" s="301"/>
+      <c r="AH76" s="299"/>
     </row>
     <row r="77" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -25366,8 +25366,8 @@
         <f>CRS!I77</f>
         <v/>
       </c>
-      <c r="AG77" s="374"/>
-      <c r="AH77" s="372"/>
+      <c r="AG77" s="301"/>
+      <c r="AH77" s="299"/>
     </row>
     <row r="78" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -25434,8 +25434,8 @@
         <f>CRS!I78</f>
         <v/>
       </c>
-      <c r="AG78" s="374"/>
-      <c r="AH78" s="372"/>
+      <c r="AG78" s="301"/>
+      <c r="AH78" s="299"/>
     </row>
     <row r="79" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -25502,8 +25502,8 @@
         <f>CRS!I79</f>
         <v/>
       </c>
-      <c r="AG79" s="374"/>
-      <c r="AH79" s="372"/>
+      <c r="AG79" s="301"/>
+      <c r="AH79" s="299"/>
     </row>
     <row r="80" spans="1:34" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -25570,8 +25570,8 @@
         <f>CRS!I80</f>
         <v/>
       </c>
-      <c r="AG80" s="374"/>
-      <c r="AH80" s="372"/>
+      <c r="AG80" s="301"/>
+      <c r="AH80" s="299"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -25851,6 +25851,110 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="/sq5jNjiBvRhnKHfivcv63PIil4qKS/9mQiV4aFr69nDzINu+0ecn8NT3diVZT68S0si8O2smy0x5/onhwU/zA==" saltValue="Xa18L1vVZidTgwLONF3CHg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="128">
+    <mergeCell ref="AF43:AF49"/>
+    <mergeCell ref="E2:P2"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="AB44:AB49"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="P44:P49"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="Q43:AB43"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="AB3:AB8"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="E1:AF1"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="AE2:AE8"/>
+    <mergeCell ref="AF2:AF8"/>
+    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="AE43:AE49"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="S47:S49"/>
     <mergeCell ref="AH66:AH80"/>
     <mergeCell ref="AG66:AG80"/>
     <mergeCell ref="AH26:AH40"/>
@@ -25875,110 +25979,6 @@
     <mergeCell ref="E42:AF42"/>
     <mergeCell ref="L47:L49"/>
     <mergeCell ref="E47:E49"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="E1:AF1"/>
-    <mergeCell ref="Q2:AB2"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="AF2:AF8"/>
-    <mergeCell ref="AD46:AD49"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="AF43:AF49"/>
-    <mergeCell ref="E2:P2"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="AB44:AB49"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="Y44:Y45"/>
-    <mergeCell ref="P44:P49"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="Q43:AB43"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="AB3:AB8"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <dataValidations xWindow="307" yWindow="360" count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
@@ -26061,7 +26061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL135"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AC56" sqref="AC56"/>
     </sheetView>
   </sheetViews>
@@ -26082,44 +26082,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="319" t="str">
+      <c r="A1" s="350" t="str">
         <f>CRS!A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="328" t="s">
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="325" t="s">
         <v>135</v>
       </c>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="329"/>
-      <c r="O1" s="329"/>
-      <c r="P1" s="329"/>
-      <c r="Q1" s="329"/>
-      <c r="R1" s="329"/>
-      <c r="S1" s="329"/>
-      <c r="T1" s="329"/>
-      <c r="U1" s="329"/>
-      <c r="V1" s="329"/>
-      <c r="W1" s="329"/>
-      <c r="X1" s="329"/>
-      <c r="Y1" s="329"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="329"/>
-      <c r="AB1" s="329"/>
-      <c r="AC1" s="330"/>
-      <c r="AD1" s="330"/>
-      <c r="AE1" s="330"/>
-      <c r="AF1" s="330"/>
-      <c r="AG1" s="331"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326"/>
+      <c r="S1" s="326"/>
+      <c r="T1" s="326"/>
+      <c r="U1" s="326"/>
+      <c r="V1" s="326"/>
+      <c r="W1" s="326"/>
+      <c r="X1" s="326"/>
+      <c r="Y1" s="326"/>
+      <c r="Z1" s="326"/>
+      <c r="AA1" s="326"/>
+      <c r="AB1" s="326"/>
+      <c r="AC1" s="327"/>
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="327"/>
+      <c r="AG1" s="328"/>
       <c r="AH1" s="63"/>
       <c r="AI1" s="55"/>
       <c r="AJ1" s="55"/>
@@ -26127,51 +26127,51 @@
       <c r="AL1" s="55"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="321"/>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="300" t="str">
+      <c r="A2" s="352"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="368" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="302"/>
-      <c r="Q2" s="315" t="str">
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368"/>
+      <c r="K2" s="369"/>
+      <c r="L2" s="369"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="369"/>
+      <c r="O2" s="369"/>
+      <c r="P2" s="370"/>
+      <c r="Q2" s="309" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="316"/>
-      <c r="S2" s="316"/>
-      <c r="T2" s="316"/>
-      <c r="U2" s="316"/>
-      <c r="V2" s="316"/>
-      <c r="W2" s="316"/>
-      <c r="X2" s="316"/>
-      <c r="Y2" s="316"/>
-      <c r="Z2" s="316"/>
-      <c r="AA2" s="316"/>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="352" t="s">
+      <c r="R2" s="310"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="310"/>
+      <c r="U2" s="310"/>
+      <c r="V2" s="310"/>
+      <c r="W2" s="310"/>
+      <c r="X2" s="310"/>
+      <c r="Y2" s="310"/>
+      <c r="Z2" s="310"/>
+      <c r="AA2" s="310"/>
+      <c r="AB2" s="311"/>
+      <c r="AC2" s="318" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="353"/>
+      <c r="AD2" s="319"/>
       <c r="AE2" s="375" t="s">
         <v>132</v>
       </c>
-      <c r="AF2" s="347" t="s">
+      <c r="AF2" s="361" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="298" t="s">
+      <c r="AG2" s="363" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="62"/>
@@ -26181,90 +26181,90 @@
       <c r="AL2" s="62"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="345" t="str">
+      <c r="A3" s="339" t="str">
         <f>CRS!A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="303" t="s">
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="303" t="s">
+      <c r="F3" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="303" t="s">
+      <c r="G3" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="303" t="s">
+      <c r="I3" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="303" t="s">
+      <c r="J3" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="303" t="s">
+      <c r="K3" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="303" t="s">
+      <c r="L3" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="303" t="s">
+      <c r="M3" s="312" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="303" t="s">
+      <c r="N3" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="340" t="s">
+      <c r="O3" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="311" t="s">
+      <c r="P3" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="303" t="s">
+      <c r="Q3" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="303" t="s">
+      <c r="R3" s="312" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="303" t="s">
+      <c r="S3" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="303" t="s">
+      <c r="T3" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="303" t="s">
+      <c r="U3" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="303" t="s">
+      <c r="V3" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="303" t="s">
+      <c r="W3" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="303" t="s">
+      <c r="X3" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="303" t="s">
+      <c r="Y3" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="303" t="s">
+      <c r="Z3" s="312" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="340" t="s">
+      <c r="AA3" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="311" t="s">
+      <c r="AB3" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="354"/>
-      <c r="AD3" s="355"/>
+      <c r="AC3" s="320"/>
+      <c r="AD3" s="321"/>
       <c r="AE3" s="375"/>
-      <c r="AF3" s="347"/>
-      <c r="AG3" s="298"/>
+      <c r="AF3" s="361"/>
+      <c r="AG3" s="363"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
       <c r="AJ3" s="62"/>
@@ -26272,40 +26272,40 @@
       <c r="AL3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="323" t="str">
+      <c r="A4" s="334" t="str">
         <f>CRS!A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B4" s="324"/>
-      <c r="C4" s="325"/>
+      <c r="B4" s="335"/>
+      <c r="C4" s="336"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>M303</v>
       </c>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="304"/>
-      <c r="J4" s="304"/>
-      <c r="K4" s="304"/>
-      <c r="L4" s="304"/>
-      <c r="M4" s="304"/>
-      <c r="N4" s="304"/>
-      <c r="O4" s="341"/>
-      <c r="P4" s="312"/>
-      <c r="Q4" s="304"/>
-      <c r="R4" s="304"/>
-      <c r="S4" s="304"/>
-      <c r="T4" s="304"/>
-      <c r="U4" s="304"/>
-      <c r="V4" s="304"/>
-      <c r="W4" s="304"/>
-      <c r="X4" s="304"/>
-      <c r="Y4" s="304"/>
-      <c r="Z4" s="304"/>
-      <c r="AA4" s="341"/>
-      <c r="AB4" s="312"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="311"/>
+      <c r="J4" s="311"/>
+      <c r="K4" s="311"/>
+      <c r="L4" s="311"/>
+      <c r="M4" s="311"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="311"/>
+      <c r="W4" s="311"/>
+      <c r="X4" s="311"/>
+      <c r="Y4" s="311"/>
+      <c r="Z4" s="311"/>
+      <c r="AA4" s="330"/>
+      <c r="AB4" s="307"/>
       <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
@@ -26313,8 +26313,8 @@
         <v>123</v>
       </c>
       <c r="AE4" s="375"/>
-      <c r="AF4" s="347"/>
-      <c r="AG4" s="298"/>
+      <c r="AF4" s="361"/>
+      <c r="AG4" s="363"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="62"/>
@@ -26322,13 +26322,13 @@
       <c r="AL4" s="62"/>
     </row>
     <row r="5" spans="1:38" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="323" t="str">
+      <c r="A5" s="334" t="str">
         <f>CRS!A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="324"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
+      <c r="B5" s="335"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
       <c r="E5" s="108">
         <v>20</v>
       </c>
@@ -26349,8 +26349,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="341"/>
-      <c r="P5" s="312"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="307"/>
       <c r="Q5" s="108">
         <v>40</v>
       </c>
@@ -26369,15 +26369,15 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="341"/>
-      <c r="AB5" s="312"/>
+      <c r="AA5" s="330"/>
+      <c r="AB5" s="307"/>
       <c r="AC5" s="110">
         <v>105</v>
       </c>
-      <c r="AD5" s="349"/>
+      <c r="AD5" s="322"/>
       <c r="AE5" s="375"/>
-      <c r="AF5" s="347"/>
-      <c r="AG5" s="298"/>
+      <c r="AF5" s="361"/>
+      <c r="AG5" s="363"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="62"/>
@@ -26385,69 +26385,69 @@
       <c r="AL5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="359" t="str">
+      <c r="A6" s="341" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="316"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="305" t="s">
+      <c r="B6" s="310"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="313" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="305" t="s">
+      <c r="F6" s="313" t="s">
         <v>257</v>
       </c>
-      <c r="G6" s="305" t="s">
+      <c r="G6" s="313" t="s">
         <v>258</v>
       </c>
-      <c r="H6" s="305" t="s">
+      <c r="H6" s="313" t="s">
         <v>259</v>
       </c>
-      <c r="I6" s="305" t="s">
+      <c r="I6" s="313" t="s">
         <v>260</v>
       </c>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
-      <c r="O6" s="366">
+      <c r="J6" s="313"/>
+      <c r="K6" s="313"/>
+      <c r="L6" s="313"/>
+      <c r="M6" s="313"/>
+      <c r="N6" s="313"/>
+      <c r="O6" s="331">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v>100</v>
       </c>
-      <c r="P6" s="312"/>
-      <c r="Q6" s="305" t="s">
+      <c r="P6" s="307"/>
+      <c r="Q6" s="313" t="s">
         <v>252</v>
       </c>
-      <c r="R6" s="305" t="s">
+      <c r="R6" s="313" t="s">
         <v>253</v>
       </c>
-      <c r="S6" s="305" t="s">
+      <c r="S6" s="313" t="s">
         <v>254</v>
       </c>
-      <c r="T6" s="305" t="s">
+      <c r="T6" s="313" t="s">
         <v>255</v>
       </c>
-      <c r="U6" s="305"/>
-      <c r="V6" s="305"/>
-      <c r="W6" s="305"/>
-      <c r="X6" s="305"/>
-      <c r="Y6" s="305"/>
-      <c r="Z6" s="305"/>
-      <c r="AA6" s="342">
+      <c r="U6" s="313"/>
+      <c r="V6" s="313"/>
+      <c r="W6" s="313"/>
+      <c r="X6" s="313"/>
+      <c r="Y6" s="313"/>
+      <c r="Z6" s="313"/>
+      <c r="AA6" s="358">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v>160</v>
       </c>
-      <c r="AB6" s="312"/>
-      <c r="AC6" s="356">
+      <c r="AB6" s="307"/>
+      <c r="AC6" s="365">
         <f>'INITIAL INPUT'!D22</f>
         <v>40603</v>
       </c>
-      <c r="AD6" s="350"/>
+      <c r="AD6" s="323"/>
       <c r="AE6" s="375"/>
-      <c r="AF6" s="347"/>
-      <c r="AG6" s="298"/>
+      <c r="AF6" s="361"/>
+      <c r="AG6" s="363"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
@@ -26455,45 +26455,45 @@
       <c r="AL6" s="62"/>
     </row>
     <row r="7" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="359" t="s">
+      <c r="A7" s="341" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="315"/>
-      <c r="C7" s="336" t="s">
+      <c r="B7" s="309"/>
+      <c r="C7" s="348" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="326" t="s">
+      <c r="D7" s="337" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="306"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="338"/>
-      <c r="I7" s="338"/>
-      <c r="J7" s="338"/>
-      <c r="K7" s="338"/>
-      <c r="L7" s="338"/>
-      <c r="M7" s="338"/>
-      <c r="N7" s="338"/>
-      <c r="O7" s="367"/>
-      <c r="P7" s="312"/>
-      <c r="Q7" s="306"/>
-      <c r="R7" s="306"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="306"/>
-      <c r="V7" s="306"/>
-      <c r="W7" s="306"/>
-      <c r="X7" s="306"/>
-      <c r="Y7" s="306"/>
-      <c r="Z7" s="306"/>
-      <c r="AA7" s="343"/>
-      <c r="AB7" s="312"/>
-      <c r="AC7" s="357"/>
-      <c r="AD7" s="350"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="316"/>
+      <c r="G7" s="316"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="316"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
+      <c r="M7" s="316"/>
+      <c r="N7" s="316"/>
+      <c r="O7" s="332"/>
+      <c r="P7" s="307"/>
+      <c r="Q7" s="314"/>
+      <c r="R7" s="314"/>
+      <c r="S7" s="314"/>
+      <c r="T7" s="314"/>
+      <c r="U7" s="314"/>
+      <c r="V7" s="314"/>
+      <c r="W7" s="314"/>
+      <c r="X7" s="314"/>
+      <c r="Y7" s="314"/>
+      <c r="Z7" s="314"/>
+      <c r="AA7" s="359"/>
+      <c r="AB7" s="307"/>
+      <c r="AC7" s="366"/>
+      <c r="AD7" s="323"/>
       <c r="AE7" s="375"/>
-      <c r="AF7" s="347"/>
-      <c r="AG7" s="298"/>
+      <c r="AF7" s="361"/>
+      <c r="AG7" s="363"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
@@ -26501,39 +26501,39 @@
       <c r="AL7" s="55"/>
     </row>
     <row r="8" spans="1:38" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="360"/>
-      <c r="B8" s="361"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="327"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="339"/>
-      <c r="G8" s="339"/>
-      <c r="H8" s="339"/>
-      <c r="I8" s="339"/>
-      <c r="J8" s="339"/>
-      <c r="K8" s="339"/>
-      <c r="L8" s="339"/>
-      <c r="M8" s="339"/>
-      <c r="N8" s="339"/>
-      <c r="O8" s="368"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="307"/>
-      <c r="R8" s="307"/>
-      <c r="S8" s="307"/>
-      <c r="T8" s="307"/>
-      <c r="U8" s="307"/>
-      <c r="V8" s="307"/>
-      <c r="W8" s="307"/>
-      <c r="X8" s="307"/>
-      <c r="Y8" s="307"/>
-      <c r="Z8" s="307"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="313"/>
-      <c r="AC8" s="358"/>
-      <c r="AD8" s="351"/>
+      <c r="A8" s="342"/>
+      <c r="B8" s="343"/>
+      <c r="C8" s="349"/>
+      <c r="D8" s="338"/>
+      <c r="E8" s="315"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="317"/>
+      <c r="H8" s="317"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="317"/>
+      <c r="K8" s="317"/>
+      <c r="L8" s="317"/>
+      <c r="M8" s="317"/>
+      <c r="N8" s="317"/>
+      <c r="O8" s="333"/>
+      <c r="P8" s="308"/>
+      <c r="Q8" s="315"/>
+      <c r="R8" s="315"/>
+      <c r="S8" s="315"/>
+      <c r="T8" s="315"/>
+      <c r="U8" s="315"/>
+      <c r="V8" s="315"/>
+      <c r="W8" s="315"/>
+      <c r="X8" s="315"/>
+      <c r="Y8" s="315"/>
+      <c r="Z8" s="315"/>
+      <c r="AA8" s="360"/>
+      <c r="AB8" s="308"/>
+      <c r="AC8" s="367"/>
+      <c r="AD8" s="324"/>
       <c r="AE8" s="376"/>
-      <c r="AF8" s="348"/>
-      <c r="AG8" s="299"/>
+      <c r="AF8" s="362"/>
+      <c r="AG8" s="364"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
@@ -28031,8 +28031,8 @@
         <f>CRS!O26</f>
         <v>80</v>
       </c>
-      <c r="AH26" s="373"/>
-      <c r="AI26" s="371" t="s">
+      <c r="AH26" s="300"/>
+      <c r="AI26" s="298" t="s">
         <v>127</v>
       </c>
     </row>
@@ -28109,8 +28109,8 @@
         <f>CRS!O27</f>
         <v>73</v>
       </c>
-      <c r="AH27" s="374"/>
-      <c r="AI27" s="372"/>
+      <c r="AH27" s="301"/>
+      <c r="AI27" s="299"/>
     </row>
     <row r="28" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -28195,8 +28195,8 @@
         <f>CRS!O28</f>
         <v>73</v>
       </c>
-      <c r="AH28" s="374"/>
-      <c r="AI28" s="372"/>
+      <c r="AH28" s="301"/>
+      <c r="AI28" s="299"/>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -28267,8 +28267,8 @@
         <f>CRS!O29</f>
         <v/>
       </c>
-      <c r="AH29" s="374"/>
-      <c r="AI29" s="372"/>
+      <c r="AH29" s="301"/>
+      <c r="AI29" s="299"/>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -28353,8 +28353,8 @@
         <f>CRS!O30</f>
         <v>81</v>
       </c>
-      <c r="AH30" s="374"/>
-      <c r="AI30" s="372"/>
+      <c r="AH30" s="301"/>
+      <c r="AI30" s="299"/>
     </row>
     <row r="31" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -28441,8 +28441,8 @@
         <f>CRS!O31</f>
         <v>85</v>
       </c>
-      <c r="AH31" s="374"/>
-      <c r="AI31" s="372"/>
+      <c r="AH31" s="301"/>
+      <c r="AI31" s="299"/>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -28529,8 +28529,8 @@
         <f>CRS!O32</f>
         <v>76</v>
       </c>
-      <c r="AH32" s="374"/>
-      <c r="AI32" s="372"/>
+      <c r="AH32" s="301"/>
+      <c r="AI32" s="299"/>
     </row>
     <row r="33" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -28601,8 +28601,8 @@
         <f>CRS!O33</f>
         <v/>
       </c>
-      <c r="AH33" s="374"/>
-      <c r="AI33" s="372"/>
+      <c r="AH33" s="301"/>
+      <c r="AI33" s="299"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
       <c r="AL33" s="55"/>
@@ -28692,8 +28692,8 @@
         <f>CRS!O34</f>
         <v>82</v>
       </c>
-      <c r="AH34" s="374"/>
-      <c r="AI34" s="372"/>
+      <c r="AH34" s="301"/>
+      <c r="AI34" s="299"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
       <c r="AL34" s="55"/>
@@ -28781,8 +28781,8 @@
         <f>CRS!O35</f>
         <v>81</v>
       </c>
-      <c r="AH35" s="374"/>
-      <c r="AI35" s="372"/>
+      <c r="AH35" s="301"/>
+      <c r="AI35" s="299"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
       <c r="AL35" s="55"/>
@@ -28870,8 +28870,8 @@
         <f>CRS!O36</f>
         <v>80</v>
       </c>
-      <c r="AH36" s="374"/>
-      <c r="AI36" s="372"/>
+      <c r="AH36" s="301"/>
+      <c r="AI36" s="299"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
       <c r="AL36" s="55"/>
@@ -28945,8 +28945,8 @@
         <f>CRS!O37</f>
         <v/>
       </c>
-      <c r="AH37" s="374"/>
-      <c r="AI37" s="372"/>
+      <c r="AH37" s="301"/>
+      <c r="AI37" s="299"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
       <c r="AL37" s="55"/>
@@ -29038,8 +29038,8 @@
         <f>CRS!O38</f>
         <v>86</v>
       </c>
-      <c r="AH38" s="374"/>
-      <c r="AI38" s="372"/>
+      <c r="AH38" s="301"/>
+      <c r="AI38" s="299"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
       <c r="AL38" s="55"/>
@@ -29113,8 +29113,8 @@
         <f>CRS!O39</f>
         <v/>
       </c>
-      <c r="AH39" s="374"/>
-      <c r="AI39" s="372"/>
+      <c r="AH39" s="301"/>
+      <c r="AI39" s="299"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
       <c r="AL39" s="55"/>
@@ -29188,8 +29188,8 @@
         <f>CRS!O40</f>
         <v/>
       </c>
-      <c r="AH40" s="374"/>
-      <c r="AI40" s="372"/>
+      <c r="AH40" s="301"/>
+      <c r="AI40" s="299"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
       <c r="AL40" s="55"/>
@@ -29235,44 +29235,44 @@
       <c r="AL41" s="55"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="332" t="str">
+      <c r="A42" s="354" t="str">
         <f>A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B42" s="333"/>
-      <c r="C42" s="333"/>
-      <c r="D42" s="333"/>
-      <c r="E42" s="328" t="s">
+      <c r="B42" s="355"/>
+      <c r="C42" s="355"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="325" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="328"/>
-      <c r="G42" s="328"/>
-      <c r="H42" s="328"/>
-      <c r="I42" s="328"/>
-      <c r="J42" s="328"/>
-      <c r="K42" s="329"/>
-      <c r="L42" s="329"/>
-      <c r="M42" s="329"/>
-      <c r="N42" s="329"/>
-      <c r="O42" s="329"/>
-      <c r="P42" s="329"/>
-      <c r="Q42" s="329"/>
-      <c r="R42" s="329"/>
-      <c r="S42" s="329"/>
-      <c r="T42" s="329"/>
-      <c r="U42" s="329"/>
-      <c r="V42" s="329"/>
-      <c r="W42" s="329"/>
-      <c r="X42" s="329"/>
-      <c r="Y42" s="329"/>
-      <c r="Z42" s="329"/>
-      <c r="AA42" s="329"/>
-      <c r="AB42" s="329"/>
-      <c r="AC42" s="330"/>
-      <c r="AD42" s="330"/>
-      <c r="AE42" s="330"/>
-      <c r="AF42" s="330"/>
-      <c r="AG42" s="331"/>
+      <c r="F42" s="325"/>
+      <c r="G42" s="325"/>
+      <c r="H42" s="325"/>
+      <c r="I42" s="325"/>
+      <c r="J42" s="325"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="326"/>
+      <c r="N42" s="326"/>
+      <c r="O42" s="326"/>
+      <c r="P42" s="326"/>
+      <c r="Q42" s="326"/>
+      <c r="R42" s="326"/>
+      <c r="S42" s="326"/>
+      <c r="T42" s="326"/>
+      <c r="U42" s="326"/>
+      <c r="V42" s="326"/>
+      <c r="W42" s="326"/>
+      <c r="X42" s="326"/>
+      <c r="Y42" s="326"/>
+      <c r="Z42" s="326"/>
+      <c r="AA42" s="326"/>
+      <c r="AB42" s="326"/>
+      <c r="AC42" s="327"/>
+      <c r="AD42" s="327"/>
+      <c r="AE42" s="327"/>
+      <c r="AF42" s="327"/>
+      <c r="AG42" s="328"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
       <c r="AJ42" s="55"/>
@@ -29280,52 +29280,52 @@
       <c r="AL42" s="55"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="334"/>
-      <c r="B43" s="335"/>
-      <c r="C43" s="335"/>
-      <c r="D43" s="335"/>
-      <c r="E43" s="315" t="str">
+      <c r="A43" s="356"/>
+      <c r="B43" s="357"/>
+      <c r="C43" s="357"/>
+      <c r="D43" s="357"/>
+      <c r="E43" s="309" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="315"/>
-      <c r="G43" s="315"/>
-      <c r="H43" s="315"/>
-      <c r="I43" s="315"/>
-      <c r="J43" s="315"/>
-      <c r="K43" s="316"/>
-      <c r="L43" s="316"/>
-      <c r="M43" s="316"/>
-      <c r="N43" s="316"/>
-      <c r="O43" s="316"/>
-      <c r="P43" s="304"/>
-      <c r="Q43" s="315" t="str">
+      <c r="F43" s="309"/>
+      <c r="G43" s="309"/>
+      <c r="H43" s="309"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="309"/>
+      <c r="K43" s="310"/>
+      <c r="L43" s="310"/>
+      <c r="M43" s="310"/>
+      <c r="N43" s="310"/>
+      <c r="O43" s="310"/>
+      <c r="P43" s="311"/>
+      <c r="Q43" s="309" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="316"/>
-      <c r="S43" s="316"/>
-      <c r="T43" s="316"/>
-      <c r="U43" s="316"/>
-      <c r="V43" s="316"/>
-      <c r="W43" s="316"/>
-      <c r="X43" s="316"/>
-      <c r="Y43" s="316"/>
-      <c r="Z43" s="316"/>
-      <c r="AA43" s="316"/>
-      <c r="AB43" s="304"/>
-      <c r="AC43" s="352" t="s">
+      <c r="R43" s="310"/>
+      <c r="S43" s="310"/>
+      <c r="T43" s="310"/>
+      <c r="U43" s="310"/>
+      <c r="V43" s="310"/>
+      <c r="W43" s="310"/>
+      <c r="X43" s="310"/>
+      <c r="Y43" s="310"/>
+      <c r="Z43" s="310"/>
+      <c r="AA43" s="310"/>
+      <c r="AB43" s="311"/>
+      <c r="AC43" s="318" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="353"/>
+      <c r="AD43" s="319"/>
       <c r="AE43" s="375" t="str">
         <f>AE2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="AF43" s="347" t="s">
+      <c r="AF43" s="361" t="s">
         <v>99</v>
       </c>
-      <c r="AG43" s="298" t="s">
+      <c r="AG43" s="363" t="s">
         <v>100</v>
       </c>
       <c r="AH43" s="62"/>
@@ -29335,90 +29335,90 @@
       <c r="AL43" s="62"/>
     </row>
     <row r="44" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="345" t="str">
+      <c r="A44" s="339" t="str">
         <f>A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B44" s="346"/>
-      <c r="C44" s="346"/>
-      <c r="D44" s="346"/>
-      <c r="E44" s="303" t="s">
+      <c r="B44" s="340"/>
+      <c r="C44" s="340"/>
+      <c r="D44" s="340"/>
+      <c r="E44" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="303" t="s">
+      <c r="F44" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="303" t="s">
+      <c r="G44" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="303" t="s">
+      <c r="H44" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="303" t="s">
+      <c r="I44" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="303" t="s">
+      <c r="J44" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="303" t="s">
+      <c r="K44" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="303" t="s">
+      <c r="L44" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="303" t="s">
+      <c r="M44" s="312" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="303" t="s">
+      <c r="N44" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="340" t="s">
+      <c r="O44" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="P44" s="311" t="s">
+      <c r="P44" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="Q44" s="303" t="s">
+      <c r="Q44" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="R44" s="303" t="s">
+      <c r="R44" s="312" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="303" t="s">
+      <c r="S44" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="T44" s="303" t="s">
+      <c r="T44" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="303" t="s">
+      <c r="U44" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="303" t="s">
+      <c r="V44" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="W44" s="303" t="s">
+      <c r="W44" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="X44" s="303" t="s">
+      <c r="X44" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="303" t="s">
+      <c r="Y44" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="Z44" s="303" t="s">
+      <c r="Z44" s="312" t="s">
         <v>121</v>
       </c>
-      <c r="AA44" s="340" t="s">
+      <c r="AA44" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="AB44" s="311" t="s">
+      <c r="AB44" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="354"/>
-      <c r="AD44" s="355"/>
+      <c r="AC44" s="320"/>
+      <c r="AD44" s="321"/>
       <c r="AE44" s="375"/>
-      <c r="AF44" s="347"/>
-      <c r="AG44" s="298"/>
+      <c r="AF44" s="361"/>
+      <c r="AG44" s="363"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
       <c r="AJ44" s="62"/>
@@ -29426,40 +29426,40 @@
       <c r="AL44" s="62"/>
     </row>
     <row r="45" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="323" t="str">
+      <c r="A45" s="334" t="str">
         <f>A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B45" s="324"/>
-      <c r="C45" s="325"/>
+      <c r="B45" s="335"/>
+      <c r="C45" s="336"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>M303</v>
       </c>
-      <c r="E45" s="303"/>
-      <c r="F45" s="303"/>
-      <c r="G45" s="303"/>
-      <c r="H45" s="303"/>
-      <c r="I45" s="303"/>
-      <c r="J45" s="303"/>
-      <c r="K45" s="303"/>
-      <c r="L45" s="303"/>
-      <c r="M45" s="303"/>
-      <c r="N45" s="303"/>
-      <c r="O45" s="340"/>
-      <c r="P45" s="311"/>
-      <c r="Q45" s="304"/>
-      <c r="R45" s="304"/>
-      <c r="S45" s="304"/>
-      <c r="T45" s="304"/>
-      <c r="U45" s="303"/>
-      <c r="V45" s="303"/>
-      <c r="W45" s="304"/>
-      <c r="X45" s="304"/>
-      <c r="Y45" s="304"/>
-      <c r="Z45" s="304"/>
-      <c r="AA45" s="341"/>
-      <c r="AB45" s="312"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="312"/>
+      <c r="G45" s="312"/>
+      <c r="H45" s="312"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="312"/>
+      <c r="K45" s="312"/>
+      <c r="L45" s="312"/>
+      <c r="M45" s="312"/>
+      <c r="N45" s="312"/>
+      <c r="O45" s="329"/>
+      <c r="P45" s="306"/>
+      <c r="Q45" s="311"/>
+      <c r="R45" s="311"/>
+      <c r="S45" s="311"/>
+      <c r="T45" s="311"/>
+      <c r="U45" s="312"/>
+      <c r="V45" s="312"/>
+      <c r="W45" s="311"/>
+      <c r="X45" s="311"/>
+      <c r="Y45" s="311"/>
+      <c r="Z45" s="311"/>
+      <c r="AA45" s="330"/>
+      <c r="AB45" s="307"/>
       <c r="AC45" s="68" t="s">
         <v>122</v>
       </c>
@@ -29467,8 +29467,8 @@
         <v>123</v>
       </c>
       <c r="AE45" s="375"/>
-      <c r="AF45" s="347"/>
-      <c r="AG45" s="298"/>
+      <c r="AF45" s="361"/>
+      <c r="AG45" s="363"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
       <c r="AJ45" s="62"/>
@@ -29476,13 +29476,13 @@
       <c r="AL45" s="62"/>
     </row>
     <row r="46" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="323" t="str">
+      <c r="A46" s="334" t="str">
         <f>A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="324"/>
-      <c r="C46" s="325"/>
-      <c r="D46" s="325"/>
+      <c r="B46" s="335"/>
+      <c r="C46" s="336"/>
+      <c r="D46" s="336"/>
       <c r="E46" s="57">
         <f t="shared" ref="E46:N47" si="5">IF(E5="","",E5)</f>
         <v>20</v>
@@ -29523,8 +29523,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="340"/>
-      <c r="P46" s="311"/>
+      <c r="O46" s="329"/>
+      <c r="P46" s="306"/>
       <c r="Q46" s="57">
         <f>IF(Q5="","",Q5)</f>
         <v>40</v>
@@ -29565,16 +29565,16 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="341"/>
-      <c r="AB46" s="312"/>
+      <c r="AA46" s="330"/>
+      <c r="AB46" s="307"/>
       <c r="AC46" s="57">
         <f>IF(AC5="","",AC5)</f>
         <v>105</v>
       </c>
-      <c r="AD46" s="349"/>
+      <c r="AD46" s="322"/>
       <c r="AE46" s="375"/>
-      <c r="AF46" s="347"/>
-      <c r="AG46" s="298"/>
+      <c r="AF46" s="361"/>
+      <c r="AG46" s="363"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
       <c r="AJ46" s="62"/>
@@ -29582,111 +29582,111 @@
       <c r="AL46" s="62"/>
     </row>
     <row r="47" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="359" t="str">
+      <c r="A47" s="341" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="316"/>
-      <c r="C47" s="304"/>
-      <c r="D47" s="304"/>
-      <c r="E47" s="317" t="str">
+      <c r="B47" s="310"/>
+      <c r="C47" s="311"/>
+      <c r="D47" s="311"/>
+      <c r="E47" s="302" t="str">
         <f>IF(E6="","",E6)</f>
         <v>SW 021517</v>
       </c>
-      <c r="F47" s="317" t="str">
+      <c r="F47" s="302" t="str">
         <f t="shared" si="5"/>
         <v>SW 030317</v>
       </c>
-      <c r="G47" s="317" t="str">
+      <c r="G47" s="302" t="str">
         <f t="shared" si="5"/>
         <v>SW 030117</v>
       </c>
-      <c r="H47" s="317" t="str">
+      <c r="H47" s="302" t="str">
         <f t="shared" si="5"/>
         <v>SW 022117</v>
       </c>
-      <c r="I47" s="317" t="str">
+      <c r="I47" s="302" t="str">
         <f t="shared" si="5"/>
         <v>SW 022417</v>
       </c>
-      <c r="J47" s="317" t="str">
+      <c r="J47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K47" s="317" t="str">
+      <c r="K47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47" s="317" t="str">
+      <c r="L47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M47" s="317" t="str">
+      <c r="M47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N47" s="317" t="str">
+      <c r="N47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O47" s="369">
+      <c r="O47" s="304">
         <f>O6</f>
         <v>100</v>
       </c>
-      <c r="P47" s="311"/>
-      <c r="Q47" s="317" t="str">
+      <c r="P47" s="306"/>
+      <c r="Q47" s="302" t="str">
         <f t="shared" ref="Q47:Z47" si="7">IF(Q6="","",Q6)</f>
         <v>MLAB01</v>
       </c>
-      <c r="R47" s="317" t="str">
+      <c r="R47" s="302" t="str">
         <f t="shared" si="7"/>
         <v>MLAB02</v>
       </c>
-      <c r="S47" s="317" t="str">
+      <c r="S47" s="302" t="str">
         <f t="shared" si="7"/>
         <v>MLAB03</v>
       </c>
-      <c r="T47" s="317" t="str">
+      <c r="T47" s="302" t="str">
         <f t="shared" si="7"/>
         <v>MLAB04</v>
       </c>
-      <c r="U47" s="317" t="str">
+      <c r="U47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V47" s="317" t="str">
+      <c r="V47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W47" s="317" t="str">
+      <c r="W47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X47" s="317" t="str">
+      <c r="X47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Y47" s="317" t="str">
+      <c r="Y47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z47" s="317" t="str">
+      <c r="Z47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA47" s="369">
+      <c r="AA47" s="304">
         <f>AA6</f>
         <v>160</v>
       </c>
-      <c r="AB47" s="312"/>
-      <c r="AC47" s="308">
+      <c r="AB47" s="307"/>
+      <c r="AC47" s="371">
         <f>AC6</f>
         <v>40603</v>
       </c>
-      <c r="AD47" s="350"/>
+      <c r="AD47" s="323"/>
       <c r="AE47" s="375"/>
-      <c r="AF47" s="347"/>
-      <c r="AG47" s="298"/>
+      <c r="AF47" s="361"/>
+      <c r="AG47" s="363"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
       <c r="AJ47" s="62"/>
@@ -29694,45 +29694,45 @@
       <c r="AL47" s="62"/>
     </row>
     <row r="48" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="362" t="s">
+      <c r="A48" s="344" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="363"/>
-      <c r="C48" s="336" t="s">
+      <c r="B48" s="345"/>
+      <c r="C48" s="348" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="326" t="s">
+      <c r="D48" s="337" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="317"/>
-      <c r="F48" s="317"/>
-      <c r="G48" s="317"/>
-      <c r="H48" s="317"/>
-      <c r="I48" s="317"/>
-      <c r="J48" s="317"/>
-      <c r="K48" s="317"/>
-      <c r="L48" s="317"/>
-      <c r="M48" s="317"/>
-      <c r="N48" s="317"/>
-      <c r="O48" s="369"/>
-      <c r="P48" s="311"/>
-      <c r="Q48" s="317"/>
-      <c r="R48" s="317"/>
-      <c r="S48" s="317"/>
-      <c r="T48" s="317"/>
-      <c r="U48" s="317"/>
-      <c r="V48" s="317"/>
-      <c r="W48" s="317"/>
-      <c r="X48" s="317"/>
-      <c r="Y48" s="317"/>
-      <c r="Z48" s="317"/>
-      <c r="AA48" s="369"/>
-      <c r="AB48" s="312"/>
-      <c r="AC48" s="309"/>
-      <c r="AD48" s="350"/>
+      <c r="E48" s="302"/>
+      <c r="F48" s="302"/>
+      <c r="G48" s="302"/>
+      <c r="H48" s="302"/>
+      <c r="I48" s="302"/>
+      <c r="J48" s="302"/>
+      <c r="K48" s="302"/>
+      <c r="L48" s="302"/>
+      <c r="M48" s="302"/>
+      <c r="N48" s="302"/>
+      <c r="O48" s="304"/>
+      <c r="P48" s="306"/>
+      <c r="Q48" s="302"/>
+      <c r="R48" s="302"/>
+      <c r="S48" s="302"/>
+      <c r="T48" s="302"/>
+      <c r="U48" s="302"/>
+      <c r="V48" s="302"/>
+      <c r="W48" s="302"/>
+      <c r="X48" s="302"/>
+      <c r="Y48" s="302"/>
+      <c r="Z48" s="302"/>
+      <c r="AA48" s="304"/>
+      <c r="AB48" s="307"/>
+      <c r="AC48" s="372"/>
+      <c r="AD48" s="323"/>
       <c r="AE48" s="375"/>
-      <c r="AF48" s="347"/>
-      <c r="AG48" s="298"/>
+      <c r="AF48" s="361"/>
+      <c r="AG48" s="363"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
       <c r="AJ48" s="55"/>
@@ -29740,39 +29740,39 @@
       <c r="AL48" s="55"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A49" s="364"/>
-      <c r="B49" s="365"/>
-      <c r="C49" s="337"/>
-      <c r="D49" s="327"/>
-      <c r="E49" s="318"/>
-      <c r="F49" s="318"/>
-      <c r="G49" s="318"/>
-      <c r="H49" s="318"/>
-      <c r="I49" s="318"/>
-      <c r="J49" s="318"/>
-      <c r="K49" s="318"/>
-      <c r="L49" s="318"/>
-      <c r="M49" s="318"/>
-      <c r="N49" s="318"/>
-      <c r="O49" s="370"/>
-      <c r="P49" s="314"/>
-      <c r="Q49" s="318"/>
-      <c r="R49" s="318"/>
-      <c r="S49" s="318"/>
-      <c r="T49" s="318"/>
-      <c r="U49" s="318"/>
-      <c r="V49" s="318"/>
-      <c r="W49" s="318"/>
-      <c r="X49" s="318"/>
-      <c r="Y49" s="318"/>
-      <c r="Z49" s="318"/>
-      <c r="AA49" s="370"/>
-      <c r="AB49" s="313"/>
-      <c r="AC49" s="310"/>
-      <c r="AD49" s="351"/>
+      <c r="A49" s="346"/>
+      <c r="B49" s="347"/>
+      <c r="C49" s="349"/>
+      <c r="D49" s="338"/>
+      <c r="E49" s="303"/>
+      <c r="F49" s="303"/>
+      <c r="G49" s="303"/>
+      <c r="H49" s="303"/>
+      <c r="I49" s="303"/>
+      <c r="J49" s="303"/>
+      <c r="K49" s="303"/>
+      <c r="L49" s="303"/>
+      <c r="M49" s="303"/>
+      <c r="N49" s="303"/>
+      <c r="O49" s="305"/>
+      <c r="P49" s="374"/>
+      <c r="Q49" s="303"/>
+      <c r="R49" s="303"/>
+      <c r="S49" s="303"/>
+      <c r="T49" s="303"/>
+      <c r="U49" s="303"/>
+      <c r="V49" s="303"/>
+      <c r="W49" s="303"/>
+      <c r="X49" s="303"/>
+      <c r="Y49" s="303"/>
+      <c r="Z49" s="303"/>
+      <c r="AA49" s="305"/>
+      <c r="AB49" s="308"/>
+      <c r="AC49" s="373"/>
+      <c r="AD49" s="324"/>
       <c r="AE49" s="376"/>
-      <c r="AF49" s="348"/>
-      <c r="AG49" s="299"/>
+      <c r="AF49" s="362"/>
+      <c r="AG49" s="364"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -31057,8 +31057,8 @@
         <f>CRS!O66</f>
         <v/>
       </c>
-      <c r="AH66" s="373"/>
-      <c r="AI66" s="371" t="s">
+      <c r="AH66" s="300"/>
+      <c r="AI66" s="298" t="s">
         <v>127</v>
       </c>
     </row>
@@ -31131,8 +31131,8 @@
         <f>CRS!O67</f>
         <v/>
       </c>
-      <c r="AH67" s="374"/>
-      <c r="AI67" s="372"/>
+      <c r="AH67" s="301"/>
+      <c r="AI67" s="299"/>
     </row>
     <row r="68" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -31203,8 +31203,8 @@
         <f>CRS!O68</f>
         <v/>
       </c>
-      <c r="AH68" s="374"/>
-      <c r="AI68" s="372"/>
+      <c r="AH68" s="301"/>
+      <c r="AI68" s="299"/>
     </row>
     <row r="69" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -31275,8 +31275,8 @@
         <f>CRS!O69</f>
         <v/>
       </c>
-      <c r="AH69" s="374"/>
-      <c r="AI69" s="372"/>
+      <c r="AH69" s="301"/>
+      <c r="AI69" s="299"/>
     </row>
     <row r="70" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -31347,8 +31347,8 @@
         <f>CRS!O70</f>
         <v/>
       </c>
-      <c r="AH70" s="374"/>
-      <c r="AI70" s="372"/>
+      <c r="AH70" s="301"/>
+      <c r="AI70" s="299"/>
     </row>
     <row r="71" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -31419,8 +31419,8 @@
         <f>CRS!O71</f>
         <v/>
       </c>
-      <c r="AH71" s="374"/>
-      <c r="AI71" s="372"/>
+      <c r="AH71" s="301"/>
+      <c r="AI71" s="299"/>
     </row>
     <row r="72" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -31491,8 +31491,8 @@
         <f>CRS!O72</f>
         <v/>
       </c>
-      <c r="AH72" s="374"/>
-      <c r="AI72" s="372"/>
+      <c r="AH72" s="301"/>
+      <c r="AI72" s="299"/>
     </row>
     <row r="73" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -31563,8 +31563,8 @@
         <f>CRS!O73</f>
         <v/>
       </c>
-      <c r="AH73" s="374"/>
-      <c r="AI73" s="372"/>
+      <c r="AH73" s="301"/>
+      <c r="AI73" s="299"/>
     </row>
     <row r="74" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -31635,8 +31635,8 @@
         <f>CRS!O74</f>
         <v/>
       </c>
-      <c r="AH74" s="374"/>
-      <c r="AI74" s="372"/>
+      <c r="AH74" s="301"/>
+      <c r="AI74" s="299"/>
     </row>
     <row r="75" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -31707,8 +31707,8 @@
         <f>CRS!O75</f>
         <v/>
       </c>
-      <c r="AH75" s="374"/>
-      <c r="AI75" s="372"/>
+      <c r="AH75" s="301"/>
+      <c r="AI75" s="299"/>
     </row>
     <row r="76" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -31779,8 +31779,8 @@
         <f>CRS!O76</f>
         <v/>
       </c>
-      <c r="AH76" s="374"/>
-      <c r="AI76" s="372"/>
+      <c r="AH76" s="301"/>
+      <c r="AI76" s="299"/>
     </row>
     <row r="77" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -31851,8 +31851,8 @@
         <f>CRS!O77</f>
         <v/>
       </c>
-      <c r="AH77" s="374"/>
-      <c r="AI77" s="372"/>
+      <c r="AH77" s="301"/>
+      <c r="AI77" s="299"/>
     </row>
     <row r="78" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -31923,8 +31923,8 @@
         <f>CRS!O78</f>
         <v/>
       </c>
-      <c r="AH78" s="374"/>
-      <c r="AI78" s="372"/>
+      <c r="AH78" s="301"/>
+      <c r="AI78" s="299"/>
     </row>
     <row r="79" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -31995,8 +31995,8 @@
         <f>CRS!O79</f>
         <v/>
       </c>
-      <c r="AH79" s="374"/>
-      <c r="AI79" s="372"/>
+      <c r="AH79" s="301"/>
+      <c r="AI79" s="299"/>
     </row>
     <row r="80" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -32067,8 +32067,8 @@
         <f>CRS!O80</f>
         <v/>
       </c>
-      <c r="AH80" s="374"/>
-      <c r="AI80" s="372"/>
+      <c r="AH80" s="301"/>
+      <c r="AI80" s="299"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -32348,26 +32348,92 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="T2d19Gm7punEibsNJBgdh3ZzUcufk8+PQOuJQC1tA+RpVS+cs4H5fTH4F9aOQxwJS4PY4SJQO4kn/oJxgTi2mQ==" saltValue="yl0eVcUIiysAylQWPtO/Lg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="130">
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="AI66:AI80"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="P44:P49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:AG42"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="Q43:AB43"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AF43:AF49"/>
+    <mergeCell ref="AG43:AG49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="AE43:AE49"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AI26:AI40"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="AB44:AB49"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="Z3:Z4"/>
+    <mergeCell ref="AA3:AA5"/>
+    <mergeCell ref="AB3:AB8"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="N6:N8"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:AG1"/>
     <mergeCell ref="E2:P2"/>
@@ -32392,92 +32458,26 @@
     <mergeCell ref="AC6:AC8"/>
     <mergeCell ref="O3:O5"/>
     <mergeCell ref="AE2:AE8"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AI26:AI40"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="AB44:AB49"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="Z3:Z4"/>
-    <mergeCell ref="AA3:AA5"/>
-    <mergeCell ref="AB3:AB8"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:AG42"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="Q43:AB43"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AF43:AF49"/>
-    <mergeCell ref="AG43:AG49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="Y44:Y45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="P44:P49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="AI66:AI80"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="R6:R8"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="AC9:AC40 AC50:AC80">
@@ -32581,44 +32581,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="319" t="str">
+      <c r="A1" s="350" t="str">
         <f>CRS!A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="328" t="s">
+      <c r="B1" s="351"/>
+      <c r="C1" s="351"/>
+      <c r="D1" s="351"/>
+      <c r="E1" s="325" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="328"/>
-      <c r="G1" s="328"/>
-      <c r="H1" s="328"/>
-      <c r="I1" s="328"/>
-      <c r="J1" s="328"/>
-      <c r="K1" s="329"/>
-      <c r="L1" s="329"/>
-      <c r="M1" s="329"/>
-      <c r="N1" s="329"/>
-      <c r="O1" s="329"/>
-      <c r="P1" s="329"/>
-      <c r="Q1" s="329"/>
-      <c r="R1" s="329"/>
-      <c r="S1" s="329"/>
-      <c r="T1" s="329"/>
-      <c r="U1" s="329"/>
-      <c r="V1" s="329"/>
-      <c r="W1" s="329"/>
-      <c r="X1" s="329"/>
-      <c r="Y1" s="329"/>
-      <c r="Z1" s="329"/>
-      <c r="AA1" s="329"/>
-      <c r="AB1" s="329"/>
-      <c r="AC1" s="330"/>
-      <c r="AD1" s="330"/>
-      <c r="AE1" s="330"/>
-      <c r="AF1" s="330"/>
-      <c r="AG1" s="331"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+      <c r="P1" s="326"/>
+      <c r="Q1" s="326"/>
+      <c r="R1" s="326"/>
+      <c r="S1" s="326"/>
+      <c r="T1" s="326"/>
+      <c r="U1" s="326"/>
+      <c r="V1" s="326"/>
+      <c r="W1" s="326"/>
+      <c r="X1" s="326"/>
+      <c r="Y1" s="326"/>
+      <c r="Z1" s="326"/>
+      <c r="AA1" s="326"/>
+      <c r="AB1" s="326"/>
+      <c r="AC1" s="327"/>
+      <c r="AD1" s="327"/>
+      <c r="AE1" s="327"/>
+      <c r="AF1" s="327"/>
+      <c r="AG1" s="328"/>
       <c r="AH1" s="63"/>
       <c r="AI1" s="55"/>
       <c r="AJ1" s="55"/>
@@ -32626,51 +32626,51 @@
       <c r="AL1" s="55"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="321"/>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="300" t="str">
+      <c r="A2" s="352"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="368" t="str">
         <f>IF('INITIAL INPUT'!G20="","",'INITIAL INPUT'!G20)</f>
         <v>Class Standing</v>
       </c>
-      <c r="F2" s="300"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="300"/>
-      <c r="I2" s="300"/>
-      <c r="J2" s="300"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="301"/>
-      <c r="M2" s="301"/>
-      <c r="N2" s="301"/>
-      <c r="O2" s="301"/>
-      <c r="P2" s="302"/>
-      <c r="Q2" s="315" t="str">
+      <c r="F2" s="368"/>
+      <c r="G2" s="368"/>
+      <c r="H2" s="368"/>
+      <c r="I2" s="368"/>
+      <c r="J2" s="368"/>
+      <c r="K2" s="369"/>
+      <c r="L2" s="369"/>
+      <c r="M2" s="369"/>
+      <c r="N2" s="369"/>
+      <c r="O2" s="369"/>
+      <c r="P2" s="370"/>
+      <c r="Q2" s="309" t="str">
         <f>IF('INITIAL INPUT'!G21="","",'INITIAL INPUT'!G21)</f>
         <v>Laboratory</v>
       </c>
-      <c r="R2" s="316"/>
-      <c r="S2" s="316"/>
-      <c r="T2" s="316"/>
-      <c r="U2" s="316"/>
-      <c r="V2" s="316"/>
-      <c r="W2" s="316"/>
-      <c r="X2" s="316"/>
-      <c r="Y2" s="316"/>
-      <c r="Z2" s="316"/>
-      <c r="AA2" s="316"/>
-      <c r="AB2" s="304"/>
-      <c r="AC2" s="352" t="s">
+      <c r="R2" s="310"/>
+      <c r="S2" s="310"/>
+      <c r="T2" s="310"/>
+      <c r="U2" s="310"/>
+      <c r="V2" s="310"/>
+      <c r="W2" s="310"/>
+      <c r="X2" s="310"/>
+      <c r="Y2" s="310"/>
+      <c r="Z2" s="310"/>
+      <c r="AA2" s="310"/>
+      <c r="AB2" s="311"/>
+      <c r="AC2" s="318" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" s="353"/>
+      <c r="AD2" s="319"/>
       <c r="AE2" s="375" t="s">
         <v>132</v>
       </c>
-      <c r="AF2" s="347" t="s">
+      <c r="AF2" s="361" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="298" t="s">
+      <c r="AG2" s="363" t="s">
         <v>100</v>
       </c>
       <c r="AH2" s="62"/>
@@ -32680,90 +32680,90 @@
       <c r="AL2" s="62"/>
     </row>
     <row r="3" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="345" t="str">
+      <c r="A3" s="339" t="str">
         <f>CRS!A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="303" t="s">
+      <c r="B3" s="340"/>
+      <c r="C3" s="340"/>
+      <c r="D3" s="340"/>
+      <c r="E3" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="303" t="s">
+      <c r="F3" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="303" t="s">
+      <c r="G3" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="303" t="s">
+      <c r="H3" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="I3" s="303" t="s">
+      <c r="I3" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="J3" s="303" t="s">
+      <c r="J3" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="K3" s="303" t="s">
+      <c r="K3" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="L3" s="303" t="s">
+      <c r="L3" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="M3" s="303" t="s">
+      <c r="M3" s="312" t="s">
         <v>109</v>
       </c>
-      <c r="N3" s="303" t="s">
+      <c r="N3" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="340" t="s">
+      <c r="O3" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="P3" s="311" t="s">
+      <c r="P3" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="Q3" s="303" t="s">
+      <c r="Q3" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="303" t="s">
+      <c r="R3" s="312" t="s">
         <v>113</v>
       </c>
-      <c r="S3" s="303" t="s">
+      <c r="S3" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="T3" s="303" t="s">
+      <c r="T3" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="303" t="s">
+      <c r="U3" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="303" t="s">
+      <c r="V3" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="303" t="s">
+      <c r="W3" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="303" t="s">
+      <c r="X3" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="303" t="s">
+      <c r="Y3" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="Z3" s="303" t="s">
+      <c r="Z3" s="312" t="s">
         <v>121</v>
       </c>
-      <c r="AA3" s="340" t="s">
+      <c r="AA3" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" s="311" t="s">
+      <c r="AB3" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="354"/>
-      <c r="AD3" s="355"/>
+      <c r="AC3" s="320"/>
+      <c r="AD3" s="321"/>
       <c r="AE3" s="375"/>
-      <c r="AF3" s="347"/>
-      <c r="AG3" s="298"/>
+      <c r="AF3" s="361"/>
+      <c r="AG3" s="363"/>
       <c r="AH3" s="62"/>
       <c r="AI3" s="62"/>
       <c r="AJ3" s="62"/>
@@ -32771,40 +32771,40 @@
       <c r="AL3" s="62"/>
     </row>
     <row r="4" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="323" t="str">
+      <c r="A4" s="334" t="str">
         <f>CRS!A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B4" s="324"/>
-      <c r="C4" s="325"/>
+      <c r="B4" s="335"/>
+      <c r="C4" s="336"/>
       <c r="D4" s="71" t="str">
         <f>CRS!D4</f>
         <v>M303</v>
       </c>
-      <c r="E4" s="304"/>
-      <c r="F4" s="304"/>
-      <c r="G4" s="304"/>
-      <c r="H4" s="304"/>
-      <c r="I4" s="304"/>
-      <c r="J4" s="304"/>
-      <c r="K4" s="304"/>
-      <c r="L4" s="304"/>
-      <c r="M4" s="304"/>
-      <c r="N4" s="304"/>
-      <c r="O4" s="341"/>
-      <c r="P4" s="312"/>
-      <c r="Q4" s="304"/>
-      <c r="R4" s="304"/>
-      <c r="S4" s="304"/>
-      <c r="T4" s="304"/>
-      <c r="U4" s="304"/>
-      <c r="V4" s="304"/>
-      <c r="W4" s="304"/>
-      <c r="X4" s="304"/>
-      <c r="Y4" s="304"/>
-      <c r="Z4" s="304"/>
-      <c r="AA4" s="341"/>
-      <c r="AB4" s="312"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="311"/>
+      <c r="I4" s="311"/>
+      <c r="J4" s="311"/>
+      <c r="K4" s="311"/>
+      <c r="L4" s="311"/>
+      <c r="M4" s="311"/>
+      <c r="N4" s="311"/>
+      <c r="O4" s="330"/>
+      <c r="P4" s="307"/>
+      <c r="Q4" s="311"/>
+      <c r="R4" s="311"/>
+      <c r="S4" s="311"/>
+      <c r="T4" s="311"/>
+      <c r="U4" s="311"/>
+      <c r="V4" s="311"/>
+      <c r="W4" s="311"/>
+      <c r="X4" s="311"/>
+      <c r="Y4" s="311"/>
+      <c r="Z4" s="311"/>
+      <c r="AA4" s="330"/>
+      <c r="AB4" s="307"/>
       <c r="AC4" s="68" t="s">
         <v>122</v>
       </c>
@@ -32812,8 +32812,8 @@
         <v>123</v>
       </c>
       <c r="AE4" s="375"/>
-      <c r="AF4" s="347"/>
-      <c r="AG4" s="298"/>
+      <c r="AF4" s="361"/>
+      <c r="AG4" s="363"/>
       <c r="AH4" s="62"/>
       <c r="AI4" s="62"/>
       <c r="AJ4" s="62"/>
@@ -32821,13 +32821,13 @@
       <c r="AL4" s="62"/>
     </row>
     <row r="5" spans="1:38" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="323" t="str">
+      <c r="A5" s="334" t="str">
         <f>CRS!A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B5" s="324"/>
-      <c r="C5" s="325"/>
-      <c r="D5" s="325"/>
+      <c r="B5" s="335"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
       <c r="E5" s="108"/>
       <c r="F5" s="108"/>
       <c r="G5" s="108"/>
@@ -32838,8 +32838,8 @@
       <c r="L5" s="108"/>
       <c r="M5" s="108"/>
       <c r="N5" s="108"/>
-      <c r="O5" s="341"/>
-      <c r="P5" s="312"/>
+      <c r="O5" s="330"/>
+      <c r="P5" s="307"/>
       <c r="Q5" s="108"/>
       <c r="R5" s="108"/>
       <c r="S5" s="108"/>
@@ -32850,13 +32850,13 @@
       <c r="X5" s="108"/>
       <c r="Y5" s="108"/>
       <c r="Z5" s="108"/>
-      <c r="AA5" s="341"/>
-      <c r="AB5" s="312"/>
+      <c r="AA5" s="330"/>
+      <c r="AB5" s="307"/>
       <c r="AC5" s="110"/>
-      <c r="AD5" s="349"/>
+      <c r="AD5" s="322"/>
       <c r="AE5" s="375"/>
-      <c r="AF5" s="347"/>
-      <c r="AG5" s="298"/>
+      <c r="AF5" s="361"/>
+      <c r="AG5" s="363"/>
       <c r="AH5" s="62"/>
       <c r="AI5" s="62"/>
       <c r="AJ5" s="62"/>
@@ -32864,51 +32864,51 @@
       <c r="AL5" s="62"/>
     </row>
     <row r="6" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="359" t="str">
+      <c r="A6" s="341" t="str">
         <f>CRS!A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B6" s="316"/>
-      <c r="C6" s="304"/>
-      <c r="D6" s="304"/>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="305"/>
-      <c r="N6" s="305"/>
-      <c r="O6" s="366" t="str">
+      <c r="B6" s="310"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="313"/>
+      <c r="K6" s="313"/>
+      <c r="L6" s="313"/>
+      <c r="M6" s="313"/>
+      <c r="N6" s="313"/>
+      <c r="O6" s="331" t="str">
         <f>IF(SUM(E5:N5)=0,"",SUM(E5:N5))</f>
         <v/>
       </c>
-      <c r="P6" s="312"/>
-      <c r="Q6" s="305"/>
-      <c r="R6" s="305"/>
-      <c r="S6" s="305"/>
-      <c r="T6" s="305"/>
-      <c r="U6" s="305"/>
-      <c r="V6" s="305"/>
-      <c r="W6" s="305"/>
-      <c r="X6" s="305"/>
-      <c r="Y6" s="305"/>
-      <c r="Z6" s="305"/>
-      <c r="AA6" s="342" t="str">
+      <c r="P6" s="307"/>
+      <c r="Q6" s="313"/>
+      <c r="R6" s="313"/>
+      <c r="S6" s="313"/>
+      <c r="T6" s="313"/>
+      <c r="U6" s="313"/>
+      <c r="V6" s="313"/>
+      <c r="W6" s="313"/>
+      <c r="X6" s="313"/>
+      <c r="Y6" s="313"/>
+      <c r="Z6" s="313"/>
+      <c r="AA6" s="358" t="str">
         <f>IF(SUM(Q5:Z5)=0,"",SUM(Q5:Z5))</f>
         <v/>
       </c>
-      <c r="AB6" s="312"/>
-      <c r="AC6" s="356">
+      <c r="AB6" s="307"/>
+      <c r="AC6" s="365">
         <f>'INITIAL INPUT'!D24</f>
         <v>40634</v>
       </c>
-      <c r="AD6" s="350"/>
+      <c r="AD6" s="323"/>
       <c r="AE6" s="375"/>
-      <c r="AF6" s="347"/>
-      <c r="AG6" s="298"/>
+      <c r="AF6" s="361"/>
+      <c r="AG6" s="363"/>
       <c r="AH6" s="62"/>
       <c r="AI6" s="62"/>
       <c r="AJ6" s="62"/>
@@ -32916,45 +32916,45 @@
       <c r="AL6" s="62"/>
     </row>
     <row r="7" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="359" t="s">
+      <c r="A7" s="341" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="315"/>
-      <c r="C7" s="336" t="s">
+      <c r="B7" s="309"/>
+      <c r="C7" s="348" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="326" t="s">
+      <c r="D7" s="337" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="306"/>
-      <c r="F7" s="338"/>
-      <c r="G7" s="338"/>
-      <c r="H7" s="338"/>
-      <c r="I7" s="338"/>
-      <c r="J7" s="338"/>
-      <c r="K7" s="338"/>
-      <c r="L7" s="338"/>
-      <c r="M7" s="338"/>
-      <c r="N7" s="338"/>
-      <c r="O7" s="367"/>
-      <c r="P7" s="312"/>
-      <c r="Q7" s="306"/>
-      <c r="R7" s="306"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="306"/>
-      <c r="V7" s="306"/>
-      <c r="W7" s="306"/>
-      <c r="X7" s="306"/>
-      <c r="Y7" s="306"/>
-      <c r="Z7" s="306"/>
-      <c r="AA7" s="343"/>
-      <c r="AB7" s="312"/>
-      <c r="AC7" s="357"/>
-      <c r="AD7" s="350"/>
+      <c r="E7" s="314"/>
+      <c r="F7" s="316"/>
+      <c r="G7" s="316"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="316"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
+      <c r="M7" s="316"/>
+      <c r="N7" s="316"/>
+      <c r="O7" s="332"/>
+      <c r="P7" s="307"/>
+      <c r="Q7" s="314"/>
+      <c r="R7" s="314"/>
+      <c r="S7" s="314"/>
+      <c r="T7" s="314"/>
+      <c r="U7" s="314"/>
+      <c r="V7" s="314"/>
+      <c r="W7" s="314"/>
+      <c r="X7" s="314"/>
+      <c r="Y7" s="314"/>
+      <c r="Z7" s="314"/>
+      <c r="AA7" s="359"/>
+      <c r="AB7" s="307"/>
+      <c r="AC7" s="366"/>
+      <c r="AD7" s="323"/>
       <c r="AE7" s="375"/>
-      <c r="AF7" s="347"/>
-      <c r="AG7" s="298"/>
+      <c r="AF7" s="361"/>
+      <c r="AG7" s="363"/>
       <c r="AH7" s="55"/>
       <c r="AI7" s="55"/>
       <c r="AJ7" s="55"/>
@@ -32962,39 +32962,39 @@
       <c r="AL7" s="55"/>
     </row>
     <row r="8" spans="1:38" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="360"/>
-      <c r="B8" s="361"/>
-      <c r="C8" s="337"/>
-      <c r="D8" s="327"/>
-      <c r="E8" s="307"/>
-      <c r="F8" s="339"/>
-      <c r="G8" s="339"/>
-      <c r="H8" s="339"/>
-      <c r="I8" s="339"/>
-      <c r="J8" s="339"/>
-      <c r="K8" s="339"/>
-      <c r="L8" s="339"/>
-      <c r="M8" s="339"/>
-      <c r="N8" s="339"/>
-      <c r="O8" s="368"/>
-      <c r="P8" s="313"/>
-      <c r="Q8" s="307"/>
-      <c r="R8" s="307"/>
-      <c r="S8" s="307"/>
-      <c r="T8" s="307"/>
-      <c r="U8" s="307"/>
-      <c r="V8" s="307"/>
-      <c r="W8" s="307"/>
-      <c r="X8" s="307"/>
-      <c r="Y8" s="307"/>
-      <c r="Z8" s="307"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="313"/>
-      <c r="AC8" s="358"/>
-      <c r="AD8" s="351"/>
+      <c r="A8" s="342"/>
+      <c r="B8" s="343"/>
+      <c r="C8" s="349"/>
+      <c r="D8" s="338"/>
+      <c r="E8" s="315"/>
+      <c r="F8" s="317"/>
+      <c r="G8" s="317"/>
+      <c r="H8" s="317"/>
+      <c r="I8" s="317"/>
+      <c r="J8" s="317"/>
+      <c r="K8" s="317"/>
+      <c r="L8" s="317"/>
+      <c r="M8" s="317"/>
+      <c r="N8" s="317"/>
+      <c r="O8" s="333"/>
+      <c r="P8" s="308"/>
+      <c r="Q8" s="315"/>
+      <c r="R8" s="315"/>
+      <c r="S8" s="315"/>
+      <c r="T8" s="315"/>
+      <c r="U8" s="315"/>
+      <c r="V8" s="315"/>
+      <c r="W8" s="315"/>
+      <c r="X8" s="315"/>
+      <c r="Y8" s="315"/>
+      <c r="Z8" s="315"/>
+      <c r="AA8" s="360"/>
+      <c r="AB8" s="308"/>
+      <c r="AC8" s="367"/>
+      <c r="AD8" s="324"/>
       <c r="AE8" s="376"/>
-      <c r="AF8" s="348"/>
-      <c r="AG8" s="299"/>
+      <c r="AF8" s="362"/>
+      <c r="AG8" s="364"/>
       <c r="AH8" s="55"/>
       <c r="AI8" s="55"/>
       <c r="AJ8" s="55"/>
@@ -34318,8 +34318,8 @@
         <f>CRS!U26</f>
         <v/>
       </c>
-      <c r="AH26" s="373"/>
-      <c r="AI26" s="371" t="s">
+      <c r="AH26" s="300"/>
+      <c r="AI26" s="298" t="s">
         <v>127</v>
       </c>
     </row>
@@ -34392,8 +34392,8 @@
         <f>CRS!U27</f>
         <v/>
       </c>
-      <c r="AH27" s="374"/>
-      <c r="AI27" s="372"/>
+      <c r="AH27" s="301"/>
+      <c r="AI27" s="299"/>
     </row>
     <row r="28" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="56" t="s">
@@ -34464,8 +34464,8 @@
         <f>CRS!U28</f>
         <v/>
       </c>
-      <c r="AH28" s="374"/>
-      <c r="AI28" s="372"/>
+      <c r="AH28" s="301"/>
+      <c r="AI28" s="299"/>
     </row>
     <row r="29" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
@@ -34536,8 +34536,8 @@
         <f>CRS!U29</f>
         <v/>
       </c>
-      <c r="AH29" s="374"/>
-      <c r="AI29" s="372"/>
+      <c r="AH29" s="301"/>
+      <c r="AI29" s="299"/>
     </row>
     <row r="30" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
@@ -34608,8 +34608,8 @@
         <f>CRS!U30</f>
         <v/>
       </c>
-      <c r="AH30" s="374"/>
-      <c r="AI30" s="372"/>
+      <c r="AH30" s="301"/>
+      <c r="AI30" s="299"/>
     </row>
     <row r="31" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="56" t="s">
@@ -34680,8 +34680,8 @@
         <f>CRS!U31</f>
         <v/>
       </c>
-      <c r="AH31" s="374"/>
-      <c r="AI31" s="372"/>
+      <c r="AH31" s="301"/>
+      <c r="AI31" s="299"/>
     </row>
     <row r="32" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
@@ -34752,8 +34752,8 @@
         <f>CRS!U32</f>
         <v/>
       </c>
-      <c r="AH32" s="374"/>
-      <c r="AI32" s="372"/>
+      <c r="AH32" s="301"/>
+      <c r="AI32" s="299"/>
     </row>
     <row r="33" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
@@ -34824,8 +34824,8 @@
         <f>CRS!U33</f>
         <v/>
       </c>
-      <c r="AH33" s="374"/>
-      <c r="AI33" s="372"/>
+      <c r="AH33" s="301"/>
+      <c r="AI33" s="299"/>
       <c r="AJ33" s="55"/>
       <c r="AK33" s="55"/>
       <c r="AL33" s="55"/>
@@ -34899,8 +34899,8 @@
         <f>CRS!U34</f>
         <v/>
       </c>
-      <c r="AH34" s="374"/>
-      <c r="AI34" s="372"/>
+      <c r="AH34" s="301"/>
+      <c r="AI34" s="299"/>
       <c r="AJ34" s="55"/>
       <c r="AK34" s="55"/>
       <c r="AL34" s="55"/>
@@ -34974,8 +34974,8 @@
         <f>CRS!U35</f>
         <v/>
       </c>
-      <c r="AH35" s="374"/>
-      <c r="AI35" s="372"/>
+      <c r="AH35" s="301"/>
+      <c r="AI35" s="299"/>
       <c r="AJ35" s="55"/>
       <c r="AK35" s="55"/>
       <c r="AL35" s="55"/>
@@ -35049,8 +35049,8 @@
         <f>CRS!U36</f>
         <v/>
       </c>
-      <c r="AH36" s="374"/>
-      <c r="AI36" s="372"/>
+      <c r="AH36" s="301"/>
+      <c r="AI36" s="299"/>
       <c r="AJ36" s="55"/>
       <c r="AK36" s="55"/>
       <c r="AL36" s="55"/>
@@ -35124,8 +35124,8 @@
         <f>CRS!U37</f>
         <v/>
       </c>
-      <c r="AH37" s="374"/>
-      <c r="AI37" s="372"/>
+      <c r="AH37" s="301"/>
+      <c r="AI37" s="299"/>
       <c r="AJ37" s="55"/>
       <c r="AK37" s="55"/>
       <c r="AL37" s="55"/>
@@ -35199,8 +35199,8 @@
         <f>CRS!U38</f>
         <v/>
       </c>
-      <c r="AH38" s="374"/>
-      <c r="AI38" s="372"/>
+      <c r="AH38" s="301"/>
+      <c r="AI38" s="299"/>
       <c r="AJ38" s="55"/>
       <c r="AK38" s="55"/>
       <c r="AL38" s="55"/>
@@ -35274,8 +35274,8 @@
         <f>CRS!U39</f>
         <v/>
       </c>
-      <c r="AH39" s="374"/>
-      <c r="AI39" s="372"/>
+      <c r="AH39" s="301"/>
+      <c r="AI39" s="299"/>
       <c r="AJ39" s="55"/>
       <c r="AK39" s="55"/>
       <c r="AL39" s="55"/>
@@ -35349,8 +35349,8 @@
         <f>CRS!U40</f>
         <v/>
       </c>
-      <c r="AH40" s="374"/>
-      <c r="AI40" s="372"/>
+      <c r="AH40" s="301"/>
+      <c r="AI40" s="299"/>
       <c r="AJ40" s="55"/>
       <c r="AK40" s="55"/>
       <c r="AL40" s="55"/>
@@ -35396,44 +35396,44 @@
       <c r="AL41" s="55"/>
     </row>
     <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="332" t="str">
+      <c r="A42" s="354" t="str">
         <f>A1</f>
         <v>CITCS INTL 3  ICS2</v>
       </c>
-      <c r="B42" s="333"/>
-      <c r="C42" s="333"/>
-      <c r="D42" s="333"/>
-      <c r="E42" s="328" t="s">
+      <c r="B42" s="355"/>
+      <c r="C42" s="355"/>
+      <c r="D42" s="355"/>
+      <c r="E42" s="325" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="328"/>
-      <c r="G42" s="328"/>
-      <c r="H42" s="328"/>
-      <c r="I42" s="328"/>
-      <c r="J42" s="328"/>
-      <c r="K42" s="329"/>
-      <c r="L42" s="329"/>
-      <c r="M42" s="329"/>
-      <c r="N42" s="329"/>
-      <c r="O42" s="329"/>
-      <c r="P42" s="329"/>
-      <c r="Q42" s="329"/>
-      <c r="R42" s="329"/>
-      <c r="S42" s="329"/>
-      <c r="T42" s="329"/>
-      <c r="U42" s="329"/>
-      <c r="V42" s="329"/>
-      <c r="W42" s="329"/>
-      <c r="X42" s="329"/>
-      <c r="Y42" s="329"/>
-      <c r="Z42" s="329"/>
-      <c r="AA42" s="329"/>
-      <c r="AB42" s="329"/>
-      <c r="AC42" s="330"/>
-      <c r="AD42" s="330"/>
-      <c r="AE42" s="330"/>
-      <c r="AF42" s="330"/>
-      <c r="AG42" s="331"/>
+      <c r="F42" s="325"/>
+      <c r="G42" s="325"/>
+      <c r="H42" s="325"/>
+      <c r="I42" s="325"/>
+      <c r="J42" s="325"/>
+      <c r="K42" s="326"/>
+      <c r="L42" s="326"/>
+      <c r="M42" s="326"/>
+      <c r="N42" s="326"/>
+      <c r="O42" s="326"/>
+      <c r="P42" s="326"/>
+      <c r="Q42" s="326"/>
+      <c r="R42" s="326"/>
+      <c r="S42" s="326"/>
+      <c r="T42" s="326"/>
+      <c r="U42" s="326"/>
+      <c r="V42" s="326"/>
+      <c r="W42" s="326"/>
+      <c r="X42" s="326"/>
+      <c r="Y42" s="326"/>
+      <c r="Z42" s="326"/>
+      <c r="AA42" s="326"/>
+      <c r="AB42" s="326"/>
+      <c r="AC42" s="327"/>
+      <c r="AD42" s="327"/>
+      <c r="AE42" s="327"/>
+      <c r="AF42" s="327"/>
+      <c r="AG42" s="328"/>
       <c r="AH42" s="55"/>
       <c r="AI42" s="55"/>
       <c r="AJ42" s="55"/>
@@ -35441,52 +35441,52 @@
       <c r="AL42" s="55"/>
     </row>
     <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="334"/>
-      <c r="B43" s="335"/>
-      <c r="C43" s="335"/>
-      <c r="D43" s="335"/>
-      <c r="E43" s="315" t="str">
+      <c r="A43" s="356"/>
+      <c r="B43" s="357"/>
+      <c r="C43" s="357"/>
+      <c r="D43" s="357"/>
+      <c r="E43" s="309" t="str">
         <f>E2</f>
         <v>Class Standing</v>
       </c>
-      <c r="F43" s="315"/>
-      <c r="G43" s="315"/>
-      <c r="H43" s="315"/>
-      <c r="I43" s="315"/>
-      <c r="J43" s="315"/>
-      <c r="K43" s="316"/>
-      <c r="L43" s="316"/>
-      <c r="M43" s="316"/>
-      <c r="N43" s="316"/>
-      <c r="O43" s="316"/>
-      <c r="P43" s="304"/>
-      <c r="Q43" s="315" t="str">
+      <c r="F43" s="309"/>
+      <c r="G43" s="309"/>
+      <c r="H43" s="309"/>
+      <c r="I43" s="309"/>
+      <c r="J43" s="309"/>
+      <c r="K43" s="310"/>
+      <c r="L43" s="310"/>
+      <c r="M43" s="310"/>
+      <c r="N43" s="310"/>
+      <c r="O43" s="310"/>
+      <c r="P43" s="311"/>
+      <c r="Q43" s="309" t="str">
         <f>Q2</f>
         <v>Laboratory</v>
       </c>
-      <c r="R43" s="316"/>
-      <c r="S43" s="316"/>
-      <c r="T43" s="316"/>
-      <c r="U43" s="316"/>
-      <c r="V43" s="316"/>
-      <c r="W43" s="316"/>
-      <c r="X43" s="316"/>
-      <c r="Y43" s="316"/>
-      <c r="Z43" s="316"/>
-      <c r="AA43" s="316"/>
-      <c r="AB43" s="304"/>
-      <c r="AC43" s="352" t="s">
+      <c r="R43" s="310"/>
+      <c r="S43" s="310"/>
+      <c r="T43" s="310"/>
+      <c r="U43" s="310"/>
+      <c r="V43" s="310"/>
+      <c r="W43" s="310"/>
+      <c r="X43" s="310"/>
+      <c r="Y43" s="310"/>
+      <c r="Z43" s="310"/>
+      <c r="AA43" s="310"/>
+      <c r="AB43" s="311"/>
+      <c r="AC43" s="318" t="s">
         <v>98</v>
       </c>
-      <c r="AD43" s="353"/>
+      <c r="AD43" s="319"/>
       <c r="AE43" s="375" t="str">
         <f>AE2</f>
         <v>RAW SCORE</v>
       </c>
-      <c r="AF43" s="347" t="s">
+      <c r="AF43" s="361" t="s">
         <v>99</v>
       </c>
-      <c r="AG43" s="298" t="s">
+      <c r="AG43" s="363" t="s">
         <v>100</v>
       </c>
       <c r="AH43" s="62"/>
@@ -35496,90 +35496,90 @@
       <c r="AL43" s="62"/>
     </row>
     <row r="44" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="345" t="str">
+      <c r="A44" s="339" t="str">
         <f>A3</f>
         <v>INTRODUCTION TO COMPUTER PROGRAMMING</v>
       </c>
-      <c r="B44" s="346"/>
-      <c r="C44" s="346"/>
-      <c r="D44" s="346"/>
-      <c r="E44" s="303" t="s">
+      <c r="B44" s="340"/>
+      <c r="C44" s="340"/>
+      <c r="D44" s="340"/>
+      <c r="E44" s="312" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="303" t="s">
+      <c r="F44" s="312" t="s">
         <v>102</v>
       </c>
-      <c r="G44" s="303" t="s">
+      <c r="G44" s="312" t="s">
         <v>103</v>
       </c>
-      <c r="H44" s="303" t="s">
+      <c r="H44" s="312" t="s">
         <v>104</v>
       </c>
-      <c r="I44" s="303" t="s">
+      <c r="I44" s="312" t="s">
         <v>105</v>
       </c>
-      <c r="J44" s="303" t="s">
+      <c r="J44" s="312" t="s">
         <v>106</v>
       </c>
-      <c r="K44" s="303" t="s">
+      <c r="K44" s="312" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="303" t="s">
+      <c r="L44" s="312" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="303" t="s">
+      <c r="M44" s="312" t="s">
         <v>109</v>
       </c>
-      <c r="N44" s="303" t="s">
+      <c r="N44" s="312" t="s">
         <v>0</v>
       </c>
-      <c r="O44" s="340" t="s">
+      <c r="O44" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="P44" s="311" t="s">
+      <c r="P44" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="Q44" s="303" t="s">
+      <c r="Q44" s="312" t="s">
         <v>112</v>
       </c>
-      <c r="R44" s="303" t="s">
+      <c r="R44" s="312" t="s">
         <v>113</v>
       </c>
-      <c r="S44" s="303" t="s">
+      <c r="S44" s="312" t="s">
         <v>114</v>
       </c>
-      <c r="T44" s="303" t="s">
+      <c r="T44" s="312" t="s">
         <v>115</v>
       </c>
-      <c r="U44" s="303" t="s">
+      <c r="U44" s="312" t="s">
         <v>116</v>
       </c>
-      <c r="V44" s="303" t="s">
+      <c r="V44" s="312" t="s">
         <v>117</v>
       </c>
-      <c r="W44" s="303" t="s">
+      <c r="W44" s="312" t="s">
         <v>118</v>
       </c>
-      <c r="X44" s="303" t="s">
+      <c r="X44" s="312" t="s">
         <v>119</v>
       </c>
-      <c r="Y44" s="303" t="s">
+      <c r="Y44" s="312" t="s">
         <v>120</v>
       </c>
-      <c r="Z44" s="303" t="s">
+      <c r="Z44" s="312" t="s">
         <v>121</v>
       </c>
-      <c r="AA44" s="340" t="s">
+      <c r="AA44" s="329" t="s">
         <v>110</v>
       </c>
-      <c r="AB44" s="311" t="s">
+      <c r="AB44" s="306" t="s">
         <v>111</v>
       </c>
-      <c r="AC44" s="354"/>
-      <c r="AD44" s="355"/>
+      <c r="AC44" s="320"/>
+      <c r="AD44" s="321"/>
       <c r="AE44" s="375"/>
-      <c r="AF44" s="347"/>
-      <c r="AG44" s="298"/>
+      <c r="AF44" s="361"/>
+      <c r="AG44" s="363"/>
       <c r="AH44" s="62"/>
       <c r="AI44" s="62"/>
       <c r="AJ44" s="62"/>
@@ -35587,40 +35587,40 @@
       <c r="AL44" s="62"/>
     </row>
     <row r="45" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="323" t="str">
+      <c r="A45" s="334" t="str">
         <f>A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="B45" s="324"/>
-      <c r="C45" s="325"/>
+      <c r="B45" s="335"/>
+      <c r="C45" s="336"/>
       <c r="D45" s="71" t="str">
         <f>D4</f>
         <v>M303</v>
       </c>
-      <c r="E45" s="303"/>
-      <c r="F45" s="303"/>
-      <c r="G45" s="303"/>
-      <c r="H45" s="303"/>
-      <c r="I45" s="303"/>
-      <c r="J45" s="303"/>
-      <c r="K45" s="303"/>
-      <c r="L45" s="303"/>
-      <c r="M45" s="303"/>
-      <c r="N45" s="303"/>
-      <c r="O45" s="340"/>
-      <c r="P45" s="311"/>
-      <c r="Q45" s="304"/>
-      <c r="R45" s="304"/>
-      <c r="S45" s="304"/>
-      <c r="T45" s="304"/>
-      <c r="U45" s="303"/>
-      <c r="V45" s="303"/>
-      <c r="W45" s="304"/>
-      <c r="X45" s="304"/>
-      <c r="Y45" s="304"/>
-      <c r="Z45" s="304"/>
-      <c r="AA45" s="341"/>
-      <c r="AB45" s="312"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="312"/>
+      <c r="G45" s="312"/>
+      <c r="H45" s="312"/>
+      <c r="I45" s="312"/>
+      <c r="J45" s="312"/>
+      <c r="K45" s="312"/>
+      <c r="L45" s="312"/>
+      <c r="M45" s="312"/>
+      <c r="N45" s="312"/>
+      <c r="O45" s="329"/>
+      <c r="P45" s="306"/>
+      <c r="Q45" s="311"/>
+      <c r="R45" s="311"/>
+      <c r="S45" s="311"/>
+      <c r="T45" s="311"/>
+      <c r="U45" s="312"/>
+      <c r="V45" s="312"/>
+      <c r="W45" s="311"/>
+      <c r="X45" s="311"/>
+      <c r="Y45" s="311"/>
+      <c r="Z45" s="311"/>
+      <c r="AA45" s="330"/>
+      <c r="AB45" s="307"/>
       <c r="AC45" s="68" t="s">
         <v>122</v>
       </c>
@@ -35628,8 +35628,8 @@
         <v>123</v>
       </c>
       <c r="AE45" s="375"/>
-      <c r="AF45" s="347"/>
-      <c r="AG45" s="298"/>
+      <c r="AF45" s="361"/>
+      <c r="AG45" s="363"/>
       <c r="AH45" s="62"/>
       <c r="AI45" s="62"/>
       <c r="AJ45" s="62"/>
@@ -35637,13 +35637,13 @@
       <c r="AL45" s="62"/>
     </row>
     <row r="46" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="323" t="str">
+      <c r="A46" s="334" t="str">
         <f>A5</f>
         <v>2 Trimester SY 2016-2017</v>
       </c>
-      <c r="B46" s="324"/>
-      <c r="C46" s="325"/>
-      <c r="D46" s="325"/>
+      <c r="B46" s="335"/>
+      <c r="C46" s="336"/>
+      <c r="D46" s="336"/>
       <c r="E46" s="57" t="str">
         <f t="shared" ref="E46:N47" si="5">IF(E5="","",E5)</f>
         <v/>
@@ -35684,8 +35684,8 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O46" s="340"/>
-      <c r="P46" s="311"/>
+      <c r="O46" s="329"/>
+      <c r="P46" s="306"/>
       <c r="Q46" s="57" t="str">
         <f>IF(Q5="","",Q5)</f>
         <v/>
@@ -35726,16 +35726,16 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="AA46" s="341"/>
-      <c r="AB46" s="312"/>
+      <c r="AA46" s="330"/>
+      <c r="AB46" s="307"/>
       <c r="AC46" s="57" t="str">
         <f>IF(AC5="","",AC5)</f>
         <v/>
       </c>
-      <c r="AD46" s="349"/>
+      <c r="AD46" s="322"/>
       <c r="AE46" s="375"/>
-      <c r="AF46" s="347"/>
-      <c r="AG46" s="298"/>
+      <c r="AF46" s="361"/>
+      <c r="AG46" s="363"/>
       <c r="AH46" s="62"/>
       <c r="AI46" s="62"/>
       <c r="AJ46" s="62"/>
@@ -35743,111 +35743,111 @@
       <c r="AL46" s="62"/>
     </row>
     <row r="47" spans="1:38" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="359" t="str">
+      <c r="A47" s="341" t="str">
         <f>A6</f>
         <v>Inst/Prof:Leonard Prim Francis G. Reyes</v>
       </c>
-      <c r="B47" s="316"/>
-      <c r="C47" s="304"/>
-      <c r="D47" s="304"/>
-      <c r="E47" s="317" t="str">
+      <c r="B47" s="310"/>
+      <c r="C47" s="311"/>
+      <c r="D47" s="311"/>
+      <c r="E47" s="302" t="str">
         <f>IF(E6="","",E6)</f>
         <v/>
       </c>
-      <c r="F47" s="317" t="str">
+      <c r="F47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="G47" s="317" t="str">
+      <c r="G47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H47" s="317" t="str">
+      <c r="H47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I47" s="317" t="str">
+      <c r="I47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J47" s="317" t="str">
+      <c r="J47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K47" s="317" t="str">
+      <c r="K47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L47" s="317" t="str">
+      <c r="L47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M47" s="317" t="str">
+      <c r="M47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N47" s="317" t="str">
+      <c r="N47" s="302" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="O47" s="369" t="str">
+      <c r="O47" s="304" t="str">
         <f>O6</f>
         <v/>
       </c>
-      <c r="P47" s="311"/>
-      <c r="Q47" s="317" t="str">
+      <c r="P47" s="306"/>
+      <c r="Q47" s="302" t="str">
         <f t="shared" ref="Q47:Z47" si="7">IF(Q6="","",Q6)</f>
         <v/>
       </c>
-      <c r="R47" s="317" t="str">
+      <c r="R47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="S47" s="317" t="str">
+      <c r="S47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="T47" s="317" t="str">
+      <c r="T47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="U47" s="317" t="str">
+      <c r="U47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="V47" s="317" t="str">
+      <c r="V47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W47" s="317" t="str">
+      <c r="W47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X47" s="317" t="str">
+      <c r="X47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Y47" s="317" t="str">
+      <c r="Y47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z47" s="317" t="str">
+      <c r="Z47" s="302" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="AA47" s="369" t="str">
+      <c r="AA47" s="304" t="str">
         <f>AA6</f>
         <v/>
       </c>
-      <c r="AB47" s="312"/>
-      <c r="AC47" s="308">
+      <c r="AB47" s="307"/>
+      <c r="AC47" s="371">
         <f>AC6</f>
         <v>40634</v>
       </c>
-      <c r="AD47" s="350"/>
+      <c r="AD47" s="323"/>
       <c r="AE47" s="375"/>
-      <c r="AF47" s="347"/>
-      <c r="AG47" s="298"/>
+      <c r="AF47" s="361"/>
+      <c r="AG47" s="363"/>
       <c r="AH47" s="62"/>
       <c r="AI47" s="62"/>
       <c r="AJ47" s="62"/>
@@ -35855,45 +35855,45 @@
       <c r="AL47" s="62"/>
     </row>
     <row r="48" spans="1:38" ht="13.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="362" t="s">
+      <c r="A48" s="344" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="363"/>
-      <c r="C48" s="336" t="s">
+      <c r="B48" s="345"/>
+      <c r="C48" s="348" t="s">
         <v>125</v>
       </c>
-      <c r="D48" s="326" t="s">
+      <c r="D48" s="337" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="317"/>
-      <c r="F48" s="317"/>
-      <c r="G48" s="317"/>
-      <c r="H48" s="317"/>
-      <c r="I48" s="317"/>
-      <c r="J48" s="317"/>
-      <c r="K48" s="317"/>
-      <c r="L48" s="317"/>
-      <c r="M48" s="317"/>
-      <c r="N48" s="317"/>
-      <c r="O48" s="369"/>
-      <c r="P48" s="311"/>
-      <c r="Q48" s="317"/>
-      <c r="R48" s="317"/>
-      <c r="S48" s="317"/>
-      <c r="T48" s="317"/>
-      <c r="U48" s="317"/>
-      <c r="V48" s="317"/>
-      <c r="W48" s="317"/>
-      <c r="X48" s="317"/>
-      <c r="Y48" s="317"/>
-      <c r="Z48" s="317"/>
-      <c r="AA48" s="369"/>
-      <c r="AB48" s="312"/>
-      <c r="AC48" s="309"/>
-      <c r="AD48" s="350"/>
+      <c r="E48" s="302"/>
+      <c r="F48" s="302"/>
+      <c r="G48" s="302"/>
+      <c r="H48" s="302"/>
+      <c r="I48" s="302"/>
+      <c r="J48" s="302"/>
+      <c r="K48" s="302"/>
+      <c r="L48" s="302"/>
+      <c r="M48" s="302"/>
+      <c r="N48" s="302"/>
+      <c r="O48" s="304"/>
+      <c r="P48" s="306"/>
+      <c r="Q48" s="302"/>
+      <c r="R48" s="302"/>
+      <c r="S48" s="302"/>
+      <c r="T48" s="302"/>
+      <c r="U48" s="302"/>
+      <c r="V48" s="302"/>
+      <c r="W48" s="302"/>
+      <c r="X48" s="302"/>
+      <c r="Y48" s="302"/>
+      <c r="Z48" s="302"/>
+      <c r="AA48" s="304"/>
+      <c r="AB48" s="307"/>
+      <c r="AC48" s="372"/>
+      <c r="AD48" s="323"/>
       <c r="AE48" s="375"/>
-      <c r="AF48" s="347"/>
-      <c r="AG48" s="298"/>
+      <c r="AF48" s="361"/>
+      <c r="AG48" s="363"/>
       <c r="AH48" s="55"/>
       <c r="AI48" s="55"/>
       <c r="AJ48" s="55"/>
@@ -35901,39 +35901,39 @@
       <c r="AL48" s="55"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A49" s="364"/>
-      <c r="B49" s="365"/>
-      <c r="C49" s="337"/>
-      <c r="D49" s="327"/>
-      <c r="E49" s="318"/>
-      <c r="F49" s="318"/>
-      <c r="G49" s="318"/>
-      <c r="H49" s="318"/>
-      <c r="I49" s="318"/>
-      <c r="J49" s="318"/>
-      <c r="K49" s="318"/>
-      <c r="L49" s="318"/>
-      <c r="M49" s="318"/>
-      <c r="N49" s="318"/>
-      <c r="O49" s="370"/>
-      <c r="P49" s="314"/>
-      <c r="Q49" s="318"/>
-      <c r="R49" s="318"/>
-      <c r="S49" s="318"/>
-      <c r="T49" s="318"/>
-      <c r="U49" s="318"/>
-      <c r="V49" s="318"/>
-      <c r="W49" s="318"/>
-      <c r="X49" s="318"/>
-      <c r="Y49" s="318"/>
-      <c r="Z49" s="318"/>
-      <c r="AA49" s="370"/>
-      <c r="AB49" s="313"/>
-      <c r="AC49" s="310"/>
-      <c r="AD49" s="351"/>
+      <c r="A49" s="346"/>
+      <c r="B49" s="347"/>
+      <c r="C49" s="349"/>
+      <c r="D49" s="338"/>
+      <c r="E49" s="303"/>
+      <c r="F49" s="303"/>
+      <c r="G49" s="303"/>
+      <c r="H49" s="303"/>
+      <c r="I49" s="303"/>
+      <c r="J49" s="303"/>
+      <c r="K49" s="303"/>
+      <c r="L49" s="303"/>
+      <c r="M49" s="303"/>
+      <c r="N49" s="303"/>
+      <c r="O49" s="305"/>
+      <c r="P49" s="374"/>
+      <c r="Q49" s="303"/>
+      <c r="R49" s="303"/>
+      <c r="S49" s="303"/>
+      <c r="T49" s="303"/>
+      <c r="U49" s="303"/>
+      <c r="V49" s="303"/>
+      <c r="W49" s="303"/>
+      <c r="X49" s="303"/>
+      <c r="Y49" s="303"/>
+      <c r="Z49" s="303"/>
+      <c r="AA49" s="305"/>
+      <c r="AB49" s="308"/>
+      <c r="AC49" s="373"/>
+      <c r="AD49" s="324"/>
       <c r="AE49" s="376"/>
-      <c r="AF49" s="348"/>
-      <c r="AG49" s="299"/>
+      <c r="AF49" s="362"/>
+      <c r="AG49" s="364"/>
     </row>
     <row r="50" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="58" t="s">
@@ -37126,8 +37126,8 @@
         <f>CRS!U66</f>
         <v/>
       </c>
-      <c r="AH66" s="373"/>
-      <c r="AI66" s="371" t="s">
+      <c r="AH66" s="300"/>
+      <c r="AI66" s="298" t="s">
         <v>127</v>
       </c>
     </row>
@@ -37200,8 +37200,8 @@
         <f>CRS!U67</f>
         <v/>
       </c>
-      <c r="AH67" s="374"/>
-      <c r="AI67" s="372"/>
+      <c r="AH67" s="301"/>
+      <c r="AI67" s="299"/>
     </row>
     <row r="68" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="56" t="s">
@@ -37272,8 +37272,8 @@
         <f>CRS!U68</f>
         <v/>
       </c>
-      <c r="AH68" s="374"/>
-      <c r="AI68" s="372"/>
+      <c r="AH68" s="301"/>
+      <c r="AI68" s="299"/>
     </row>
     <row r="69" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="56" t="s">
@@ -37344,8 +37344,8 @@
         <f>CRS!U69</f>
         <v/>
       </c>
-      <c r="AH69" s="374"/>
-      <c r="AI69" s="372"/>
+      <c r="AH69" s="301"/>
+      <c r="AI69" s="299"/>
     </row>
     <row r="70" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="56" t="s">
@@ -37416,8 +37416,8 @@
         <f>CRS!U70</f>
         <v/>
       </c>
-      <c r="AH70" s="374"/>
-      <c r="AI70" s="372"/>
+      <c r="AH70" s="301"/>
+      <c r="AI70" s="299"/>
     </row>
     <row r="71" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="56" t="s">
@@ -37488,8 +37488,8 @@
         <f>CRS!U71</f>
         <v/>
       </c>
-      <c r="AH71" s="374"/>
-      <c r="AI71" s="372"/>
+      <c r="AH71" s="301"/>
+      <c r="AI71" s="299"/>
     </row>
     <row r="72" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="56" t="s">
@@ -37560,8 +37560,8 @@
         <f>CRS!U72</f>
         <v/>
       </c>
-      <c r="AH72" s="374"/>
-      <c r="AI72" s="372"/>
+      <c r="AH72" s="301"/>
+      <c r="AI72" s="299"/>
     </row>
     <row r="73" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="56" t="s">
@@ -37632,8 +37632,8 @@
         <f>CRS!U73</f>
         <v/>
       </c>
-      <c r="AH73" s="374"/>
-      <c r="AI73" s="372"/>
+      <c r="AH73" s="301"/>
+      <c r="AI73" s="299"/>
     </row>
     <row r="74" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="56" t="s">
@@ -37704,8 +37704,8 @@
         <f>CRS!U74</f>
         <v/>
       </c>
-      <c r="AH74" s="374"/>
-      <c r="AI74" s="372"/>
+      <c r="AH74" s="301"/>
+      <c r="AI74" s="299"/>
     </row>
     <row r="75" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="56" t="s">
@@ -37776,8 +37776,8 @@
         <f>CRS!U75</f>
         <v/>
       </c>
-      <c r="AH75" s="374"/>
-      <c r="AI75" s="372"/>
+      <c r="AH75" s="301"/>
+      <c r="AI75" s="299"/>
     </row>
     <row r="76" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="56" t="s">
@@ -37848,8 +37848,8 @@
         <f>CRS!U76</f>
         <v/>
       </c>
-      <c r="AH76" s="374"/>
-      <c r="AI76" s="372"/>
+      <c r="AH76" s="301"/>
+      <c r="AI76" s="299"/>
     </row>
     <row r="77" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="56" t="s">
@@ -37920,8 +37920,8 @@
         <f>CRS!U77</f>
         <v/>
       </c>
-      <c r="AH77" s="374"/>
-      <c r="AI77" s="372"/>
+      <c r="AH77" s="301"/>
+      <c r="AI77" s="299"/>
     </row>
     <row r="78" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="56" t="s">
@@ -37992,8 +37992,8 @@
         <f>CRS!U78</f>
         <v/>
       </c>
-      <c r="AH78" s="374"/>
-      <c r="AI78" s="372"/>
+      <c r="AH78" s="301"/>
+      <c r="AI78" s="299"/>
     </row>
     <row r="79" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="56" t="s">
@@ -38064,8 +38064,8 @@
         <f>CRS!U79</f>
         <v/>
       </c>
-      <c r="AH79" s="374"/>
-      <c r="AI79" s="372"/>
+      <c r="AH79" s="301"/>
+      <c r="AI79" s="299"/>
     </row>
     <row r="80" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="56" t="s">
@@ -38136,8 +38136,8 @@
         <f>CRS!U80</f>
         <v/>
       </c>
-      <c r="AH80" s="374"/>
-      <c r="AI80" s="372"/>
+      <c r="AH80" s="301"/>
+      <c r="AI80" s="299"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
@@ -38417,6 +38417,112 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="r9GU55Q6M2zTlwa014WpkfKiky8Sb8v4KLpKizRfX9cdBMIz1ysRsotcKQrpvBSarNV9EJ4HGzIGqk6p3/Mr3A==" saltValue="54XUZU5JGZ6/eLh4J4iIXA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="130">
+    <mergeCell ref="AI66:AI80"/>
+    <mergeCell ref="AA47:AA49"/>
+    <mergeCell ref="AC47:AC49"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="AH66:AH80"/>
+    <mergeCell ref="U47:U49"/>
+    <mergeCell ref="V47:V49"/>
+    <mergeCell ref="W47:W49"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="Q47:Q49"/>
+    <mergeCell ref="AB44:AB49"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="AD46:AD49"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="V44:V45"/>
+    <mergeCell ref="W44:W45"/>
+    <mergeCell ref="X44:X45"/>
+    <mergeCell ref="Y44:Y45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="X47:X49"/>
+    <mergeCell ref="Y47:Y49"/>
+    <mergeCell ref="Z47:Z49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="L47:L49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="AI26:AI40"/>
+    <mergeCell ref="A42:D43"/>
+    <mergeCell ref="E42:AG42"/>
+    <mergeCell ref="E43:P43"/>
+    <mergeCell ref="Q43:AB43"/>
+    <mergeCell ref="AC43:AD44"/>
+    <mergeCell ref="AE43:AE49"/>
+    <mergeCell ref="AF43:AF49"/>
+    <mergeCell ref="AG43:AG49"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="S47:S49"/>
+    <mergeCell ref="T47:T49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="F47:F49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="I47:I49"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="Z44:Z45"/>
+    <mergeCell ref="AA44:AA46"/>
+    <mergeCell ref="P44:P49"/>
+    <mergeCell ref="Q44:Q45"/>
+    <mergeCell ref="R44:R45"/>
+    <mergeCell ref="S44:S45"/>
+    <mergeCell ref="T44:T45"/>
+    <mergeCell ref="U44:U45"/>
+    <mergeCell ref="AH26:AH40"/>
+    <mergeCell ref="AD5:AD8"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="Y6:Y8"/>
+    <mergeCell ref="Z6:Z8"/>
+    <mergeCell ref="AA6:AA8"/>
+    <mergeCell ref="AC6:AC8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="V6:V8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="M6:M8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="P3:P8"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="AE2:AE8"/>
     <mergeCell ref="AF2:AF8"/>
     <mergeCell ref="AG2:AG8"/>
@@ -38441,112 +38547,6 @@
     <mergeCell ref="T3:T4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="T6:T8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="L6:L8"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="P3:P8"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="AD5:AD8"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="X6:X8"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="Z6:Z8"/>
-    <mergeCell ref="AA6:AA8"/>
-    <mergeCell ref="AC6:AC8"/>
-    <mergeCell ref="U6:U8"/>
-    <mergeCell ref="V6:V8"/>
-    <mergeCell ref="W6:W8"/>
-    <mergeCell ref="M6:M8"/>
-    <mergeCell ref="N6:N8"/>
-    <mergeCell ref="Z44:Z45"/>
-    <mergeCell ref="AA44:AA46"/>
-    <mergeCell ref="P44:P49"/>
-    <mergeCell ref="Q44:Q45"/>
-    <mergeCell ref="R44:R45"/>
-    <mergeCell ref="S44:S45"/>
-    <mergeCell ref="T44:T45"/>
-    <mergeCell ref="U44:U45"/>
-    <mergeCell ref="AH26:AH40"/>
-    <mergeCell ref="AI26:AI40"/>
-    <mergeCell ref="A42:D43"/>
-    <mergeCell ref="E42:AG42"/>
-    <mergeCell ref="E43:P43"/>
-    <mergeCell ref="Q43:AB43"/>
-    <mergeCell ref="AC43:AD44"/>
-    <mergeCell ref="AE43:AE49"/>
-    <mergeCell ref="AF43:AF49"/>
-    <mergeCell ref="AG43:AG49"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="S47:S49"/>
-    <mergeCell ref="T47:T49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="F47:F49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="I47:I49"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="Q47:Q49"/>
-    <mergeCell ref="AB44:AB49"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="AD46:AD49"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="V44:V45"/>
-    <mergeCell ref="W44:W45"/>
-    <mergeCell ref="X44:X45"/>
-    <mergeCell ref="Y44:Y45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="X47:X49"/>
-    <mergeCell ref="Y47:Y49"/>
-    <mergeCell ref="Z47:Z49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="L47:L49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="N47:N49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="AI66:AI80"/>
-    <mergeCell ref="AA47:AA49"/>
-    <mergeCell ref="AC47:AC49"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="AH66:AH80"/>
-    <mergeCell ref="U47:U49"/>
-    <mergeCell ref="V47:V49"/>
-    <mergeCell ref="W47:W49"/>
   </mergeCells>
   <dataValidations count="21">
     <dataValidation type="whole" operator="lessThanOrEqual" allowBlank="1" showErrorMessage="1" errorTitle="Data Entry Error" error="Invalid Score" sqref="E9:E40 E50:E80">
@@ -38706,55 +38706,55 @@
         <f>'INITIAL INPUT'!D12</f>
         <v>CITCS INTL 3</v>
       </c>
-      <c r="C11" s="385" t="str">
+      <c r="C11" s="381" t="str">
         <f>'INITIAL INPUT'!G12</f>
         <v>ICS2</v>
       </c>
-      <c r="D11" s="386"/>
-      <c r="E11" s="386"/>
+      <c r="D11" s="382"/>
+      <c r="E11" s="382"/>
       <c r="F11" s="163"/>
-      <c r="G11" s="387" t="str">
+      <c r="G11" s="383" t="str">
         <f>CRS!A4</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="H11" s="388"/>
-      <c r="I11" s="388"/>
-      <c r="J11" s="388"/>
-      <c r="K11" s="388"/>
-      <c r="L11" s="388"/>
-      <c r="M11" s="388"/>
+      <c r="H11" s="384"/>
+      <c r="I11" s="384"/>
+      <c r="J11" s="384"/>
+      <c r="K11" s="384"/>
+      <c r="L11" s="384"/>
+      <c r="M11" s="384"/>
       <c r="N11" s="164"/>
-      <c r="O11" s="389" t="str">
+      <c r="O11" s="385" t="str">
         <f>CONCATENATE('INITIAL INPUT'!G16," Trimester")</f>
         <v>2 Trimester</v>
       </c>
-      <c r="P11" s="386"/>
+      <c r="P11" s="382"/>
     </row>
     <row r="12" spans="1:34" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="379" t="s">
+      <c r="C12" s="386" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="372"/>
-      <c r="E12" s="372"/>
+      <c r="D12" s="299"/>
+      <c r="E12" s="299"/>
       <c r="F12" s="163"/>
-      <c r="G12" s="380" t="s">
+      <c r="G12" s="387" t="s">
         <v>141</v>
       </c>
-      <c r="H12" s="372"/>
-      <c r="I12" s="372"/>
-      <c r="J12" s="372"/>
-      <c r="K12" s="372"/>
-      <c r="L12" s="372"/>
-      <c r="M12" s="372"/>
+      <c r="H12" s="299"/>
+      <c r="I12" s="299"/>
+      <c r="J12" s="299"/>
+      <c r="K12" s="299"/>
+      <c r="L12" s="299"/>
+      <c r="M12" s="299"/>
       <c r="N12" s="106"/>
-      <c r="O12" s="381" t="str">
+      <c r="O12" s="388" t="str">
         <f>CONCATENATE("SY ",'INITIAL INPUT'!D16)</f>
         <v>SY 2016-2017</v>
       </c>
-      <c r="P12" s="382"/>
+      <c r="P12" s="389"/>
       <c r="Q12" s="128"/>
       <c r="R12" s="128"/>
       <c r="S12" s="128"/>
@@ -38832,10 +38832,10 @@
         <v>145</v>
       </c>
       <c r="N14" s="136"/>
-      <c r="O14" s="383" t="s">
+      <c r="O14" s="379" t="s">
         <v>133</v>
       </c>
-      <c r="P14" s="384"/>
+      <c r="P14" s="380"/>
       <c r="Q14" s="137"/>
       <c r="R14" s="137"/>
       <c r="S14" s="137"/>
@@ -41107,55 +41107,55 @@
         <f>A11</f>
         <v>CITCS INTL 3</v>
       </c>
-      <c r="C72" s="385" t="str">
+      <c r="C72" s="381" t="str">
         <f>C11</f>
         <v>ICS2</v>
       </c>
-      <c r="D72" s="386"/>
-      <c r="E72" s="386"/>
+      <c r="D72" s="382"/>
+      <c r="E72" s="382"/>
       <c r="F72" s="163"/>
-      <c r="G72" s="387" t="str">
+      <c r="G72" s="383" t="str">
         <f>G11</f>
         <v>WF 4:15PM-5:30PM  TTHSAT 6:45PM-8:00PM</v>
       </c>
-      <c r="H72" s="388"/>
-      <c r="I72" s="388"/>
-      <c r="J72" s="388"/>
-      <c r="K72" s="388"/>
-      <c r="L72" s="388"/>
-      <c r="M72" s="388"/>
+      <c r="H72" s="384"/>
+      <c r="I72" s="384"/>
+      <c r="J72" s="384"/>
+      <c r="K72" s="384"/>
+      <c r="L72" s="384"/>
+      <c r="M72" s="384"/>
       <c r="N72" s="164"/>
-      <c r="O72" s="389" t="str">
+      <c r="O72" s="385" t="str">
         <f>O11</f>
         <v>2 Trimester</v>
       </c>
-      <c r="P72" s="386"/>
+      <c r="P72" s="382"/>
     </row>
     <row r="73" spans="1:34" s="127" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="126" t="s">
         <v>14</v>
       </c>
-      <c r="C73" s="379" t="s">
+      <c r="C73" s="386" t="s">
         <v>15</v>
       </c>
-      <c r="D73" s="372"/>
-      <c r="E73" s="372"/>
+      <c r="D73" s="299"/>
+      <c r="E73" s="299"/>
       <c r="F73" s="163"/>
-      <c r="G73" s="380" t="s">
+      <c r="G73" s="387" t="s">
         <v>141</v>
       </c>
-      <c r="H73" s="372"/>
-      <c r="I73" s="372"/>
-      <c r="J73" s="372"/>
-      <c r="K73" s="372"/>
-      <c r="L73" s="372"/>
-      <c r="M73" s="372"/>
+      <c r="H73" s="299"/>
+      <c r="I73" s="299"/>
+      <c r="J73" s="299"/>
+      <c r="K73" s="299"/>
+      <c r="L73" s="299"/>
+      <c r="M73" s="299"/>
       <c r="N73" s="106"/>
-      <c r="O73" s="381" t="str">
+      <c r="O73" s="388" t="str">
         <f>O12</f>
         <v>SY 2016-2017</v>
       </c>
-      <c r="P73" s="382"/>
+      <c r="P73" s="389"/>
       <c r="Q73" s="128"/>
       <c r="R73" s="128"/>
       <c r="S73" s="128"/>
@@ -41233,10 +41233,10 @@
         <v>145</v>
       </c>
       <c r="N75" s="136"/>
-      <c r="O75" s="383" t="s">
+      <c r="O75" s="379" t="s">
         <v>133</v>
       </c>
-      <c r="P75" s="384"/>
+      <c r="P75" s="380"/>
       <c r="Q75" s="137"/>
       <c r="R75" s="137"/>
       <c r="S75" s="137"/>
@@ -43594,18 +43594,60 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="rr4KBu2AEFa/KySpnCO0Ck38T/nOom3i2FxuhAYlP4JgnWP0E17tEsMn8PpgA+OHXpLmFfOJ659NttGsaGyyCQ==" saltValue="bJvSSGehZYl6UeN9dD1Evw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="78">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="G11:M11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="G12:M12"/>
-    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="O101:P101"/>
+    <mergeCell ref="O102:P102"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="O86:P86"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="G73:M73"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="O82:P82"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="O77:P77"/>
+    <mergeCell ref="O78:P78"/>
+    <mergeCell ref="O79:P79"/>
+    <mergeCell ref="O80:P80"/>
+    <mergeCell ref="O81:P81"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="G72:M72"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="O42:P42"/>
     <mergeCell ref="O31:P31"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
@@ -43618,60 +43660,18 @@
     <mergeCell ref="O28:P28"/>
     <mergeCell ref="O29:P29"/>
     <mergeCell ref="O30:P30"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="G72:M72"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="O77:P77"/>
-    <mergeCell ref="O78:P78"/>
-    <mergeCell ref="O79:P79"/>
-    <mergeCell ref="O80:P80"/>
-    <mergeCell ref="O81:P81"/>
-    <mergeCell ref="O82:P82"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="G73:M73"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="O86:P86"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O107:P107"/>
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="O99:P99"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="O101:P101"/>
-    <mergeCell ref="O102:P102"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="O104:P104"/>
-    <mergeCell ref="O105:P105"/>
-    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="G11:M11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="G12:M12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
   </mergeCells>
   <conditionalFormatting sqref="N15:N46 N76:N107">
     <cfRule type="cellIs" priority="7" stopIfTrue="1" operator="notBetween">
